--- a/data/CoreData.xlsx
+++ b/data/CoreData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24700" windowHeight="15600" activeTab="1"/>
+    <workbookView xWindow="7540" yWindow="0" windowWidth="24500" windowHeight="15360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="treatments.csv" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="48">
   <si>
     <t>Treatment</t>
   </si>
@@ -158,6 +158,12 @@
   </si>
   <si>
     <t>Time_set_start_UTC</t>
+  </si>
+  <si>
+    <t>Ambient4</t>
+  </si>
+  <si>
+    <t>Ambient22</t>
   </si>
 </sst>
 </file>
@@ -820,11 +826,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -850,35 +856,29 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C3">
-        <v>22</v>
-      </c>
-      <c r="D3">
-        <v>1162.7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C4">
         <v>22</v>
       </c>
-      <c r="D4">
-        <v>1253.8</v>
-      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>32</v>
@@ -887,12 +887,12 @@
         <v>22</v>
       </c>
       <c r="D5">
-        <v>1139.9000000000001</v>
+        <v>1162.7</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>32</v>
@@ -901,12 +901,12 @@
         <v>22</v>
       </c>
       <c r="D6">
-        <v>1185.5</v>
+        <v>1253.8</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
@@ -915,12 +915,12 @@
         <v>22</v>
       </c>
       <c r="D7">
-        <v>1231</v>
+        <v>1139.9000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
         <v>32</v>
@@ -934,35 +934,35 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9">
         <v>22</v>
       </c>
       <c r="D9">
-        <v>1162.7</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10">
         <v>22</v>
       </c>
       <c r="D10">
-        <v>1071.5</v>
+        <v>1185.5</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>33</v>
@@ -971,12 +971,12 @@
         <v>22</v>
       </c>
       <c r="D11">
-        <v>1048.7</v>
+        <v>1162.7</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>33</v>
@@ -985,12 +985,12 @@
         <v>22</v>
       </c>
       <c r="D12">
-        <v>1299.4000000000001</v>
+        <v>1071.5</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>33</v>
@@ -999,12 +999,12 @@
         <v>22</v>
       </c>
       <c r="D13">
-        <v>1139.9000000000001</v>
+        <v>1048.7</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
         <v>33</v>
@@ -1013,40 +1013,40 @@
         <v>22</v>
       </c>
       <c r="D14">
-        <v>1094.3</v>
+        <v>1299.4000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C15">
         <v>22</v>
       </c>
       <c r="D15">
-        <v>1025.9000000000001</v>
+        <v>1139.9000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C16">
         <v>22</v>
       </c>
       <c r="D16">
-        <v>1162.7</v>
+        <v>1094.3</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
         <v>35</v>
@@ -1055,12 +1055,12 @@
         <v>22</v>
       </c>
       <c r="D17">
-        <v>1299.4000000000001</v>
+        <v>1025.9000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
         <v>35</v>
@@ -1069,12 +1069,12 @@
         <v>22</v>
       </c>
       <c r="D18">
-        <v>957.5</v>
+        <v>1162.7</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
         <v>35</v>
@@ -1083,12 +1083,12 @@
         <v>22</v>
       </c>
       <c r="D19">
-        <v>1253.8</v>
+        <v>1299.4000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
         <v>35</v>
@@ -1097,40 +1097,40 @@
         <v>22</v>
       </c>
       <c r="D20">
-        <v>1094.3</v>
+        <v>957.5</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D21">
-        <v>957.5</v>
+        <v>1253.8</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D22">
-        <v>1185.5</v>
+        <v>1094.3</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B23" t="s">
         <v>32</v>
@@ -1139,12 +1139,12 @@
         <v>4</v>
       </c>
       <c r="D23">
-        <v>1094.3</v>
+        <v>957.5</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>32</v>
@@ -1153,12 +1153,12 @@
         <v>4</v>
       </c>
       <c r="D24">
-        <v>1139.9000000000001</v>
+        <v>1185.5</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
         <v>32</v>
@@ -1172,7 +1172,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
         <v>32</v>
@@ -1181,40 +1181,40 @@
         <v>4</v>
       </c>
       <c r="D26">
-        <v>1185.5</v>
+        <v>1139.9000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C27">
         <v>4</v>
       </c>
       <c r="D27">
-        <v>1242.4000000000001</v>
+        <v>1094.3</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C28">
         <v>4</v>
       </c>
       <c r="D28">
-        <v>1048.7</v>
+        <v>1185.5</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
         <v>33</v>
@@ -1223,12 +1223,12 @@
         <v>4</v>
       </c>
       <c r="D29">
-        <v>1162.7</v>
+        <v>1242.4000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B30" t="s">
         <v>33</v>
@@ -1237,12 +1237,12 @@
         <v>4</v>
       </c>
       <c r="D30">
-        <v>1139.9000000000001</v>
+        <v>1048.7</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B31" t="s">
         <v>33</v>
@@ -1251,12 +1251,12 @@
         <v>4</v>
       </c>
       <c r="D31">
-        <v>1231</v>
+        <v>1162.7</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
@@ -1265,6 +1265,34 @@
         <v>4</v>
       </c>
       <c r="D32">
+        <v>1139.9000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34">
         <v>1162.7</v>
       </c>
     </row>
@@ -1285,7 +1313,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1336,7 +1364,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1473,7 +1501,7 @@
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1610,7 +1638,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1747,7 +1775,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1884,7 +1912,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2021,7 +2049,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2158,7 +2186,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2295,7 +2323,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2432,7 +2460,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2569,7 +2597,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2706,7 +2734,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2843,7 +2871,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2980,7 +3008,7 @@
         <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3117,7 +3145,7 @@
         <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3254,7 +3282,7 @@
         <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3391,7 +3419,7 @@
         <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3528,7 +3556,7 @@
         <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3665,7 +3693,7 @@
         <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3802,7 +3830,7 @@
         <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3939,7 +3967,7 @@
         <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="137" spans="1:6">

--- a/data/CoreData.xlsx
+++ b/data/CoreData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7540" yWindow="0" windowWidth="24500" windowHeight="15360" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24740" windowHeight="15600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="treatments.csv" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="50">
   <si>
     <t>Treatment</t>
   </si>
@@ -165,13 +165,19 @@
   <si>
     <t>Ambient22</t>
   </si>
+  <si>
+    <t xml:space="preserve">10ml water added 9/10/2015 accidental </t>
+  </si>
+  <si>
+    <t xml:space="preserve">30ml water added 9/10/2015 accidental </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-409]h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -234,7 +240,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="141">
+  <cellStyleXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -376,17 +382,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="141">
+  <cellStyles count="155">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -457,6 +476,13 @@
     <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -527,6 +553,13 @@
     <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -835,8 +868,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" ht="18">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="18">
+      <c r="A1" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1309,21 +1342,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G142"/>
+  <dimension ref="A1:G214"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <pane ySplit="2" topLeftCell="A211" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A215" sqref="A215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="3"/>
+    <col min="3" max="3" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" ht="18">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="18">
+      <c r="A1" s="3" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1334,7 +1367,7 @@
       <c r="B2" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D2" t="s">
@@ -1351,13 +1384,13 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>42247</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="5">
         <v>0.72083333333333333</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3">
@@ -1368,13 +1401,13 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>42247</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="5">
         <v>0.75</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4">
@@ -1388,13 +1421,13 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>42247</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="5">
         <v>0.75</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>1</v>
       </c>
       <c r="D5">
@@ -1408,13 +1441,13 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>42247</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="5">
         <v>0.75</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>1</v>
       </c>
       <c r="D6">
@@ -1428,13 +1461,13 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>42247</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="5">
         <v>0.75</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>1</v>
       </c>
       <c r="D7">
@@ -1448,13 +1481,13 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>42247</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="5">
         <v>0.75</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>1</v>
       </c>
       <c r="D8">
@@ -1468,13 +1501,13 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>42247</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="5">
         <v>0.75</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>1</v>
       </c>
       <c r="D9">
@@ -1488,13 +1521,13 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>42247</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="5">
         <v>0.77083333333333326</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>2</v>
       </c>
       <c r="D10">
@@ -1505,13 +1538,13 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>42247</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="5">
         <v>0.8125</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>2</v>
       </c>
       <c r="D11">
@@ -1525,13 +1558,13 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>42247</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="5">
         <v>0.8125</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>2</v>
       </c>
       <c r="D12">
@@ -1545,13 +1578,13 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>42247</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="5">
         <v>0.8125</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>2</v>
       </c>
       <c r="D13">
@@ -1565,13 +1598,13 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>42247</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="5">
         <v>0.8125</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>2</v>
       </c>
       <c r="D14">
@@ -1585,13 +1618,13 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>42247</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="5">
         <v>0.8125</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>2</v>
       </c>
       <c r="D15">
@@ -1605,13 +1638,13 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>42247</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="5">
         <v>0.8125</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>2</v>
       </c>
       <c r="D16">
@@ -1625,13 +1658,13 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>42247</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="5">
         <v>0.84375</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>3</v>
       </c>
       <c r="D17">
@@ -1642,13 +1675,13 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>42247</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="5">
         <v>0.85069444444444442</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>3</v>
       </c>
       <c r="D18">
@@ -1662,13 +1695,13 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>42247</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="5">
         <v>0.85069444444444442</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>3</v>
       </c>
       <c r="D19">
@@ -1682,13 +1715,13 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>42247</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="5">
         <v>0.85069444444444442</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>3</v>
       </c>
       <c r="D20">
@@ -1702,13 +1735,13 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>42247</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="5">
         <v>0.85069444444444442</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>3</v>
       </c>
       <c r="D21">
@@ -1722,13 +1755,13 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>42247</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="5">
         <v>0.85069444444444442</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>3</v>
       </c>
       <c r="D22">
@@ -1742,13 +1775,13 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>42247</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="5">
         <v>0.85069444444444442</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>3</v>
       </c>
       <c r="D23">
@@ -1762,13 +1795,13 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>42247</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="5">
         <v>0.875</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <v>4</v>
       </c>
       <c r="D24">
@@ -1779,13 +1812,13 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <v>42247</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="5">
         <v>0.93055555555555558</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="2">
         <v>4</v>
       </c>
       <c r="D25">
@@ -1799,13 +1832,13 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>42247</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="5">
         <v>0.93055555555555558</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <v>4</v>
       </c>
       <c r="D26">
@@ -1819,13 +1852,13 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <v>42247</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="5">
         <v>0.93055555555555558</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="2">
         <v>4</v>
       </c>
       <c r="D27">
@@ -1839,13 +1872,13 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="2">
+      <c r="A28" s="1">
         <v>42247</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="5">
         <v>0.93055555555555558</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="2">
         <v>4</v>
       </c>
       <c r="D28">
@@ -1859,13 +1892,13 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="2">
+      <c r="A29" s="1">
         <v>42247</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="5">
         <v>0.93055555555555558</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="2">
         <v>4</v>
       </c>
       <c r="D29">
@@ -1879,13 +1912,13 @@
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>42247</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="5">
         <v>0.93055555555555558</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="2">
         <v>4</v>
       </c>
       <c r="D30">
@@ -1899,13 +1932,13 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <v>42247</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="5">
         <v>0.93055555555555558</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="2">
         <v>5</v>
       </c>
       <c r="D31">
@@ -1916,13 +1949,13 @@
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <v>42247</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="5">
         <v>0.93055555555555558</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="2">
         <v>5</v>
       </c>
       <c r="D32">
@@ -1936,13 +1969,13 @@
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="2">
+      <c r="A33" s="1">
         <v>42247</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="5">
         <v>0.93055555555555558</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="2">
         <v>5</v>
       </c>
       <c r="D33">
@@ -1956,13 +1989,13 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <v>42247</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="5">
         <v>0.93055555555555558</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="2">
         <v>5</v>
       </c>
       <c r="D34">
@@ -1976,13 +2009,13 @@
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="2">
+      <c r="A35" s="1">
         <v>42247</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="5">
         <v>0.93055555555555558</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="2">
         <v>5</v>
       </c>
       <c r="D35">
@@ -1996,13 +2029,13 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="2">
+      <c r="A36" s="1">
         <v>42247</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="5">
         <v>0.93055555555555558</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="2">
         <v>5</v>
       </c>
       <c r="D36">
@@ -2016,13 +2049,13 @@
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="2">
+      <c r="A37" s="1">
         <v>42247</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="5">
         <v>0.93055555555555558</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="2">
         <v>5</v>
       </c>
       <c r="D37">
@@ -2036,13 +2069,13 @@
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="2">
+      <c r="A38" s="1">
         <v>42248</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="5">
         <v>0.78055555555555545</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="2">
         <v>1</v>
       </c>
       <c r="D38">
@@ -2053,13 +2086,13 @@
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="2">
+      <c r="A39" s="1">
         <v>42248</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="5">
         <v>0.8125</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="2">
         <v>3</v>
       </c>
       <c r="D39">
@@ -2073,13 +2106,13 @@
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="2">
+      <c r="A40" s="1">
         <v>42248</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="5">
         <v>0.8125</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="2">
         <v>3</v>
       </c>
       <c r="D40">
@@ -2093,13 +2126,13 @@
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="2">
+      <c r="A41" s="1">
         <v>42248</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="5">
         <v>0.8125</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="2">
         <v>3</v>
       </c>
       <c r="D41">
@@ -2113,13 +2146,13 @@
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="2">
+      <c r="A42" s="1">
         <v>42248</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="5">
         <v>0.8125</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="2">
         <v>3</v>
       </c>
       <c r="D42">
@@ -2133,13 +2166,13 @@
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="2">
+      <c r="A43" s="1">
         <v>42248</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="5">
         <v>0.8125</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="2">
         <v>3</v>
       </c>
       <c r="D43">
@@ -2153,13 +2186,13 @@
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="2">
+      <c r="A44" s="1">
         <v>42248</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="5">
         <v>0.8125</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="2">
         <v>3</v>
       </c>
       <c r="D44">
@@ -2173,13 +2206,13 @@
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="2">
+      <c r="A45" s="1">
         <v>42248</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="5">
         <v>0.84305555555555545</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="2">
         <v>1</v>
       </c>
       <c r="D45">
@@ -2190,13 +2223,13 @@
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="2">
+      <c r="A46" s="1">
         <v>42248</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="5">
         <v>0.84722222222222232</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="2">
         <v>4</v>
       </c>
       <c r="D46">
@@ -2210,13 +2243,13 @@
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="2">
+      <c r="A47" s="1">
         <v>42248</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="5">
         <v>0.84722222222222232</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="2">
         <v>4</v>
       </c>
       <c r="D47">
@@ -2230,13 +2263,13 @@
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="2">
+      <c r="A48" s="1">
         <v>42248</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="5">
         <v>0.84722222222222232</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="2">
         <v>4</v>
       </c>
       <c r="D48">
@@ -2250,13 +2283,13 @@
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="2">
+      <c r="A49" s="1">
         <v>42248</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="5">
         <v>0.84722222222222232</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="2">
         <v>4</v>
       </c>
       <c r="D49">
@@ -2270,13 +2303,13 @@
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="2">
+      <c r="A50" s="1">
         <v>42248</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="5">
         <v>0.84722222222222232</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="2">
         <v>4</v>
       </c>
       <c r="D50">
@@ -2290,13 +2323,13 @@
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="2">
+      <c r="A51" s="1">
         <v>42248</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="5">
         <v>0.84722222222222232</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="2">
         <v>4</v>
       </c>
       <c r="D51">
@@ -2310,13 +2343,13 @@
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="2">
+      <c r="A52" s="1">
         <v>42248</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="5">
         <v>0.875</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="2">
         <v>1</v>
       </c>
       <c r="D52">
@@ -2327,13 +2360,13 @@
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="2">
+      <c r="A53" s="1">
         <v>42248</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="5">
         <v>0.90625</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="2">
         <v>5</v>
       </c>
       <c r="D53">
@@ -2347,13 +2380,13 @@
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="2">
+      <c r="A54" s="1">
         <v>42248</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="5">
         <v>0.90625</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="2">
         <v>5</v>
       </c>
       <c r="D54">
@@ -2367,13 +2400,13 @@
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="2">
+      <c r="A55" s="1">
         <v>42248</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="5">
         <v>0.90625</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="2">
         <v>5</v>
       </c>
       <c r="D55">
@@ -2387,13 +2420,13 @@
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="2">
+      <c r="A56" s="1">
         <v>42248</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="5">
         <v>0.90625</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="2">
         <v>5</v>
       </c>
       <c r="D56">
@@ -2407,13 +2440,13 @@
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="2">
+      <c r="A57" s="1">
         <v>42248</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="5">
         <v>0.90625</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="2">
         <v>5</v>
       </c>
       <c r="D57">
@@ -2427,13 +2460,13 @@
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="2">
+      <c r="A58" s="1">
         <v>42248</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58" s="5">
         <v>0.90625</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="2">
         <v>5</v>
       </c>
       <c r="D58">
@@ -2447,13 +2480,13 @@
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="2">
+      <c r="A59" s="1">
         <v>42248</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59" s="5">
         <v>0.71875</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="2">
         <v>1</v>
       </c>
       <c r="D59">
@@ -2464,13 +2497,13 @@
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="2">
+      <c r="A60" s="1">
         <v>42248</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60" s="5">
         <v>0.71875</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60" s="2">
         <v>1</v>
       </c>
       <c r="D60">
@@ -2484,13 +2517,13 @@
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="2">
+      <c r="A61" s="1">
         <v>42248</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61" s="5">
         <v>0.71875</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61" s="2">
         <v>1</v>
       </c>
       <c r="D61">
@@ -2504,13 +2537,13 @@
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="2">
+      <c r="A62" s="1">
         <v>42248</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62" s="5">
         <v>0.71875</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62" s="2">
         <v>1</v>
       </c>
       <c r="D62">
@@ -2524,13 +2557,13 @@
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="2">
+      <c r="A63" s="1">
         <v>42248</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63" s="5">
         <v>0.71875</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63" s="2">
         <v>1</v>
       </c>
       <c r="D63">
@@ -2544,13 +2577,13 @@
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="2">
+      <c r="A64" s="1">
         <v>42248</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64" s="5">
         <v>0.71875</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64" s="2">
         <v>1</v>
       </c>
       <c r="D64">
@@ -2564,13 +2597,13 @@
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="2">
+      <c r="A65" s="1">
         <v>42248</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65" s="5">
         <v>0.71875</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C65" s="2">
         <v>1</v>
       </c>
       <c r="D65">
@@ -2584,13 +2617,13 @@
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="2">
+      <c r="A66" s="1">
         <v>42248</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66" s="5">
         <v>0.74305555555555558</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C66" s="2">
         <v>1</v>
       </c>
       <c r="D66">
@@ -2601,13 +2634,13 @@
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="2">
+      <c r="A67" s="1">
         <v>42248</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67" s="5">
         <v>0.75</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C67" s="2">
         <v>2</v>
       </c>
       <c r="D67">
@@ -2621,13 +2654,13 @@
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="2">
+      <c r="A68" s="1">
         <v>42248</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68" s="5">
         <v>0.75</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C68" s="2">
         <v>2</v>
       </c>
       <c r="D68">
@@ -2641,13 +2674,13 @@
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="2">
+      <c r="A69" s="1">
         <v>42248</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69" s="5">
         <v>0.75</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C69" s="2">
         <v>2</v>
       </c>
       <c r="D69">
@@ -2661,13 +2694,13 @@
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="2">
+      <c r="A70" s="1">
         <v>42248</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70" s="5">
         <v>0.75</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C70" s="2">
         <v>2</v>
       </c>
       <c r="D70">
@@ -2681,13 +2714,13 @@
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="2">
+      <c r="A71" s="1">
         <v>42248</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71" s="5">
         <v>0.75</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C71" s="2">
         <v>2</v>
       </c>
       <c r="D71">
@@ -2701,13 +2734,13 @@
       </c>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="2">
+      <c r="A72" s="1">
         <v>42248</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72" s="5">
         <v>0.75</v>
       </c>
-      <c r="C72" s="3">
+      <c r="C72" s="2">
         <v>2</v>
       </c>
       <c r="D72">
@@ -2721,13 +2754,13 @@
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="2">
+      <c r="A73" s="1">
         <v>42250</v>
       </c>
-      <c r="B73" s="6">
+      <c r="B73" s="5">
         <v>0.75</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C73" s="2">
         <v>1</v>
       </c>
       <c r="D73">
@@ -2738,13 +2771,13 @@
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="2">
+      <c r="A74" s="1">
         <v>42250</v>
       </c>
-      <c r="B74" s="6">
+      <c r="B74" s="5">
         <v>0.77500000000000002</v>
       </c>
-      <c r="C74" s="3">
+      <c r="C74" s="2">
         <v>1</v>
       </c>
       <c r="D74">
@@ -2758,13 +2791,13 @@
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="2">
+      <c r="A75" s="1">
         <v>42250</v>
       </c>
-      <c r="B75" s="6">
+      <c r="B75" s="5">
         <v>0.77500000000000002</v>
       </c>
-      <c r="C75" s="3">
+      <c r="C75" s="2">
         <v>1</v>
       </c>
       <c r="D75">
@@ -2778,13 +2811,13 @@
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="2">
+      <c r="A76" s="1">
         <v>42250</v>
       </c>
-      <c r="B76" s="6">
+      <c r="B76" s="5">
         <v>0.77500000000000002</v>
       </c>
-      <c r="C76" s="3">
+      <c r="C76" s="2">
         <v>1</v>
       </c>
       <c r="D76">
@@ -2798,13 +2831,13 @@
       </c>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="2">
+      <c r="A77" s="1">
         <v>42250</v>
       </c>
-      <c r="B77" s="6">
+      <c r="B77" s="5">
         <v>0.77500000000000002</v>
       </c>
-      <c r="C77" s="3">
+      <c r="C77" s="2">
         <v>1</v>
       </c>
       <c r="D77">
@@ -2818,13 +2851,13 @@
       </c>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="2">
+      <c r="A78" s="1">
         <v>42250</v>
       </c>
-      <c r="B78" s="6">
+      <c r="B78" s="5">
         <v>0.77500000000000002</v>
       </c>
-      <c r="C78" s="3">
+      <c r="C78" s="2">
         <v>1</v>
       </c>
       <c r="D78">
@@ -2838,13 +2871,13 @@
       </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="2">
+      <c r="A79" s="1">
         <v>42250</v>
       </c>
-      <c r="B79" s="6">
+      <c r="B79" s="5">
         <v>0.77500000000000002</v>
       </c>
-      <c r="C79" s="3">
+      <c r="C79" s="2">
         <v>1</v>
       </c>
       <c r="D79">
@@ -2858,13 +2891,13 @@
       </c>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="2">
+      <c r="A80" s="1">
         <v>42250</v>
       </c>
-      <c r="B80" s="6">
+      <c r="B80" s="5">
         <v>0.79236111111111107</v>
       </c>
-      <c r="C80" s="3">
+      <c r="C80" s="2">
         <v>2</v>
       </c>
       <c r="D80">
@@ -2875,13 +2908,13 @@
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="2">
+      <c r="A81" s="1">
         <v>42250</v>
       </c>
-      <c r="B81" s="6">
+      <c r="B81" s="5">
         <v>0.79861111111111116</v>
       </c>
-      <c r="C81" s="3">
+      <c r="C81" s="2">
         <v>2</v>
       </c>
       <c r="D81">
@@ -2895,13 +2928,13 @@
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="2">
+      <c r="A82" s="1">
         <v>42250</v>
       </c>
-      <c r="B82" s="6">
+      <c r="B82" s="5">
         <v>0.79861111111111116</v>
       </c>
-      <c r="C82" s="3">
+      <c r="C82" s="2">
         <v>2</v>
       </c>
       <c r="D82">
@@ -2915,13 +2948,13 @@
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="2">
+      <c r="A83" s="1">
         <v>42250</v>
       </c>
-      <c r="B83" s="6">
+      <c r="B83" s="5">
         <v>0.79861111111111116</v>
       </c>
-      <c r="C83" s="3">
+      <c r="C83" s="2">
         <v>2</v>
       </c>
       <c r="D83">
@@ -2935,13 +2968,13 @@
       </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="2">
+      <c r="A84" s="1">
         <v>42250</v>
       </c>
-      <c r="B84" s="6">
+      <c r="B84" s="5">
         <v>0.79861111111111116</v>
       </c>
-      <c r="C84" s="3">
+      <c r="C84" s="2">
         <v>2</v>
       </c>
       <c r="D84">
@@ -2955,13 +2988,13 @@
       </c>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="2">
+      <c r="A85" s="1">
         <v>42250</v>
       </c>
-      <c r="B85" s="6">
+      <c r="B85" s="5">
         <v>0.79861111111111116</v>
       </c>
-      <c r="C85" s="3">
+      <c r="C85" s="2">
         <v>2</v>
       </c>
       <c r="D85">
@@ -2975,13 +3008,13 @@
       </c>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="2">
+      <c r="A86" s="1">
         <v>42250</v>
       </c>
-      <c r="B86" s="6">
+      <c r="B86" s="5">
         <v>0.79861111111111116</v>
       </c>
-      <c r="C86" s="3">
+      <c r="C86" s="2">
         <v>2</v>
       </c>
       <c r="D86">
@@ -2995,13 +3028,13 @@
       </c>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="2">
+      <c r="A87" s="1">
         <v>42250</v>
       </c>
-      <c r="B87" s="6">
+      <c r="B87" s="5">
         <v>0.81666666666666676</v>
       </c>
-      <c r="C87" s="3">
+      <c r="C87" s="2">
         <v>3</v>
       </c>
       <c r="D87">
@@ -3012,13 +3045,13 @@
       </c>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="2">
+      <c r="A88" s="1">
         <v>42250</v>
       </c>
-      <c r="B88" s="6">
+      <c r="B88" s="5">
         <v>0.85763888888888884</v>
       </c>
-      <c r="C88" s="3">
+      <c r="C88" s="2">
         <v>3</v>
       </c>
       <c r="D88">
@@ -3032,13 +3065,13 @@
       </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="2">
+      <c r="A89" s="1">
         <v>42250</v>
       </c>
-      <c r="B89" s="6">
+      <c r="B89" s="5">
         <v>0.85763888888888884</v>
       </c>
-      <c r="C89" s="3">
+      <c r="C89" s="2">
         <v>3</v>
       </c>
       <c r="D89">
@@ -3052,13 +3085,13 @@
       </c>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="2">
+      <c r="A90" s="1">
         <v>42250</v>
       </c>
-      <c r="B90" s="6">
+      <c r="B90" s="5">
         <v>0.85763888888888884</v>
       </c>
-      <c r="C90" s="3">
+      <c r="C90" s="2">
         <v>3</v>
       </c>
       <c r="D90">
@@ -3072,13 +3105,13 @@
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="2">
+      <c r="A91" s="1">
         <v>42250</v>
       </c>
-      <c r="B91" s="6">
+      <c r="B91" s="5">
         <v>0.85763888888888884</v>
       </c>
-      <c r="C91" s="3">
+      <c r="C91" s="2">
         <v>3</v>
       </c>
       <c r="D91">
@@ -3092,13 +3125,13 @@
       </c>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="2">
+      <c r="A92" s="1">
         <v>42250</v>
       </c>
-      <c r="B92" s="6">
+      <c r="B92" s="5">
         <v>0.85763888888888884</v>
       </c>
-      <c r="C92" s="3">
+      <c r="C92" s="2">
         <v>3</v>
       </c>
       <c r="D92">
@@ -3112,13 +3145,13 @@
       </c>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="2">
+      <c r="A93" s="1">
         <v>42250</v>
       </c>
-      <c r="B93" s="6">
+      <c r="B93" s="5">
         <v>0.85763888888888884</v>
       </c>
-      <c r="C93" s="3">
+      <c r="C93" s="2">
         <v>3</v>
       </c>
       <c r="D93">
@@ -3132,13 +3165,13 @@
       </c>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="2">
+      <c r="A94" s="1">
         <v>42250</v>
       </c>
-      <c r="B94" s="6">
+      <c r="B94" s="5">
         <v>0.87638888888888899</v>
       </c>
-      <c r="C94" s="3">
+      <c r="C94" s="2">
         <v>4</v>
       </c>
       <c r="D94">
@@ -3149,13 +3182,13 @@
       </c>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="2">
+      <c r="A95" s="1">
         <v>42250</v>
       </c>
-      <c r="B95" s="6">
+      <c r="B95" s="5">
         <v>0.93263888888888891</v>
       </c>
-      <c r="C95" s="3">
+      <c r="C95" s="2">
         <v>4</v>
       </c>
       <c r="D95">
@@ -3169,13 +3202,13 @@
       </c>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="2">
+      <c r="A96" s="1">
         <v>42250</v>
       </c>
-      <c r="B96" s="6">
+      <c r="B96" s="5">
         <v>0.93263888888888891</v>
       </c>
-      <c r="C96" s="3">
+      <c r="C96" s="2">
         <v>4</v>
       </c>
       <c r="D96">
@@ -3189,13 +3222,13 @@
       </c>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="2">
+      <c r="A97" s="1">
         <v>42250</v>
       </c>
-      <c r="B97" s="6">
+      <c r="B97" s="5">
         <v>0.93263888888888891</v>
       </c>
-      <c r="C97" s="3">
+      <c r="C97" s="2">
         <v>4</v>
       </c>
       <c r="D97">
@@ -3209,13 +3242,13 @@
       </c>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="2">
+      <c r="A98" s="1">
         <v>42250</v>
       </c>
-      <c r="B98" s="6">
+      <c r="B98" s="5">
         <v>0.93263888888888891</v>
       </c>
-      <c r="C98" s="3">
+      <c r="C98" s="2">
         <v>4</v>
       </c>
       <c r="D98">
@@ -3229,13 +3262,13 @@
       </c>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="2">
+      <c r="A99" s="1">
         <v>42250</v>
       </c>
-      <c r="B99" s="6">
+      <c r="B99" s="5">
         <v>0.93263888888888891</v>
       </c>
-      <c r="C99" s="3">
+      <c r="C99" s="2">
         <v>4</v>
       </c>
       <c r="D99">
@@ -3249,13 +3282,13 @@
       </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="2">
+      <c r="A100" s="1">
         <v>42250</v>
       </c>
-      <c r="B100" s="6">
+      <c r="B100" s="5">
         <v>0.93263888888888891</v>
       </c>
-      <c r="C100" s="3">
+      <c r="C100" s="2">
         <v>4</v>
       </c>
       <c r="D100">
@@ -3269,13 +3302,13 @@
       </c>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="2">
+      <c r="A101" s="1">
         <v>42250</v>
       </c>
-      <c r="B101" s="6">
+      <c r="B101" s="5">
         <v>0.95000000000000007</v>
       </c>
-      <c r="C101" s="3">
+      <c r="C101" s="2">
         <v>5</v>
       </c>
       <c r="D101">
@@ -3286,13 +3319,13 @@
       </c>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="2">
+      <c r="A102" s="1">
         <v>42250</v>
       </c>
-      <c r="B102" s="6">
+      <c r="B102" s="5">
         <v>0.95763888888888893</v>
       </c>
-      <c r="C102" s="3">
+      <c r="C102" s="2">
         <v>5</v>
       </c>
       <c r="D102">
@@ -3306,13 +3339,13 @@
       </c>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="2">
+      <c r="A103" s="1">
         <v>42250</v>
       </c>
-      <c r="B103" s="6">
+      <c r="B103" s="5">
         <v>0.95763888888888893</v>
       </c>
-      <c r="C103" s="3">
+      <c r="C103" s="2">
         <v>5</v>
       </c>
       <c r="D103">
@@ -3326,13 +3359,13 @@
       </c>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="2">
+      <c r="A104" s="1">
         <v>42250</v>
       </c>
-      <c r="B104" s="6">
+      <c r="B104" s="5">
         <v>0.95763888888888893</v>
       </c>
-      <c r="C104" s="3">
+      <c r="C104" s="2">
         <v>5</v>
       </c>
       <c r="D104">
@@ -3346,13 +3379,13 @@
       </c>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" s="2">
+      <c r="A105" s="1">
         <v>42250</v>
       </c>
-      <c r="B105" s="6">
+      <c r="B105" s="5">
         <v>0.95763888888888893</v>
       </c>
-      <c r="C105" s="3">
+      <c r="C105" s="2">
         <v>5</v>
       </c>
       <c r="D105">
@@ -3366,13 +3399,13 @@
       </c>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="2">
+      <c r="A106" s="1">
         <v>42250</v>
       </c>
-      <c r="B106" s="6">
+      <c r="B106" s="5">
         <v>0.95763888888888893</v>
       </c>
-      <c r="C106" s="3">
+      <c r="C106" s="2">
         <v>5</v>
       </c>
       <c r="D106">
@@ -3386,13 +3419,13 @@
       </c>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="2">
+      <c r="A107" s="1">
         <v>42250</v>
       </c>
-      <c r="B107" s="6">
+      <c r="B107" s="5">
         <v>0.95763888888888893</v>
       </c>
-      <c r="C107" s="3">
+      <c r="C107" s="2">
         <v>5</v>
       </c>
       <c r="D107">
@@ -3406,13 +3439,13 @@
       </c>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="2">
+      <c r="A108" s="1">
         <v>42251</v>
       </c>
-      <c r="B108" s="6">
+      <c r="B108" s="5">
         <v>0.71527777777777779</v>
       </c>
-      <c r="C108" s="3">
+      <c r="C108" s="2">
         <v>1</v>
       </c>
       <c r="D108">
@@ -3423,13 +3456,13 @@
       </c>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="2">
+      <c r="A109" s="1">
         <v>42251</v>
       </c>
-      <c r="B109" s="6">
+      <c r="B109" s="5">
         <v>0.73819444444444438</v>
       </c>
-      <c r="C109" s="3">
+      <c r="C109" s="2">
         <v>1</v>
       </c>
       <c r="D109">
@@ -3443,13 +3476,13 @@
       </c>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="2">
+      <c r="A110" s="1">
         <v>42251</v>
       </c>
-      <c r="B110" s="6">
+      <c r="B110" s="5">
         <v>0.73819444444444438</v>
       </c>
-      <c r="C110" s="3">
+      <c r="C110" s="2">
         <v>1</v>
       </c>
       <c r="D110">
@@ -3463,13 +3496,13 @@
       </c>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="2">
+      <c r="A111" s="1">
         <v>42251</v>
       </c>
-      <c r="B111" s="6">
+      <c r="B111" s="5">
         <v>0.73819444444444438</v>
       </c>
-      <c r="C111" s="3">
+      <c r="C111" s="2">
         <v>1</v>
       </c>
       <c r="D111">
@@ -3483,13 +3516,13 @@
       </c>
     </row>
     <row r="112" spans="1:6">
-      <c r="A112" s="2">
+      <c r="A112" s="1">
         <v>42251</v>
       </c>
-      <c r="B112" s="6">
+      <c r="B112" s="5">
         <v>0.73819444444444438</v>
       </c>
-      <c r="C112" s="3">
+      <c r="C112" s="2">
         <v>1</v>
       </c>
       <c r="D112">
@@ -3503,13 +3536,13 @@
       </c>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="2">
+      <c r="A113" s="1">
         <v>42251</v>
       </c>
-      <c r="B113" s="6">
+      <c r="B113" s="5">
         <v>0.73819444444444438</v>
       </c>
-      <c r="C113" s="3">
+      <c r="C113" s="2">
         <v>1</v>
       </c>
       <c r="D113">
@@ -3523,13 +3556,13 @@
       </c>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="2">
+      <c r="A114" s="1">
         <v>42251</v>
       </c>
-      <c r="B114" s="6">
+      <c r="B114" s="5">
         <v>0.73819444444444438</v>
       </c>
-      <c r="C114" s="3">
+      <c r="C114" s="2">
         <v>1</v>
       </c>
       <c r="D114">
@@ -3543,13 +3576,13 @@
       </c>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="2">
+      <c r="A115" s="1">
         <v>42251</v>
       </c>
-      <c r="B115" s="6">
+      <c r="B115" s="5">
         <v>0.75624999999999998</v>
       </c>
-      <c r="C115" s="3">
+      <c r="C115" s="2">
         <v>2</v>
       </c>
       <c r="D115">
@@ -3560,13 +3593,13 @@
       </c>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="2">
+      <c r="A116" s="1">
         <v>42251</v>
       </c>
-      <c r="B116" s="6">
+      <c r="B116" s="5">
         <v>0.76180555555555562</v>
       </c>
-      <c r="C116" s="3">
+      <c r="C116" s="2">
         <v>2</v>
       </c>
       <c r="D116">
@@ -3580,13 +3613,13 @@
       </c>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" s="2">
+      <c r="A117" s="1">
         <v>42251</v>
       </c>
-      <c r="B117" s="6">
+      <c r="B117" s="5">
         <v>0.76180555555555562</v>
       </c>
-      <c r="C117" s="3">
+      <c r="C117" s="2">
         <v>2</v>
       </c>
       <c r="D117">
@@ -3600,13 +3633,13 @@
       </c>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" s="2">
+      <c r="A118" s="1">
         <v>42251</v>
       </c>
-      <c r="B118" s="6">
+      <c r="B118" s="5">
         <v>0.76180555555555562</v>
       </c>
-      <c r="C118" s="3">
+      <c r="C118" s="2">
         <v>2</v>
       </c>
       <c r="D118">
@@ -3620,13 +3653,13 @@
       </c>
     </row>
     <row r="119" spans="1:6">
-      <c r="A119" s="2">
+      <c r="A119" s="1">
         <v>42251</v>
       </c>
-      <c r="B119" s="6">
+      <c r="B119" s="5">
         <v>0.76180555555555562</v>
       </c>
-      <c r="C119" s="3">
+      <c r="C119" s="2">
         <v>2</v>
       </c>
       <c r="D119">
@@ -3640,13 +3673,13 @@
       </c>
     </row>
     <row r="120" spans="1:6">
-      <c r="A120" s="2">
+      <c r="A120" s="1">
         <v>42251</v>
       </c>
-      <c r="B120" s="6">
+      <c r="B120" s="5">
         <v>0.76180555555555562</v>
       </c>
-      <c r="C120" s="3">
+      <c r="C120" s="2">
         <v>2</v>
       </c>
       <c r="D120">
@@ -3660,13 +3693,13 @@
       </c>
     </row>
     <row r="121" spans="1:6">
-      <c r="A121" s="2">
+      <c r="A121" s="1">
         <v>42251</v>
       </c>
-      <c r="B121" s="6">
+      <c r="B121" s="5">
         <v>0.76180555555555562</v>
       </c>
-      <c r="C121" s="3">
+      <c r="C121" s="2">
         <v>2</v>
       </c>
       <c r="D121">
@@ -3680,13 +3713,13 @@
       </c>
     </row>
     <row r="122" spans="1:6">
-      <c r="A122" s="2">
+      <c r="A122" s="1">
         <v>42251</v>
       </c>
-      <c r="B122" s="6">
+      <c r="B122" s="5">
         <v>0.77847222222222223</v>
       </c>
-      <c r="C122" s="3">
+      <c r="C122" s="2">
         <v>3</v>
       </c>
       <c r="D122">
@@ -3697,13 +3730,13 @@
       </c>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123" s="2">
+      <c r="A123" s="1">
         <v>42251</v>
       </c>
-      <c r="B123" s="6">
+      <c r="B123" s="5">
         <v>0.81508101851851855</v>
       </c>
-      <c r="C123" s="3">
+      <c r="C123" s="2">
         <v>3</v>
       </c>
       <c r="D123">
@@ -3717,13 +3750,13 @@
       </c>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" s="2">
+      <c r="A124" s="1">
         <v>42251</v>
       </c>
-      <c r="B124" s="6">
+      <c r="B124" s="5">
         <v>0.81508101851851855</v>
       </c>
-      <c r="C124" s="3">
+      <c r="C124" s="2">
         <v>3</v>
       </c>
       <c r="D124">
@@ -3737,13 +3770,13 @@
       </c>
     </row>
     <row r="125" spans="1:6">
-      <c r="A125" s="2">
+      <c r="A125" s="1">
         <v>42251</v>
       </c>
-      <c r="B125" s="6">
+      <c r="B125" s="5">
         <v>0.81508101851851855</v>
       </c>
-      <c r="C125" s="3">
+      <c r="C125" s="2">
         <v>3</v>
       </c>
       <c r="D125">
@@ -3757,13 +3790,13 @@
       </c>
     </row>
     <row r="126" spans="1:6">
-      <c r="A126" s="2">
+      <c r="A126" s="1">
         <v>42251</v>
       </c>
-      <c r="B126" s="6">
+      <c r="B126" s="5">
         <v>0.81508101851851855</v>
       </c>
-      <c r="C126" s="3">
+      <c r="C126" s="2">
         <v>3</v>
       </c>
       <c r="D126">
@@ -3777,13 +3810,13 @@
       </c>
     </row>
     <row r="127" spans="1:6">
-      <c r="A127" s="2">
+      <c r="A127" s="1">
         <v>42251</v>
       </c>
-      <c r="B127" s="6">
+      <c r="B127" s="5">
         <v>0.81508101851851855</v>
       </c>
-      <c r="C127" s="3">
+      <c r="C127" s="2">
         <v>3</v>
       </c>
       <c r="D127">
@@ -3797,13 +3830,13 @@
       </c>
     </row>
     <row r="128" spans="1:6">
-      <c r="A128" s="2">
+      <c r="A128" s="1">
         <v>42251</v>
       </c>
-      <c r="B128" s="6">
+      <c r="B128" s="5">
         <v>0.81508101851851855</v>
       </c>
-      <c r="C128" s="3">
+      <c r="C128" s="2">
         <v>3</v>
       </c>
       <c r="D128">
@@ -3817,13 +3850,13 @@
       </c>
     </row>
     <row r="129" spans="1:6">
-      <c r="A129" s="2">
+      <c r="A129" s="1">
         <v>42251</v>
       </c>
-      <c r="B129" s="6">
+      <c r="B129" s="5">
         <v>0.83225694444444442</v>
       </c>
-      <c r="C129" s="3">
+      <c r="C129" s="2">
         <v>4</v>
       </c>
       <c r="D129">
@@ -3834,13 +3867,13 @@
       </c>
     </row>
     <row r="130" spans="1:6">
-      <c r="A130" s="2">
+      <c r="A130" s="1">
         <v>42251</v>
       </c>
-      <c r="B130" s="6">
+      <c r="B130" s="5">
         <v>0.8386689814814815</v>
       </c>
-      <c r="C130" s="3">
+      <c r="C130" s="2">
         <v>4</v>
       </c>
       <c r="D130">
@@ -3854,13 +3887,13 @@
       </c>
     </row>
     <row r="131" spans="1:6">
-      <c r="A131" s="2">
+      <c r="A131" s="1">
         <v>42251</v>
       </c>
-      <c r="B131" s="6">
+      <c r="B131" s="5">
         <v>0.8386689814814815</v>
       </c>
-      <c r="C131" s="3">
+      <c r="C131" s="2">
         <v>4</v>
       </c>
       <c r="D131">
@@ -3874,13 +3907,13 @@
       </c>
     </row>
     <row r="132" spans="1:6">
-      <c r="A132" s="2">
+      <c r="A132" s="1">
         <v>42251</v>
       </c>
-      <c r="B132" s="6">
+      <c r="B132" s="5">
         <v>0.8386689814814815</v>
       </c>
-      <c r="C132" s="3">
+      <c r="C132" s="2">
         <v>4</v>
       </c>
       <c r="D132">
@@ -3894,13 +3927,13 @@
       </c>
     </row>
     <row r="133" spans="1:6">
-      <c r="A133" s="2">
+      <c r="A133" s="1">
         <v>42251</v>
       </c>
-      <c r="B133" s="6">
+      <c r="B133" s="5">
         <v>0.8386689814814815</v>
       </c>
-      <c r="C133" s="3">
+      <c r="C133" s="2">
         <v>4</v>
       </c>
       <c r="D133">
@@ -3914,13 +3947,13 @@
       </c>
     </row>
     <row r="134" spans="1:6">
-      <c r="A134" s="2">
+      <c r="A134" s="1">
         <v>42251</v>
       </c>
-      <c r="B134" s="6">
+      <c r="B134" s="5">
         <v>0.8386689814814815</v>
       </c>
-      <c r="C134" s="3">
+      <c r="C134" s="2">
         <v>4</v>
       </c>
       <c r="D134">
@@ -3934,13 +3967,13 @@
       </c>
     </row>
     <row r="135" spans="1:6">
-      <c r="A135" s="2">
+      <c r="A135" s="1">
         <v>42251</v>
       </c>
-      <c r="B135" s="6">
+      <c r="B135" s="5">
         <v>0.8386689814814815</v>
       </c>
-      <c r="C135" s="3">
+      <c r="C135" s="2">
         <v>4</v>
       </c>
       <c r="D135">
@@ -3954,13 +3987,13 @@
       </c>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" s="2">
+      <c r="A136" s="1">
         <v>42251</v>
       </c>
-      <c r="B136" s="6">
+      <c r="B136" s="5">
         <v>0.85541666666666671</v>
       </c>
-      <c r="C136" s="3">
+      <c r="C136" s="2">
         <v>5</v>
       </c>
       <c r="D136">
@@ -3971,13 +4004,13 @@
       </c>
     </row>
     <row r="137" spans="1:6">
-      <c r="A137" s="2">
+      <c r="A137" s="1">
         <v>42251</v>
       </c>
-      <c r="B137" s="6">
+      <c r="B137" s="5">
         <v>0.88888888888888884</v>
       </c>
-      <c r="C137" s="3">
+      <c r="C137" s="2">
         <v>5</v>
       </c>
       <c r="D137">
@@ -3991,13 +4024,13 @@
       </c>
     </row>
     <row r="138" spans="1:6">
-      <c r="A138" s="2">
+      <c r="A138" s="1">
         <v>42251</v>
       </c>
-      <c r="B138" s="6">
+      <c r="B138" s="5">
         <v>0.88888888888888884</v>
       </c>
-      <c r="C138" s="3">
+      <c r="C138" s="2">
         <v>5</v>
       </c>
       <c r="D138">
@@ -4011,13 +4044,13 @@
       </c>
     </row>
     <row r="139" spans="1:6">
-      <c r="A139" s="2">
+      <c r="A139" s="1">
         <v>42251</v>
       </c>
-      <c r="B139" s="6">
+      <c r="B139" s="5">
         <v>0.88888888888888884</v>
       </c>
-      <c r="C139" s="3">
+      <c r="C139" s="2">
         <v>5</v>
       </c>
       <c r="D139">
@@ -4031,13 +4064,13 @@
       </c>
     </row>
     <row r="140" spans="1:6">
-      <c r="A140" s="2">
+      <c r="A140" s="1">
         <v>42251</v>
       </c>
-      <c r="B140" s="6">
+      <c r="B140" s="5">
         <v>0.88888888888888884</v>
       </c>
-      <c r="C140" s="3">
+      <c r="C140" s="2">
         <v>5</v>
       </c>
       <c r="D140">
@@ -4051,13 +4084,13 @@
       </c>
     </row>
     <row r="141" spans="1:6">
-      <c r="A141" s="2">
+      <c r="A141" s="1">
         <v>42251</v>
       </c>
-      <c r="B141" s="6">
+      <c r="B141" s="5">
         <v>0.88888888888888884</v>
       </c>
-      <c r="C141" s="3">
+      <c r="C141" s="2">
         <v>5</v>
       </c>
       <c r="D141">
@@ -4071,13 +4104,13 @@
       </c>
     </row>
     <row r="142" spans="1:6">
-      <c r="A142" s="2">
+      <c r="A142" s="1">
         <v>42251</v>
       </c>
-      <c r="B142" s="6">
+      <c r="B142" s="5">
         <v>0.88888888888888884</v>
       </c>
-      <c r="C142" s="3">
+      <c r="C142" s="2">
         <v>5</v>
       </c>
       <c r="D142">
@@ -4088,6 +4121,1209 @@
       </c>
       <c r="F142">
         <v>1185.5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="1">
+        <v>42255</v>
+      </c>
+      <c r="B143" s="5">
+        <v>0.70624999999999993</v>
+      </c>
+      <c r="D143">
+        <v>10</v>
+      </c>
+      <c r="E143" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="1">
+        <v>42255</v>
+      </c>
+      <c r="B144" s="5">
+        <v>0.74513888888888891</v>
+      </c>
+      <c r="D144">
+        <v>6</v>
+      </c>
+      <c r="E144" t="s">
+        <v>18</v>
+      </c>
+      <c r="F144">
+        <v>1619.1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="1">
+        <v>42255</v>
+      </c>
+      <c r="B145" s="5">
+        <v>0.74513888888888891</v>
+      </c>
+      <c r="D145">
+        <v>16</v>
+      </c>
+      <c r="E145" t="s">
+        <v>19</v>
+      </c>
+      <c r="F145">
+        <v>2016.8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" s="1">
+        <v>42255</v>
+      </c>
+      <c r="B146" s="5">
+        <v>0.74513888888888891</v>
+      </c>
+      <c r="D146">
+        <v>13</v>
+      </c>
+      <c r="E146" t="s">
+        <v>20</v>
+      </c>
+      <c r="F146">
+        <v>2207.6999999999998</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="1">
+        <v>42255</v>
+      </c>
+      <c r="B147" s="5">
+        <v>0.74513888888888891</v>
+      </c>
+      <c r="D147">
+        <v>14</v>
+      </c>
+      <c r="E147" t="s">
+        <v>21</v>
+      </c>
+      <c r="F147">
+        <v>1491.8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="1">
+        <v>42255</v>
+      </c>
+      <c r="B148" s="5">
+        <v>0.74513888888888891</v>
+      </c>
+      <c r="D148">
+        <v>11</v>
+      </c>
+      <c r="E148" t="s">
+        <v>22</v>
+      </c>
+      <c r="F148">
+        <v>2243.6999999999998</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="1">
+        <v>42255</v>
+      </c>
+      <c r="B149" s="5">
+        <v>0.74513888888888891</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+      <c r="E149" t="s">
+        <v>23</v>
+      </c>
+      <c r="F149">
+        <v>1720.4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="1">
+        <v>42255</v>
+      </c>
+      <c r="B150" s="5">
+        <v>0.76180555555555562</v>
+      </c>
+      <c r="D150">
+        <v>10</v>
+      </c>
+      <c r="E150" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="1">
+        <v>42255</v>
+      </c>
+      <c r="B151" s="5">
+        <v>0.76874999999999993</v>
+      </c>
+      <c r="D151">
+        <v>4</v>
+      </c>
+      <c r="E151" t="s">
+        <v>9</v>
+      </c>
+      <c r="F151">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="1">
+        <v>42255</v>
+      </c>
+      <c r="B152" s="5">
+        <v>0.76874999999999993</v>
+      </c>
+      <c r="D152">
+        <v>2</v>
+      </c>
+      <c r="E152" t="s">
+        <v>11</v>
+      </c>
+      <c r="F152">
+        <v>1758.3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="1">
+        <v>42255</v>
+      </c>
+      <c r="B153" s="5">
+        <v>0.76874999999999993</v>
+      </c>
+      <c r="D153">
+        <v>12</v>
+      </c>
+      <c r="E153" t="s">
+        <v>13</v>
+      </c>
+      <c r="F153">
+        <v>1726.9</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="1">
+        <v>42255</v>
+      </c>
+      <c r="B154" s="5">
+        <v>0.76874999999999993</v>
+      </c>
+      <c r="D154">
+        <v>8</v>
+      </c>
+      <c r="E154" t="s">
+        <v>15</v>
+      </c>
+      <c r="F154">
+        <v>2176.9</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="1">
+        <v>42255</v>
+      </c>
+      <c r="B155" s="5">
+        <v>0.76874999999999993</v>
+      </c>
+      <c r="D155">
+        <v>5</v>
+      </c>
+      <c r="E155" t="s">
+        <v>16</v>
+      </c>
+      <c r="F155">
+        <v>1723.3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="1">
+        <v>42255</v>
+      </c>
+      <c r="B156" s="5">
+        <v>0.76874999999999993</v>
+      </c>
+      <c r="D156">
+        <v>9</v>
+      </c>
+      <c r="E156" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="1">
+        <v>42255</v>
+      </c>
+      <c r="B157" s="5">
+        <v>0.78541666666666676</v>
+      </c>
+      <c r="D157">
+        <v>10</v>
+      </c>
+      <c r="E157" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="1">
+        <v>42255</v>
+      </c>
+      <c r="B158" s="5">
+        <v>0.81666666666666676</v>
+      </c>
+      <c r="D158">
+        <v>6</v>
+      </c>
+      <c r="E158" t="s">
+        <v>1</v>
+      </c>
+      <c r="F158">
+        <v>1969.6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" s="1">
+        <v>42255</v>
+      </c>
+      <c r="B159" s="5">
+        <v>0.81666666666666676</v>
+      </c>
+      <c r="D159">
+        <v>16</v>
+      </c>
+      <c r="E159" t="s">
+        <v>2</v>
+      </c>
+      <c r="F159">
+        <v>2179.5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="1">
+        <v>42255</v>
+      </c>
+      <c r="B160" s="5">
+        <v>0.81666666666666676</v>
+      </c>
+      <c r="D160">
+        <v>13</v>
+      </c>
+      <c r="E160" t="s">
+        <v>3</v>
+      </c>
+      <c r="F160">
+        <v>1443.1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="1">
+        <v>42255</v>
+      </c>
+      <c r="B161" s="5">
+        <v>0.81666666666666676</v>
+      </c>
+      <c r="D161">
+        <v>14</v>
+      </c>
+      <c r="E161" t="s">
+        <v>4</v>
+      </c>
+      <c r="F161">
+        <v>1849.4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="1">
+        <v>42255</v>
+      </c>
+      <c r="B162" s="5">
+        <v>0.81666666666666676</v>
+      </c>
+      <c r="D162">
+        <v>11</v>
+      </c>
+      <c r="E162" t="s">
+        <v>6</v>
+      </c>
+      <c r="F162">
+        <v>1857.3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" s="1">
+        <v>42255</v>
+      </c>
+      <c r="B163" s="5">
+        <v>0.81666666666666676</v>
+      </c>
+      <c r="D163">
+        <v>1</v>
+      </c>
+      <c r="E163" t="s">
+        <v>7</v>
+      </c>
+      <c r="F163">
+        <v>2025.1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="1">
+        <v>42255</v>
+      </c>
+      <c r="B164" s="5">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D164">
+        <v>10</v>
+      </c>
+      <c r="E164" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="1">
+        <v>42255</v>
+      </c>
+      <c r="B165" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="D165">
+        <v>4</v>
+      </c>
+      <c r="E165" t="s">
+        <v>25</v>
+      </c>
+      <c r="F165">
+        <v>2111.6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" s="1">
+        <v>42255</v>
+      </c>
+      <c r="B166" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="D166">
+        <v>2</v>
+      </c>
+      <c r="E166" t="s">
+        <v>26</v>
+      </c>
+      <c r="F166">
+        <v>2006.8</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" s="1">
+        <v>42255</v>
+      </c>
+      <c r="B167" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="D167">
+        <v>12</v>
+      </c>
+      <c r="E167" t="s">
+        <v>27</v>
+      </c>
+      <c r="F167">
+        <v>1972.4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" s="1">
+        <v>42255</v>
+      </c>
+      <c r="B168" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="D168">
+        <v>8</v>
+      </c>
+      <c r="E168" t="s">
+        <v>28</v>
+      </c>
+      <c r="F168">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" s="1">
+        <v>42255</v>
+      </c>
+      <c r="B169" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="D169">
+        <v>5</v>
+      </c>
+      <c r="E169" t="s">
+        <v>29</v>
+      </c>
+      <c r="F169">
+        <v>2160.6999999999998</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" s="1">
+        <v>42255</v>
+      </c>
+      <c r="B170" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="D170">
+        <v>9</v>
+      </c>
+      <c r="E170" t="s">
+        <v>30</v>
+      </c>
+      <c r="F170">
+        <v>1642.7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" s="1">
+        <v>42255</v>
+      </c>
+      <c r="B171" s="5">
+        <v>0.89166666666666661</v>
+      </c>
+      <c r="D171">
+        <v>10</v>
+      </c>
+      <c r="E171" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" s="1">
+        <v>42255</v>
+      </c>
+      <c r="B172" s="5">
+        <v>0.89861111111111114</v>
+      </c>
+      <c r="D172">
+        <v>6</v>
+      </c>
+      <c r="E172" t="s">
+        <v>5</v>
+      </c>
+      <c r="F172">
+        <v>1620.3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" s="1">
+        <v>42255</v>
+      </c>
+      <c r="B173" s="5">
+        <v>0.89861111111111114</v>
+      </c>
+      <c r="D173">
+        <v>16</v>
+      </c>
+      <c r="E173" t="s">
+        <v>24</v>
+      </c>
+      <c r="F173">
+        <v>1908.1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" s="1">
+        <v>42255</v>
+      </c>
+      <c r="B174" s="5">
+        <v>0.89861111111111114</v>
+      </c>
+      <c r="D174">
+        <v>13</v>
+      </c>
+      <c r="E174" t="s">
+        <v>8</v>
+      </c>
+      <c r="F174">
+        <v>1294.4000000000001</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" s="1">
+        <v>42255</v>
+      </c>
+      <c r="B175" s="5">
+        <v>0.89861111111111114</v>
+      </c>
+      <c r="D175">
+        <v>14</v>
+      </c>
+      <c r="E175" t="s">
+        <v>10</v>
+      </c>
+      <c r="F175">
+        <v>2048.1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" s="1">
+        <v>42255</v>
+      </c>
+      <c r="B176" s="5">
+        <v>0.89861111111111114</v>
+      </c>
+      <c r="D176">
+        <v>11</v>
+      </c>
+      <c r="E176" t="s">
+        <v>12</v>
+      </c>
+      <c r="F176">
+        <v>1738.8</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" s="1">
+        <v>42255</v>
+      </c>
+      <c r="B177" s="5">
+        <v>0.89861111111111114</v>
+      </c>
+      <c r="D177">
+        <v>1</v>
+      </c>
+      <c r="E177" t="s">
+        <v>14</v>
+      </c>
+      <c r="F177">
+        <v>2025.2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" s="1">
+        <v>42255</v>
+      </c>
+      <c r="B178" s="5">
+        <v>0.91527777777777775</v>
+      </c>
+      <c r="D178">
+        <v>10</v>
+      </c>
+      <c r="E178" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" s="1">
+        <v>42258</v>
+      </c>
+      <c r="B179" s="5">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="D179">
+        <v>10</v>
+      </c>
+      <c r="E179" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" s="1">
+        <v>42258</v>
+      </c>
+      <c r="B180" s="5">
+        <v>0.7006944444444444</v>
+      </c>
+      <c r="D180">
+        <v>6</v>
+      </c>
+      <c r="E180" t="s">
+        <v>1</v>
+      </c>
+      <c r="F180">
+        <v>1969.8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" s="1">
+        <v>42258</v>
+      </c>
+      <c r="B181" s="5">
+        <v>0.7006944444444444</v>
+      </c>
+      <c r="D181">
+        <v>16</v>
+      </c>
+      <c r="E181" t="s">
+        <v>2</v>
+      </c>
+      <c r="F181">
+        <v>2179.4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" s="1">
+        <v>42258</v>
+      </c>
+      <c r="B182" s="5">
+        <v>0.7006944444444444</v>
+      </c>
+      <c r="D182">
+        <v>13</v>
+      </c>
+      <c r="E182" t="s">
+        <v>3</v>
+      </c>
+      <c r="F182">
+        <v>1445.3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" s="1">
+        <v>42258</v>
+      </c>
+      <c r="B183" s="5">
+        <v>0.7006944444444444</v>
+      </c>
+      <c r="D183">
+        <v>14</v>
+      </c>
+      <c r="E183" t="s">
+        <v>4</v>
+      </c>
+      <c r="F183">
+        <v>1850.7</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" s="1">
+        <v>42258</v>
+      </c>
+      <c r="B184" s="5">
+        <v>0.7006944444444444</v>
+      </c>
+      <c r="D184">
+        <v>11</v>
+      </c>
+      <c r="E184" t="s">
+        <v>6</v>
+      </c>
+      <c r="F184">
+        <v>1860.9</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" s="1">
+        <v>42258</v>
+      </c>
+      <c r="B185" s="5">
+        <v>0.7006944444444444</v>
+      </c>
+      <c r="D185">
+        <v>1</v>
+      </c>
+      <c r="E185" t="s">
+        <v>7</v>
+      </c>
+      <c r="F185">
+        <v>2026.3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" s="1">
+        <v>42258</v>
+      </c>
+      <c r="B186" s="5">
+        <v>0.71736111111111101</v>
+      </c>
+      <c r="D186">
+        <v>10</v>
+      </c>
+      <c r="E186" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" s="1">
+        <v>42258</v>
+      </c>
+      <c r="B187" s="5">
+        <v>0.72430555555555554</v>
+      </c>
+      <c r="D187">
+        <v>4</v>
+      </c>
+      <c r="E187" t="s">
+        <v>9</v>
+      </c>
+      <c r="F187">
+        <v>1943.7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" s="1">
+        <v>42258</v>
+      </c>
+      <c r="B188" s="5">
+        <v>0.72430555555555554</v>
+      </c>
+      <c r="D188">
+        <v>2</v>
+      </c>
+      <c r="E188" t="s">
+        <v>11</v>
+      </c>
+      <c r="F188">
+        <v>1734.7</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" s="1">
+        <v>42258</v>
+      </c>
+      <c r="B189" s="5">
+        <v>0.72430555555555554</v>
+      </c>
+      <c r="D189">
+        <v>12</v>
+      </c>
+      <c r="E189" t="s">
+        <v>13</v>
+      </c>
+      <c r="F189">
+        <v>1713.3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" s="1">
+        <v>42258</v>
+      </c>
+      <c r="B190" s="5">
+        <v>0.72430555555555554</v>
+      </c>
+      <c r="D190">
+        <v>8</v>
+      </c>
+      <c r="E190" t="s">
+        <v>15</v>
+      </c>
+      <c r="F190">
+        <v>2162.4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" s="1">
+        <v>42258</v>
+      </c>
+      <c r="B191" s="5">
+        <v>0.72430555555555554</v>
+      </c>
+      <c r="D191">
+        <v>5</v>
+      </c>
+      <c r="E191" t="s">
+        <v>16</v>
+      </c>
+      <c r="F191">
+        <v>1676.9</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" s="1">
+        <v>42258</v>
+      </c>
+      <c r="B192" s="5">
+        <v>0.72430555555555554</v>
+      </c>
+      <c r="D192">
+        <v>9</v>
+      </c>
+      <c r="E192" t="s">
+        <v>17</v>
+      </c>
+      <c r="F192">
+        <v>1713.6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" s="1">
+        <v>42258</v>
+      </c>
+      <c r="B193" s="5">
+        <v>0.74097222222222225</v>
+      </c>
+      <c r="D193">
+        <v>10</v>
+      </c>
+      <c r="E193" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" s="1">
+        <v>42258</v>
+      </c>
+      <c r="B194" s="5">
+        <v>0.78402777777777777</v>
+      </c>
+      <c r="D194">
+        <v>6</v>
+      </c>
+      <c r="E194" t="s">
+        <v>18</v>
+      </c>
+      <c r="F194">
+        <v>1609.6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" s="1">
+        <v>42258</v>
+      </c>
+      <c r="B195" s="5">
+        <v>0.78402777777777777</v>
+      </c>
+      <c r="D195">
+        <v>16</v>
+      </c>
+      <c r="E195" t="s">
+        <v>19</v>
+      </c>
+      <c r="F195">
+        <v>2004.9</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" s="1">
+        <v>42258</v>
+      </c>
+      <c r="B196" s="5">
+        <v>0.78402777777777777</v>
+      </c>
+      <c r="D196">
+        <v>13</v>
+      </c>
+      <c r="E196" t="s">
+        <v>20</v>
+      </c>
+      <c r="F196">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" s="1">
+        <v>42258</v>
+      </c>
+      <c r="B197" s="5">
+        <v>0.78402777777777777</v>
+      </c>
+      <c r="D197">
+        <v>14</v>
+      </c>
+      <c r="E197" t="s">
+        <v>21</v>
+      </c>
+      <c r="F197">
+        <v>1480.2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" s="1">
+        <v>42258</v>
+      </c>
+      <c r="B198" s="5">
+        <v>0.78402777777777777</v>
+      </c>
+      <c r="D198">
+        <v>11</v>
+      </c>
+      <c r="E198" t="s">
+        <v>22</v>
+      </c>
+      <c r="F198">
+        <v>2230.1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" s="1">
+        <v>42258</v>
+      </c>
+      <c r="B199" s="5">
+        <v>0.78402777777777777</v>
+      </c>
+      <c r="D199">
+        <v>1</v>
+      </c>
+      <c r="E199" t="s">
+        <v>23</v>
+      </c>
+      <c r="F199">
+        <v>1709.2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" s="1">
+        <v>42258</v>
+      </c>
+      <c r="B200" s="5">
+        <v>0.80069444444444438</v>
+      </c>
+      <c r="D200">
+        <v>10</v>
+      </c>
+      <c r="E200" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" s="1">
+        <v>42258</v>
+      </c>
+      <c r="B201" s="5">
+        <v>0.8256944444444444</v>
+      </c>
+      <c r="D201">
+        <v>4</v>
+      </c>
+      <c r="E201" t="s">
+        <v>25</v>
+      </c>
+      <c r="F201">
+        <v>2103.5</v>
+      </c>
+      <c r="G201" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" s="1">
+        <v>42258</v>
+      </c>
+      <c r="B202" s="5">
+        <v>0.8256944444444444</v>
+      </c>
+      <c r="D202">
+        <v>2</v>
+      </c>
+      <c r="E202" t="s">
+        <v>26</v>
+      </c>
+      <c r="F202">
+        <v>1999.2</v>
+      </c>
+      <c r="G202" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" s="1">
+        <v>42258</v>
+      </c>
+      <c r="B203" s="5">
+        <v>0.8256944444444444</v>
+      </c>
+      <c r="D203">
+        <v>12</v>
+      </c>
+      <c r="E203" t="s">
+        <v>27</v>
+      </c>
+      <c r="F203">
+        <v>1967.3</v>
+      </c>
+      <c r="G203" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" s="1">
+        <v>42258</v>
+      </c>
+      <c r="B204" s="5">
+        <v>0.8256944444444444</v>
+      </c>
+      <c r="D204">
+        <v>8</v>
+      </c>
+      <c r="E204" t="s">
+        <v>28</v>
+      </c>
+      <c r="F204">
+        <v>2034.7</v>
+      </c>
+      <c r="G204" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" s="1">
+        <v>42258</v>
+      </c>
+      <c r="B205" s="5">
+        <v>0.8256944444444444</v>
+      </c>
+      <c r="D205">
+        <v>5</v>
+      </c>
+      <c r="E205" t="s">
+        <v>29</v>
+      </c>
+      <c r="F205">
+        <v>2158.3000000000002</v>
+      </c>
+      <c r="G205" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" s="1">
+        <v>42258</v>
+      </c>
+      <c r="B206" s="5">
+        <v>0.8256944444444444</v>
+      </c>
+      <c r="D206">
+        <v>9</v>
+      </c>
+      <c r="E206" t="s">
+        <v>30</v>
+      </c>
+      <c r="F206">
+        <v>1659.2</v>
+      </c>
+      <c r="G206" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" s="1">
+        <v>42258</v>
+      </c>
+      <c r="B207" s="5">
+        <v>0.84236111111111101</v>
+      </c>
+      <c r="D207">
+        <v>10</v>
+      </c>
+      <c r="E207" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" s="1">
+        <v>42258</v>
+      </c>
+      <c r="B208" s="5">
+        <v>0.84930555555555554</v>
+      </c>
+      <c r="D208">
+        <v>6</v>
+      </c>
+      <c r="E208" t="s">
+        <v>5</v>
+      </c>
+      <c r="F208">
+        <v>1624.6</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" s="1">
+        <v>42258</v>
+      </c>
+      <c r="B209" s="5">
+        <v>0.84930555555555554</v>
+      </c>
+      <c r="D209">
+        <v>16</v>
+      </c>
+      <c r="E209" t="s">
+        <v>24</v>
+      </c>
+      <c r="F209">
+        <v>1910.3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" s="1">
+        <v>42258</v>
+      </c>
+      <c r="B210" s="5">
+        <v>0.84930555555555554</v>
+      </c>
+      <c r="D210">
+        <v>13</v>
+      </c>
+      <c r="E210" t="s">
+        <v>8</v>
+      </c>
+      <c r="F210">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" s="1">
+        <v>42258</v>
+      </c>
+      <c r="B211" s="5">
+        <v>0.84930555555555554</v>
+      </c>
+      <c r="D211">
+        <v>14</v>
+      </c>
+      <c r="E211" t="s">
+        <v>10</v>
+      </c>
+      <c r="F211">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" s="1">
+        <v>42258</v>
+      </c>
+      <c r="B212" s="5">
+        <v>0.84930555555555554</v>
+      </c>
+      <c r="D212">
+        <v>11</v>
+      </c>
+      <c r="E212" t="s">
+        <v>12</v>
+      </c>
+      <c r="F212">
+        <v>1745.1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" s="1">
+        <v>42258</v>
+      </c>
+      <c r="B213" s="5">
+        <v>0.84930555555555554</v>
+      </c>
+      <c r="D213">
+        <v>1</v>
+      </c>
+      <c r="E213" t="s">
+        <v>14</v>
+      </c>
+      <c r="F213">
+        <v>2034.2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" s="1">
+        <v>42258</v>
+      </c>
+      <c r="B214" s="5">
+        <v>0.86597222222222225</v>
+      </c>
+      <c r="D214">
+        <v>10</v>
+      </c>
+      <c r="E214" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/data/CoreData.xlsx
+++ b/data/CoreData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24740" windowHeight="15600" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="24520" windowHeight="15360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="treatments.csv" sheetId="2" r:id="rId1"/>
@@ -240,8 +240,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="155">
+  <cellStyleXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -405,7 +407,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="155">
+  <cellStyles count="157">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -483,6 +485,7 @@
     <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -560,6 +563,7 @@
     <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1345,8 +1349,8 @@
   <dimension ref="A1:G214"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A211" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A215" sqref="A215"/>
+      <pane ySplit="2" topLeftCell="A204" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F143" sqref="F143:F178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2787,7 +2791,7 @@
         <v>1</v>
       </c>
       <c r="F74">
-        <v>1162.7</v>
+        <v>1975.7</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2807,7 +2811,7 @@
         <v>2</v>
       </c>
       <c r="F75">
-        <v>1253.8</v>
+        <v>2185.3000000000002</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2827,7 +2831,7 @@
         <v>3</v>
       </c>
       <c r="F76">
-        <v>1139.9000000000001</v>
+        <v>1446.1</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2847,7 +2851,7 @@
         <v>4</v>
       </c>
       <c r="F77">
-        <v>1185.5</v>
+        <v>1856.1</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2867,7 +2871,7 @@
         <v>6</v>
       </c>
       <c r="F78">
-        <v>1231</v>
+        <v>1863.4</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2887,7 +2891,7 @@
         <v>7</v>
       </c>
       <c r="F79">
-        <v>1185.5</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2924,7 +2928,7 @@
         <v>9</v>
       </c>
       <c r="F81">
-        <v>1162.7</v>
+        <v>2028.3</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2944,7 +2948,7 @@
         <v>11</v>
       </c>
       <c r="F82">
-        <v>1071.5</v>
+        <v>1811.6</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2964,7 +2968,7 @@
         <v>13</v>
       </c>
       <c r="F83">
-        <v>1048.7</v>
+        <v>1764.7</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2984,7 +2988,7 @@
         <v>15</v>
       </c>
       <c r="F84">
-        <v>1299.4000000000001</v>
+        <v>2233.1999999999998</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3004,7 +3008,7 @@
         <v>16</v>
       </c>
       <c r="F85">
-        <v>1139.9000000000001</v>
+        <v>1746.9</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3024,7 +3028,7 @@
         <v>17</v>
       </c>
       <c r="F86">
-        <v>1094.3</v>
+        <v>1754.4</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3061,7 +3065,7 @@
         <v>18</v>
       </c>
       <c r="F88">
-        <v>1025.9000000000001</v>
+        <v>1647.1</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3081,7 +3085,7 @@
         <v>19</v>
       </c>
       <c r="F89">
-        <v>1162.7</v>
+        <v>2048.3000000000002</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3101,7 +3105,7 @@
         <v>20</v>
       </c>
       <c r="F90">
-        <v>1299.4000000000001</v>
+        <v>2252.3000000000002</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3121,7 +3125,7 @@
         <v>21</v>
       </c>
       <c r="F91">
-        <v>957.5</v>
+        <v>1523.8</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3141,7 +3145,7 @@
         <v>22</v>
       </c>
       <c r="F92">
-        <v>1253.8</v>
+        <v>2293.6</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3161,7 +3165,7 @@
         <v>23</v>
       </c>
       <c r="F93">
-        <v>1094.3</v>
+        <v>1760.7</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3198,7 +3202,7 @@
         <v>25</v>
       </c>
       <c r="F95">
-        <v>1242.4000000000001</v>
+        <v>2165.6</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3218,7 +3222,7 @@
         <v>26</v>
       </c>
       <c r="F96">
-        <v>1048.7</v>
+        <v>2049.5</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3238,7 +3242,7 @@
         <v>27</v>
       </c>
       <c r="F97">
-        <v>1162.7</v>
+        <v>2006.5</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3258,7 +3262,7 @@
         <v>28</v>
       </c>
       <c r="F98">
-        <v>1139.9000000000001</v>
+        <v>2089.1</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3278,7 +3282,7 @@
         <v>29</v>
       </c>
       <c r="F99">
-        <v>1231</v>
+        <v>2195.8000000000002</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3298,7 +3302,7 @@
         <v>30</v>
       </c>
       <c r="F100">
-        <v>1162.7</v>
+        <v>1682.5</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3335,7 +3339,7 @@
         <v>5</v>
       </c>
       <c r="F102">
-        <v>957.5</v>
+        <v>1626.8</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3355,7 +3359,7 @@
         <v>24</v>
       </c>
       <c r="F103">
-        <v>1185.5</v>
+        <v>1912.5</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3375,7 +3379,7 @@
         <v>8</v>
       </c>
       <c r="F104">
-        <v>1094.3</v>
+        <v>1301.5999999999999</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3395,7 +3399,7 @@
         <v>10</v>
       </c>
       <c r="F105">
-        <v>1139.9000000000001</v>
+        <v>2054.1</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3415,7 +3419,7 @@
         <v>12</v>
       </c>
       <c r="F106">
-        <v>1094.3</v>
+        <v>1747.2</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3435,7 +3439,7 @@
         <v>14</v>
       </c>
       <c r="F107">
-        <v>1185.5</v>
+        <v>2040.9</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3472,7 +3476,7 @@
         <v>5</v>
       </c>
       <c r="F109">
-        <v>957.5</v>
+        <v>1625.5</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3492,7 +3496,7 @@
         <v>24</v>
       </c>
       <c r="F110">
-        <v>1185.5</v>
+        <v>1910.4</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3512,7 +3516,7 @@
         <v>8</v>
       </c>
       <c r="F111">
-        <v>1094.3</v>
+        <v>1297.9000000000001</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3532,7 +3536,7 @@
         <v>10</v>
       </c>
       <c r="F112">
-        <v>1139.9000000000001</v>
+        <v>2054.6</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3552,7 +3556,7 @@
         <v>12</v>
       </c>
       <c r="F113">
-        <v>1094.3</v>
+        <v>1746.9</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3572,7 +3576,7 @@
         <v>14</v>
       </c>
       <c r="F114">
-        <v>1185.5</v>
+        <v>2038.9</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3609,7 +3613,7 @@
         <v>25</v>
       </c>
       <c r="F116">
-        <v>1242.4000000000001</v>
+        <v>2155.1999999999998</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3629,7 +3633,7 @@
         <v>26</v>
       </c>
       <c r="F117">
-        <v>1048.7</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3649,7 +3653,7 @@
         <v>27</v>
       </c>
       <c r="F118">
-        <v>1162.7</v>
+        <v>1999.4</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3669,7 +3673,7 @@
         <v>28</v>
       </c>
       <c r="F119">
-        <v>1139.9000000000001</v>
+        <v>2079.31</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3689,7 +3693,7 @@
         <v>29</v>
       </c>
       <c r="F120">
-        <v>1231</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3709,7 +3713,7 @@
         <v>30</v>
       </c>
       <c r="F121">
-        <v>1162.7</v>
+        <v>1670.9</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3746,7 +3750,7 @@
         <v>18</v>
       </c>
       <c r="F123">
-        <v>1025.9000000000001</v>
+        <v>1647.3</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3766,7 +3770,7 @@
         <v>19</v>
       </c>
       <c r="F124">
-        <v>1162.7</v>
+        <v>2045.1</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3786,7 +3790,7 @@
         <v>20</v>
       </c>
       <c r="F125">
-        <v>1299.4000000000001</v>
+        <v>2243.6999999999998</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3806,7 +3810,7 @@
         <v>21</v>
       </c>
       <c r="F126">
-        <v>957.5</v>
+        <v>1525.4</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3826,7 +3830,7 @@
         <v>22</v>
       </c>
       <c r="F127">
-        <v>1253.8</v>
+        <v>2275.8000000000002</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3846,7 +3850,7 @@
         <v>23</v>
       </c>
       <c r="F128">
-        <v>1094.3</v>
+        <v>1753.4</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3883,7 +3887,7 @@
         <v>9</v>
       </c>
       <c r="F130">
-        <v>1162.7</v>
+        <v>2012.5</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3903,7 +3907,7 @@
         <v>11</v>
       </c>
       <c r="F131">
-        <v>1071.5</v>
+        <v>1798.2</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3923,7 +3927,7 @@
         <v>13</v>
       </c>
       <c r="F132">
-        <v>1048.7</v>
+        <v>1752.1</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3943,7 +3947,7 @@
         <v>15</v>
       </c>
       <c r="F133">
-        <v>1299.4000000000001</v>
+        <v>2214.1</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3963,7 +3967,7 @@
         <v>16</v>
       </c>
       <c r="F134">
-        <v>1139.9000000000001</v>
+        <v>1732.1</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3983,7 +3987,7 @@
         <v>17</v>
       </c>
       <c r="F135">
-        <v>1094.3</v>
+        <v>1745.4</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -4020,7 +4024,7 @@
         <v>1</v>
       </c>
       <c r="F137">
-        <v>1162.7</v>
+        <v>1970.9</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -4040,7 +4044,7 @@
         <v>2</v>
       </c>
       <c r="F138">
-        <v>1253.8</v>
+        <v>2179.9</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -4060,7 +4064,7 @@
         <v>3</v>
       </c>
       <c r="F139">
-        <v>1139.9000000000001</v>
+        <v>1444.6</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -4080,7 +4084,7 @@
         <v>4</v>
       </c>
       <c r="F140">
-        <v>1185.5</v>
+        <v>1853.2</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -4100,7 +4104,7 @@
         <v>6</v>
       </c>
       <c r="F141">
-        <v>1231</v>
+        <v>1861.2</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4120,7 +4124,7 @@
         <v>7</v>
       </c>
       <c r="F142">
-        <v>1185.5</v>
+        <v>2024.7</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4335,7 +4339,7 @@
         <v>16</v>
       </c>
       <c r="F155">
-        <v>1723.3</v>
+        <v>1691.9</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4350,6 +4354,9 @@
       </c>
       <c r="E156" t="s">
         <v>17</v>
+      </c>
+      <c r="F156">
+        <v>1723.3</v>
       </c>
     </row>
     <row r="157" spans="1:6">

--- a/data/CoreData.xlsx
+++ b/data/CoreData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="24520" windowHeight="15360" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="24400" windowHeight="15360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="treatments.csv" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="50">
   <si>
     <t>Treatment</t>
   </si>
@@ -240,8 +240,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="157">
+  <cellStyleXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -407,7 +411,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="157">
+  <cellStyles count="161">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -486,6 +490,8 @@
     <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -564,6 +570,8 @@
     <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -866,8 +874,8 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1346,11 +1354,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G214"/>
+  <dimension ref="A1:G284"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A204" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F143" sqref="F143:F178"/>
+      <pane ySplit="2" topLeftCell="A226" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E243" sqref="E243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5333,6 +5341,692 @@
         <v>46</v>
       </c>
     </row>
+    <row r="215" spans="1:6">
+      <c r="A215" s="1">
+        <v>42262</v>
+      </c>
+      <c r="B215" s="5">
+        <v>0.7090277777777777</v>
+      </c>
+      <c r="D215">
+        <v>10</v>
+      </c>
+      <c r="E215" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" s="1">
+        <v>42262</v>
+      </c>
+      <c r="B216" s="5">
+        <v>0.70972222222222225</v>
+      </c>
+      <c r="D216">
+        <v>6</v>
+      </c>
+      <c r="E216" t="s">
+        <v>18</v>
+      </c>
+      <c r="F216">
+        <v>1594.2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" s="1">
+        <v>42262</v>
+      </c>
+      <c r="B217" s="5">
+        <v>0.70972222222222225</v>
+      </c>
+      <c r="D217">
+        <v>16</v>
+      </c>
+      <c r="E217" t="s">
+        <v>19</v>
+      </c>
+      <c r="F217">
+        <v>1989.3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" s="1">
+        <v>42262</v>
+      </c>
+      <c r="B218" s="5">
+        <v>0.70972222222222225</v>
+      </c>
+      <c r="D218">
+        <v>13</v>
+      </c>
+      <c r="E218" t="s">
+        <v>20</v>
+      </c>
+      <c r="F218">
+        <v>2182.8000000000002</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" s="1">
+        <v>42262</v>
+      </c>
+      <c r="B219" s="5">
+        <v>0.70972222222222225</v>
+      </c>
+      <c r="D219">
+        <v>14</v>
+      </c>
+      <c r="E219" t="s">
+        <v>21</v>
+      </c>
+      <c r="F219">
+        <v>1448.4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" s="1">
+        <v>42262</v>
+      </c>
+      <c r="B220" s="5">
+        <v>0.70972222222222225</v>
+      </c>
+      <c r="D220">
+        <v>11</v>
+      </c>
+      <c r="E220" t="s">
+        <v>22</v>
+      </c>
+      <c r="F220">
+        <v>2210.1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" s="1">
+        <v>42262</v>
+      </c>
+      <c r="B221" s="5">
+        <v>0.70972222222222225</v>
+      </c>
+      <c r="D221">
+        <v>1</v>
+      </c>
+      <c r="E221" t="s">
+        <v>23</v>
+      </c>
+      <c r="F221">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" s="1">
+        <v>42262</v>
+      </c>
+      <c r="B222" s="5">
+        <v>0.72638888888888886</v>
+      </c>
+      <c r="D222">
+        <v>10</v>
+      </c>
+      <c r="E222" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" s="1">
+        <v>42262</v>
+      </c>
+      <c r="B223" s="5">
+        <v>0.75138888888888899</v>
+      </c>
+      <c r="D223">
+        <v>4</v>
+      </c>
+      <c r="E223" t="s">
+        <v>9</v>
+      </c>
+      <c r="F223">
+        <v>1922.3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" s="1">
+        <v>42262</v>
+      </c>
+      <c r="B224" s="5">
+        <v>0.75138888888888899</v>
+      </c>
+      <c r="D224">
+        <v>2</v>
+      </c>
+      <c r="E224" t="s">
+        <v>11</v>
+      </c>
+      <c r="F224">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" s="1">
+        <v>42262</v>
+      </c>
+      <c r="B225" s="5">
+        <v>0.75138888888888899</v>
+      </c>
+      <c r="D225">
+        <v>12</v>
+      </c>
+      <c r="E225" t="s">
+        <v>13</v>
+      </c>
+      <c r="F225">
+        <v>1697.5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" s="1">
+        <v>42262</v>
+      </c>
+      <c r="B226" s="5">
+        <v>0.75138888888888899</v>
+      </c>
+      <c r="D226">
+        <v>8</v>
+      </c>
+      <c r="E226" t="s">
+        <v>15</v>
+      </c>
+      <c r="F226">
+        <v>2148.6</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227" s="1">
+        <v>42262</v>
+      </c>
+      <c r="B227" s="5">
+        <v>0.75138888888888899</v>
+      </c>
+      <c r="D227">
+        <v>5</v>
+      </c>
+      <c r="E227" t="s">
+        <v>16</v>
+      </c>
+      <c r="F227">
+        <v>1663.8</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" s="1">
+        <v>42262</v>
+      </c>
+      <c r="B228" s="5">
+        <v>0.75138888888888899</v>
+      </c>
+      <c r="D228">
+        <v>9</v>
+      </c>
+      <c r="E228" t="s">
+        <v>17</v>
+      </c>
+      <c r="F228">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" s="1">
+        <v>42262</v>
+      </c>
+      <c r="B229" s="5">
+        <v>0.7680555555555556</v>
+      </c>
+      <c r="D229">
+        <v>10</v>
+      </c>
+      <c r="E229" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" s="1">
+        <v>42262</v>
+      </c>
+      <c r="B230" s="5">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="D230">
+        <v>6</v>
+      </c>
+      <c r="E230" t="s">
+        <v>1</v>
+      </c>
+      <c r="F230">
+        <v>1965.9</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231" s="1">
+        <v>42262</v>
+      </c>
+      <c r="B231" s="5">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="D231">
+        <v>16</v>
+      </c>
+      <c r="E231" t="s">
+        <v>2</v>
+      </c>
+      <c r="F231">
+        <v>2175.6999999999998</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232" s="1">
+        <v>42262</v>
+      </c>
+      <c r="B232" s="5">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="D232">
+        <v>13</v>
+      </c>
+      <c r="E232" t="s">
+        <v>3</v>
+      </c>
+      <c r="F232">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233" s="1">
+        <v>42262</v>
+      </c>
+      <c r="B233" s="5">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="D233">
+        <v>14</v>
+      </c>
+      <c r="E233" t="s">
+        <v>4</v>
+      </c>
+      <c r="F233">
+        <v>1847.1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234" s="1">
+        <v>42262</v>
+      </c>
+      <c r="B234" s="5">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="D234">
+        <v>11</v>
+      </c>
+      <c r="E234" t="s">
+        <v>6</v>
+      </c>
+      <c r="F234">
+        <v>1856.5</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235" s="1">
+        <v>42262</v>
+      </c>
+      <c r="B235" s="5">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="D235">
+        <v>1</v>
+      </c>
+      <c r="E235" t="s">
+        <v>7</v>
+      </c>
+      <c r="F235">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236" s="1">
+        <v>42262</v>
+      </c>
+      <c r="B236" s="5">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D236">
+        <v>10</v>
+      </c>
+      <c r="E236" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237" s="1">
+        <v>42262</v>
+      </c>
+      <c r="B237" s="5">
+        <v>0.93888888888888899</v>
+      </c>
+      <c r="D237">
+        <v>4</v>
+      </c>
+      <c r="E237" t="s">
+        <v>25</v>
+      </c>
+      <c r="F237">
+        <v>2080.6</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238" s="1">
+        <v>42262</v>
+      </c>
+      <c r="B238" s="5">
+        <v>0.93888888888888899</v>
+      </c>
+      <c r="D238">
+        <v>2</v>
+      </c>
+      <c r="E238" t="s">
+        <v>26</v>
+      </c>
+      <c r="F238">
+        <v>1978.2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239" s="1">
+        <v>42262</v>
+      </c>
+      <c r="B239" s="5">
+        <v>0.93888888888888899</v>
+      </c>
+      <c r="D239">
+        <v>12</v>
+      </c>
+      <c r="E239" t="s">
+        <v>27</v>
+      </c>
+      <c r="F239">
+        <v>1947.7</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240" s="1">
+        <v>42262</v>
+      </c>
+      <c r="B240" s="5">
+        <v>0.93888888888888899</v>
+      </c>
+      <c r="D240">
+        <v>8</v>
+      </c>
+      <c r="E240" t="s">
+        <v>28</v>
+      </c>
+      <c r="F240">
+        <v>2010.7</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241" s="1">
+        <v>42262</v>
+      </c>
+      <c r="B241" s="5">
+        <v>0.93888888888888899</v>
+      </c>
+      <c r="D241">
+        <v>5</v>
+      </c>
+      <c r="E241" t="s">
+        <v>29</v>
+      </c>
+      <c r="F241">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242" s="1">
+        <v>42262</v>
+      </c>
+      <c r="B242" s="5">
+        <v>0.93888888888888899</v>
+      </c>
+      <c r="D242">
+        <v>9</v>
+      </c>
+      <c r="E242" t="s">
+        <v>30</v>
+      </c>
+      <c r="F242">
+        <v>1637.1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243" s="1">
+        <v>42262</v>
+      </c>
+      <c r="B243" s="5">
+        <v>0.9555555555555556</v>
+      </c>
+      <c r="D243">
+        <v>10</v>
+      </c>
+      <c r="E243" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244" s="1">
+        <v>42262</v>
+      </c>
+      <c r="B244" s="5">
+        <v>0.96250000000000002</v>
+      </c>
+      <c r="D244">
+        <v>6</v>
+      </c>
+      <c r="E244" t="s">
+        <v>5</v>
+      </c>
+      <c r="F244">
+        <v>1612.7</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245" s="1">
+        <v>42262</v>
+      </c>
+      <c r="B245" s="5">
+        <v>0.96250000000000002</v>
+      </c>
+      <c r="D245">
+        <v>16</v>
+      </c>
+      <c r="E245" t="s">
+        <v>24</v>
+      </c>
+      <c r="F245">
+        <v>1906.9</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246" s="1">
+        <v>42262</v>
+      </c>
+      <c r="B246" s="5">
+        <v>0.96250000000000002</v>
+      </c>
+      <c r="D246">
+        <v>13</v>
+      </c>
+      <c r="E246" t="s">
+        <v>8</v>
+      </c>
+      <c r="F246">
+        <v>1288.9000000000001</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247" s="1">
+        <v>42262</v>
+      </c>
+      <c r="B247" s="5">
+        <v>0.96250000000000002</v>
+      </c>
+      <c r="D247">
+        <v>14</v>
+      </c>
+      <c r="E247" t="s">
+        <v>10</v>
+      </c>
+      <c r="F247">
+        <v>2045.6</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248" s="1">
+        <v>42262</v>
+      </c>
+      <c r="B248" s="5">
+        <v>0.96250000000000002</v>
+      </c>
+      <c r="D248">
+        <v>11</v>
+      </c>
+      <c r="E248" t="s">
+        <v>12</v>
+      </c>
+      <c r="F248">
+        <v>1733.5</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249" s="1">
+        <v>42262</v>
+      </c>
+      <c r="B249" s="5">
+        <v>0.96250000000000002</v>
+      </c>
+      <c r="D249">
+        <v>1</v>
+      </c>
+      <c r="E249" t="s">
+        <v>14</v>
+      </c>
+      <c r="F249">
+        <v>2014.4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250" s="1"/>
+      <c r="B250" s="5"/>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="B251" s="5"/>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="B252" s="5"/>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="B253" s="5"/>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="B254" s="5"/>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="B255" s="5"/>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="B256" s="5"/>
+    </row>
+    <row r="257" spans="2:4">
+      <c r="B257" s="5"/>
+    </row>
+    <row r="258" spans="2:4">
+      <c r="B258" s="5"/>
+    </row>
+    <row r="259" spans="2:4">
+      <c r="B259" s="5"/>
+    </row>
+    <row r="260" spans="2:4">
+      <c r="B260" s="5"/>
+    </row>
+    <row r="261" spans="2:4">
+      <c r="B261" s="5"/>
+    </row>
+    <row r="262" spans="2:4">
+      <c r="B262" s="5"/>
+    </row>
+    <row r="263" spans="2:4">
+      <c r="B263" s="5"/>
+    </row>
+    <row r="264" spans="2:4">
+      <c r="B264" s="5"/>
+    </row>
+    <row r="265" spans="2:4">
+      <c r="B265" s="5"/>
+    </row>
+    <row r="266" spans="2:4">
+      <c r="D266" s="2"/>
+    </row>
+    <row r="267" spans="2:4">
+      <c r="D267" s="2"/>
+    </row>
+    <row r="268" spans="2:4">
+      <c r="D268" s="2"/>
+    </row>
+    <row r="269" spans="2:4">
+      <c r="D269" s="2"/>
+    </row>
+    <row r="270" spans="2:4">
+      <c r="D270" s="2"/>
+    </row>
+    <row r="271" spans="2:4">
+      <c r="D271" s="2"/>
+    </row>
+    <row r="272" spans="2:4">
+      <c r="D272" s="2"/>
+    </row>
+    <row r="273" spans="4:4">
+      <c r="D273" s="2"/>
+    </row>
+    <row r="274" spans="4:4">
+      <c r="D274" s="2"/>
+    </row>
+    <row r="275" spans="4:4">
+      <c r="D275" s="2"/>
+    </row>
+    <row r="276" spans="4:4">
+      <c r="D276" s="2"/>
+    </row>
+    <row r="277" spans="4:4">
+      <c r="D277" s="2"/>
+    </row>
+    <row r="278" spans="4:4">
+      <c r="D278" s="2"/>
+    </row>
+    <row r="279" spans="4:4">
+      <c r="D279" s="2"/>
+    </row>
+    <row r="280" spans="4:4">
+      <c r="D280" s="2"/>
+    </row>
+    <row r="281" spans="4:4">
+      <c r="D281" s="2"/>
+    </row>
+    <row r="282" spans="4:4">
+      <c r="D282" s="2"/>
+    </row>
+    <row r="283" spans="4:4">
+      <c r="D283" s="2"/>
+    </row>
+    <row r="284" spans="4:4">
+      <c r="D284" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/data/CoreData.xlsx
+++ b/data/CoreData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="24400" windowHeight="15360" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24700" windowHeight="15600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="treatments.csv" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="51">
   <si>
     <t>Treatment</t>
   </si>
@@ -171,6 +171,9 @@
   <si>
     <t xml:space="preserve">30ml water added 9/10/2015 accidental </t>
   </si>
+  <si>
+    <t>approx. 10ml water added 9/17/2015 to bring up to ~5% volumetric moisture content</t>
+  </si>
 </sst>
 </file>
 
@@ -240,7 +243,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="161">
+  <cellStyleXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -402,16 +405,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="161">
+  <cellStyles count="167">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -492,6 +502,9 @@
     <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -572,6 +585,9 @@
     <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -874,8 +890,8 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1354,11 +1370,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G284"/>
+  <dimension ref="A1:G382"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A226" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E243" sqref="E243"/>
+      <pane ySplit="2" topLeftCell="A279" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E285" sqref="E285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5922,110 +5938,1807 @@
       </c>
     </row>
     <row r="250" spans="1:6">
-      <c r="A250" s="1"/>
-      <c r="B250" s="5"/>
+      <c r="A250" s="1">
+        <v>42265</v>
+      </c>
+      <c r="B250" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D250">
+        <v>10</v>
+      </c>
+      <c r="E250" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="251" spans="1:6">
-      <c r="B251" s="5"/>
+      <c r="A251" s="1">
+        <v>42265</v>
+      </c>
+      <c r="B251" s="5">
+        <v>0.75624999999999998</v>
+      </c>
+      <c r="D251">
+        <v>6</v>
+      </c>
+      <c r="E251" t="s">
+        <v>1</v>
+      </c>
+      <c r="F251">
+        <v>1964.1</v>
+      </c>
     </row>
     <row r="252" spans="1:6">
-      <c r="B252" s="5"/>
+      <c r="A252" s="1">
+        <v>42265</v>
+      </c>
+      <c r="B252" s="5">
+        <v>0.75624999999999998</v>
+      </c>
+      <c r="D252">
+        <v>16</v>
+      </c>
+      <c r="E252" t="s">
+        <v>2</v>
+      </c>
+      <c r="F252">
+        <v>2173.3000000000002</v>
+      </c>
     </row>
     <row r="253" spans="1:6">
-      <c r="B253" s="5"/>
+      <c r="A253" s="1">
+        <v>42265</v>
+      </c>
+      <c r="B253" s="5">
+        <v>0.75624999999999998</v>
+      </c>
+      <c r="D253">
+        <v>13</v>
+      </c>
+      <c r="E253" t="s">
+        <v>3</v>
+      </c>
+      <c r="F253">
+        <v>1438.8</v>
+      </c>
     </row>
     <row r="254" spans="1:6">
-      <c r="B254" s="5"/>
+      <c r="A254" s="1">
+        <v>42265</v>
+      </c>
+      <c r="B254" s="5">
+        <v>0.75624999999999998</v>
+      </c>
+      <c r="D254">
+        <v>14</v>
+      </c>
+      <c r="E254" t="s">
+        <v>4</v>
+      </c>
+      <c r="F254">
+        <v>1844.2</v>
+      </c>
     </row>
     <row r="255" spans="1:6">
-      <c r="B255" s="5"/>
+      <c r="A255" s="1">
+        <v>42265</v>
+      </c>
+      <c r="B255" s="5">
+        <v>0.75624999999999998</v>
+      </c>
+      <c r="D255">
+        <v>11</v>
+      </c>
+      <c r="E255" t="s">
+        <v>6</v>
+      </c>
+      <c r="F255">
+        <v>1852.7</v>
+      </c>
     </row>
     <row r="256" spans="1:6">
-      <c r="B256" s="5"/>
-    </row>
-    <row r="257" spans="2:4">
-      <c r="B257" s="5"/>
-    </row>
-    <row r="258" spans="2:4">
-      <c r="B258" s="5"/>
-    </row>
-    <row r="259" spans="2:4">
-      <c r="B259" s="5"/>
-    </row>
-    <row r="260" spans="2:4">
-      <c r="B260" s="5"/>
-    </row>
-    <row r="261" spans="2:4">
-      <c r="B261" s="5"/>
-    </row>
-    <row r="262" spans="2:4">
-      <c r="B262" s="5"/>
-    </row>
-    <row r="263" spans="2:4">
-      <c r="B263" s="5"/>
-    </row>
-    <row r="264" spans="2:4">
-      <c r="B264" s="5"/>
-    </row>
-    <row r="265" spans="2:4">
-      <c r="B265" s="5"/>
-    </row>
-    <row r="266" spans="2:4">
-      <c r="D266" s="2"/>
-    </row>
-    <row r="267" spans="2:4">
-      <c r="D267" s="2"/>
-    </row>
-    <row r="268" spans="2:4">
-      <c r="D268" s="2"/>
-    </row>
-    <row r="269" spans="2:4">
-      <c r="D269" s="2"/>
-    </row>
-    <row r="270" spans="2:4">
-      <c r="D270" s="2"/>
-    </row>
-    <row r="271" spans="2:4">
-      <c r="D271" s="2"/>
-    </row>
-    <row r="272" spans="2:4">
-      <c r="D272" s="2"/>
-    </row>
-    <row r="273" spans="4:4">
-      <c r="D273" s="2"/>
-    </row>
-    <row r="274" spans="4:4">
-      <c r="D274" s="2"/>
-    </row>
-    <row r="275" spans="4:4">
-      <c r="D275" s="2"/>
-    </row>
-    <row r="276" spans="4:4">
-      <c r="D276" s="2"/>
-    </row>
-    <row r="277" spans="4:4">
-      <c r="D277" s="2"/>
-    </row>
-    <row r="278" spans="4:4">
-      <c r="D278" s="2"/>
-    </row>
-    <row r="279" spans="4:4">
-      <c r="D279" s="2"/>
-    </row>
-    <row r="280" spans="4:4">
-      <c r="D280" s="2"/>
-    </row>
-    <row r="281" spans="4:4">
-      <c r="D281" s="2"/>
-    </row>
-    <row r="282" spans="4:4">
-      <c r="D282" s="2"/>
-    </row>
-    <row r="283" spans="4:4">
-      <c r="D283" s="2"/>
-    </row>
-    <row r="284" spans="4:4">
-      <c r="D284" s="2"/>
+      <c r="A256" s="1">
+        <v>42265</v>
+      </c>
+      <c r="B256" s="5">
+        <v>0.75624999999999998</v>
+      </c>
+      <c r="D256">
+        <v>1</v>
+      </c>
+      <c r="E256" t="s">
+        <v>7</v>
+      </c>
+      <c r="F256">
+        <v>2015.9</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="A257" s="1">
+        <v>42265</v>
+      </c>
+      <c r="B257" s="5">
+        <v>0.7729166666666667</v>
+      </c>
+      <c r="D257">
+        <v>10</v>
+      </c>
+      <c r="E257" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="A258" s="1">
+        <v>42265</v>
+      </c>
+      <c r="B258" s="5">
+        <v>0.77986111111111101</v>
+      </c>
+      <c r="D258">
+        <v>4</v>
+      </c>
+      <c r="E258" t="s">
+        <v>9</v>
+      </c>
+      <c r="F258">
+        <v>1921.4</v>
+      </c>
+      <c r="G258" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259" s="1">
+        <v>42265</v>
+      </c>
+      <c r="B259" s="5">
+        <v>0.77986111111111101</v>
+      </c>
+      <c r="D259">
+        <v>2</v>
+      </c>
+      <c r="E259" t="s">
+        <v>11</v>
+      </c>
+      <c r="F259">
+        <v>1711.5</v>
+      </c>
+      <c r="G259" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
+      <c r="A260" s="1">
+        <v>42265</v>
+      </c>
+      <c r="B260" s="5">
+        <v>0.77986111111111101</v>
+      </c>
+      <c r="D260">
+        <v>12</v>
+      </c>
+      <c r="E260" t="s">
+        <v>13</v>
+      </c>
+      <c r="F260">
+        <v>1699</v>
+      </c>
+      <c r="G260" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
+      <c r="A261" s="1">
+        <v>42265</v>
+      </c>
+      <c r="B261" s="5">
+        <v>0.77986111111111101</v>
+      </c>
+      <c r="D261">
+        <v>8</v>
+      </c>
+      <c r="E261" t="s">
+        <v>15</v>
+      </c>
+      <c r="F261">
+        <v>2146.8000000000002</v>
+      </c>
+      <c r="G261" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="A262" s="1">
+        <v>42265</v>
+      </c>
+      <c r="B262" s="5">
+        <v>0.77986111111111101</v>
+      </c>
+      <c r="D262">
+        <v>5</v>
+      </c>
+      <c r="E262" t="s">
+        <v>16</v>
+      </c>
+      <c r="F262">
+        <v>1661.6</v>
+      </c>
+      <c r="G262" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263" s="1">
+        <v>42265</v>
+      </c>
+      <c r="B263" s="5">
+        <v>0.77986111111111101</v>
+      </c>
+      <c r="D263">
+        <v>9</v>
+      </c>
+      <c r="E263" t="s">
+        <v>17</v>
+      </c>
+      <c r="F263">
+        <v>1703.8</v>
+      </c>
+      <c r="G263" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="A264" s="1">
+        <v>42265</v>
+      </c>
+      <c r="B264" s="5">
+        <v>0.79652777777777783</v>
+      </c>
+      <c r="D264">
+        <v>10</v>
+      </c>
+      <c r="E264" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
+      <c r="A265" s="1">
+        <v>42265</v>
+      </c>
+      <c r="B265" s="5">
+        <v>0.82777777777777783</v>
+      </c>
+      <c r="D265">
+        <v>6</v>
+      </c>
+      <c r="E265" t="s">
+        <v>18</v>
+      </c>
+      <c r="F265">
+        <v>1588.8</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
+      <c r="A266" s="1">
+        <v>42265</v>
+      </c>
+      <c r="B266" s="5">
+        <v>0.82777777777777783</v>
+      </c>
+      <c r="D266">
+        <v>16</v>
+      </c>
+      <c r="E266" t="s">
+        <v>19</v>
+      </c>
+      <c r="F266">
+        <v>1982.6</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
+      <c r="A267" s="1">
+        <v>42265</v>
+      </c>
+      <c r="B267" s="5">
+        <v>0.82777777777777783</v>
+      </c>
+      <c r="D267">
+        <v>13</v>
+      </c>
+      <c r="E267" t="s">
+        <v>20</v>
+      </c>
+      <c r="F267">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
+      <c r="A268" s="1">
+        <v>42265</v>
+      </c>
+      <c r="B268" s="5">
+        <v>0.82777777777777783</v>
+      </c>
+      <c r="D268">
+        <v>14</v>
+      </c>
+      <c r="E268" t="s">
+        <v>21</v>
+      </c>
+      <c r="F268">
+        <v>1435.4</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
+      <c r="A269" s="1">
+        <v>42265</v>
+      </c>
+      <c r="B269" s="5">
+        <v>0.82777777777777783</v>
+      </c>
+      <c r="D269">
+        <v>11</v>
+      </c>
+      <c r="E269" t="s">
+        <v>22</v>
+      </c>
+      <c r="F269">
+        <v>2205.6999999999998</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
+      <c r="A270" s="1">
+        <v>42265</v>
+      </c>
+      <c r="B270" s="5">
+        <v>0.82777777777777783</v>
+      </c>
+      <c r="D270">
+        <v>1</v>
+      </c>
+      <c r="E270" t="s">
+        <v>23</v>
+      </c>
+      <c r="F270">
+        <v>1687.8</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
+      <c r="A271" s="1">
+        <v>42265</v>
+      </c>
+      <c r="B271" s="5">
+        <v>0.84444444444444444</v>
+      </c>
+      <c r="D271">
+        <v>10</v>
+      </c>
+      <c r="E271" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
+      <c r="A272" s="1">
+        <v>42265</v>
+      </c>
+      <c r="B272" s="5">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="D272">
+        <v>4</v>
+      </c>
+      <c r="E272" t="s">
+        <v>25</v>
+      </c>
+      <c r="F272">
+        <v>2068.9</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
+      <c r="A273" s="1">
+        <v>42265</v>
+      </c>
+      <c r="B273" s="5">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="D273">
+        <v>2</v>
+      </c>
+      <c r="E273" t="s">
+        <v>26</v>
+      </c>
+      <c r="F273">
+        <v>1968.4</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6">
+      <c r="A274" s="1">
+        <v>42265</v>
+      </c>
+      <c r="B274" s="5">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="D274">
+        <v>12</v>
+      </c>
+      <c r="E274" t="s">
+        <v>27</v>
+      </c>
+      <c r="F274">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6">
+      <c r="A275" s="1">
+        <v>42265</v>
+      </c>
+      <c r="B275" s="5">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="D275">
+        <v>8</v>
+      </c>
+      <c r="E275" t="s">
+        <v>28</v>
+      </c>
+      <c r="F275">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6">
+      <c r="A276" s="1">
+        <v>42265</v>
+      </c>
+      <c r="B276" s="5">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="D276">
+        <v>5</v>
+      </c>
+      <c r="E276" t="s">
+        <v>29</v>
+      </c>
+      <c r="F276">
+        <v>2138.4</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
+      <c r="A277" s="1">
+        <v>42265</v>
+      </c>
+      <c r="B277" s="5">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="D277">
+        <v>9</v>
+      </c>
+      <c r="E277" t="s">
+        <v>30</v>
+      </c>
+      <c r="F277">
+        <v>1628.6</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6">
+      <c r="A278" s="1">
+        <v>42265</v>
+      </c>
+      <c r="B278" s="5">
+        <v>0.89861111111111114</v>
+      </c>
+      <c r="D278">
+        <v>10</v>
+      </c>
+      <c r="E278" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6">
+      <c r="A279" s="1">
+        <v>42265</v>
+      </c>
+      <c r="B279" s="5">
+        <v>0.90555555555555556</v>
+      </c>
+      <c r="D279">
+        <v>6</v>
+      </c>
+      <c r="E279" t="s">
+        <v>5</v>
+      </c>
+      <c r="F279">
+        <v>1613.4</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6">
+      <c r="A280" s="1">
+        <v>42265</v>
+      </c>
+      <c r="B280" s="5">
+        <v>0.90555555555555556</v>
+      </c>
+      <c r="D280">
+        <v>16</v>
+      </c>
+      <c r="E280" t="s">
+        <v>24</v>
+      </c>
+      <c r="F280">
+        <v>1905.6</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6">
+      <c r="A281" s="1">
+        <v>42265</v>
+      </c>
+      <c r="B281" s="5">
+        <v>0.90555555555555556</v>
+      </c>
+      <c r="D281">
+        <v>13</v>
+      </c>
+      <c r="E281" t="s">
+        <v>8</v>
+      </c>
+      <c r="F281">
+        <v>1290.3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6">
+      <c r="A282" s="1">
+        <v>42265</v>
+      </c>
+      <c r="B282" s="5">
+        <v>0.90555555555555556</v>
+      </c>
+      <c r="D282">
+        <v>14</v>
+      </c>
+      <c r="E282" t="s">
+        <v>10</v>
+      </c>
+      <c r="F282">
+        <v>2045.9</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6">
+      <c r="A283" s="1">
+        <v>42265</v>
+      </c>
+      <c r="B283" s="5">
+        <v>0.90555555555555556</v>
+      </c>
+      <c r="D283">
+        <v>11</v>
+      </c>
+      <c r="E283" t="s">
+        <v>12</v>
+      </c>
+      <c r="F283">
+        <v>1731.1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
+      <c r="A284" s="1">
+        <v>42265</v>
+      </c>
+      <c r="B284" s="5">
+        <v>0.90555555555555556</v>
+      </c>
+      <c r="D284">
+        <v>1</v>
+      </c>
+      <c r="E284" t="s">
+        <v>14</v>
+      </c>
+      <c r="F284">
+        <v>2015.3</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6">
+      <c r="A285" s="1">
+        <v>42265</v>
+      </c>
+      <c r="B285" s="6">
+        <v>0.92222222222222217</v>
+      </c>
+      <c r="D285">
+        <v>10</v>
+      </c>
+      <c r="E285" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6">
+      <c r="A286" s="1">
+        <v>42254</v>
+      </c>
+      <c r="B286" s="5"/>
+      <c r="D286" s="5"/>
+      <c r="E286" t="s">
+        <v>1</v>
+      </c>
+      <c r="F286">
+        <v>1970.7</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6">
+      <c r="A287" s="1">
+        <v>42254</v>
+      </c>
+      <c r="B287" s="5"/>
+      <c r="D287" s="5"/>
+      <c r="E287" t="s">
+        <v>2</v>
+      </c>
+      <c r="F287">
+        <v>2181.1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6">
+      <c r="A288" s="1">
+        <v>42254</v>
+      </c>
+      <c r="B288" s="5"/>
+      <c r="D288" s="5"/>
+      <c r="E288" t="s">
+        <v>3</v>
+      </c>
+      <c r="F288">
+        <v>1444.6</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6">
+      <c r="A289" s="1">
+        <v>42254</v>
+      </c>
+      <c r="B289" s="5"/>
+      <c r="D289" s="5"/>
+      <c r="E289" t="s">
+        <v>4</v>
+      </c>
+      <c r="F289">
+        <v>1850.9</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6">
+      <c r="A290" s="1">
+        <v>42254</v>
+      </c>
+      <c r="B290" s="5"/>
+      <c r="D290" s="5"/>
+      <c r="E290" t="s">
+        <v>6</v>
+      </c>
+      <c r="F290">
+        <v>1858.8</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6">
+      <c r="A291" s="1">
+        <v>42254</v>
+      </c>
+      <c r="B291" s="5"/>
+      <c r="D291" s="5"/>
+      <c r="E291" t="s">
+        <v>7</v>
+      </c>
+      <c r="F291">
+        <v>2026.8</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6">
+      <c r="A292" s="1">
+        <v>42254</v>
+      </c>
+      <c r="B292" s="5"/>
+      <c r="D292" s="5"/>
+      <c r="E292" t="s">
+        <v>9</v>
+      </c>
+      <c r="F292">
+        <v>1979.5</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6">
+      <c r="A293" s="1">
+        <v>42254</v>
+      </c>
+      <c r="B293" s="5"/>
+      <c r="D293" s="5"/>
+      <c r="E293" t="s">
+        <v>11</v>
+      </c>
+      <c r="F293">
+        <v>1766.7</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6">
+      <c r="A294" s="1">
+        <v>42254</v>
+      </c>
+      <c r="B294" s="5"/>
+      <c r="D294" s="5"/>
+      <c r="E294" t="s">
+        <v>13</v>
+      </c>
+      <c r="F294">
+        <v>1732.3</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6">
+      <c r="A295" s="1">
+        <v>42254</v>
+      </c>
+      <c r="B295" s="5"/>
+      <c r="D295" s="5"/>
+      <c r="E295" t="s">
+        <v>15</v>
+      </c>
+      <c r="F295">
+        <v>2182.1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6">
+      <c r="A296" s="1">
+        <v>42254</v>
+      </c>
+      <c r="B296" s="5"/>
+      <c r="D296" s="5"/>
+      <c r="E296" t="s">
+        <v>16</v>
+      </c>
+      <c r="F296">
+        <v>1698.8</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6">
+      <c r="A297" s="1">
+        <v>42254</v>
+      </c>
+      <c r="B297" s="5"/>
+      <c r="D297" s="5"/>
+      <c r="E297" t="s">
+        <v>17</v>
+      </c>
+      <c r="F297">
+        <v>1727.9</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6">
+      <c r="A298" s="1">
+        <v>42254</v>
+      </c>
+      <c r="B298" s="5"/>
+      <c r="D298" s="5"/>
+      <c r="E298" t="s">
+        <v>18</v>
+      </c>
+      <c r="F298">
+        <v>1623.9</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6">
+      <c r="A299" s="1">
+        <v>42254</v>
+      </c>
+      <c r="B299" s="5"/>
+      <c r="D299" s="5"/>
+      <c r="E299" t="s">
+        <v>19</v>
+      </c>
+      <c r="F299">
+        <v>2022.3</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6">
+      <c r="A300" s="1">
+        <v>42254</v>
+      </c>
+      <c r="B300" s="5"/>
+      <c r="D300" s="5"/>
+      <c r="E300" t="s">
+        <v>20</v>
+      </c>
+      <c r="F300">
+        <v>2212.1999999999998</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6">
+      <c r="A301" s="1">
+        <v>42254</v>
+      </c>
+      <c r="B301" s="5"/>
+      <c r="D301" s="5"/>
+      <c r="E301" t="s">
+        <v>21</v>
+      </c>
+      <c r="F301">
+        <v>1489.9</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6">
+      <c r="A302" s="1">
+        <v>42254</v>
+      </c>
+      <c r="B302" s="5"/>
+      <c r="D302" s="5"/>
+      <c r="E302" t="s">
+        <v>22</v>
+      </c>
+      <c r="F302">
+        <v>2250.3000000000002</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6">
+      <c r="A303" s="1">
+        <v>42254</v>
+      </c>
+      <c r="B303" s="5"/>
+      <c r="D303" s="5"/>
+      <c r="E303" t="s">
+        <v>23</v>
+      </c>
+      <c r="F303">
+        <v>1725.3</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6">
+      <c r="A304" s="1">
+        <v>42254</v>
+      </c>
+      <c r="B304" s="5"/>
+      <c r="D304" s="5"/>
+      <c r="E304" t="s">
+        <v>5</v>
+      </c>
+      <c r="F304">
+        <v>1624.1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6">
+      <c r="A305" s="1">
+        <v>42254</v>
+      </c>
+      <c r="B305" s="5"/>
+      <c r="D305" s="5"/>
+      <c r="E305" t="s">
+        <v>24</v>
+      </c>
+      <c r="F305">
+        <v>1908.8</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6">
+      <c r="A306" s="1">
+        <v>42254</v>
+      </c>
+      <c r="B306" s="5"/>
+      <c r="D306" s="5"/>
+      <c r="E306" t="s">
+        <v>8</v>
+      </c>
+      <c r="F306">
+        <v>1295.8</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6">
+      <c r="A307" s="1">
+        <v>42254</v>
+      </c>
+      <c r="B307" s="5"/>
+      <c r="D307" s="5"/>
+      <c r="E307" t="s">
+        <v>10</v>
+      </c>
+      <c r="F307">
+        <v>2049.8000000000002</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6">
+      <c r="A308" s="1">
+        <v>42254</v>
+      </c>
+      <c r="B308" s="5"/>
+      <c r="D308" s="5"/>
+      <c r="E308" t="s">
+        <v>12</v>
+      </c>
+      <c r="F308">
+        <v>1741.2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6">
+      <c r="A309" s="1">
+        <v>42254</v>
+      </c>
+      <c r="B309" s="5"/>
+      <c r="D309" s="5"/>
+      <c r="E309" t="s">
+        <v>14</v>
+      </c>
+      <c r="F309">
+        <v>2028.1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6">
+      <c r="A310" s="1">
+        <v>42254</v>
+      </c>
+      <c r="B310" s="5"/>
+      <c r="D310" s="5"/>
+      <c r="E310" t="s">
+        <v>25</v>
+      </c>
+      <c r="F310">
+        <v>2119.6</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6">
+      <c r="A311" s="1">
+        <v>42254</v>
+      </c>
+      <c r="B311" s="5"/>
+      <c r="D311" s="5"/>
+      <c r="E311" t="s">
+        <v>26</v>
+      </c>
+      <c r="F311">
+        <v>2015.2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6">
+      <c r="A312" s="1">
+        <v>42254</v>
+      </c>
+      <c r="B312" s="5"/>
+      <c r="D312" s="5"/>
+      <c r="E312" t="s">
+        <v>27</v>
+      </c>
+      <c r="F312">
+        <v>1977.6</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6">
+      <c r="A313" s="1">
+        <v>42254</v>
+      </c>
+      <c r="B313" s="5"/>
+      <c r="D313" s="5"/>
+      <c r="E313" t="s">
+        <v>28</v>
+      </c>
+      <c r="F313">
+        <v>2048.4</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6">
+      <c r="A314" s="1">
+        <v>42254</v>
+      </c>
+      <c r="B314" s="5"/>
+      <c r="D314" s="5"/>
+      <c r="E314" t="s">
+        <v>29</v>
+      </c>
+      <c r="F314">
+        <v>2165.9</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6">
+      <c r="A315" s="1">
+        <v>42254</v>
+      </c>
+      <c r="B315" s="5"/>
+      <c r="D315" s="5"/>
+      <c r="E315" t="s">
+        <v>30</v>
+      </c>
+      <c r="F315">
+        <v>1647.2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6">
+      <c r="A316" s="1">
+        <v>42257</v>
+      </c>
+      <c r="B316" s="5"/>
+      <c r="D316" s="5"/>
+      <c r="E316" t="s">
+        <v>1</v>
+      </c>
+      <c r="F316">
+        <v>1973.9</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6">
+      <c r="A317" s="1">
+        <v>42257</v>
+      </c>
+      <c r="B317" s="5"/>
+      <c r="D317" s="5"/>
+      <c r="E317" t="s">
+        <v>2</v>
+      </c>
+      <c r="F317">
+        <v>2185.1999999999998</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6">
+      <c r="A318" s="1">
+        <v>42257</v>
+      </c>
+      <c r="B318" s="5"/>
+      <c r="D318" s="5"/>
+      <c r="E318" t="s">
+        <v>3</v>
+      </c>
+      <c r="F318">
+        <v>1448.9</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6">
+      <c r="A319" s="1">
+        <v>42257</v>
+      </c>
+      <c r="B319" s="5"/>
+      <c r="D319" s="5"/>
+      <c r="E319" t="s">
+        <v>4</v>
+      </c>
+      <c r="F319">
+        <v>1855.2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6">
+      <c r="A320" s="1">
+        <v>42257</v>
+      </c>
+      <c r="B320" s="5"/>
+      <c r="D320" s="5"/>
+      <c r="E320" t="s">
+        <v>6</v>
+      </c>
+      <c r="F320">
+        <v>1862.4</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6">
+      <c r="A321" s="1">
+        <v>42257</v>
+      </c>
+      <c r="B321" s="5"/>
+      <c r="D321" s="5"/>
+      <c r="E321" t="s">
+        <v>7</v>
+      </c>
+      <c r="F321">
+        <v>2030.2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6">
+      <c r="A322" s="1">
+        <v>42257</v>
+      </c>
+      <c r="B322" s="5"/>
+      <c r="D322" s="5"/>
+      <c r="E322" t="s">
+        <v>9</v>
+      </c>
+      <c r="F322">
+        <v>1950.2</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6">
+      <c r="A323" s="1">
+        <v>42257</v>
+      </c>
+      <c r="B323" s="5"/>
+      <c r="D323" s="5"/>
+      <c r="E323" t="s">
+        <v>11</v>
+      </c>
+      <c r="F323">
+        <v>1740.8</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6">
+      <c r="A324" s="1">
+        <v>42257</v>
+      </c>
+      <c r="B324" s="5"/>
+      <c r="D324" s="5"/>
+      <c r="E324" t="s">
+        <v>13</v>
+      </c>
+      <c r="F324">
+        <v>1716.9</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6">
+      <c r="A325" s="1">
+        <v>42257</v>
+      </c>
+      <c r="B325" s="5"/>
+      <c r="D325" s="5"/>
+      <c r="E325" t="s">
+        <v>15</v>
+      </c>
+      <c r="F325">
+        <v>2165.8000000000002</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6">
+      <c r="A326" s="1">
+        <v>42257</v>
+      </c>
+      <c r="B326" s="5"/>
+      <c r="D326" s="5"/>
+      <c r="E326" t="s">
+        <v>16</v>
+      </c>
+      <c r="F326">
+        <v>1679.8</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6">
+      <c r="A327" s="1">
+        <v>42257</v>
+      </c>
+      <c r="B327" s="5"/>
+      <c r="D327" s="5"/>
+      <c r="E327" t="s">
+        <v>17</v>
+      </c>
+      <c r="F327">
+        <v>1715.9</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6">
+      <c r="A328" s="1">
+        <v>42257</v>
+      </c>
+      <c r="B328" s="5"/>
+      <c r="D328" s="5"/>
+      <c r="E328" t="s">
+        <v>18</v>
+      </c>
+      <c r="F328">
+        <v>1607.9</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6">
+      <c r="A329" s="1">
+        <v>42257</v>
+      </c>
+      <c r="B329" s="5"/>
+      <c r="D329" s="5"/>
+      <c r="E329" t="s">
+        <v>19</v>
+      </c>
+      <c r="F329">
+        <v>2003.7</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6">
+      <c r="A330" s="1">
+        <v>42257</v>
+      </c>
+      <c r="B330" s="5"/>
+      <c r="D330" s="5"/>
+      <c r="E330" t="s">
+        <v>20</v>
+      </c>
+      <c r="F330">
+        <v>2196.6999999999998</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6">
+      <c r="A331" s="1">
+        <v>42257</v>
+      </c>
+      <c r="B331" s="5"/>
+      <c r="D331" s="5"/>
+      <c r="E331" t="s">
+        <v>21</v>
+      </c>
+      <c r="F331">
+        <v>1470.5</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6">
+      <c r="A332" s="1">
+        <v>42257</v>
+      </c>
+      <c r="B332" s="5"/>
+      <c r="D332" s="5"/>
+      <c r="E332" t="s">
+        <v>22</v>
+      </c>
+      <c r="F332">
+        <v>2229.8000000000002</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6">
+      <c r="A333" s="1">
+        <v>42257</v>
+      </c>
+      <c r="B333" s="5"/>
+      <c r="D333" s="5"/>
+      <c r="E333" t="s">
+        <v>23</v>
+      </c>
+      <c r="F333">
+        <v>1707.4</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6">
+      <c r="A334" s="1">
+        <v>42257</v>
+      </c>
+      <c r="B334" s="5"/>
+      <c r="D334" s="5"/>
+      <c r="E334" t="s">
+        <v>5</v>
+      </c>
+      <c r="F334">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6">
+      <c r="A335" s="1">
+        <v>42257</v>
+      </c>
+      <c r="B335" s="5"/>
+      <c r="D335" s="5"/>
+      <c r="E335" t="s">
+        <v>24</v>
+      </c>
+      <c r="F335">
+        <v>1914.9</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6">
+      <c r="A336" s="1">
+        <v>42257</v>
+      </c>
+      <c r="B336" s="5"/>
+      <c r="D336" s="5"/>
+      <c r="E336" t="s">
+        <v>8</v>
+      </c>
+      <c r="F336">
+        <v>1300.4000000000001</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6">
+      <c r="A337" s="1">
+        <v>42257</v>
+      </c>
+      <c r="B337" s="5"/>
+      <c r="D337" s="5"/>
+      <c r="E337" t="s">
+        <v>10</v>
+      </c>
+      <c r="F337">
+        <v>2054.1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6">
+      <c r="A338" s="1">
+        <v>42257</v>
+      </c>
+      <c r="B338" s="5"/>
+      <c r="D338" s="5"/>
+      <c r="E338" t="s">
+        <v>12</v>
+      </c>
+      <c r="F338">
+        <v>1744.6</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6">
+      <c r="A339" s="1">
+        <v>42257</v>
+      </c>
+      <c r="B339" s="5"/>
+      <c r="D339" s="5"/>
+      <c r="E339" t="s">
+        <v>14</v>
+      </c>
+      <c r="F339">
+        <v>2030.3</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6">
+      <c r="A340" s="1">
+        <v>42257</v>
+      </c>
+      <c r="B340" s="5"/>
+      <c r="D340" s="5"/>
+      <c r="E340" t="s">
+        <v>25</v>
+      </c>
+      <c r="F340">
+        <v>2096.5</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6">
+      <c r="A341" s="1">
+        <v>42257</v>
+      </c>
+      <c r="B341" s="5"/>
+      <c r="D341" s="5"/>
+      <c r="E341" t="s">
+        <v>26</v>
+      </c>
+      <c r="F341">
+        <v>1992.5</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6">
+      <c r="A342" s="1">
+        <v>42257</v>
+      </c>
+      <c r="B342" s="5"/>
+      <c r="D342" s="5"/>
+      <c r="E342" t="s">
+        <v>27</v>
+      </c>
+      <c r="F342">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6">
+      <c r="A343" s="1">
+        <v>42257</v>
+      </c>
+      <c r="B343" s="5"/>
+      <c r="D343" s="5"/>
+      <c r="E343" t="s">
+        <v>28</v>
+      </c>
+      <c r="F343">
+        <v>2027.5</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6">
+      <c r="A344" s="1">
+        <v>42257</v>
+      </c>
+      <c r="B344" s="5"/>
+      <c r="D344" s="5"/>
+      <c r="E344" t="s">
+        <v>29</v>
+      </c>
+      <c r="F344">
+        <v>2150.8000000000002</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6">
+      <c r="A345" s="1">
+        <v>42257</v>
+      </c>
+      <c r="B345" s="5"/>
+      <c r="D345" s="5"/>
+      <c r="E345" t="s">
+        <v>30</v>
+      </c>
+      <c r="F345">
+        <v>1636.4</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6">
+      <c r="A346" s="1">
+        <v>42261</v>
+      </c>
+      <c r="B346" s="5"/>
+      <c r="D346" s="5"/>
+      <c r="E346" t="s">
+        <v>1</v>
+      </c>
+      <c r="F346">
+        <v>1965.8</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6">
+      <c r="A347" s="1">
+        <v>42261</v>
+      </c>
+      <c r="B347" s="5"/>
+      <c r="D347" s="5"/>
+      <c r="E347" t="s">
+        <v>2</v>
+      </c>
+      <c r="F347">
+        <v>2174.1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6">
+      <c r="A348" s="1">
+        <v>42261</v>
+      </c>
+      <c r="B348" s="5"/>
+      <c r="D348" s="5"/>
+      <c r="E348" t="s">
+        <v>3</v>
+      </c>
+      <c r="F348">
+        <v>1442.4</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6">
+      <c r="A349" s="1">
+        <v>42261</v>
+      </c>
+      <c r="B349" s="5"/>
+      <c r="D349" s="5"/>
+      <c r="E349" t="s">
+        <v>4</v>
+      </c>
+      <c r="F349">
+        <v>1846.2</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6">
+      <c r="A350" s="1">
+        <v>42261</v>
+      </c>
+      <c r="B350" s="5"/>
+      <c r="D350" s="5"/>
+      <c r="E350" t="s">
+        <v>6</v>
+      </c>
+      <c r="F350">
+        <v>1855.5</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6">
+      <c r="A351" s="1">
+        <v>42261</v>
+      </c>
+      <c r="B351" s="5"/>
+      <c r="D351" s="5"/>
+      <c r="E351" t="s">
+        <v>7</v>
+      </c>
+      <c r="F351">
+        <v>2020.2</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6">
+      <c r="A352" s="1">
+        <v>42261</v>
+      </c>
+      <c r="B352" s="5"/>
+      <c r="D352" s="5"/>
+      <c r="E352" t="s">
+        <v>9</v>
+      </c>
+      <c r="F352">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6">
+      <c r="A353" s="1">
+        <v>42261</v>
+      </c>
+      <c r="B353" s="5"/>
+      <c r="D353" s="5"/>
+      <c r="E353" t="s">
+        <v>11</v>
+      </c>
+      <c r="F353">
+        <v>1715.7</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6">
+      <c r="A354" s="1">
+        <v>42261</v>
+      </c>
+      <c r="B354" s="5"/>
+      <c r="D354" s="5"/>
+      <c r="E354" t="s">
+        <v>13</v>
+      </c>
+      <c r="F354">
+        <v>1700.8</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6">
+      <c r="A355" s="1">
+        <v>42261</v>
+      </c>
+      <c r="B355" s="5"/>
+      <c r="D355" s="5"/>
+      <c r="E355" t="s">
+        <v>15</v>
+      </c>
+      <c r="F355">
+        <v>2151.6</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6">
+      <c r="A356" s="1">
+        <v>42261</v>
+      </c>
+      <c r="B356" s="5"/>
+      <c r="D356" s="5"/>
+      <c r="E356" t="s">
+        <v>16</v>
+      </c>
+      <c r="F356">
+        <v>1667.1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6">
+      <c r="A357" s="1">
+        <v>42261</v>
+      </c>
+      <c r="B357" s="5"/>
+      <c r="D357" s="5"/>
+      <c r="E357" t="s">
+        <v>17</v>
+      </c>
+      <c r="F357">
+        <v>1705.3</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6">
+      <c r="A358" s="1">
+        <v>42261</v>
+      </c>
+      <c r="B358" s="5"/>
+      <c r="D358" s="5"/>
+      <c r="E358" t="s">
+        <v>18</v>
+      </c>
+      <c r="F358">
+        <v>1597.1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6">
+      <c r="A359" s="1">
+        <v>42261</v>
+      </c>
+      <c r="B359" s="5"/>
+      <c r="D359" s="5"/>
+      <c r="E359" t="s">
+        <v>19</v>
+      </c>
+      <c r="F359">
+        <v>1992.7</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6">
+      <c r="A360" s="1">
+        <v>42261</v>
+      </c>
+      <c r="B360" s="5"/>
+      <c r="D360" s="5"/>
+      <c r="E360" t="s">
+        <v>20</v>
+      </c>
+      <c r="F360">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6">
+      <c r="A361" s="1">
+        <v>42261</v>
+      </c>
+      <c r="B361" s="5"/>
+      <c r="D361" s="5"/>
+      <c r="E361" t="s">
+        <v>21</v>
+      </c>
+      <c r="F361">
+        <v>1455.6</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6">
+      <c r="A362" s="1">
+        <v>42261</v>
+      </c>
+      <c r="B362" s="5"/>
+      <c r="D362" s="5"/>
+      <c r="E362" t="s">
+        <v>22</v>
+      </c>
+      <c r="F362">
+        <v>2214.4</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6">
+      <c r="A363" s="1">
+        <v>42261</v>
+      </c>
+      <c r="B363" s="5"/>
+      <c r="D363" s="5"/>
+      <c r="E363" t="s">
+        <v>23</v>
+      </c>
+      <c r="F363">
+        <v>1695.6</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6">
+      <c r="A364" s="1">
+        <v>42261</v>
+      </c>
+      <c r="B364" s="5"/>
+      <c r="D364" s="5"/>
+      <c r="E364" t="s">
+        <v>5</v>
+      </c>
+      <c r="F364">
+        <v>1615.9</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6">
+      <c r="A365" s="1">
+        <v>42261</v>
+      </c>
+      <c r="B365" s="5"/>
+      <c r="D365" s="5"/>
+      <c r="E365" t="s">
+        <v>24</v>
+      </c>
+      <c r="F365">
+        <v>1905.7</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6">
+      <c r="A366" s="1">
+        <v>42261</v>
+      </c>
+      <c r="B366" s="5"/>
+      <c r="D366" s="5"/>
+      <c r="E366" t="s">
+        <v>8</v>
+      </c>
+      <c r="F366">
+        <v>1290.4000000000001</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6">
+      <c r="A367" s="1">
+        <v>42261</v>
+      </c>
+      <c r="B367" s="5"/>
+      <c r="D367" s="5"/>
+      <c r="E367" t="s">
+        <v>10</v>
+      </c>
+      <c r="F367">
+        <v>2048.3000000000002</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6">
+      <c r="A368" s="1">
+        <v>42261</v>
+      </c>
+      <c r="B368" s="5"/>
+      <c r="D368" s="5"/>
+      <c r="E368" t="s">
+        <v>12</v>
+      </c>
+      <c r="F368">
+        <v>1736.3</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6">
+      <c r="A369" s="1">
+        <v>42261</v>
+      </c>
+      <c r="B369" s="5"/>
+      <c r="D369" s="5"/>
+      <c r="E369" t="s">
+        <v>14</v>
+      </c>
+      <c r="F369">
+        <v>2019.6</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6">
+      <c r="A370" s="1">
+        <v>42261</v>
+      </c>
+      <c r="B370" s="5"/>
+      <c r="D370" s="5"/>
+      <c r="E370" t="s">
+        <v>25</v>
+      </c>
+      <c r="F370">
+        <v>2085.9</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6">
+      <c r="A371" s="1">
+        <v>42261</v>
+      </c>
+      <c r="B371" s="5"/>
+      <c r="D371" s="5"/>
+      <c r="E371" t="s">
+        <v>26</v>
+      </c>
+      <c r="F371">
+        <v>1983.2</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6">
+      <c r="A372" s="1">
+        <v>42261</v>
+      </c>
+      <c r="B372" s="5"/>
+      <c r="D372" s="5"/>
+      <c r="E372" t="s">
+        <v>27</v>
+      </c>
+      <c r="F372">
+        <v>1952.1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6">
+      <c r="A373" s="1">
+        <v>42261</v>
+      </c>
+      <c r="B373" s="5"/>
+      <c r="D373" s="5"/>
+      <c r="E373" t="s">
+        <v>28</v>
+      </c>
+      <c r="F373">
+        <v>2017.4</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6">
+      <c r="A374" s="1">
+        <v>42261</v>
+      </c>
+      <c r="B374" s="5"/>
+      <c r="D374" s="5"/>
+      <c r="E374" t="s">
+        <v>29</v>
+      </c>
+      <c r="F374">
+        <v>2147.1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6">
+      <c r="A375" s="1">
+        <v>42261</v>
+      </c>
+      <c r="B375" s="5"/>
+      <c r="D375" s="5"/>
+      <c r="E375" t="s">
+        <v>30</v>
+      </c>
+      <c r="F375">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6">
+      <c r="D376" s="2"/>
+    </row>
+    <row r="377" spans="1:6">
+      <c r="D377" s="2"/>
+    </row>
+    <row r="378" spans="1:6">
+      <c r="D378" s="2"/>
+    </row>
+    <row r="379" spans="1:6">
+      <c r="D379" s="2"/>
+    </row>
+    <row r="380" spans="1:6">
+      <c r="D380" s="2"/>
+    </row>
+    <row r="381" spans="1:6">
+      <c r="D381" s="2"/>
+    </row>
+    <row r="382" spans="1:6">
+      <c r="D382" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/CoreData.xlsx
+++ b/data/CoreData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24700" windowHeight="15600" activeTab="1"/>
+    <workbookView xWindow="11020" yWindow="0" windowWidth="27420" windowHeight="24320" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="treatments.csv" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="61">
   <si>
     <t>Treatment</t>
   </si>
@@ -174,6 +174,36 @@
   <si>
     <t>approx. 10ml water added 9/17/2015 to bring up to ~5% volumetric moisture content</t>
   </si>
+  <si>
+    <t>20 g water added</t>
+  </si>
+  <si>
+    <t>15 g water added</t>
+  </si>
+  <si>
+    <t>10 g water added</t>
+  </si>
+  <si>
+    <t>30 g water added</t>
+  </si>
+  <si>
+    <t>50 g water added</t>
+  </si>
+  <si>
+    <t>possible wonky reading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">replicated run </t>
+  </si>
+  <si>
+    <t xml:space="preserve">***different valve/port than usual </t>
+  </si>
+  <si>
+    <t>standing water on top of core</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Placeholder; apparently the Picarro ran from the night of 8 Sep until midday 11 September </t>
+  </si>
 </sst>
 </file>
 
@@ -243,7 +273,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="167">
+  <cellStyleXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -411,8 +441,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -420,8 +468,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="167">
+  <cellStyles count="185">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -505,6 +554,15 @@
     <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -588,6 +646,15 @@
     <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1370,11 +1437,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G382"/>
+  <dimension ref="A1:G452"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A279" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E285" sqref="E285"/>
+      <pane ySplit="2" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B209" sqref="B209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2101,7 +2168,7 @@
         <v>42248</v>
       </c>
       <c r="B38" s="5">
-        <v>0.78055555555555545</v>
+        <v>0.55208333333333337</v>
       </c>
       <c r="C38" s="2">
         <v>1</v>
@@ -2110,7 +2177,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2118,19 +2185,19 @@
         <v>42248</v>
       </c>
       <c r="B39" s="5">
-        <v>0.8125</v>
+        <v>0.71875</v>
       </c>
       <c r="C39" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D39">
         <v>6</v>
       </c>
       <c r="E39" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F39">
-        <v>1979.1</v>
+        <v>1631.2</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2138,19 +2205,19 @@
         <v>42248</v>
       </c>
       <c r="B40" s="5">
-        <v>0.8125</v>
+        <v>0.71875</v>
       </c>
       <c r="C40" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D40">
         <v>16</v>
       </c>
       <c r="E40" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="F40">
-        <v>2187.4</v>
+        <v>1917.8</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2158,19 +2225,19 @@
         <v>42248</v>
       </c>
       <c r="B41" s="5">
-        <v>0.8125</v>
+        <v>0.71875</v>
       </c>
       <c r="C41" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D41">
         <v>13</v>
       </c>
       <c r="E41" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F41">
-        <v>1450.8</v>
+        <v>1307.8</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2178,19 +2245,19 @@
         <v>42248</v>
       </c>
       <c r="B42" s="5">
-        <v>0.8125</v>
+        <v>0.71875</v>
       </c>
       <c r="C42" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D42">
         <v>14</v>
       </c>
       <c r="E42" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F42">
-        <v>1861.6</v>
+        <v>2058.6</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2198,19 +2265,19 @@
         <v>42248</v>
       </c>
       <c r="B43" s="5">
-        <v>0.8125</v>
+        <v>0.71875</v>
       </c>
       <c r="C43" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D43">
         <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F43">
-        <v>1868.3</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2218,19 +2285,19 @@
         <v>42248</v>
       </c>
       <c r="B44" s="5">
-        <v>0.8125</v>
+        <v>0.71875</v>
       </c>
       <c r="C44" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F44">
-        <v>2036.9</v>
+        <v>2054.9</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2238,7 +2305,7 @@
         <v>42248</v>
       </c>
       <c r="B45" s="5">
-        <v>0.84305555555555545</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="C45" s="2">
         <v>1</v>
@@ -2247,7 +2314,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2255,19 +2322,19 @@
         <v>42248</v>
       </c>
       <c r="B46" s="5">
-        <v>0.84722222222222232</v>
+        <v>0.75</v>
       </c>
       <c r="C46" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46">
         <v>4</v>
       </c>
       <c r="E46" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="F46">
-        <v>2070.6</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2275,19 +2342,19 @@
         <v>42248</v>
       </c>
       <c r="B47" s="5">
-        <v>0.84722222222222232</v>
+        <v>0.75</v>
       </c>
       <c r="C47" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47">
         <v>2</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F47">
-        <v>1846.3</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2295,19 +2362,19 @@
         <v>42248</v>
       </c>
       <c r="B48" s="5">
-        <v>0.84722222222222232</v>
+        <v>0.75</v>
       </c>
       <c r="C48" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48">
         <v>12</v>
       </c>
       <c r="E48" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F48">
-        <v>1788.3</v>
+        <v>2024.1</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2315,19 +2382,19 @@
         <v>42248</v>
       </c>
       <c r="B49" s="5">
-        <v>0.84722222222222232</v>
+        <v>0.75</v>
       </c>
       <c r="C49" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49">
         <v>8</v>
       </c>
       <c r="E49" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F49">
-        <v>2285.5</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2335,19 +2402,19 @@
         <v>42248</v>
       </c>
       <c r="B50" s="5">
-        <v>0.84722222222222232</v>
+        <v>0.75</v>
       </c>
       <c r="C50" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50">
         <v>5</v>
       </c>
       <c r="E50" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F50">
-        <v>1820.9</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2355,19 +2422,19 @@
         <v>42248</v>
       </c>
       <c r="B51" s="5">
-        <v>0.84722222222222232</v>
+        <v>0.75</v>
       </c>
       <c r="C51" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51">
         <v>9</v>
       </c>
       <c r="E51" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F51">
-        <v>1779.3</v>
+        <v>1711.4</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2375,7 +2442,7 @@
         <v>42248</v>
       </c>
       <c r="B52" s="5">
-        <v>0.875</v>
+        <v>0.78055555555555545</v>
       </c>
       <c r="C52" s="2">
         <v>1</v>
@@ -2392,19 +2459,19 @@
         <v>42248</v>
       </c>
       <c r="B53" s="5">
-        <v>0.90625</v>
+        <v>0.8125</v>
       </c>
       <c r="C53" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53">
         <v>6</v>
       </c>
       <c r="E53" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>1679.6</v>
+        <v>1979.1</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2412,19 +2479,19 @@
         <v>42248</v>
       </c>
       <c r="B54" s="5">
-        <v>0.90625</v>
+        <v>0.8125</v>
       </c>
       <c r="C54" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54">
         <v>16</v>
       </c>
       <c r="E54" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="F54">
-        <v>2073.5</v>
+        <v>2187.4</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2432,19 +2499,19 @@
         <v>42248</v>
       </c>
       <c r="B55" s="5">
-        <v>0.90625</v>
+        <v>0.8125</v>
       </c>
       <c r="C55" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55">
         <v>13</v>
       </c>
       <c r="E55" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="F55">
-        <v>2283.6999999999998</v>
+        <v>1450.8</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2452,19 +2519,19 @@
         <v>42248</v>
       </c>
       <c r="B56" s="5">
-        <v>0.90625</v>
+        <v>0.8125</v>
       </c>
       <c r="C56" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56">
         <v>14</v>
       </c>
       <c r="E56" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="F56">
-        <v>1560.1</v>
+        <v>1861.6</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2472,19 +2539,19 @@
         <v>42248</v>
       </c>
       <c r="B57" s="5">
-        <v>0.90625</v>
+        <v>0.8125</v>
       </c>
       <c r="C57" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57">
         <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="F57">
-        <v>2326</v>
+        <v>1868.3</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2492,19 +2559,19 @@
         <v>42248</v>
       </c>
       <c r="B58" s="5">
-        <v>0.90625</v>
+        <v>0.8125</v>
       </c>
       <c r="C58" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="F58">
-        <v>1786</v>
+        <v>2036.9</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2512,7 +2579,7 @@
         <v>42248</v>
       </c>
       <c r="B59" s="5">
-        <v>0.71875</v>
+        <v>0.84305555555555545</v>
       </c>
       <c r="C59" s="2">
         <v>1</v>
@@ -2521,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2529,19 +2596,19 @@
         <v>42248</v>
       </c>
       <c r="B60" s="5">
-        <v>0.71875</v>
+        <v>0.84722222222222232</v>
       </c>
       <c r="C60" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D60">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E60" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F60">
-        <v>1631.2</v>
+        <v>2070.6</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2549,19 +2616,19 @@
         <v>42248</v>
       </c>
       <c r="B61" s="5">
-        <v>0.71875</v>
+        <v>0.84722222222222232</v>
       </c>
       <c r="C61" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D61">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E61" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F61">
-        <v>1917.8</v>
+        <v>1846.3</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2569,19 +2636,19 @@
         <v>42248</v>
       </c>
       <c r="B62" s="5">
-        <v>0.71875</v>
+        <v>0.84722222222222232</v>
       </c>
       <c r="C62" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D62">
+        <v>12</v>
+      </c>
+      <c r="E62" t="s">
         <v>13</v>
       </c>
-      <c r="E62" t="s">
-        <v>8</v>
-      </c>
       <c r="F62">
-        <v>1307.8</v>
+        <v>1788.3</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2589,19 +2656,19 @@
         <v>42248</v>
       </c>
       <c r="B63" s="5">
-        <v>0.71875</v>
+        <v>0.84722222222222232</v>
       </c>
       <c r="C63" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D63">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F63">
-        <v>2058.6</v>
+        <v>2285.5</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2609,19 +2676,19 @@
         <v>42248</v>
       </c>
       <c r="B64" s="5">
-        <v>0.71875</v>
+        <v>0.84722222222222232</v>
       </c>
       <c r="C64" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D64">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E64" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F64">
-        <v>1754</v>
+        <v>1820.9</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2629,19 +2696,19 @@
         <v>42248</v>
       </c>
       <c r="B65" s="5">
-        <v>0.71875</v>
+        <v>0.84722222222222232</v>
       </c>
       <c r="C65" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E65" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F65">
-        <v>2054.9</v>
+        <v>1779.3</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2649,7 +2716,7 @@
         <v>42248</v>
       </c>
       <c r="B66" s="5">
-        <v>0.74305555555555558</v>
+        <v>0.875</v>
       </c>
       <c r="C66" s="2">
         <v>1</v>
@@ -2658,7 +2725,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2666,19 +2733,19 @@
         <v>42248</v>
       </c>
       <c r="B67" s="5">
-        <v>0.75</v>
+        <v>0.90625</v>
       </c>
       <c r="C67" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E67" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F67">
-        <v>2195</v>
+        <v>1679.6</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2686,19 +2753,19 @@
         <v>42248</v>
       </c>
       <c r="B68" s="5">
-        <v>0.75</v>
+        <v>0.90625</v>
       </c>
       <c r="C68" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E68" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F68">
-        <v>2057</v>
+        <v>2073.5</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2706,19 +2773,19 @@
         <v>42248</v>
       </c>
       <c r="B69" s="5">
-        <v>0.75</v>
+        <v>0.90625</v>
       </c>
       <c r="C69" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E69" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F69">
-        <v>2024.1</v>
+        <v>2283.6999999999998</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2726,19 +2793,19 @@
         <v>42248</v>
       </c>
       <c r="B70" s="5">
-        <v>0.75</v>
+        <v>0.90625</v>
       </c>
       <c r="C70" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E70" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F70">
-        <v>2115</v>
+        <v>1560.1</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2746,19 +2813,19 @@
         <v>42248</v>
       </c>
       <c r="B71" s="5">
-        <v>0.75</v>
+        <v>0.90625</v>
       </c>
       <c r="C71" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F71">
-        <v>2212</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2766,19 +2833,19 @@
         <v>42248</v>
       </c>
       <c r="B72" s="5">
-        <v>0.75</v>
+        <v>0.90625</v>
       </c>
       <c r="C72" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F72">
-        <v>1711.4</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3471,7 +3538,7 @@
         <v>42251</v>
       </c>
       <c r="B108" s="5">
-        <v>0.71527777777777779</v>
+        <v>0.56944444444444442</v>
       </c>
       <c r="C108" s="2">
         <v>1</v>
@@ -4153,497 +4220,392 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="1">
-        <v>42255</v>
-      </c>
-      <c r="B143" s="5">
-        <v>0.70624999999999993</v>
-      </c>
-      <c r="D143">
-        <v>10</v>
-      </c>
+        <v>42254</v>
+      </c>
+      <c r="B143" s="5"/>
+      <c r="D143" s="5"/>
       <c r="E143" t="s">
-        <v>47</v>
+        <v>1</v>
+      </c>
+      <c r="F143">
+        <v>1970.7</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="1">
-        <v>42255</v>
-      </c>
-      <c r="B144" s="5">
-        <v>0.74513888888888891</v>
-      </c>
-      <c r="D144">
-        <v>6</v>
-      </c>
+        <v>42254</v>
+      </c>
+      <c r="B144" s="5"/>
+      <c r="D144" s="5"/>
       <c r="E144" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F144">
-        <v>1619.1</v>
+        <v>2181.1</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="1">
-        <v>42255</v>
-      </c>
-      <c r="B145" s="5">
-        <v>0.74513888888888891</v>
-      </c>
-      <c r="D145">
-        <v>16</v>
-      </c>
+        <v>42254</v>
+      </c>
+      <c r="B145" s="5"/>
+      <c r="D145" s="5"/>
       <c r="E145" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="F145">
-        <v>2016.8</v>
+        <v>1444.6</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="1">
-        <v>42255</v>
-      </c>
-      <c r="B146" s="5">
-        <v>0.74513888888888891</v>
-      </c>
-      <c r="D146">
-        <v>13</v>
-      </c>
+        <v>42254</v>
+      </c>
+      <c r="B146" s="5"/>
+      <c r="D146" s="5"/>
       <c r="E146" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F146">
-        <v>2207.6999999999998</v>
+        <v>1850.9</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="1">
-        <v>42255</v>
-      </c>
-      <c r="B147" s="5">
-        <v>0.74513888888888891</v>
-      </c>
-      <c r="D147">
-        <v>14</v>
-      </c>
+        <v>42254</v>
+      </c>
+      <c r="B147" s="5"/>
+      <c r="D147" s="5"/>
       <c r="E147" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="F147">
-        <v>1491.8</v>
+        <v>1858.8</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="1">
-        <v>42255</v>
-      </c>
-      <c r="B148" s="5">
-        <v>0.74513888888888891</v>
-      </c>
-      <c r="D148">
-        <v>11</v>
-      </c>
+        <v>42254</v>
+      </c>
+      <c r="B148" s="5"/>
+      <c r="D148" s="5"/>
       <c r="E148" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="F148">
-        <v>2243.6999999999998</v>
+        <v>2026.8</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="1">
-        <v>42255</v>
-      </c>
-      <c r="B149" s="5">
-        <v>0.74513888888888891</v>
-      </c>
-      <c r="D149">
-        <v>1</v>
-      </c>
+        <v>42254</v>
+      </c>
+      <c r="B149" s="5"/>
+      <c r="D149" s="5"/>
       <c r="E149" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F149">
-        <v>1720.4</v>
+        <v>1979.5</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="1">
-        <v>42255</v>
-      </c>
-      <c r="B150" s="5">
-        <v>0.76180555555555562</v>
-      </c>
-      <c r="D150">
-        <v>10</v>
-      </c>
+        <v>42254</v>
+      </c>
+      <c r="B150" s="5"/>
+      <c r="D150" s="5"/>
       <c r="E150" t="s">
-        <v>47</v>
+        <v>11</v>
+      </c>
+      <c r="F150">
+        <v>1766.7</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="1">
-        <v>42255</v>
-      </c>
-      <c r="B151" s="5">
-        <v>0.76874999999999993</v>
-      </c>
-      <c r="D151">
-        <v>4</v>
-      </c>
+        <v>42254</v>
+      </c>
+      <c r="B151" s="5"/>
+      <c r="D151" s="5"/>
       <c r="E151" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F151">
-        <v>1970</v>
+        <v>1732.3</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="1">
-        <v>42255</v>
-      </c>
-      <c r="B152" s="5">
-        <v>0.76874999999999993</v>
-      </c>
-      <c r="D152">
-        <v>2</v>
-      </c>
+        <v>42254</v>
+      </c>
+      <c r="B152" s="5"/>
+      <c r="D152" s="5"/>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F152">
-        <v>1758.3</v>
+        <v>2182.1</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="1">
-        <v>42255</v>
-      </c>
-      <c r="B153" s="5">
-        <v>0.76874999999999993</v>
-      </c>
-      <c r="D153">
-        <v>12</v>
-      </c>
+        <v>42254</v>
+      </c>
+      <c r="B153" s="5"/>
+      <c r="D153" s="5"/>
       <c r="E153" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F153">
-        <v>1726.9</v>
+        <v>1698.8</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="1">
-        <v>42255</v>
-      </c>
-      <c r="B154" s="5">
-        <v>0.76874999999999993</v>
-      </c>
-      <c r="D154">
-        <v>8</v>
-      </c>
+        <v>42254</v>
+      </c>
+      <c r="B154" s="5"/>
+      <c r="D154" s="5"/>
       <c r="E154" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F154">
-        <v>2176.9</v>
+        <v>1727.9</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="1">
-        <v>42255</v>
-      </c>
-      <c r="B155" s="5">
-        <v>0.76874999999999993</v>
-      </c>
-      <c r="D155">
-        <v>5</v>
-      </c>
+        <v>42254</v>
+      </c>
+      <c r="B155" s="5"/>
+      <c r="D155" s="5"/>
       <c r="E155" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F155">
-        <v>1691.9</v>
+        <v>1623.9</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="1">
-        <v>42255</v>
-      </c>
-      <c r="B156" s="5">
-        <v>0.76874999999999993</v>
-      </c>
-      <c r="D156">
-        <v>9</v>
-      </c>
+        <v>42254</v>
+      </c>
+      <c r="B156" s="5"/>
+      <c r="D156" s="5"/>
       <c r="E156" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F156">
-        <v>1723.3</v>
+        <v>2022.3</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="1">
-        <v>42255</v>
-      </c>
-      <c r="B157" s="5">
-        <v>0.78541666666666676</v>
-      </c>
-      <c r="D157">
-        <v>10</v>
-      </c>
+        <v>42254</v>
+      </c>
+      <c r="B157" s="5"/>
+      <c r="D157" s="5"/>
       <c r="E157" t="s">
-        <v>47</v>
+        <v>20</v>
+      </c>
+      <c r="F157">
+        <v>2212.1999999999998</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="1">
-        <v>42255</v>
-      </c>
-      <c r="B158" s="5">
-        <v>0.81666666666666676</v>
-      </c>
-      <c r="D158">
-        <v>6</v>
-      </c>
+        <v>42254</v>
+      </c>
+      <c r="B158" s="5"/>
+      <c r="D158" s="5"/>
       <c r="E158" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="F158">
-        <v>1969.6</v>
+        <v>1489.9</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="1">
-        <v>42255</v>
-      </c>
-      <c r="B159" s="5">
-        <v>0.81666666666666676</v>
-      </c>
-      <c r="D159">
-        <v>16</v>
-      </c>
+        <v>42254</v>
+      </c>
+      <c r="B159" s="5"/>
+      <c r="D159" s="5"/>
       <c r="E159" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="F159">
-        <v>2179.5</v>
+        <v>2250.3000000000002</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="1">
-        <v>42255</v>
-      </c>
-      <c r="B160" s="5">
-        <v>0.81666666666666676</v>
-      </c>
-      <c r="D160">
-        <v>13</v>
-      </c>
+        <v>42254</v>
+      </c>
+      <c r="B160" s="5"/>
+      <c r="D160" s="5"/>
       <c r="E160" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="F160">
-        <v>1443.1</v>
+        <v>1725.3</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="1">
-        <v>42255</v>
-      </c>
-      <c r="B161" s="5">
-        <v>0.81666666666666676</v>
-      </c>
-      <c r="D161">
-        <v>14</v>
-      </c>
+        <v>42254</v>
+      </c>
+      <c r="B161" s="5"/>
+      <c r="D161" s="5"/>
       <c r="E161" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F161">
-        <v>1849.4</v>
+        <v>1624.1</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="1">
-        <v>42255</v>
-      </c>
-      <c r="B162" s="5">
-        <v>0.81666666666666676</v>
-      </c>
-      <c r="D162">
-        <v>11</v>
-      </c>
+        <v>42254</v>
+      </c>
+      <c r="B162" s="5"/>
+      <c r="D162" s="5"/>
       <c r="E162" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="F162">
-        <v>1857.3</v>
+        <v>1908.8</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="1">
-        <v>42255</v>
-      </c>
-      <c r="B163" s="5">
-        <v>0.81666666666666676</v>
-      </c>
-      <c r="D163">
-        <v>1</v>
-      </c>
+        <v>42254</v>
+      </c>
+      <c r="B163" s="5"/>
+      <c r="D163" s="5"/>
       <c r="E163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F163">
-        <v>2025.1</v>
+        <v>1295.8</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="1">
-        <v>42255</v>
-      </c>
-      <c r="B164" s="5">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D164">
+        <v>42254</v>
+      </c>
+      <c r="B164" s="5"/>
+      <c r="D164" s="5"/>
+      <c r="E164" t="s">
         <v>10</v>
       </c>
-      <c r="E164" t="s">
-        <v>46</v>
+      <c r="F164">
+        <v>2049.8000000000002</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="1">
-        <v>42255</v>
-      </c>
-      <c r="B165" s="5">
-        <v>0.875</v>
-      </c>
-      <c r="D165">
-        <v>4</v>
-      </c>
+        <v>42254</v>
+      </c>
+      <c r="B165" s="5"/>
+      <c r="D165" s="5"/>
       <c r="E165" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F165">
-        <v>2111.6</v>
+        <v>1741.2</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="1">
-        <v>42255</v>
-      </c>
-      <c r="B166" s="5">
-        <v>0.875</v>
-      </c>
-      <c r="D166">
-        <v>2</v>
-      </c>
+        <v>42254</v>
+      </c>
+      <c r="B166" s="5"/>
+      <c r="D166" s="5"/>
       <c r="E166" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F166">
-        <v>2006.8</v>
+        <v>2028.1</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="1">
-        <v>42255</v>
-      </c>
-      <c r="B167" s="5">
-        <v>0.875</v>
-      </c>
-      <c r="D167">
-        <v>12</v>
-      </c>
+        <v>42254</v>
+      </c>
+      <c r="B167" s="5"/>
+      <c r="D167" s="5"/>
       <c r="E167" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F167">
-        <v>1972.4</v>
+        <v>2119.6</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="1">
-        <v>42255</v>
-      </c>
-      <c r="B168" s="5">
-        <v>0.875</v>
-      </c>
-      <c r="D168">
-        <v>8</v>
-      </c>
+        <v>42254</v>
+      </c>
+      <c r="B168" s="5"/>
+      <c r="D168" s="5"/>
       <c r="E168" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F168">
-        <v>2041</v>
+        <v>2015.2</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="1">
-        <v>42255</v>
-      </c>
-      <c r="B169" s="5">
-        <v>0.875</v>
-      </c>
-      <c r="D169">
-        <v>5</v>
-      </c>
+        <v>42254</v>
+      </c>
+      <c r="B169" s="5"/>
+      <c r="D169" s="5"/>
       <c r="E169" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F169">
-        <v>2160.6999999999998</v>
+        <v>1977.6</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="1">
-        <v>42255</v>
-      </c>
-      <c r="B170" s="5">
-        <v>0.875</v>
-      </c>
-      <c r="D170">
-        <v>9</v>
-      </c>
+        <v>42254</v>
+      </c>
+      <c r="B170" s="5"/>
+      <c r="D170" s="5"/>
       <c r="E170" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F170">
-        <v>1642.7</v>
+        <v>2048.4</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="1">
-        <v>42255</v>
-      </c>
-      <c r="B171" s="5">
-        <v>0.89166666666666661</v>
-      </c>
-      <c r="D171">
-        <v>10</v>
-      </c>
+        <v>42254</v>
+      </c>
+      <c r="B171" s="5"/>
+      <c r="D171" s="5"/>
       <c r="E171" t="s">
-        <v>46</v>
+        <v>29</v>
+      </c>
+      <c r="F171">
+        <v>2165.9</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="1">
-        <v>42255</v>
-      </c>
-      <c r="B172" s="5">
-        <v>0.89861111111111114</v>
-      </c>
-      <c r="D172">
-        <v>6</v>
-      </c>
+        <v>42254</v>
+      </c>
+      <c r="B172" s="5"/>
+      <c r="D172" s="5"/>
       <c r="E172" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F172">
-        <v>1620.3</v>
+        <v>1647.2</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4651,16 +4613,13 @@
         <v>42255</v>
       </c>
       <c r="B173" s="5">
-        <v>0.89861111111111114</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="D173">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>24</v>
-      </c>
-      <c r="F173">
-        <v>1908.1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4668,16 +4627,16 @@
         <v>42255</v>
       </c>
       <c r="B174" s="5">
-        <v>0.89861111111111114</v>
+        <v>0.74513888888888891</v>
       </c>
       <c r="D174">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E174" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F174">
-        <v>1294.4000000000001</v>
+        <v>1619.1</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4685,16 +4644,16 @@
         <v>42255</v>
       </c>
       <c r="B175" s="5">
-        <v>0.89861111111111114</v>
+        <v>0.74513888888888891</v>
       </c>
       <c r="D175">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F175">
-        <v>2048.1</v>
+        <v>2016.8</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4702,16 +4661,16 @@
         <v>42255</v>
       </c>
       <c r="B176" s="5">
-        <v>0.89861111111111114</v>
+        <v>0.74513888888888891</v>
       </c>
       <c r="D176">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E176" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F176">
-        <v>1738.8</v>
+        <v>2207.6999999999998</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4719,16 +4678,16 @@
         <v>42255</v>
       </c>
       <c r="B177" s="5">
-        <v>0.89861111111111114</v>
+        <v>0.74513888888888891</v>
       </c>
       <c r="D177">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E177" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F177">
-        <v>2025.2</v>
+        <v>1491.8</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4736,3011 +4695,4336 @@
         <v>42255</v>
       </c>
       <c r="B178" s="5">
-        <v>0.91527777777777775</v>
+        <v>0.74513888888888891</v>
       </c>
       <c r="D178">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E178" t="s">
-        <v>46</v>
+        <v>22</v>
+      </c>
+      <c r="F178">
+        <v>2243.6999999999998</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="1">
-        <v>42258</v>
+        <v>42255</v>
       </c>
       <c r="B179" s="5">
-        <v>0.69444444444444453</v>
+        <v>0.74513888888888891</v>
       </c>
       <c r="D179">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E179" t="s">
-        <v>47</v>
+        <v>23</v>
+      </c>
+      <c r="F179">
+        <v>1720.4</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="1">
-        <v>42258</v>
+        <v>42255</v>
       </c>
       <c r="B180" s="5">
-        <v>0.7006944444444444</v>
+        <v>0.76180555555555562</v>
       </c>
       <c r="D180">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>1</v>
-      </c>
-      <c r="F180">
-        <v>1969.8</v>
+        <v>47</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="1">
-        <v>42258</v>
+        <v>42255</v>
       </c>
       <c r="B181" s="5">
-        <v>0.7006944444444444</v>
+        <v>0.76874999999999993</v>
       </c>
       <c r="D181">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E181" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F181">
-        <v>2179.4</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="1">
-        <v>42258</v>
+        <v>42255</v>
       </c>
       <c r="B182" s="5">
-        <v>0.7006944444444444</v>
+        <v>0.76874999999999993</v>
       </c>
       <c r="D182">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E182" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F182">
-        <v>1445.3</v>
+        <v>1758.3</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="1">
-        <v>42258</v>
+        <v>42255</v>
       </c>
       <c r="B183" s="5">
-        <v>0.7006944444444444</v>
+        <v>0.76874999999999993</v>
       </c>
       <c r="D183">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E183" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F183">
-        <v>1850.7</v>
+        <v>1726.9</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="1">
-        <v>42258</v>
+        <v>42255</v>
       </c>
       <c r="B184" s="5">
-        <v>0.7006944444444444</v>
+        <v>0.76874999999999993</v>
       </c>
       <c r="D184">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E184" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F184">
-        <v>1860.9</v>
+        <v>2176.9</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="1">
-        <v>42258</v>
+        <v>42255</v>
       </c>
       <c r="B185" s="5">
-        <v>0.7006944444444444</v>
+        <v>0.76874999999999993</v>
       </c>
       <c r="D185">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E185" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F185">
-        <v>2026.3</v>
+        <v>1691.9</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="1">
-        <v>42258</v>
+        <v>42255</v>
       </c>
       <c r="B186" s="5">
-        <v>0.71736111111111101</v>
+        <v>0.76874999999999993</v>
       </c>
       <c r="D186">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E186" t="s">
-        <v>47</v>
+        <v>17</v>
+      </c>
+      <c r="F186">
+        <v>1723.3</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="1">
-        <v>42258</v>
+        <v>42255</v>
       </c>
       <c r="B187" s="5">
-        <v>0.72430555555555554</v>
+        <v>0.78541666666666676</v>
       </c>
       <c r="D187">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>9</v>
-      </c>
-      <c r="F187">
-        <v>1943.7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="1">
-        <v>42258</v>
+        <v>42255</v>
       </c>
       <c r="B188" s="5">
-        <v>0.72430555555555554</v>
+        <v>0.81666666666666676</v>
       </c>
       <c r="D188">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E188" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F188">
-        <v>1734.7</v>
+        <v>1969.6</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="1">
-        <v>42258</v>
+        <v>42255</v>
       </c>
       <c r="B189" s="5">
-        <v>0.72430555555555554</v>
+        <v>0.81666666666666676</v>
       </c>
       <c r="D189">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E189" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F189">
-        <v>1713.3</v>
+        <v>2179.5</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="1">
-        <v>42258</v>
+        <v>42255</v>
       </c>
       <c r="B190" s="5">
-        <v>0.72430555555555554</v>
+        <v>0.81666666666666676</v>
       </c>
       <c r="D190">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E190" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F190">
-        <v>2162.4</v>
+        <v>1443.1</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="1">
-        <v>42258</v>
+        <v>42255</v>
       </c>
       <c r="B191" s="5">
-        <v>0.72430555555555554</v>
+        <v>0.81666666666666676</v>
       </c>
       <c r="D191">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E191" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F191">
-        <v>1676.9</v>
+        <v>1849.4</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="1">
-        <v>42258</v>
+        <v>42255</v>
       </c>
       <c r="B192" s="5">
-        <v>0.72430555555555554</v>
+        <v>0.81666666666666676</v>
       </c>
       <c r="D192">
+        <v>11</v>
+      </c>
+      <c r="E192" t="s">
+        <v>6</v>
+      </c>
+      <c r="F192">
+        <v>1857.3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" s="1">
+        <v>42255</v>
+      </c>
+      <c r="B193" s="5">
+        <v>0.81666666666666676</v>
+      </c>
+      <c r="D193">
+        <v>1</v>
+      </c>
+      <c r="E193" t="s">
+        <v>7</v>
+      </c>
+      <c r="F193">
+        <v>2025.1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" s="1">
+        <v>42255</v>
+      </c>
+      <c r="B194" s="5">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D194">
+        <v>10</v>
+      </c>
+      <c r="E194" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" s="1">
+        <v>42255</v>
+      </c>
+      <c r="B195" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="D195">
+        <v>4</v>
+      </c>
+      <c r="E195" t="s">
+        <v>25</v>
+      </c>
+      <c r="F195">
+        <v>2111.6</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" s="1">
+        <v>42255</v>
+      </c>
+      <c r="B196" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="D196">
+        <v>2</v>
+      </c>
+      <c r="E196" t="s">
+        <v>26</v>
+      </c>
+      <c r="F196">
+        <v>2006.8</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" s="1">
+        <v>42255</v>
+      </c>
+      <c r="B197" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="D197">
+        <v>12</v>
+      </c>
+      <c r="E197" t="s">
+        <v>27</v>
+      </c>
+      <c r="F197">
+        <v>1972.4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" s="1">
+        <v>42255</v>
+      </c>
+      <c r="B198" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="D198">
+        <v>8</v>
+      </c>
+      <c r="E198" t="s">
+        <v>28</v>
+      </c>
+      <c r="F198">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" s="1">
+        <v>42255</v>
+      </c>
+      <c r="B199" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="D199">
+        <v>5</v>
+      </c>
+      <c r="E199" t="s">
+        <v>29</v>
+      </c>
+      <c r="F199">
+        <v>2160.6999999999998</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" s="1">
+        <v>42255</v>
+      </c>
+      <c r="B200" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="D200">
         <v>9</v>
       </c>
-      <c r="E192" t="s">
+      <c r="E200" t="s">
+        <v>30</v>
+      </c>
+      <c r="F200">
+        <v>1642.7</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" s="1">
+        <v>42255</v>
+      </c>
+      <c r="B201" s="5">
+        <v>0.89166666666666661</v>
+      </c>
+      <c r="D201">
+        <v>10</v>
+      </c>
+      <c r="E201" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" s="1">
+        <v>42255</v>
+      </c>
+      <c r="B202" s="5">
+        <v>0.89861111111111114</v>
+      </c>
+      <c r="D202">
+        <v>6</v>
+      </c>
+      <c r="E202" t="s">
+        <v>5</v>
+      </c>
+      <c r="F202">
+        <v>1620.3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" s="1">
+        <v>42255</v>
+      </c>
+      <c r="B203" s="5">
+        <v>0.89861111111111114</v>
+      </c>
+      <c r="D203">
+        <v>16</v>
+      </c>
+      <c r="E203" t="s">
+        <v>24</v>
+      </c>
+      <c r="F203">
+        <v>1908.1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" s="1">
+        <v>42255</v>
+      </c>
+      <c r="B204" s="5">
+        <v>0.89861111111111114</v>
+      </c>
+      <c r="D204">
+        <v>13</v>
+      </c>
+      <c r="E204" t="s">
+        <v>8</v>
+      </c>
+      <c r="F204">
+        <v>1294.4000000000001</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" s="1">
+        <v>42255</v>
+      </c>
+      <c r="B205" s="5">
+        <v>0.89861111111111114</v>
+      </c>
+      <c r="D205">
+        <v>14</v>
+      </c>
+      <c r="E205" t="s">
+        <v>10</v>
+      </c>
+      <c r="F205">
+        <v>2048.1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" s="1">
+        <v>42255</v>
+      </c>
+      <c r="B206" s="5">
+        <v>0.89861111111111114</v>
+      </c>
+      <c r="D206">
+        <v>11</v>
+      </c>
+      <c r="E206" t="s">
+        <v>12</v>
+      </c>
+      <c r="F206">
+        <v>1738.8</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" s="1">
+        <v>42255</v>
+      </c>
+      <c r="B207" s="5">
+        <v>0.89861111111111114</v>
+      </c>
+      <c r="D207">
+        <v>1</v>
+      </c>
+      <c r="E207" t="s">
+        <v>14</v>
+      </c>
+      <c r="F207">
+        <v>2025.2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" s="1">
+        <v>42255</v>
+      </c>
+      <c r="B208" s="5">
+        <v>0.91527777777777775</v>
+      </c>
+      <c r="D208">
+        <v>10</v>
+      </c>
+      <c r="E208" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" s="1">
+        <v>42257</v>
+      </c>
+      <c r="B209" s="5">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D209">
+        <v>10</v>
+      </c>
+      <c r="E209" t="s">
+        <v>46</v>
+      </c>
+      <c r="G209" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" s="1">
+        <v>42257</v>
+      </c>
+      <c r="B210" s="5"/>
+      <c r="D210" s="5"/>
+      <c r="E210" t="s">
+        <v>1</v>
+      </c>
+      <c r="F210">
+        <v>1973.9</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" s="1">
+        <v>42257</v>
+      </c>
+      <c r="B211" s="5"/>
+      <c r="D211" s="5"/>
+      <c r="E211" t="s">
+        <v>2</v>
+      </c>
+      <c r="F211">
+        <v>2185.1999999999998</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" s="1">
+        <v>42257</v>
+      </c>
+      <c r="B212" s="5"/>
+      <c r="D212" s="5"/>
+      <c r="E212" t="s">
+        <v>3</v>
+      </c>
+      <c r="F212">
+        <v>1448.9</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" s="1">
+        <v>42257</v>
+      </c>
+      <c r="B213" s="5"/>
+      <c r="D213" s="5"/>
+      <c r="E213" t="s">
+        <v>4</v>
+      </c>
+      <c r="F213">
+        <v>1855.2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" s="1">
+        <v>42257</v>
+      </c>
+      <c r="B214" s="5"/>
+      <c r="D214" s="5"/>
+      <c r="E214" t="s">
+        <v>6</v>
+      </c>
+      <c r="F214">
+        <v>1862.4</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" s="1">
+        <v>42257</v>
+      </c>
+      <c r="B215" s="5"/>
+      <c r="D215" s="5"/>
+      <c r="E215" t="s">
+        <v>7</v>
+      </c>
+      <c r="F215">
+        <v>2030.2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" s="1">
+        <v>42257</v>
+      </c>
+      <c r="B216" s="5"/>
+      <c r="D216" s="5"/>
+      <c r="E216" t="s">
+        <v>9</v>
+      </c>
+      <c r="F216">
+        <v>1950.2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" s="1">
+        <v>42257</v>
+      </c>
+      <c r="B217" s="5"/>
+      <c r="D217" s="5"/>
+      <c r="E217" t="s">
+        <v>11</v>
+      </c>
+      <c r="F217">
+        <v>1740.8</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" s="1">
+        <v>42257</v>
+      </c>
+      <c r="B218" s="5"/>
+      <c r="D218" s="5"/>
+      <c r="E218" t="s">
+        <v>13</v>
+      </c>
+      <c r="F218">
+        <v>1716.9</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" s="1">
+        <v>42257</v>
+      </c>
+      <c r="B219" s="5"/>
+      <c r="D219" s="5"/>
+      <c r="E219" t="s">
+        <v>15</v>
+      </c>
+      <c r="F219">
+        <v>2165.8000000000002</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220" s="1">
+        <v>42257</v>
+      </c>
+      <c r="B220" s="5"/>
+      <c r="D220" s="5"/>
+      <c r="E220" t="s">
+        <v>16</v>
+      </c>
+      <c r="F220">
+        <v>1679.8</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221" s="1">
+        <v>42257</v>
+      </c>
+      <c r="B221" s="5"/>
+      <c r="D221" s="5"/>
+      <c r="E221" t="s">
         <v>17</v>
       </c>
-      <c r="F192">
-        <v>1713.6</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7">
-      <c r="A193" s="1">
-        <v>42258</v>
-      </c>
-      <c r="B193" s="5">
-        <v>0.74097222222222225</v>
-      </c>
-      <c r="D193">
-        <v>10</v>
-      </c>
-      <c r="E193" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7">
-      <c r="A194" s="1">
-        <v>42258</v>
-      </c>
-      <c r="B194" s="5">
-        <v>0.78402777777777777</v>
-      </c>
-      <c r="D194">
-        <v>6</v>
-      </c>
-      <c r="E194" t="s">
+      <c r="F221">
+        <v>1715.9</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222" s="1">
+        <v>42257</v>
+      </c>
+      <c r="B222" s="5"/>
+      <c r="D222" s="5"/>
+      <c r="E222" t="s">
         <v>18</v>
       </c>
-      <c r="F194">
-        <v>1609.6</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7">
-      <c r="A195" s="1">
-        <v>42258</v>
-      </c>
-      <c r="B195" s="5">
-        <v>0.78402777777777777</v>
-      </c>
-      <c r="D195">
-        <v>16</v>
-      </c>
-      <c r="E195" t="s">
+      <c r="F222">
+        <v>1607.9</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223" s="1">
+        <v>42257</v>
+      </c>
+      <c r="B223" s="5"/>
+      <c r="D223" s="5"/>
+      <c r="E223" t="s">
         <v>19</v>
       </c>
-      <c r="F195">
-        <v>2004.9</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7">
-      <c r="A196" s="1">
-        <v>42258</v>
-      </c>
-      <c r="B196" s="5">
-        <v>0.78402777777777777</v>
-      </c>
-      <c r="D196">
-        <v>13</v>
-      </c>
-      <c r="E196" t="s">
+      <c r="F223">
+        <v>2003.7</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224" s="1">
+        <v>42257</v>
+      </c>
+      <c r="B224" s="5"/>
+      <c r="D224" s="5"/>
+      <c r="E224" t="s">
         <v>20</v>
       </c>
-      <c r="F196">
-        <v>2198</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7">
-      <c r="A197" s="1">
-        <v>42258</v>
-      </c>
-      <c r="B197" s="5">
-        <v>0.78402777777777777</v>
-      </c>
-      <c r="D197">
-        <v>14</v>
-      </c>
-      <c r="E197" t="s">
-        <v>21</v>
-      </c>
-      <c r="F197">
-        <v>1480.2</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7">
-      <c r="A198" s="1">
-        <v>42258</v>
-      </c>
-      <c r="B198" s="5">
-        <v>0.78402777777777777</v>
-      </c>
-      <c r="D198">
-        <v>11</v>
-      </c>
-      <c r="E198" t="s">
-        <v>22</v>
-      </c>
-      <c r="F198">
-        <v>2230.1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7">
-      <c r="A199" s="1">
-        <v>42258</v>
-      </c>
-      <c r="B199" s="5">
-        <v>0.78402777777777777</v>
-      </c>
-      <c r="D199">
-        <v>1</v>
-      </c>
-      <c r="E199" t="s">
-        <v>23</v>
-      </c>
-      <c r="F199">
-        <v>1709.2</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7">
-      <c r="A200" s="1">
-        <v>42258</v>
-      </c>
-      <c r="B200" s="5">
-        <v>0.80069444444444438</v>
-      </c>
-      <c r="D200">
-        <v>10</v>
-      </c>
-      <c r="E200" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7">
-      <c r="A201" s="1">
-        <v>42258</v>
-      </c>
-      <c r="B201" s="5">
-        <v>0.8256944444444444</v>
-      </c>
-      <c r="D201">
-        <v>4</v>
-      </c>
-      <c r="E201" t="s">
-        <v>25</v>
-      </c>
-      <c r="F201">
-        <v>2103.5</v>
-      </c>
-      <c r="G201" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7">
-      <c r="A202" s="1">
-        <v>42258</v>
-      </c>
-      <c r="B202" s="5">
-        <v>0.8256944444444444</v>
-      </c>
-      <c r="D202">
-        <v>2</v>
-      </c>
-      <c r="E202" t="s">
-        <v>26</v>
-      </c>
-      <c r="F202">
-        <v>1999.2</v>
-      </c>
-      <c r="G202" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7">
-      <c r="A203" s="1">
-        <v>42258</v>
-      </c>
-      <c r="B203" s="5">
-        <v>0.8256944444444444</v>
-      </c>
-      <c r="D203">
-        <v>12</v>
-      </c>
-      <c r="E203" t="s">
-        <v>27</v>
-      </c>
-      <c r="F203">
-        <v>1967.3</v>
-      </c>
-      <c r="G203" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7">
-      <c r="A204" s="1">
-        <v>42258</v>
-      </c>
-      <c r="B204" s="5">
-        <v>0.8256944444444444</v>
-      </c>
-      <c r="D204">
-        <v>8</v>
-      </c>
-      <c r="E204" t="s">
-        <v>28</v>
-      </c>
-      <c r="F204">
-        <v>2034.7</v>
-      </c>
-      <c r="G204" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7">
-      <c r="A205" s="1">
-        <v>42258</v>
-      </c>
-      <c r="B205" s="5">
-        <v>0.8256944444444444</v>
-      </c>
-      <c r="D205">
-        <v>5</v>
-      </c>
-      <c r="E205" t="s">
-        <v>29</v>
-      </c>
-      <c r="F205">
-        <v>2158.3000000000002</v>
-      </c>
-      <c r="G205" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7">
-      <c r="A206" s="1">
-        <v>42258</v>
-      </c>
-      <c r="B206" s="5">
-        <v>0.8256944444444444</v>
-      </c>
-      <c r="D206">
-        <v>9</v>
-      </c>
-      <c r="E206" t="s">
-        <v>30</v>
-      </c>
-      <c r="F206">
-        <v>1659.2</v>
-      </c>
-      <c r="G206" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7">
-      <c r="A207" s="1">
-        <v>42258</v>
-      </c>
-      <c r="B207" s="5">
-        <v>0.84236111111111101</v>
-      </c>
-      <c r="D207">
-        <v>10</v>
-      </c>
-      <c r="E207" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7">
-      <c r="A208" s="1">
-        <v>42258</v>
-      </c>
-      <c r="B208" s="5">
-        <v>0.84930555555555554</v>
-      </c>
-      <c r="D208">
-        <v>6</v>
-      </c>
-      <c r="E208" t="s">
-        <v>5</v>
-      </c>
-      <c r="F208">
-        <v>1624.6</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6">
-      <c r="A209" s="1">
-        <v>42258</v>
-      </c>
-      <c r="B209" s="5">
-        <v>0.84930555555555554</v>
-      </c>
-      <c r="D209">
-        <v>16</v>
-      </c>
-      <c r="E209" t="s">
-        <v>24</v>
-      </c>
-      <c r="F209">
-        <v>1910.3</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6">
-      <c r="A210" s="1">
-        <v>42258</v>
-      </c>
-      <c r="B210" s="5">
-        <v>0.84930555555555554</v>
-      </c>
-      <c r="D210">
-        <v>13</v>
-      </c>
-      <c r="E210" t="s">
-        <v>8</v>
-      </c>
-      <c r="F210">
-        <v>1295</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6">
-      <c r="A211" s="1">
-        <v>42258</v>
-      </c>
-      <c r="B211" s="5">
-        <v>0.84930555555555554</v>
-      </c>
-      <c r="D211">
-        <v>14</v>
-      </c>
-      <c r="E211" t="s">
-        <v>10</v>
-      </c>
-      <c r="F211">
-        <v>2056</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6">
-      <c r="A212" s="1">
-        <v>42258</v>
-      </c>
-      <c r="B212" s="5">
-        <v>0.84930555555555554</v>
-      </c>
-      <c r="D212">
-        <v>11</v>
-      </c>
-      <c r="E212" t="s">
-        <v>12</v>
-      </c>
-      <c r="F212">
-        <v>1745.1</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6">
-      <c r="A213" s="1">
-        <v>42258</v>
-      </c>
-      <c r="B213" s="5">
-        <v>0.84930555555555554</v>
-      </c>
-      <c r="D213">
-        <v>1</v>
-      </c>
-      <c r="E213" t="s">
-        <v>14</v>
-      </c>
-      <c r="F213">
-        <v>2034.2</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6">
-      <c r="A214" s="1">
-        <v>42258</v>
-      </c>
-      <c r="B214" s="5">
-        <v>0.86597222222222225</v>
-      </c>
-      <c r="D214">
-        <v>10</v>
-      </c>
-      <c r="E214" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6">
-      <c r="A215" s="1">
-        <v>42262</v>
-      </c>
-      <c r="B215" s="5">
-        <v>0.7090277777777777</v>
-      </c>
-      <c r="D215">
-        <v>10</v>
-      </c>
-      <c r="E215" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6">
-      <c r="A216" s="1">
-        <v>42262</v>
-      </c>
-      <c r="B216" s="5">
-        <v>0.70972222222222225</v>
-      </c>
-      <c r="D216">
-        <v>6</v>
-      </c>
-      <c r="E216" t="s">
-        <v>18</v>
-      </c>
-      <c r="F216">
-        <v>1594.2</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6">
-      <c r="A217" s="1">
-        <v>42262</v>
-      </c>
-      <c r="B217" s="5">
-        <v>0.70972222222222225</v>
-      </c>
-      <c r="D217">
-        <v>16</v>
-      </c>
-      <c r="E217" t="s">
-        <v>19</v>
-      </c>
-      <c r="F217">
-        <v>1989.3</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6">
-      <c r="A218" s="1">
-        <v>42262</v>
-      </c>
-      <c r="B218" s="5">
-        <v>0.70972222222222225</v>
-      </c>
-      <c r="D218">
-        <v>13</v>
-      </c>
-      <c r="E218" t="s">
-        <v>20</v>
-      </c>
-      <c r="F218">
-        <v>2182.8000000000002</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6">
-      <c r="A219" s="1">
-        <v>42262</v>
-      </c>
-      <c r="B219" s="5">
-        <v>0.70972222222222225</v>
-      </c>
-      <c r="D219">
-        <v>14</v>
-      </c>
-      <c r="E219" t="s">
-        <v>21</v>
-      </c>
-      <c r="F219">
-        <v>1448.4</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6">
-      <c r="A220" s="1">
-        <v>42262</v>
-      </c>
-      <c r="B220" s="5">
-        <v>0.70972222222222225</v>
-      </c>
-      <c r="D220">
-        <v>11</v>
-      </c>
-      <c r="E220" t="s">
-        <v>22</v>
-      </c>
-      <c r="F220">
-        <v>2210.1</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6">
-      <c r="A221" s="1">
-        <v>42262</v>
-      </c>
-      <c r="B221" s="5">
-        <v>0.70972222222222225</v>
-      </c>
-      <c r="D221">
-        <v>1</v>
-      </c>
-      <c r="E221" t="s">
-        <v>23</v>
-      </c>
-      <c r="F221">
-        <v>1692</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6">
-      <c r="A222" s="1">
-        <v>42262</v>
-      </c>
-      <c r="B222" s="5">
-        <v>0.72638888888888886</v>
-      </c>
-      <c r="D222">
-        <v>10</v>
-      </c>
-      <c r="E222" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6">
-      <c r="A223" s="1">
-        <v>42262</v>
-      </c>
-      <c r="B223" s="5">
-        <v>0.75138888888888899</v>
-      </c>
-      <c r="D223">
-        <v>4</v>
-      </c>
-      <c r="E223" t="s">
-        <v>9</v>
-      </c>
-      <c r="F223">
-        <v>1922.3</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6">
-      <c r="A224" s="1">
-        <v>42262</v>
-      </c>
-      <c r="B224" s="5">
-        <v>0.75138888888888899</v>
-      </c>
-      <c r="D224">
-        <v>2</v>
-      </c>
-      <c r="E224" t="s">
-        <v>11</v>
-      </c>
       <c r="F224">
-        <v>1712</v>
+        <v>2196.6999999999998</v>
       </c>
     </row>
     <row r="225" spans="1:6">
       <c r="A225" s="1">
-        <v>42262</v>
-      </c>
-      <c r="B225" s="5">
-        <v>0.75138888888888899</v>
-      </c>
-      <c r="D225">
-        <v>12</v>
-      </c>
+        <v>42257</v>
+      </c>
+      <c r="B225" s="5"/>
+      <c r="D225" s="5"/>
       <c r="E225" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F225">
-        <v>1697.5</v>
+        <v>1470.5</v>
       </c>
     </row>
     <row r="226" spans="1:6">
       <c r="A226" s="1">
-        <v>42262</v>
-      </c>
-      <c r="B226" s="5">
-        <v>0.75138888888888899</v>
-      </c>
-      <c r="D226">
-        <v>8</v>
-      </c>
+        <v>42257</v>
+      </c>
+      <c r="B226" s="5"/>
+      <c r="D226" s="5"/>
       <c r="E226" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F226">
-        <v>2148.6</v>
+        <v>2229.8000000000002</v>
       </c>
     </row>
     <row r="227" spans="1:6">
       <c r="A227" s="1">
-        <v>42262</v>
-      </c>
-      <c r="B227" s="5">
-        <v>0.75138888888888899</v>
-      </c>
-      <c r="D227">
-        <v>5</v>
-      </c>
+        <v>42257</v>
+      </c>
+      <c r="B227" s="5"/>
+      <c r="D227" s="5"/>
       <c r="E227" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F227">
-        <v>1663.8</v>
+        <v>1707.4</v>
       </c>
     </row>
     <row r="228" spans="1:6">
       <c r="A228" s="1">
-        <v>42262</v>
-      </c>
-      <c r="B228" s="5">
-        <v>0.75138888888888899</v>
-      </c>
-      <c r="D228">
-        <v>9</v>
-      </c>
+        <v>42257</v>
+      </c>
+      <c r="B228" s="5"/>
+      <c r="D228" s="5"/>
       <c r="E228" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="F228">
-        <v>1703</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="229" spans="1:6">
       <c r="A229" s="1">
-        <v>42262</v>
-      </c>
-      <c r="B229" s="5">
-        <v>0.7680555555555556</v>
-      </c>
-      <c r="D229">
-        <v>10</v>
-      </c>
+        <v>42257</v>
+      </c>
+      <c r="B229" s="5"/>
+      <c r="D229" s="5"/>
       <c r="E229" t="s">
-        <v>47</v>
+        <v>24</v>
+      </c>
+      <c r="F229">
+        <v>1914.9</v>
       </c>
     </row>
     <row r="230" spans="1:6">
       <c r="A230" s="1">
-        <v>42262</v>
-      </c>
-      <c r="B230" s="5">
-        <v>0.77500000000000002</v>
-      </c>
-      <c r="D230">
-        <v>6</v>
-      </c>
+        <v>42257</v>
+      </c>
+      <c r="B230" s="5"/>
+      <c r="D230" s="5"/>
       <c r="E230" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F230">
-        <v>1965.9</v>
+        <v>1300.4000000000001</v>
       </c>
     </row>
     <row r="231" spans="1:6">
       <c r="A231" s="1">
-        <v>42262</v>
-      </c>
-      <c r="B231" s="5">
-        <v>0.77500000000000002</v>
-      </c>
-      <c r="D231">
-        <v>16</v>
-      </c>
+        <v>42257</v>
+      </c>
+      <c r="B231" s="5"/>
+      <c r="D231" s="5"/>
       <c r="E231" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F231">
-        <v>2175.6999999999998</v>
+        <v>2054.1</v>
       </c>
     </row>
     <row r="232" spans="1:6">
       <c r="A232" s="1">
-        <v>42262</v>
-      </c>
-      <c r="B232" s="5">
-        <v>0.77500000000000002</v>
-      </c>
-      <c r="D232">
-        <v>13</v>
-      </c>
+        <v>42257</v>
+      </c>
+      <c r="B232" s="5"/>
+      <c r="D232" s="5"/>
       <c r="E232" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F232">
-        <v>1442</v>
+        <v>1744.6</v>
       </c>
     </row>
     <row r="233" spans="1:6">
       <c r="A233" s="1">
-        <v>42262</v>
-      </c>
-      <c r="B233" s="5">
-        <v>0.77500000000000002</v>
-      </c>
-      <c r="D233">
+        <v>42257</v>
+      </c>
+      <c r="B233" s="5"/>
+      <c r="D233" s="5"/>
+      <c r="E233" t="s">
         <v>14</v>
       </c>
-      <c r="E233" t="s">
-        <v>4</v>
-      </c>
       <c r="F233">
-        <v>1847.1</v>
+        <v>2030.3</v>
       </c>
     </row>
     <row r="234" spans="1:6">
       <c r="A234" s="1">
-        <v>42262</v>
-      </c>
-      <c r="B234" s="5">
-        <v>0.77500000000000002</v>
-      </c>
-      <c r="D234">
-        <v>11</v>
-      </c>
+        <v>42257</v>
+      </c>
+      <c r="B234" s="5"/>
+      <c r="D234" s="5"/>
       <c r="E234" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="F234">
-        <v>1856.5</v>
+        <v>2096.5</v>
       </c>
     </row>
     <row r="235" spans="1:6">
       <c r="A235" s="1">
-        <v>42262</v>
-      </c>
-      <c r="B235" s="5">
-        <v>0.77500000000000002</v>
-      </c>
-      <c r="D235">
-        <v>1</v>
-      </c>
+        <v>42257</v>
+      </c>
+      <c r="B235" s="5"/>
+      <c r="D235" s="5"/>
       <c r="E235" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="F235">
-        <v>2022</v>
+        <v>1992.5</v>
       </c>
     </row>
     <row r="236" spans="1:6">
       <c r="A236" s="1">
-        <v>42262</v>
-      </c>
-      <c r="B236" s="5">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="D236">
-        <v>10</v>
-      </c>
+        <v>42257</v>
+      </c>
+      <c r="B236" s="5"/>
+      <c r="D236" s="5"/>
       <c r="E236" t="s">
-        <v>46</v>
+        <v>27</v>
+      </c>
+      <c r="F236">
+        <v>1962</v>
       </c>
     </row>
     <row r="237" spans="1:6">
       <c r="A237" s="1">
-        <v>42262</v>
-      </c>
-      <c r="B237" s="5">
-        <v>0.93888888888888899</v>
-      </c>
-      <c r="D237">
-        <v>4</v>
-      </c>
+        <v>42257</v>
+      </c>
+      <c r="B237" s="5"/>
+      <c r="D237" s="5"/>
       <c r="E237" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F237">
-        <v>2080.6</v>
+        <v>2027.5</v>
       </c>
     </row>
     <row r="238" spans="1:6">
       <c r="A238" s="1">
-        <v>42262</v>
-      </c>
-      <c r="B238" s="5">
-        <v>0.93888888888888899</v>
-      </c>
-      <c r="D238">
-        <v>2</v>
-      </c>
+        <v>42257</v>
+      </c>
+      <c r="B238" s="5"/>
+      <c r="D238" s="5"/>
       <c r="E238" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F238">
-        <v>1978.2</v>
+        <v>2150.8000000000002</v>
       </c>
     </row>
     <row r="239" spans="1:6">
       <c r="A239" s="1">
-        <v>42262</v>
-      </c>
-      <c r="B239" s="5">
-        <v>0.93888888888888899</v>
-      </c>
-      <c r="D239">
-        <v>12</v>
-      </c>
+        <v>42257</v>
+      </c>
+      <c r="B239" s="5"/>
+      <c r="D239" s="5"/>
       <c r="E239" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F239">
-        <v>1947.7</v>
+        <v>1636.4</v>
       </c>
     </row>
     <row r="240" spans="1:6">
       <c r="A240" s="1">
-        <v>42262</v>
+        <v>42258</v>
       </c>
       <c r="B240" s="5">
-        <v>0.93888888888888899</v>
+        <v>0.69444444444444453</v>
       </c>
       <c r="D240">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E240" t="s">
-        <v>28</v>
-      </c>
-      <c r="F240">
-        <v>2010.7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="241" spans="1:6">
       <c r="A241" s="1">
-        <v>42262</v>
+        <v>42258</v>
       </c>
       <c r="B241" s="5">
-        <v>0.93888888888888899</v>
+        <v>0.7006944444444444</v>
       </c>
       <c r="D241">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E241" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="F241">
-        <v>2144</v>
+        <v>1969.8</v>
       </c>
     </row>
     <row r="242" spans="1:6">
       <c r="A242" s="1">
-        <v>42262</v>
+        <v>42258</v>
       </c>
       <c r="B242" s="5">
-        <v>0.93888888888888899</v>
+        <v>0.7006944444444444</v>
       </c>
       <c r="D242">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E242" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="F242">
-        <v>1637.1</v>
+        <v>2179.4</v>
       </c>
     </row>
     <row r="243" spans="1:6">
       <c r="A243" s="1">
-        <v>42262</v>
+        <v>42258</v>
       </c>
       <c r="B243" s="5">
-        <v>0.9555555555555556</v>
+        <v>0.7006944444444444</v>
       </c>
       <c r="D243">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E243" t="s">
-        <v>46</v>
+        <v>3</v>
+      </c>
+      <c r="F243">
+        <v>1445.3</v>
       </c>
     </row>
     <row r="244" spans="1:6">
       <c r="A244" s="1">
-        <v>42262</v>
+        <v>42258</v>
       </c>
       <c r="B244" s="5">
-        <v>0.96250000000000002</v>
+        <v>0.7006944444444444</v>
       </c>
       <c r="D244">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E244" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F244">
-        <v>1612.7</v>
+        <v>1850.7</v>
       </c>
     </row>
     <row r="245" spans="1:6">
       <c r="A245" s="1">
-        <v>42262</v>
+        <v>42258</v>
       </c>
       <c r="B245" s="5">
-        <v>0.96250000000000002</v>
+        <v>0.7006944444444444</v>
       </c>
       <c r="D245">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E245" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F245">
-        <v>1906.9</v>
+        <v>1860.9</v>
       </c>
     </row>
     <row r="246" spans="1:6">
       <c r="A246" s="1">
-        <v>42262</v>
+        <v>42258</v>
       </c>
       <c r="B246" s="5">
-        <v>0.96250000000000002</v>
+        <v>0.7006944444444444</v>
       </c>
       <c r="D246">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E246" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F246">
-        <v>1288.9000000000001</v>
+        <v>2026.3</v>
       </c>
     </row>
     <row r="247" spans="1:6">
       <c r="A247" s="1">
-        <v>42262</v>
+        <v>42258</v>
       </c>
       <c r="B247" s="5">
-        <v>0.96250000000000002</v>
+        <v>0.71736111111111101</v>
       </c>
       <c r="D247">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E247" t="s">
-        <v>10</v>
-      </c>
-      <c r="F247">
-        <v>2045.6</v>
+        <v>47</v>
       </c>
     </row>
     <row r="248" spans="1:6">
       <c r="A248" s="1">
-        <v>42262</v>
+        <v>42258</v>
       </c>
       <c r="B248" s="5">
-        <v>0.96250000000000002</v>
+        <v>0.72430555555555554</v>
       </c>
       <c r="D248">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E248" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F248">
-        <v>1733.5</v>
+        <v>1943.7</v>
       </c>
     </row>
     <row r="249" spans="1:6">
       <c r="A249" s="1">
-        <v>42262</v>
+        <v>42258</v>
       </c>
       <c r="B249" s="5">
-        <v>0.96250000000000002</v>
+        <v>0.72430555555555554</v>
       </c>
       <c r="D249">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E249" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F249">
-        <v>2014.4</v>
+        <v>1734.7</v>
       </c>
     </row>
     <row r="250" spans="1:6">
       <c r="A250" s="1">
-        <v>42265</v>
+        <v>42258</v>
       </c>
       <c r="B250" s="5">
-        <v>0.75</v>
+        <v>0.72430555555555554</v>
       </c>
       <c r="D250">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E250" t="s">
-        <v>47</v>
+        <v>13</v>
+      </c>
+      <c r="F250">
+        <v>1713.3</v>
       </c>
     </row>
     <row r="251" spans="1:6">
       <c r="A251" s="1">
-        <v>42265</v>
+        <v>42258</v>
       </c>
       <c r="B251" s="5">
-        <v>0.75624999999999998</v>
+        <v>0.72430555555555554</v>
       </c>
       <c r="D251">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E251" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F251">
-        <v>1964.1</v>
+        <v>2162.4</v>
       </c>
     </row>
     <row r="252" spans="1:6">
       <c r="A252" s="1">
-        <v>42265</v>
+        <v>42258</v>
       </c>
       <c r="B252" s="5">
-        <v>0.75624999999999998</v>
+        <v>0.72430555555555554</v>
       </c>
       <c r="D252">
+        <v>5</v>
+      </c>
+      <c r="E252" t="s">
         <v>16</v>
       </c>
-      <c r="E252" t="s">
-        <v>2</v>
-      </c>
       <c r="F252">
-        <v>2173.3000000000002</v>
+        <v>1676.9</v>
       </c>
     </row>
     <row r="253" spans="1:6">
       <c r="A253" s="1">
-        <v>42265</v>
+        <v>42258</v>
       </c>
       <c r="B253" s="5">
-        <v>0.75624999999999998</v>
+        <v>0.72430555555555554</v>
       </c>
       <c r="D253">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E253" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="F253">
-        <v>1438.8</v>
+        <v>1713.6</v>
       </c>
     </row>
     <row r="254" spans="1:6">
       <c r="A254" s="1">
-        <v>42265</v>
+        <v>42258</v>
       </c>
       <c r="B254" s="5">
-        <v>0.75624999999999998</v>
+        <v>0.74097222222222225</v>
       </c>
       <c r="D254">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E254" t="s">
-        <v>4</v>
-      </c>
-      <c r="F254">
-        <v>1844.2</v>
+        <v>47</v>
       </c>
     </row>
     <row r="255" spans="1:6">
       <c r="A255" s="1">
-        <v>42265</v>
+        <v>42258</v>
       </c>
       <c r="B255" s="5">
-        <v>0.75624999999999998</v>
+        <v>0.78402777777777777</v>
       </c>
       <c r="D255">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E255" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F255">
-        <v>1852.7</v>
+        <v>1609.6</v>
       </c>
     </row>
     <row r="256" spans="1:6">
       <c r="A256" s="1">
-        <v>42265</v>
+        <v>42258</v>
       </c>
       <c r="B256" s="5">
-        <v>0.75624999999999998</v>
+        <v>0.78402777777777777</v>
       </c>
       <c r="D256">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E256" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F256">
-        <v>2015.9</v>
+        <v>2004.9</v>
       </c>
     </row>
     <row r="257" spans="1:7">
       <c r="A257" s="1">
-        <v>42265</v>
+        <v>42258</v>
       </c>
       <c r="B257" s="5">
-        <v>0.7729166666666667</v>
+        <v>0.78402777777777777</v>
       </c>
       <c r="D257">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E257" t="s">
-        <v>47</v>
+        <v>20</v>
+      </c>
+      <c r="F257">
+        <v>2198</v>
       </c>
     </row>
     <row r="258" spans="1:7">
       <c r="A258" s="1">
-        <v>42265</v>
+        <v>42258</v>
       </c>
       <c r="B258" s="5">
-        <v>0.77986111111111101</v>
+        <v>0.78402777777777777</v>
       </c>
       <c r="D258">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E258" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F258">
-        <v>1921.4</v>
-      </c>
-      <c r="G258" t="s">
-        <v>50</v>
+        <v>1480.2</v>
       </c>
     </row>
     <row r="259" spans="1:7">
       <c r="A259" s="1">
-        <v>42265</v>
+        <v>42258</v>
       </c>
       <c r="B259" s="5">
-        <v>0.77986111111111101</v>
+        <v>0.78402777777777777</v>
       </c>
       <c r="D259">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E259" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F259">
-        <v>1711.5</v>
-      </c>
-      <c r="G259" t="s">
-        <v>50</v>
+        <v>2230.1</v>
       </c>
     </row>
     <row r="260" spans="1:7">
       <c r="A260" s="1">
-        <v>42265</v>
+        <v>42258</v>
       </c>
       <c r="B260" s="5">
-        <v>0.77986111111111101</v>
+        <v>0.78402777777777777</v>
       </c>
       <c r="D260">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E260" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F260">
-        <v>1699</v>
-      </c>
-      <c r="G260" t="s">
-        <v>50</v>
+        <v>1709.2</v>
       </c>
     </row>
     <row r="261" spans="1:7">
       <c r="A261" s="1">
-        <v>42265</v>
+        <v>42258</v>
       </c>
       <c r="B261" s="5">
-        <v>0.77986111111111101</v>
+        <v>0.80069444444444438</v>
       </c>
       <c r="D261">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E261" t="s">
-        <v>15</v>
-      </c>
-      <c r="F261">
-        <v>2146.8000000000002</v>
-      </c>
-      <c r="G261" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="262" spans="1:7">
       <c r="A262" s="1">
-        <v>42265</v>
+        <v>42258</v>
       </c>
       <c r="B262" s="5">
-        <v>0.77986111111111101</v>
+        <v>0.8256944444444444</v>
       </c>
       <c r="D262">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E262" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F262">
-        <v>1661.6</v>
+        <v>2103.5</v>
       </c>
       <c r="G262" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="263" spans="1:7">
       <c r="A263" s="1">
-        <v>42265</v>
+        <v>42258</v>
       </c>
       <c r="B263" s="5">
-        <v>0.77986111111111101</v>
+        <v>0.8256944444444444</v>
       </c>
       <c r="D263">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E263" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F263">
-        <v>1703.8</v>
+        <v>1999.2</v>
       </c>
       <c r="G263" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="264" spans="1:7">
       <c r="A264" s="1">
-        <v>42265</v>
+        <v>42258</v>
       </c>
       <c r="B264" s="5">
-        <v>0.79652777777777783</v>
+        <v>0.8256944444444444</v>
       </c>
       <c r="D264">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E264" t="s">
-        <v>47</v>
+        <v>27</v>
+      </c>
+      <c r="F264">
+        <v>1967.3</v>
+      </c>
+      <c r="G264" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="265" spans="1:7">
       <c r="A265" s="1">
-        <v>42265</v>
+        <v>42258</v>
       </c>
       <c r="B265" s="5">
-        <v>0.82777777777777783</v>
+        <v>0.8256944444444444</v>
       </c>
       <c r="D265">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E265" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F265">
-        <v>1588.8</v>
+        <v>2034.7</v>
+      </c>
+      <c r="G265" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="266" spans="1:7">
       <c r="A266" s="1">
-        <v>42265</v>
+        <v>42258</v>
       </c>
       <c r="B266" s="5">
-        <v>0.82777777777777783</v>
+        <v>0.8256944444444444</v>
       </c>
       <c r="D266">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E266" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F266">
-        <v>1982.6</v>
+        <v>2158.3000000000002</v>
+      </c>
+      <c r="G266" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="267" spans="1:7">
       <c r="A267" s="1">
-        <v>42265</v>
+        <v>42258</v>
       </c>
       <c r="B267" s="5">
-        <v>0.82777777777777783</v>
+        <v>0.8256944444444444</v>
       </c>
       <c r="D267">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E267" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F267">
-        <v>2179</v>
+        <v>1659.2</v>
+      </c>
+      <c r="G267" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="268" spans="1:7">
       <c r="A268" s="1">
-        <v>42265</v>
+        <v>42258</v>
       </c>
       <c r="B268" s="5">
-        <v>0.82777777777777783</v>
+        <v>0.84236111111111101</v>
       </c>
       <c r="D268">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E268" t="s">
-        <v>21</v>
-      </c>
-      <c r="F268">
-        <v>1435.4</v>
+        <v>46</v>
       </c>
     </row>
     <row r="269" spans="1:7">
       <c r="A269" s="1">
-        <v>42265</v>
+        <v>42258</v>
       </c>
       <c r="B269" s="5">
-        <v>0.82777777777777783</v>
+        <v>0.84930555555555554</v>
       </c>
       <c r="D269">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E269" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="F269">
-        <v>2205.6999999999998</v>
+        <v>1624.6</v>
       </c>
     </row>
     <row r="270" spans="1:7">
       <c r="A270" s="1">
-        <v>42265</v>
+        <v>42258</v>
       </c>
       <c r="B270" s="5">
-        <v>0.82777777777777783</v>
+        <v>0.84930555555555554</v>
       </c>
       <c r="D270">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E270" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F270">
-        <v>1687.8</v>
+        <v>1910.3</v>
       </c>
     </row>
     <row r="271" spans="1:7">
       <c r="A271" s="1">
-        <v>42265</v>
+        <v>42258</v>
       </c>
       <c r="B271" s="5">
-        <v>0.84444444444444444</v>
+        <v>0.84930555555555554</v>
       </c>
       <c r="D271">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E271" t="s">
-        <v>46</v>
+        <v>8</v>
+      </c>
+      <c r="F271">
+        <v>1295</v>
       </c>
     </row>
     <row r="272" spans="1:7">
       <c r="A272" s="1">
-        <v>42265</v>
+        <v>42258</v>
       </c>
       <c r="B272" s="5">
-        <v>0.88194444444444453</v>
+        <v>0.84930555555555554</v>
       </c>
       <c r="D272">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E272" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F272">
-        <v>2068.9</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="273" spans="1:6">
       <c r="A273" s="1">
-        <v>42265</v>
+        <v>42258</v>
       </c>
       <c r="B273" s="5">
-        <v>0.88194444444444453</v>
+        <v>0.84930555555555554</v>
       </c>
       <c r="D273">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E273" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F273">
-        <v>1968.4</v>
+        <v>1745.1</v>
       </c>
     </row>
     <row r="274" spans="1:6">
       <c r="A274" s="1">
-        <v>42265</v>
+        <v>42258</v>
       </c>
       <c r="B274" s="5">
-        <v>0.88194444444444453</v>
+        <v>0.84930555555555554</v>
       </c>
       <c r="D274">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E274" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F274">
-        <v>1939</v>
+        <v>2034.2</v>
       </c>
     </row>
     <row r="275" spans="1:6">
       <c r="A275" s="1">
-        <v>42265</v>
+        <v>42258</v>
       </c>
       <c r="B275" s="5">
-        <v>0.88194444444444453</v>
+        <v>0.86597222222222225</v>
       </c>
       <c r="D275">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E275" t="s">
-        <v>28</v>
-      </c>
-      <c r="F275">
-        <v>2002</v>
+        <v>46</v>
       </c>
     </row>
     <row r="276" spans="1:6">
       <c r="A276" s="1">
-        <v>42265</v>
-      </c>
-      <c r="B276" s="5">
-        <v>0.88194444444444453</v>
-      </c>
-      <c r="D276">
-        <v>5</v>
-      </c>
+        <v>42261</v>
+      </c>
+      <c r="B276" s="5"/>
+      <c r="D276" s="5"/>
       <c r="E276" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="F276">
-        <v>2138.4</v>
+        <v>1965.8</v>
       </c>
     </row>
     <row r="277" spans="1:6">
       <c r="A277" s="1">
-        <v>42265</v>
-      </c>
-      <c r="B277" s="5">
-        <v>0.88194444444444453</v>
-      </c>
-      <c r="D277">
-        <v>9</v>
-      </c>
+        <v>42261</v>
+      </c>
+      <c r="B277" s="5"/>
+      <c r="D277" s="5"/>
       <c r="E277" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="F277">
-        <v>1628.6</v>
+        <v>2174.1</v>
       </c>
     </row>
     <row r="278" spans="1:6">
       <c r="A278" s="1">
-        <v>42265</v>
-      </c>
-      <c r="B278" s="5">
-        <v>0.89861111111111114</v>
-      </c>
-      <c r="D278">
-        <v>10</v>
-      </c>
+        <v>42261</v>
+      </c>
+      <c r="B278" s="5"/>
+      <c r="D278" s="5"/>
       <c r="E278" t="s">
-        <v>46</v>
+        <v>3</v>
+      </c>
+      <c r="F278">
+        <v>1442.4</v>
       </c>
     </row>
     <row r="279" spans="1:6">
       <c r="A279" s="1">
-        <v>42265</v>
-      </c>
-      <c r="B279" s="5">
-        <v>0.90555555555555556</v>
-      </c>
-      <c r="D279">
-        <v>6</v>
-      </c>
+        <v>42261</v>
+      </c>
+      <c r="B279" s="5"/>
+      <c r="D279" s="5"/>
       <c r="E279" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F279">
-        <v>1613.4</v>
+        <v>1846.2</v>
       </c>
     </row>
     <row r="280" spans="1:6">
       <c r="A280" s="1">
-        <v>42265</v>
-      </c>
-      <c r="B280" s="5">
-        <v>0.90555555555555556</v>
-      </c>
-      <c r="D280">
-        <v>16</v>
-      </c>
+        <v>42261</v>
+      </c>
+      <c r="B280" s="5"/>
+      <c r="D280" s="5"/>
       <c r="E280" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F280">
-        <v>1905.6</v>
+        <v>1855.5</v>
       </c>
     </row>
     <row r="281" spans="1:6">
       <c r="A281" s="1">
-        <v>42265</v>
-      </c>
-      <c r="B281" s="5">
-        <v>0.90555555555555556</v>
-      </c>
-      <c r="D281">
-        <v>13</v>
-      </c>
+        <v>42261</v>
+      </c>
+      <c r="B281" s="5"/>
+      <c r="D281" s="5"/>
       <c r="E281" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F281">
-        <v>1290.3</v>
+        <v>2020.2</v>
       </c>
     </row>
     <row r="282" spans="1:6">
       <c r="A282" s="1">
-        <v>42265</v>
-      </c>
-      <c r="B282" s="5">
-        <v>0.90555555555555556</v>
-      </c>
-      <c r="D282">
-        <v>14</v>
-      </c>
+        <v>42261</v>
+      </c>
+      <c r="B282" s="5"/>
+      <c r="D282" s="5"/>
       <c r="E282" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F282">
-        <v>2045.9</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="283" spans="1:6">
       <c r="A283" s="1">
-        <v>42265</v>
-      </c>
-      <c r="B283" s="5">
-        <v>0.90555555555555556</v>
-      </c>
-      <c r="D283">
+        <v>42261</v>
+      </c>
+      <c r="B283" s="5"/>
+      <c r="D283" s="5"/>
+      <c r="E283" t="s">
         <v>11</v>
       </c>
-      <c r="E283" t="s">
-        <v>12</v>
-      </c>
       <c r="F283">
-        <v>1731.1</v>
+        <v>1715.7</v>
       </c>
     </row>
     <row r="284" spans="1:6">
       <c r="A284" s="1">
-        <v>42265</v>
-      </c>
-      <c r="B284" s="5">
-        <v>0.90555555555555556</v>
-      </c>
-      <c r="D284">
-        <v>1</v>
-      </c>
+        <v>42261</v>
+      </c>
+      <c r="B284" s="5"/>
+      <c r="D284" s="5"/>
       <c r="E284" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F284">
-        <v>2015.3</v>
+        <v>1700.8</v>
       </c>
     </row>
     <row r="285" spans="1:6">
       <c r="A285" s="1">
-        <v>42265</v>
-      </c>
-      <c r="B285" s="6">
-        <v>0.92222222222222217</v>
-      </c>
-      <c r="D285">
-        <v>10</v>
-      </c>
+        <v>42261</v>
+      </c>
+      <c r="B285" s="5"/>
+      <c r="D285" s="5"/>
       <c r="E285" t="s">
-        <v>46</v>
+        <v>15</v>
+      </c>
+      <c r="F285">
+        <v>2151.6</v>
       </c>
     </row>
     <row r="286" spans="1:6">
       <c r="A286" s="1">
-        <v>42254</v>
+        <v>42261</v>
       </c>
       <c r="B286" s="5"/>
       <c r="D286" s="5"/>
       <c r="E286" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F286">
-        <v>1970.7</v>
+        <v>1667.1</v>
       </c>
     </row>
     <row r="287" spans="1:6">
       <c r="A287" s="1">
-        <v>42254</v>
+        <v>42261</v>
       </c>
       <c r="B287" s="5"/>
       <c r="D287" s="5"/>
       <c r="E287" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F287">
-        <v>2181.1</v>
+        <v>1705.3</v>
       </c>
     </row>
     <row r="288" spans="1:6">
       <c r="A288" s="1">
-        <v>42254</v>
+        <v>42261</v>
       </c>
       <c r="B288" s="5"/>
       <c r="D288" s="5"/>
       <c r="E288" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="F288">
-        <v>1444.6</v>
+        <v>1597.1</v>
       </c>
     </row>
     <row r="289" spans="1:6">
       <c r="A289" s="1">
-        <v>42254</v>
+        <v>42261</v>
       </c>
       <c r="B289" s="5"/>
       <c r="D289" s="5"/>
       <c r="E289" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="F289">
-        <v>1850.9</v>
+        <v>1992.7</v>
       </c>
     </row>
     <row r="290" spans="1:6">
       <c r="A290" s="1">
-        <v>42254</v>
+        <v>42261</v>
       </c>
       <c r="B290" s="5"/>
       <c r="D290" s="5"/>
       <c r="E290" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F290">
-        <v>1858.8</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="291" spans="1:6">
       <c r="A291" s="1">
-        <v>42254</v>
+        <v>42261</v>
       </c>
       <c r="B291" s="5"/>
       <c r="D291" s="5"/>
       <c r="E291" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F291">
-        <v>2026.8</v>
+        <v>1455.6</v>
       </c>
     </row>
     <row r="292" spans="1:6">
       <c r="A292" s="1">
-        <v>42254</v>
+        <v>42261</v>
       </c>
       <c r="B292" s="5"/>
       <c r="D292" s="5"/>
       <c r="E292" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F292">
-        <v>1979.5</v>
+        <v>2214.4</v>
       </c>
     </row>
     <row r="293" spans="1:6">
       <c r="A293" s="1">
-        <v>42254</v>
+        <v>42261</v>
       </c>
       <c r="B293" s="5"/>
       <c r="D293" s="5"/>
       <c r="E293" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F293">
-        <v>1766.7</v>
+        <v>1695.6</v>
       </c>
     </row>
     <row r="294" spans="1:6">
       <c r="A294" s="1">
-        <v>42254</v>
+        <v>42261</v>
       </c>
       <c r="B294" s="5"/>
       <c r="D294" s="5"/>
       <c r="E294" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F294">
-        <v>1732.3</v>
+        <v>1615.9</v>
       </c>
     </row>
     <row r="295" spans="1:6">
       <c r="A295" s="1">
-        <v>42254</v>
+        <v>42261</v>
       </c>
       <c r="B295" s="5"/>
       <c r="D295" s="5"/>
       <c r="E295" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F295">
-        <v>2182.1</v>
+        <v>1905.7</v>
       </c>
     </row>
     <row r="296" spans="1:6">
       <c r="A296" s="1">
-        <v>42254</v>
+        <v>42261</v>
       </c>
       <c r="B296" s="5"/>
       <c r="D296" s="5"/>
       <c r="E296" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F296">
-        <v>1698.8</v>
+        <v>1290.4000000000001</v>
       </c>
     </row>
     <row r="297" spans="1:6">
       <c r="A297" s="1">
-        <v>42254</v>
+        <v>42261</v>
       </c>
       <c r="B297" s="5"/>
       <c r="D297" s="5"/>
       <c r="E297" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F297">
-        <v>1727.9</v>
+        <v>2048.3000000000002</v>
       </c>
     </row>
     <row r="298" spans="1:6">
       <c r="A298" s="1">
-        <v>42254</v>
+        <v>42261</v>
       </c>
       <c r="B298" s="5"/>
       <c r="D298" s="5"/>
       <c r="E298" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F298">
-        <v>1623.9</v>
+        <v>1736.3</v>
       </c>
     </row>
     <row r="299" spans="1:6">
       <c r="A299" s="1">
-        <v>42254</v>
+        <v>42261</v>
       </c>
       <c r="B299" s="5"/>
       <c r="D299" s="5"/>
       <c r="E299" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F299">
-        <v>2022.3</v>
+        <v>2019.6</v>
       </c>
     </row>
     <row r="300" spans="1:6">
       <c r="A300" s="1">
-        <v>42254</v>
+        <v>42261</v>
       </c>
       <c r="B300" s="5"/>
       <c r="D300" s="5"/>
       <c r="E300" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F300">
-        <v>2212.1999999999998</v>
+        <v>2085.9</v>
       </c>
     </row>
     <row r="301" spans="1:6">
       <c r="A301" s="1">
-        <v>42254</v>
+        <v>42261</v>
       </c>
       <c r="B301" s="5"/>
       <c r="D301" s="5"/>
       <c r="E301" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F301">
-        <v>1489.9</v>
+        <v>1983.2</v>
       </c>
     </row>
     <row r="302" spans="1:6">
       <c r="A302" s="1">
-        <v>42254</v>
+        <v>42261</v>
       </c>
       <c r="B302" s="5"/>
       <c r="D302" s="5"/>
       <c r="E302" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F302">
-        <v>2250.3000000000002</v>
+        <v>1952.1</v>
       </c>
     </row>
     <row r="303" spans="1:6">
       <c r="A303" s="1">
-        <v>42254</v>
+        <v>42261</v>
       </c>
       <c r="B303" s="5"/>
       <c r="D303" s="5"/>
       <c r="E303" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F303">
-        <v>1725.3</v>
+        <v>2017.4</v>
       </c>
     </row>
     <row r="304" spans="1:6">
       <c r="A304" s="1">
-        <v>42254</v>
+        <v>42261</v>
       </c>
       <c r="B304" s="5"/>
       <c r="D304" s="5"/>
       <c r="E304" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="F304">
-        <v>1624.1</v>
+        <v>2147.1</v>
       </c>
     </row>
     <row r="305" spans="1:6">
       <c r="A305" s="1">
-        <v>42254</v>
+        <v>42261</v>
       </c>
       <c r="B305" s="5"/>
       <c r="D305" s="5"/>
       <c r="E305" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F305">
-        <v>1908.8</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="306" spans="1:6">
       <c r="A306" s="1">
-        <v>42254</v>
-      </c>
-      <c r="B306" s="5"/>
-      <c r="D306" s="5"/>
+        <v>42262</v>
+      </c>
+      <c r="B306" s="5">
+        <v>0.7090277777777777</v>
+      </c>
+      <c r="D306">
+        <v>10</v>
+      </c>
       <c r="E306" t="s">
-        <v>8</v>
-      </c>
-      <c r="F306">
-        <v>1295.8</v>
+        <v>47</v>
       </c>
     </row>
     <row r="307" spans="1:6">
       <c r="A307" s="1">
-        <v>42254</v>
-      </c>
-      <c r="B307" s="5"/>
-      <c r="D307" s="5"/>
+        <v>42262</v>
+      </c>
+      <c r="B307" s="5">
+        <v>0.70972222222222225</v>
+      </c>
+      <c r="D307">
+        <v>6</v>
+      </c>
       <c r="E307" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F307">
-        <v>2049.8000000000002</v>
+        <v>1594.2</v>
       </c>
     </row>
     <row r="308" spans="1:6">
       <c r="A308" s="1">
-        <v>42254</v>
-      </c>
-      <c r="B308" s="5"/>
-      <c r="D308" s="5"/>
+        <v>42262</v>
+      </c>
+      <c r="B308" s="5">
+        <v>0.70972222222222225</v>
+      </c>
+      <c r="D308">
+        <v>16</v>
+      </c>
       <c r="E308" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F308">
-        <v>1741.2</v>
+        <v>1989.3</v>
       </c>
     </row>
     <row r="309" spans="1:6">
       <c r="A309" s="1">
-        <v>42254</v>
-      </c>
-      <c r="B309" s="5"/>
-      <c r="D309" s="5"/>
+        <v>42262</v>
+      </c>
+      <c r="B309" s="5">
+        <v>0.70972222222222225</v>
+      </c>
+      <c r="D309">
+        <v>13</v>
+      </c>
       <c r="E309" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F309">
-        <v>2028.1</v>
+        <v>2182.8000000000002</v>
       </c>
     </row>
     <row r="310" spans="1:6">
       <c r="A310" s="1">
-        <v>42254</v>
-      </c>
-      <c r="B310" s="5"/>
-      <c r="D310" s="5"/>
+        <v>42262</v>
+      </c>
+      <c r="B310" s="5">
+        <v>0.70972222222222225</v>
+      </c>
+      <c r="D310">
+        <v>14</v>
+      </c>
       <c r="E310" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F310">
-        <v>2119.6</v>
+        <v>1448.4</v>
       </c>
     </row>
     <row r="311" spans="1:6">
       <c r="A311" s="1">
-        <v>42254</v>
-      </c>
-      <c r="B311" s="5"/>
-      <c r="D311" s="5"/>
+        <v>42262</v>
+      </c>
+      <c r="B311" s="5">
+        <v>0.70972222222222225</v>
+      </c>
+      <c r="D311">
+        <v>11</v>
+      </c>
       <c r="E311" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F311">
-        <v>2015.2</v>
+        <v>2210.1</v>
       </c>
     </row>
     <row r="312" spans="1:6">
       <c r="A312" s="1">
-        <v>42254</v>
-      </c>
-      <c r="B312" s="5"/>
-      <c r="D312" s="5"/>
+        <v>42262</v>
+      </c>
+      <c r="B312" s="5">
+        <v>0.70972222222222225</v>
+      </c>
+      <c r="D312">
+        <v>1</v>
+      </c>
       <c r="E312" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F312">
-        <v>1977.6</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="313" spans="1:6">
       <c r="A313" s="1">
-        <v>42254</v>
-      </c>
-      <c r="B313" s="5"/>
-      <c r="D313" s="5"/>
+        <v>42262</v>
+      </c>
+      <c r="B313" s="5">
+        <v>0.72638888888888886</v>
+      </c>
+      <c r="D313">
+        <v>10</v>
+      </c>
       <c r="E313" t="s">
-        <v>28</v>
-      </c>
-      <c r="F313">
-        <v>2048.4</v>
+        <v>47</v>
       </c>
     </row>
     <row r="314" spans="1:6">
       <c r="A314" s="1">
-        <v>42254</v>
-      </c>
-      <c r="B314" s="5"/>
-      <c r="D314" s="5"/>
+        <v>42262</v>
+      </c>
+      <c r="B314" s="5">
+        <v>0.75138888888888899</v>
+      </c>
+      <c r="D314">
+        <v>4</v>
+      </c>
       <c r="E314" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="F314">
-        <v>2165.9</v>
+        <v>1922.3</v>
       </c>
     </row>
     <row r="315" spans="1:6">
       <c r="A315" s="1">
-        <v>42254</v>
-      </c>
-      <c r="B315" s="5"/>
-      <c r="D315" s="5"/>
+        <v>42262</v>
+      </c>
+      <c r="B315" s="5">
+        <v>0.75138888888888899</v>
+      </c>
+      <c r="D315">
+        <v>2</v>
+      </c>
       <c r="E315" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F315">
-        <v>1647.2</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="316" spans="1:6">
       <c r="A316" s="1">
-        <v>42257</v>
-      </c>
-      <c r="B316" s="5"/>
-      <c r="D316" s="5"/>
+        <v>42262</v>
+      </c>
+      <c r="B316" s="5">
+        <v>0.75138888888888899</v>
+      </c>
+      <c r="D316">
+        <v>12</v>
+      </c>
       <c r="E316" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F316">
-        <v>1973.9</v>
+        <v>1697.5</v>
       </c>
     </row>
     <row r="317" spans="1:6">
       <c r="A317" s="1">
-        <v>42257</v>
-      </c>
-      <c r="B317" s="5"/>
-      <c r="D317" s="5"/>
+        <v>42262</v>
+      </c>
+      <c r="B317" s="5">
+        <v>0.75138888888888899</v>
+      </c>
+      <c r="D317">
+        <v>8</v>
+      </c>
       <c r="E317" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F317">
-        <v>2185.1999999999998</v>
+        <v>2148.6</v>
       </c>
     </row>
     <row r="318" spans="1:6">
       <c r="A318" s="1">
-        <v>42257</v>
-      </c>
-      <c r="B318" s="5"/>
-      <c r="D318" s="5"/>
+        <v>42262</v>
+      </c>
+      <c r="B318" s="5">
+        <v>0.75138888888888899</v>
+      </c>
+      <c r="D318">
+        <v>5</v>
+      </c>
       <c r="E318" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F318">
-        <v>1448.9</v>
+        <v>1663.8</v>
       </c>
     </row>
     <row r="319" spans="1:6">
       <c r="A319" s="1">
-        <v>42257</v>
-      </c>
-      <c r="B319" s="5"/>
-      <c r="D319" s="5"/>
+        <v>42262</v>
+      </c>
+      <c r="B319" s="5">
+        <v>0.75138888888888899</v>
+      </c>
+      <c r="D319">
+        <v>9</v>
+      </c>
       <c r="E319" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F319">
-        <v>1855.2</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="320" spans="1:6">
       <c r="A320" s="1">
-        <v>42257</v>
-      </c>
-      <c r="B320" s="5"/>
-      <c r="D320" s="5"/>
+        <v>42262</v>
+      </c>
+      <c r="B320" s="5">
+        <v>0.7680555555555556</v>
+      </c>
+      <c r="D320">
+        <v>10</v>
+      </c>
       <c r="E320" t="s">
-        <v>6</v>
-      </c>
-      <c r="F320">
-        <v>1862.4</v>
+        <v>47</v>
       </c>
     </row>
     <row r="321" spans="1:6">
       <c r="A321" s="1">
-        <v>42257</v>
-      </c>
-      <c r="B321" s="5"/>
-      <c r="D321" s="5"/>
+        <v>42262</v>
+      </c>
+      <c r="B321" s="5">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="D321">
+        <v>6</v>
+      </c>
       <c r="E321" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F321">
-        <v>2030.2</v>
+        <v>1965.9</v>
       </c>
     </row>
     <row r="322" spans="1:6">
       <c r="A322" s="1">
-        <v>42257</v>
-      </c>
-      <c r="B322" s="5"/>
-      <c r="D322" s="5"/>
+        <v>42262</v>
+      </c>
+      <c r="B322" s="5">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="D322">
+        <v>16</v>
+      </c>
       <c r="E322" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F322">
-        <v>1950.2</v>
+        <v>2175.6999999999998</v>
       </c>
     </row>
     <row r="323" spans="1:6">
       <c r="A323" s="1">
-        <v>42257</v>
-      </c>
-      <c r="B323" s="5"/>
-      <c r="D323" s="5"/>
+        <v>42262</v>
+      </c>
+      <c r="B323" s="5">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="D323">
+        <v>13</v>
+      </c>
       <c r="E323" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F323">
-        <v>1740.8</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="324" spans="1:6">
       <c r="A324" s="1">
-        <v>42257</v>
-      </c>
-      <c r="B324" s="5"/>
-      <c r="D324" s="5"/>
+        <v>42262</v>
+      </c>
+      <c r="B324" s="5">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="D324">
+        <v>14</v>
+      </c>
       <c r="E324" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F324">
-        <v>1716.9</v>
+        <v>1847.1</v>
       </c>
     </row>
     <row r="325" spans="1:6">
       <c r="A325" s="1">
-        <v>42257</v>
-      </c>
-      <c r="B325" s="5"/>
-      <c r="D325" s="5"/>
+        <v>42262</v>
+      </c>
+      <c r="B325" s="5">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="D325">
+        <v>11</v>
+      </c>
       <c r="E325" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F325">
-        <v>2165.8000000000002</v>
+        <v>1856.5</v>
       </c>
     </row>
     <row r="326" spans="1:6">
       <c r="A326" s="1">
-        <v>42257</v>
-      </c>
-      <c r="B326" s="5"/>
-      <c r="D326" s="5"/>
+        <v>42262</v>
+      </c>
+      <c r="B326" s="5">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="D326">
+        <v>1</v>
+      </c>
       <c r="E326" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F326">
-        <v>1679.8</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="327" spans="1:6">
       <c r="A327" s="1">
-        <v>42257</v>
-      </c>
-      <c r="B327" s="5"/>
-      <c r="D327" s="5"/>
+        <v>42262</v>
+      </c>
+      <c r="B327" s="5">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D327">
+        <v>10</v>
+      </c>
       <c r="E327" t="s">
-        <v>17</v>
-      </c>
-      <c r="F327">
-        <v>1715.9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="328" spans="1:6">
       <c r="A328" s="1">
-        <v>42257</v>
-      </c>
-      <c r="B328" s="5"/>
-      <c r="D328" s="5"/>
+        <v>42262</v>
+      </c>
+      <c r="B328" s="5">
+        <v>0.93888888888888899</v>
+      </c>
+      <c r="D328">
+        <v>4</v>
+      </c>
       <c r="E328" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F328">
-        <v>1607.9</v>
+        <v>2080.6</v>
       </c>
     </row>
     <row r="329" spans="1:6">
       <c r="A329" s="1">
-        <v>42257</v>
-      </c>
-      <c r="B329" s="5"/>
-      <c r="D329" s="5"/>
+        <v>42262</v>
+      </c>
+      <c r="B329" s="5">
+        <v>0.93888888888888899</v>
+      </c>
+      <c r="D329">
+        <v>2</v>
+      </c>
       <c r="E329" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F329">
-        <v>2003.7</v>
+        <v>1978.2</v>
       </c>
     </row>
     <row r="330" spans="1:6">
       <c r="A330" s="1">
-        <v>42257</v>
-      </c>
-      <c r="B330" s="5"/>
-      <c r="D330" s="5"/>
+        <v>42262</v>
+      </c>
+      <c r="B330" s="5">
+        <v>0.93888888888888899</v>
+      </c>
+      <c r="D330">
+        <v>12</v>
+      </c>
       <c r="E330" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F330">
-        <v>2196.6999999999998</v>
+        <v>1947.7</v>
       </c>
     </row>
     <row r="331" spans="1:6">
       <c r="A331" s="1">
-        <v>42257</v>
-      </c>
-      <c r="B331" s="5"/>
-      <c r="D331" s="5"/>
+        <v>42262</v>
+      </c>
+      <c r="B331" s="5">
+        <v>0.93888888888888899</v>
+      </c>
+      <c r="D331">
+        <v>8</v>
+      </c>
       <c r="E331" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F331">
-        <v>1470.5</v>
+        <v>2010.7</v>
       </c>
     </row>
     <row r="332" spans="1:6">
       <c r="A332" s="1">
-        <v>42257</v>
-      </c>
-      <c r="B332" s="5"/>
-      <c r="D332" s="5"/>
+        <v>42262</v>
+      </c>
+      <c r="B332" s="5">
+        <v>0.93888888888888899</v>
+      </c>
+      <c r="D332">
+        <v>5</v>
+      </c>
       <c r="E332" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F332">
-        <v>2229.8000000000002</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="333" spans="1:6">
       <c r="A333" s="1">
-        <v>42257</v>
-      </c>
-      <c r="B333" s="5"/>
-      <c r="D333" s="5"/>
+        <v>42262</v>
+      </c>
+      <c r="B333" s="5">
+        <v>0.93888888888888899</v>
+      </c>
+      <c r="D333">
+        <v>9</v>
+      </c>
       <c r="E333" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F333">
-        <v>1707.4</v>
+        <v>1637.1</v>
       </c>
     </row>
     <row r="334" spans="1:6">
       <c r="A334" s="1">
-        <v>42257</v>
-      </c>
-      <c r="B334" s="5"/>
-      <c r="D334" s="5"/>
+        <v>42262</v>
+      </c>
+      <c r="B334" s="5">
+        <v>0.9555555555555556</v>
+      </c>
+      <c r="D334">
+        <v>10</v>
+      </c>
       <c r="E334" t="s">
-        <v>5</v>
-      </c>
-      <c r="F334">
-        <v>1624</v>
+        <v>46</v>
       </c>
     </row>
     <row r="335" spans="1:6">
       <c r="A335" s="1">
-        <v>42257</v>
-      </c>
-      <c r="B335" s="5"/>
-      <c r="D335" s="5"/>
+        <v>42262</v>
+      </c>
+      <c r="B335" s="5">
+        <v>0.96250000000000002</v>
+      </c>
+      <c r="D335">
+        <v>6</v>
+      </c>
       <c r="E335" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="F335">
-        <v>1914.9</v>
+        <v>1612.7</v>
       </c>
     </row>
     <row r="336" spans="1:6">
       <c r="A336" s="1">
-        <v>42257</v>
-      </c>
-      <c r="B336" s="5"/>
-      <c r="D336" s="5"/>
+        <v>42262</v>
+      </c>
+      <c r="B336" s="5">
+        <v>0.96250000000000002</v>
+      </c>
+      <c r="D336">
+        <v>16</v>
+      </c>
       <c r="E336" t="s">
+        <v>24</v>
+      </c>
+      <c r="F336">
+        <v>1906.9</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7">
+      <c r="A337" s="1">
+        <v>42262</v>
+      </c>
+      <c r="B337" s="5">
+        <v>0.96250000000000002</v>
+      </c>
+      <c r="D337">
+        <v>13</v>
+      </c>
+      <c r="E337" t="s">
         <v>8</v>
       </c>
-      <c r="F336">
-        <v>1300.4000000000001</v>
-      </c>
-    </row>
-    <row r="337" spans="1:6">
-      <c r="A337" s="1">
-        <v>42257</v>
-      </c>
-      <c r="B337" s="5"/>
-      <c r="D337" s="5"/>
-      <c r="E337" t="s">
+      <c r="F337">
+        <v>1288.9000000000001</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7">
+      <c r="A338" s="1">
+        <v>42262</v>
+      </c>
+      <c r="B338" s="5">
+        <v>0.96250000000000002</v>
+      </c>
+      <c r="D338">
+        <v>14</v>
+      </c>
+      <c r="E338" t="s">
         <v>10</v>
       </c>
-      <c r="F337">
-        <v>2054.1</v>
-      </c>
-    </row>
-    <row r="338" spans="1:6">
-      <c r="A338" s="1">
-        <v>42257</v>
-      </c>
-      <c r="B338" s="5"/>
-      <c r="D338" s="5"/>
-      <c r="E338" t="s">
+      <c r="F338">
+        <v>2045.6</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7">
+      <c r="A339" s="1">
+        <v>42262</v>
+      </c>
+      <c r="B339" s="5">
+        <v>0.96250000000000002</v>
+      </c>
+      <c r="D339">
+        <v>11</v>
+      </c>
+      <c r="E339" t="s">
         <v>12</v>
       </c>
-      <c r="F338">
-        <v>1744.6</v>
-      </c>
-    </row>
-    <row r="339" spans="1:6">
-      <c r="A339" s="1">
-        <v>42257</v>
-      </c>
-      <c r="B339" s="5"/>
-      <c r="D339" s="5"/>
-      <c r="E339" t="s">
+      <c r="F339">
+        <v>1733.5</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7">
+      <c r="A340" s="1">
+        <v>42262</v>
+      </c>
+      <c r="B340" s="5">
+        <v>0.96250000000000002</v>
+      </c>
+      <c r="D340">
+        <v>1</v>
+      </c>
+      <c r="E340" t="s">
         <v>14</v>
       </c>
-      <c r="F339">
-        <v>2030.3</v>
-      </c>
-    </row>
-    <row r="340" spans="1:6">
-      <c r="A340" s="1">
-        <v>42257</v>
-      </c>
-      <c r="B340" s="5"/>
-      <c r="D340" s="5"/>
-      <c r="E340" t="s">
+      <c r="F340">
+        <v>2014.4</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7">
+      <c r="A341" s="1">
+        <v>42265</v>
+      </c>
+      <c r="B341" s="5">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="D341">
+        <v>10</v>
+      </c>
+      <c r="E341" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7">
+      <c r="A342" s="1">
+        <v>42265</v>
+      </c>
+      <c r="B342" s="5">
+        <v>0.75624999999999998</v>
+      </c>
+      <c r="D342">
+        <v>6</v>
+      </c>
+      <c r="E342" t="s">
+        <v>1</v>
+      </c>
+      <c r="F342">
+        <v>1964.1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7">
+      <c r="A343" s="1">
+        <v>42265</v>
+      </c>
+      <c r="B343" s="5">
+        <v>0.75624999999999998</v>
+      </c>
+      <c r="D343">
+        <v>16</v>
+      </c>
+      <c r="E343" t="s">
+        <v>2</v>
+      </c>
+      <c r="F343">
+        <v>2173.3000000000002</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7">
+      <c r="A344" s="1">
+        <v>42265</v>
+      </c>
+      <c r="B344" s="5">
+        <v>0.75624999999999998</v>
+      </c>
+      <c r="D344">
+        <v>13</v>
+      </c>
+      <c r="E344" t="s">
+        <v>3</v>
+      </c>
+      <c r="F344">
+        <v>1438.8</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7">
+      <c r="A345" s="1">
+        <v>42265</v>
+      </c>
+      <c r="B345" s="5">
+        <v>0.75624999999999998</v>
+      </c>
+      <c r="D345">
+        <v>14</v>
+      </c>
+      <c r="E345" t="s">
+        <v>4</v>
+      </c>
+      <c r="F345">
+        <v>1844.2</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7">
+      <c r="A346" s="1">
+        <v>42265</v>
+      </c>
+      <c r="B346" s="5">
+        <v>0.75624999999999998</v>
+      </c>
+      <c r="D346">
+        <v>11</v>
+      </c>
+      <c r="E346" t="s">
+        <v>6</v>
+      </c>
+      <c r="F346">
+        <v>1852.7</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7">
+      <c r="A347" s="1">
+        <v>42265</v>
+      </c>
+      <c r="B347" s="5">
+        <v>0.75624999999999998</v>
+      </c>
+      <c r="D347">
+        <v>1</v>
+      </c>
+      <c r="E347" t="s">
+        <v>7</v>
+      </c>
+      <c r="F347">
+        <v>2015.9</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7">
+      <c r="A348" s="1">
+        <v>42265</v>
+      </c>
+      <c r="B348" s="5">
+        <v>0.7729166666666667</v>
+      </c>
+      <c r="D348">
+        <v>10</v>
+      </c>
+      <c r="E348" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7">
+      <c r="A349" s="1">
+        <v>42265</v>
+      </c>
+      <c r="B349" s="5">
+        <v>0.77986111111111101</v>
+      </c>
+      <c r="D349">
+        <v>4</v>
+      </c>
+      <c r="E349" t="s">
+        <v>9</v>
+      </c>
+      <c r="F349">
+        <v>1921.4</v>
+      </c>
+      <c r="G349" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7">
+      <c r="A350" s="1">
+        <v>42265</v>
+      </c>
+      <c r="B350" s="5">
+        <v>0.77986111111111101</v>
+      </c>
+      <c r="D350">
+        <v>2</v>
+      </c>
+      <c r="E350" t="s">
+        <v>11</v>
+      </c>
+      <c r="F350">
+        <v>1711.5</v>
+      </c>
+      <c r="G350" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7">
+      <c r="A351" s="1">
+        <v>42265</v>
+      </c>
+      <c r="B351" s="5">
+        <v>0.77986111111111101</v>
+      </c>
+      <c r="D351">
+        <v>12</v>
+      </c>
+      <c r="E351" t="s">
+        <v>13</v>
+      </c>
+      <c r="F351">
+        <v>1699</v>
+      </c>
+      <c r="G351" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7">
+      <c r="A352" s="1">
+        <v>42265</v>
+      </c>
+      <c r="B352" s="5">
+        <v>0.77986111111111101</v>
+      </c>
+      <c r="D352">
+        <v>8</v>
+      </c>
+      <c r="E352" t="s">
+        <v>15</v>
+      </c>
+      <c r="F352">
+        <v>2146.8000000000002</v>
+      </c>
+      <c r="G352" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7">
+      <c r="A353" s="1">
+        <v>42265</v>
+      </c>
+      <c r="B353" s="5">
+        <v>0.77986111111111101</v>
+      </c>
+      <c r="D353">
+        <v>5</v>
+      </c>
+      <c r="E353" t="s">
+        <v>16</v>
+      </c>
+      <c r="F353">
+        <v>1661.6</v>
+      </c>
+      <c r="G353" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7">
+      <c r="A354" s="1">
+        <v>42265</v>
+      </c>
+      <c r="B354" s="5">
+        <v>0.77986111111111101</v>
+      </c>
+      <c r="D354">
+        <v>9</v>
+      </c>
+      <c r="E354" t="s">
+        <v>17</v>
+      </c>
+      <c r="F354">
+        <v>1703.8</v>
+      </c>
+      <c r="G354" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7">
+      <c r="A355" s="1">
+        <v>42265</v>
+      </c>
+      <c r="B355" s="5">
+        <v>0.79652777777777783</v>
+      </c>
+      <c r="D355">
+        <v>10</v>
+      </c>
+      <c r="E355" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7">
+      <c r="A356" s="1">
+        <v>42265</v>
+      </c>
+      <c r="B356" s="5">
+        <v>0.82777777777777783</v>
+      </c>
+      <c r="D356">
+        <v>6</v>
+      </c>
+      <c r="E356" t="s">
+        <v>18</v>
+      </c>
+      <c r="F356">
+        <v>1588.8</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7">
+      <c r="A357" s="1">
+        <v>42265</v>
+      </c>
+      <c r="B357" s="5">
+        <v>0.82777777777777783</v>
+      </c>
+      <c r="D357">
+        <v>16</v>
+      </c>
+      <c r="E357" t="s">
+        <v>19</v>
+      </c>
+      <c r="F357">
+        <v>1982.6</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7">
+      <c r="A358" s="1">
+        <v>42265</v>
+      </c>
+      <c r="B358" s="5">
+        <v>0.82777777777777783</v>
+      </c>
+      <c r="D358">
+        <v>13</v>
+      </c>
+      <c r="E358" t="s">
+        <v>20</v>
+      </c>
+      <c r="F358">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7">
+      <c r="A359" s="1">
+        <v>42265</v>
+      </c>
+      <c r="B359" s="5">
+        <v>0.82777777777777783</v>
+      </c>
+      <c r="D359">
+        <v>14</v>
+      </c>
+      <c r="E359" t="s">
+        <v>21</v>
+      </c>
+      <c r="F359">
+        <v>1435.4</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7">
+      <c r="A360" s="1">
+        <v>42265</v>
+      </c>
+      <c r="B360" s="5">
+        <v>0.82777777777777783</v>
+      </c>
+      <c r="D360">
+        <v>11</v>
+      </c>
+      <c r="E360" t="s">
+        <v>22</v>
+      </c>
+      <c r="F360">
+        <v>2205.6999999999998</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7">
+      <c r="A361" s="1">
+        <v>42265</v>
+      </c>
+      <c r="B361" s="5">
+        <v>0.82777777777777783</v>
+      </c>
+      <c r="D361">
+        <v>1</v>
+      </c>
+      <c r="E361" t="s">
+        <v>23</v>
+      </c>
+      <c r="F361">
+        <v>1687.8</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7">
+      <c r="A362" s="1">
+        <v>42265</v>
+      </c>
+      <c r="B362" s="5">
+        <v>0.84444444444444444</v>
+      </c>
+      <c r="D362">
+        <v>10</v>
+      </c>
+      <c r="E362" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7">
+      <c r="A363" s="1">
+        <v>42265</v>
+      </c>
+      <c r="B363" s="5">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="D363">
+        <v>4</v>
+      </c>
+      <c r="E363" t="s">
         <v>25</v>
       </c>
-      <c r="F340">
-        <v>2096.5</v>
-      </c>
-    </row>
-    <row r="341" spans="1:6">
-      <c r="A341" s="1">
-        <v>42257</v>
-      </c>
-      <c r="B341" s="5"/>
-      <c r="D341" s="5"/>
-      <c r="E341" t="s">
+      <c r="F363">
+        <v>2068.9</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7">
+      <c r="A364" s="1">
+        <v>42265</v>
+      </c>
+      <c r="B364" s="5">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="D364">
+        <v>2</v>
+      </c>
+      <c r="E364" t="s">
         <v>26</v>
       </c>
-      <c r="F341">
-        <v>1992.5</v>
-      </c>
-    </row>
-    <row r="342" spans="1:6">
-      <c r="A342" s="1">
-        <v>42257</v>
-      </c>
-      <c r="B342" s="5"/>
-      <c r="D342" s="5"/>
-      <c r="E342" t="s">
+      <c r="F364">
+        <v>1968.4</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7">
+      <c r="A365" s="1">
+        <v>42265</v>
+      </c>
+      <c r="B365" s="5">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="D365">
+        <v>12</v>
+      </c>
+      <c r="E365" t="s">
         <v>27</v>
       </c>
-      <c r="F342">
-        <v>1962</v>
-      </c>
-    </row>
-    <row r="343" spans="1:6">
-      <c r="A343" s="1">
-        <v>42257</v>
-      </c>
-      <c r="B343" s="5"/>
-      <c r="D343" s="5"/>
-      <c r="E343" t="s">
+      <c r="F365">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7">
+      <c r="A366" s="1">
+        <v>42265</v>
+      </c>
+      <c r="B366" s="5">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="D366">
+        <v>8</v>
+      </c>
+      <c r="E366" t="s">
         <v>28</v>
       </c>
-      <c r="F343">
-        <v>2027.5</v>
-      </c>
-    </row>
-    <row r="344" spans="1:6">
-      <c r="A344" s="1">
-        <v>42257</v>
-      </c>
-      <c r="B344" s="5"/>
-      <c r="D344" s="5"/>
-      <c r="E344" t="s">
+      <c r="F366">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7">
+      <c r="A367" s="1">
+        <v>42265</v>
+      </c>
+      <c r="B367" s="5">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="D367">
+        <v>5</v>
+      </c>
+      <c r="E367" t="s">
         <v>29</v>
       </c>
-      <c r="F344">
-        <v>2150.8000000000002</v>
-      </c>
-    </row>
-    <row r="345" spans="1:6">
-      <c r="A345" s="1">
-        <v>42257</v>
-      </c>
-      <c r="B345" s="5"/>
-      <c r="D345" s="5"/>
-      <c r="E345" t="s">
+      <c r="F367">
+        <v>2138.4</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7">
+      <c r="A368" s="1">
+        <v>42265</v>
+      </c>
+      <c r="B368" s="5">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="D368">
+        <v>9</v>
+      </c>
+      <c r="E368" t="s">
         <v>30</v>
       </c>
-      <c r="F345">
-        <v>1636.4</v>
-      </c>
-    </row>
-    <row r="346" spans="1:6">
-      <c r="A346" s="1">
-        <v>42261</v>
-      </c>
-      <c r="B346" s="5"/>
-      <c r="D346" s="5"/>
-      <c r="E346" t="s">
+      <c r="F368">
+        <v>1628.6</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7">
+      <c r="A369" s="1">
+        <v>42265</v>
+      </c>
+      <c r="B369" s="5">
+        <v>0.89861111111111114</v>
+      </c>
+      <c r="D369">
+        <v>10</v>
+      </c>
+      <c r="E369" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7">
+      <c r="A370" s="1">
+        <v>42265</v>
+      </c>
+      <c r="B370" s="5">
+        <v>0.90555555555555556</v>
+      </c>
+      <c r="D370">
+        <v>6</v>
+      </c>
+      <c r="E370" t="s">
+        <v>5</v>
+      </c>
+      <c r="F370">
+        <v>1613.4</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7">
+      <c r="A371" s="1">
+        <v>42265</v>
+      </c>
+      <c r="B371" s="5">
+        <v>0.90555555555555556</v>
+      </c>
+      <c r="D371">
+        <v>16</v>
+      </c>
+      <c r="E371" t="s">
+        <v>24</v>
+      </c>
+      <c r="F371">
+        <v>1905.6</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7">
+      <c r="A372" s="1">
+        <v>42265</v>
+      </c>
+      <c r="B372" s="5">
+        <v>0.90555555555555556</v>
+      </c>
+      <c r="D372">
+        <v>13</v>
+      </c>
+      <c r="E372" t="s">
+        <v>8</v>
+      </c>
+      <c r="F372">
+        <v>1290.3</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7">
+      <c r="A373" s="1">
+        <v>42265</v>
+      </c>
+      <c r="B373" s="5">
+        <v>0.90555555555555556</v>
+      </c>
+      <c r="D373">
+        <v>14</v>
+      </c>
+      <c r="E373" t="s">
+        <v>10</v>
+      </c>
+      <c r="F373">
+        <v>2045.9</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7">
+      <c r="A374" s="1">
+        <v>42265</v>
+      </c>
+      <c r="B374" s="5">
+        <v>0.90555555555555556</v>
+      </c>
+      <c r="D374">
+        <v>11</v>
+      </c>
+      <c r="E374" t="s">
+        <v>12</v>
+      </c>
+      <c r="F374">
+        <v>1731.1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7">
+      <c r="A375" s="1">
+        <v>42265</v>
+      </c>
+      <c r="B375" s="5">
+        <v>0.90555555555555556</v>
+      </c>
+      <c r="D375">
         <v>1</v>
       </c>
-      <c r="F346">
-        <v>1965.8</v>
-      </c>
-    </row>
-    <row r="347" spans="1:6">
-      <c r="A347" s="1">
-        <v>42261</v>
-      </c>
-      <c r="B347" s="5"/>
-      <c r="D347" s="5"/>
-      <c r="E347" t="s">
+      <c r="E375" t="s">
+        <v>14</v>
+      </c>
+      <c r="F375">
+        <v>2015.3</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7">
+      <c r="A376" s="1">
+        <v>42265</v>
+      </c>
+      <c r="B376" s="6">
+        <v>0.92222222222222217</v>
+      </c>
+      <c r="D376">
+        <v>10</v>
+      </c>
+      <c r="E376" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7">
+      <c r="A377" s="1">
+        <v>42268</v>
+      </c>
+      <c r="B377" s="5"/>
+      <c r="C377" s="5"/>
+      <c r="E377" t="s">
+        <v>1</v>
+      </c>
+      <c r="F377">
+        <v>1962.9</v>
+      </c>
+      <c r="G377" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7">
+      <c r="A378" s="1">
+        <v>42268</v>
+      </c>
+      <c r="B378" s="5"/>
+      <c r="C378" s="5"/>
+      <c r="E378" t="s">
         <v>2</v>
       </c>
-      <c r="F347">
-        <v>2174.1</v>
-      </c>
-    </row>
-    <row r="348" spans="1:6">
-      <c r="A348" s="1">
-        <v>42261</v>
-      </c>
-      <c r="B348" s="5"/>
-      <c r="D348" s="5"/>
-      <c r="E348" t="s">
+      <c r="F378">
+        <v>2173.1</v>
+      </c>
+      <c r="G378" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7">
+      <c r="A379" s="1">
+        <v>42268</v>
+      </c>
+      <c r="B379" s="5"/>
+      <c r="C379" s="5"/>
+      <c r="E379" t="s">
         <v>3</v>
       </c>
-      <c r="F348">
-        <v>1442.4</v>
-      </c>
-    </row>
-    <row r="349" spans="1:6">
-      <c r="A349" s="1">
-        <v>42261</v>
-      </c>
-      <c r="B349" s="5"/>
-      <c r="D349" s="5"/>
-      <c r="E349" t="s">
+      <c r="F379">
+        <v>1441.9</v>
+      </c>
+      <c r="G379" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7">
+      <c r="A380" s="1">
+        <v>42268</v>
+      </c>
+      <c r="B380" s="5"/>
+      <c r="C380" s="5"/>
+      <c r="E380" t="s">
         <v>4</v>
       </c>
-      <c r="F349">
-        <v>1846.2</v>
-      </c>
-    </row>
-    <row r="350" spans="1:6">
-      <c r="A350" s="1">
-        <v>42261</v>
-      </c>
-      <c r="B350" s="5"/>
-      <c r="D350" s="5"/>
-      <c r="E350" t="s">
+      <c r="F380">
+        <v>1843.5</v>
+      </c>
+      <c r="G380" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7">
+      <c r="A381" s="1">
+        <v>42268</v>
+      </c>
+      <c r="B381" s="5"/>
+      <c r="C381" s="5"/>
+      <c r="E381" t="s">
         <v>6</v>
       </c>
-      <c r="F350">
-        <v>1855.5</v>
-      </c>
-    </row>
-    <row r="351" spans="1:6">
-      <c r="A351" s="1">
-        <v>42261</v>
-      </c>
-      <c r="B351" s="5"/>
-      <c r="D351" s="5"/>
-      <c r="E351" t="s">
+      <c r="F381">
+        <v>1853.6</v>
+      </c>
+      <c r="G381" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7">
+      <c r="A382" s="1">
+        <v>42268</v>
+      </c>
+      <c r="B382" s="5"/>
+      <c r="C382" s="5"/>
+      <c r="E382" t="s">
         <v>7</v>
       </c>
-      <c r="F351">
-        <v>2020.2</v>
-      </c>
-    </row>
-    <row r="352" spans="1:6">
-      <c r="A352" s="1">
-        <v>42261</v>
-      </c>
-      <c r="B352" s="5"/>
-      <c r="D352" s="5"/>
-      <c r="E352" t="s">
+      <c r="F382">
+        <v>2016.2</v>
+      </c>
+      <c r="G382" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7">
+      <c r="A383" s="1">
+        <v>42268</v>
+      </c>
+      <c r="B383" s="5"/>
+      <c r="C383" s="5"/>
+      <c r="E383" t="s">
         <v>9</v>
       </c>
-      <c r="F352">
-        <v>1926</v>
-      </c>
-    </row>
-    <row r="353" spans="1:6">
-      <c r="A353" s="1">
-        <v>42261</v>
-      </c>
-      <c r="B353" s="5"/>
-      <c r="D353" s="5"/>
-      <c r="E353" t="s">
+      <c r="F383">
+        <v>1908.3</v>
+      </c>
+      <c r="G383" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7">
+      <c r="A384" s="1">
+        <v>42268</v>
+      </c>
+      <c r="B384" s="5"/>
+      <c r="C384" s="5"/>
+      <c r="E384" t="s">
         <v>11</v>
       </c>
-      <c r="F353">
-        <v>1715.7</v>
-      </c>
-    </row>
-    <row r="354" spans="1:6">
-      <c r="A354" s="1">
-        <v>42261</v>
-      </c>
-      <c r="B354" s="5"/>
-      <c r="D354" s="5"/>
-      <c r="E354" t="s">
+      <c r="F384">
+        <v>1698.8</v>
+      </c>
+      <c r="G384" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7">
+      <c r="A385" s="1">
+        <v>42268</v>
+      </c>
+      <c r="B385" s="5"/>
+      <c r="C385" s="5"/>
+      <c r="E385" t="s">
         <v>13</v>
       </c>
-      <c r="F354">
-        <v>1700.8</v>
-      </c>
-    </row>
-    <row r="355" spans="1:6">
-      <c r="A355" s="1">
-        <v>42261</v>
-      </c>
-      <c r="B355" s="5"/>
-      <c r="D355" s="5"/>
-      <c r="E355" t="s">
+      <c r="F385">
+        <v>1686.8</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7">
+      <c r="A386" s="1">
+        <v>42268</v>
+      </c>
+      <c r="B386" s="5"/>
+      <c r="C386" s="5"/>
+      <c r="E386" t="s">
         <v>15</v>
       </c>
-      <c r="F355">
-        <v>2151.6</v>
-      </c>
-    </row>
-    <row r="356" spans="1:6">
-      <c r="A356" s="1">
-        <v>42261</v>
-      </c>
-      <c r="B356" s="5"/>
-      <c r="D356" s="5"/>
-      <c r="E356" t="s">
+      <c r="F386">
+        <v>2135.1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7">
+      <c r="A387" s="1">
+        <v>42268</v>
+      </c>
+      <c r="B387" s="5"/>
+      <c r="C387" s="5"/>
+      <c r="E387" t="s">
         <v>16</v>
       </c>
-      <c r="F356">
-        <v>1667.1</v>
-      </c>
-    </row>
-    <row r="357" spans="1:6">
-      <c r="A357" s="1">
-        <v>42261</v>
-      </c>
-      <c r="B357" s="5"/>
-      <c r="D357" s="5"/>
-      <c r="E357" t="s">
+      <c r="F387">
+        <v>1648</v>
+      </c>
+      <c r="G387" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7">
+      <c r="A388" s="1">
+        <v>42268</v>
+      </c>
+      <c r="B388" s="5"/>
+      <c r="C388" s="5"/>
+      <c r="E388" t="s">
         <v>17</v>
       </c>
-      <c r="F357">
-        <v>1705.3</v>
-      </c>
-    </row>
-    <row r="358" spans="1:6">
-      <c r="A358" s="1">
-        <v>42261</v>
-      </c>
-      <c r="B358" s="5"/>
-      <c r="D358" s="5"/>
-      <c r="E358" t="s">
+      <c r="F388">
+        <v>1692.7</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7">
+      <c r="A389" s="1">
+        <v>42268</v>
+      </c>
+      <c r="B389" s="5"/>
+      <c r="C389" s="5"/>
+      <c r="E389" t="s">
         <v>18</v>
       </c>
-      <c r="F358">
-        <v>1597.1</v>
-      </c>
-    </row>
-    <row r="359" spans="1:6">
-      <c r="A359" s="1">
-        <v>42261</v>
-      </c>
-      <c r="B359" s="5"/>
-      <c r="D359" s="5"/>
-      <c r="E359" t="s">
+      <c r="F389">
+        <v>1580.9</v>
+      </c>
+      <c r="G389" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7">
+      <c r="A390" s="1">
+        <v>42268</v>
+      </c>
+      <c r="B390" s="5"/>
+      <c r="C390" s="5"/>
+      <c r="E390" t="s">
         <v>19</v>
       </c>
-      <c r="F359">
-        <v>1992.7</v>
-      </c>
-    </row>
-    <row r="360" spans="1:6">
-      <c r="A360" s="1">
-        <v>42261</v>
-      </c>
-      <c r="B360" s="5"/>
-      <c r="D360" s="5"/>
-      <c r="E360" t="s">
+      <c r="F390">
+        <v>1974.9</v>
+      </c>
+      <c r="G390" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7">
+      <c r="A391" s="1">
+        <v>42268</v>
+      </c>
+      <c r="B391" s="5"/>
+      <c r="C391" s="5"/>
+      <c r="E391" t="s">
         <v>20</v>
       </c>
-      <c r="F360">
-        <v>2186</v>
-      </c>
-    </row>
-    <row r="361" spans="1:6">
-      <c r="A361" s="1">
-        <v>42261</v>
-      </c>
-      <c r="B361" s="5"/>
-      <c r="D361" s="5"/>
-      <c r="E361" t="s">
+      <c r="F391">
+        <v>2171.3000000000002</v>
+      </c>
+      <c r="G391" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7">
+      <c r="A392" s="1">
+        <v>42268</v>
+      </c>
+      <c r="B392" s="5"/>
+      <c r="C392" s="5"/>
+      <c r="E392" t="s">
         <v>21</v>
       </c>
-      <c r="F361">
-        <v>1455.6</v>
-      </c>
-    </row>
-    <row r="362" spans="1:6">
-      <c r="A362" s="1">
-        <v>42261</v>
-      </c>
-      <c r="B362" s="5"/>
-      <c r="D362" s="5"/>
-      <c r="E362" t="s">
+      <c r="F392">
+        <v>1421</v>
+      </c>
+      <c r="G392" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7">
+      <c r="A393" s="1">
+        <v>42268</v>
+      </c>
+      <c r="B393" s="5"/>
+      <c r="C393" s="5"/>
+      <c r="E393" t="s">
         <v>22</v>
       </c>
-      <c r="F362">
-        <v>2214.4</v>
-      </c>
-    </row>
-    <row r="363" spans="1:6">
-      <c r="A363" s="1">
-        <v>42261</v>
-      </c>
-      <c r="B363" s="5"/>
-      <c r="D363" s="5"/>
-      <c r="E363" t="s">
+      <c r="F393">
+        <v>2196.4</v>
+      </c>
+      <c r="G393" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7">
+      <c r="A394" s="1">
+        <v>42268</v>
+      </c>
+      <c r="B394" s="5"/>
+      <c r="C394" s="5"/>
+      <c r="E394" t="s">
         <v>23</v>
       </c>
-      <c r="F363">
-        <v>1695.6</v>
-      </c>
-    </row>
-    <row r="364" spans="1:6">
-      <c r="A364" s="1">
-        <v>42261</v>
-      </c>
-      <c r="B364" s="5"/>
-      <c r="D364" s="5"/>
-      <c r="E364" t="s">
+      <c r="F394">
+        <v>1678.7</v>
+      </c>
+      <c r="G394" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7">
+      <c r="A395" s="1">
+        <v>42268</v>
+      </c>
+      <c r="B395" s="5"/>
+      <c r="C395" s="5"/>
+      <c r="E395" t="s">
+        <v>25</v>
+      </c>
+      <c r="F395">
+        <v>2056.9</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7">
+      <c r="A396" s="1">
+        <v>42268</v>
+      </c>
+      <c r="B396" s="5"/>
+      <c r="C396" s="5"/>
+      <c r="E396" t="s">
+        <v>26</v>
+      </c>
+      <c r="F396">
+        <v>1958.2</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7">
+      <c r="A397" s="1">
+        <v>42268</v>
+      </c>
+      <c r="B397" s="5"/>
+      <c r="C397" s="5"/>
+      <c r="E397" t="s">
+        <v>27</v>
+      </c>
+      <c r="F397">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7">
+      <c r="A398" s="1">
+        <v>42268</v>
+      </c>
+      <c r="B398" s="5"/>
+      <c r="C398" s="5"/>
+      <c r="E398" t="s">
+        <v>28</v>
+      </c>
+      <c r="F398">
+        <v>1994.8</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7">
+      <c r="A399" s="1">
+        <v>42268</v>
+      </c>
+      <c r="B399" s="5"/>
+      <c r="C399" s="5"/>
+      <c r="E399" t="s">
+        <v>29</v>
+      </c>
+      <c r="F399">
+        <v>2131.8000000000002</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7">
+      <c r="A400" s="1">
+        <v>42268</v>
+      </c>
+      <c r="B400" s="5"/>
+      <c r="C400" s="5"/>
+      <c r="E400" t="s">
+        <v>30</v>
+      </c>
+      <c r="F400">
+        <v>1618.1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7">
+      <c r="A401" s="1">
+        <v>42268</v>
+      </c>
+      <c r="B401" s="5"/>
+      <c r="C401" s="5"/>
+      <c r="E401" t="s">
         <v>5</v>
       </c>
-      <c r="F364">
-        <v>1615.9</v>
-      </c>
-    </row>
-    <row r="365" spans="1:6">
-      <c r="A365" s="1">
-        <v>42261</v>
-      </c>
-      <c r="B365" s="5"/>
-      <c r="D365" s="5"/>
-      <c r="E365" t="s">
+      <c r="F401">
+        <v>1611.8</v>
+      </c>
+      <c r="G401" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7">
+      <c r="A402" s="1">
+        <v>42268</v>
+      </c>
+      <c r="B402" s="5"/>
+      <c r="C402" s="5"/>
+      <c r="E402" t="s">
         <v>24</v>
       </c>
-      <c r="F365">
-        <v>1905.7</v>
-      </c>
-    </row>
-    <row r="366" spans="1:6">
-      <c r="A366" s="1">
-        <v>42261</v>
-      </c>
-      <c r="B366" s="5"/>
-      <c r="D366" s="5"/>
-      <c r="E366" t="s">
+      <c r="F402">
+        <v>1903.3</v>
+      </c>
+      <c r="G402" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7">
+      <c r="A403" s="1">
+        <v>42268</v>
+      </c>
+      <c r="B403" s="5"/>
+      <c r="C403" s="5"/>
+      <c r="E403" t="s">
         <v>8</v>
       </c>
-      <c r="F366">
-        <v>1290.4000000000001</v>
-      </c>
-    </row>
-    <row r="367" spans="1:6">
-      <c r="A367" s="1">
-        <v>42261</v>
-      </c>
-      <c r="B367" s="5"/>
-      <c r="D367" s="5"/>
-      <c r="E367" t="s">
+      <c r="F403">
+        <v>1286.8</v>
+      </c>
+      <c r="G403" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7">
+      <c r="A404" s="1">
+        <v>42268</v>
+      </c>
+      <c r="B404" s="5"/>
+      <c r="C404" s="5"/>
+      <c r="E404" t="s">
         <v>10</v>
       </c>
-      <c r="F367">
-        <v>2048.3000000000002</v>
-      </c>
-    </row>
-    <row r="368" spans="1:6">
-      <c r="A368" s="1">
-        <v>42261</v>
-      </c>
-      <c r="B368" s="5"/>
-      <c r="D368" s="5"/>
-      <c r="E368" t="s">
+      <c r="F404">
+        <v>2041.3</v>
+      </c>
+      <c r="G404" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7">
+      <c r="A405" s="1">
+        <v>42268</v>
+      </c>
+      <c r="B405" s="5"/>
+      <c r="C405" s="5"/>
+      <c r="E405" t="s">
         <v>12</v>
       </c>
-      <c r="F368">
-        <v>1736.3</v>
-      </c>
-    </row>
-    <row r="369" spans="1:6">
-      <c r="A369" s="1">
-        <v>42261</v>
-      </c>
-      <c r="B369" s="5"/>
-      <c r="D369" s="5"/>
-      <c r="E369" t="s">
+      <c r="F405">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7">
+      <c r="A406" s="1">
+        <v>42268</v>
+      </c>
+      <c r="B406" s="5"/>
+      <c r="C406" s="5"/>
+      <c r="E406" t="s">
         <v>14</v>
       </c>
-      <c r="F369">
-        <v>2019.6</v>
-      </c>
-    </row>
-    <row r="370" spans="1:6">
-      <c r="A370" s="1">
-        <v>42261</v>
-      </c>
-      <c r="B370" s="5"/>
-      <c r="D370" s="5"/>
-      <c r="E370" t="s">
+      <c r="F406">
+        <v>2012.2</v>
+      </c>
+      <c r="G406" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7">
+      <c r="A407" s="1">
+        <v>42269</v>
+      </c>
+      <c r="B407" s="5">
+        <v>0.1875</v>
+      </c>
+      <c r="D407" s="7">
+        <v>10</v>
+      </c>
+      <c r="E407" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7">
+      <c r="A408" s="1">
+        <v>42269</v>
+      </c>
+      <c r="B408" s="5">
+        <v>0.73125000000000007</v>
+      </c>
+      <c r="D408">
+        <v>6</v>
+      </c>
+      <c r="E408" t="s">
+        <v>1</v>
+      </c>
+      <c r="F408">
+        <v>1973.3</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7">
+      <c r="A409" s="1">
+        <v>42269</v>
+      </c>
+      <c r="B409" s="5">
+        <v>0.73125000000000007</v>
+      </c>
+      <c r="D409">
+        <v>16</v>
+      </c>
+      <c r="E409" t="s">
+        <v>2</v>
+      </c>
+      <c r="F409">
+        <v>2180.4</v>
+      </c>
+      <c r="G409" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7">
+      <c r="A410" s="1">
+        <v>42269</v>
+      </c>
+      <c r="B410" s="5">
+        <v>0.73125000000000007</v>
+      </c>
+      <c r="D410">
+        <v>13</v>
+      </c>
+      <c r="E410" t="s">
+        <v>3</v>
+      </c>
+      <c r="F410">
+        <v>1443.3</v>
+      </c>
+      <c r="G410" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7">
+      <c r="A411" s="1">
+        <v>42269</v>
+      </c>
+      <c r="B411" s="5">
+        <v>0.73125000000000007</v>
+      </c>
+      <c r="D411">
+        <v>14</v>
+      </c>
+      <c r="E411" t="s">
+        <v>4</v>
+      </c>
+      <c r="F411">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7">
+      <c r="A412" s="1">
+        <v>42269</v>
+      </c>
+      <c r="B412" s="5">
+        <v>0.73125000000000007</v>
+      </c>
+      <c r="D412">
+        <v>11</v>
+      </c>
+      <c r="E412" t="s">
+        <v>6</v>
+      </c>
+      <c r="F412">
+        <v>1862.9</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7">
+      <c r="A413" s="1">
+        <v>42269</v>
+      </c>
+      <c r="B413" s="5">
+        <v>0.73125000000000007</v>
+      </c>
+      <c r="D413">
+        <v>1</v>
+      </c>
+      <c r="E413" t="s">
+        <v>7</v>
+      </c>
+      <c r="F413">
+        <v>2026.8</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7">
+      <c r="A414" s="1">
+        <v>42269</v>
+      </c>
+      <c r="B414" s="5">
+        <v>0.74791666666666667</v>
+      </c>
+      <c r="D414">
+        <v>10</v>
+      </c>
+      <c r="E414" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7">
+      <c r="A415" s="1">
+        <v>42269</v>
+      </c>
+      <c r="B415" s="5">
+        <v>0.75486111111111109</v>
+      </c>
+      <c r="D415">
+        <v>4</v>
+      </c>
+      <c r="E415" t="s">
+        <v>9</v>
+      </c>
+      <c r="F415">
+        <v>1920.5</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7">
+      <c r="A416" s="1">
+        <v>42269</v>
+      </c>
+      <c r="B416" s="5">
+        <v>0.75486111111111109</v>
+      </c>
+      <c r="D416">
+        <v>2</v>
+      </c>
+      <c r="E416" t="s">
+        <v>11</v>
+      </c>
+      <c r="F416">
+        <v>1703.1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7">
+      <c r="A417" s="1">
+        <v>42269</v>
+      </c>
+      <c r="B417" s="5">
+        <v>0.75486111111111109</v>
+      </c>
+      <c r="D417">
+        <v>12</v>
+      </c>
+      <c r="E417" t="s">
+        <v>13</v>
+      </c>
+      <c r="F417">
+        <v>1684.3</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7">
+      <c r="A418" s="1">
+        <v>42269</v>
+      </c>
+      <c r="B418" s="5">
+        <v>0.75486111111111109</v>
+      </c>
+      <c r="D418">
+        <v>8</v>
+      </c>
+      <c r="E418" t="s">
+        <v>15</v>
+      </c>
+      <c r="F418">
+        <v>2132.8000000000002</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7">
+      <c r="A419" s="1">
+        <v>42269</v>
+      </c>
+      <c r="B419" s="5">
+        <v>0.75486111111111109</v>
+      </c>
+      <c r="D419">
+        <v>5</v>
+      </c>
+      <c r="E419" t="s">
+        <v>16</v>
+      </c>
+      <c r="F419">
+        <v>1669.6</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7">
+      <c r="A420" s="1">
+        <v>42269</v>
+      </c>
+      <c r="B420" s="5">
+        <v>0.75486111111111109</v>
+      </c>
+      <c r="D420">
+        <v>9</v>
+      </c>
+      <c r="E420" t="s">
+        <v>17</v>
+      </c>
+      <c r="F420">
+        <v>1690.4</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7">
+      <c r="A421" s="1">
+        <v>42269</v>
+      </c>
+      <c r="B421" s="5">
+        <v>0.7715277777777777</v>
+      </c>
+      <c r="D421">
+        <v>10</v>
+      </c>
+      <c r="E421" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7">
+      <c r="A422" s="1">
+        <v>42269</v>
+      </c>
+      <c r="B422" s="5">
+        <v>0.79652777777777783</v>
+      </c>
+      <c r="D422">
+        <v>6</v>
+      </c>
+      <c r="E422" t="s">
+        <v>1</v>
+      </c>
+      <c r="F422">
+        <v>1973.3</v>
+      </c>
+      <c r="G422" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7">
+      <c r="A423" s="1">
+        <v>42269</v>
+      </c>
+      <c r="B423" s="5">
+        <v>0.79652777777777783</v>
+      </c>
+      <c r="D423">
+        <v>16</v>
+      </c>
+      <c r="E423" t="s">
+        <v>2</v>
+      </c>
+      <c r="F423">
+        <v>2180.4</v>
+      </c>
+      <c r="G423" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7">
+      <c r="A424" s="1">
+        <v>42269</v>
+      </c>
+      <c r="B424" s="5">
+        <v>0.79652777777777783</v>
+      </c>
+      <c r="D424">
+        <v>13</v>
+      </c>
+      <c r="E424" t="s">
+        <v>3</v>
+      </c>
+      <c r="F424">
+        <v>1443.3</v>
+      </c>
+      <c r="G424" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7">
+      <c r="A425" s="1">
+        <v>42269</v>
+      </c>
+      <c r="B425" s="5">
+        <v>0.79652777777777783</v>
+      </c>
+      <c r="D425">
+        <v>14</v>
+      </c>
+      <c r="E425" t="s">
+        <v>4</v>
+      </c>
+      <c r="F425">
+        <v>1851</v>
+      </c>
+      <c r="G425" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7">
+      <c r="A426" s="1">
+        <v>42269</v>
+      </c>
+      <c r="B426" s="5">
+        <v>0.79652777777777783</v>
+      </c>
+      <c r="D426">
+        <v>11</v>
+      </c>
+      <c r="E426" t="s">
+        <v>6</v>
+      </c>
+      <c r="F426">
+        <v>1862.9</v>
+      </c>
+      <c r="G426" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7">
+      <c r="A427" s="1">
+        <v>42269</v>
+      </c>
+      <c r="B427" s="5">
+        <v>0.79652777777777783</v>
+      </c>
+      <c r="D427">
+        <v>1</v>
+      </c>
+      <c r="E427" t="s">
+        <v>7</v>
+      </c>
+      <c r="F427">
+        <v>2026.8</v>
+      </c>
+      <c r="G427" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7">
+      <c r="A428" s="1">
+        <v>42269</v>
+      </c>
+      <c r="B428" s="5">
+        <v>0.81319444444444444</v>
+      </c>
+      <c r="D428">
+        <v>10</v>
+      </c>
+      <c r="E428" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7">
+      <c r="A429" s="1">
+        <v>42269</v>
+      </c>
+      <c r="B429" s="5">
+        <v>0.82013888888888886</v>
+      </c>
+      <c r="D429">
+        <v>4</v>
+      </c>
+      <c r="E429" t="s">
+        <v>18</v>
+      </c>
+      <c r="F429">
+        <v>1585.9</v>
+      </c>
+      <c r="G429" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7">
+      <c r="A430" s="1">
+        <v>42269</v>
+      </c>
+      <c r="B430" s="5">
+        <v>0.82013888888888886</v>
+      </c>
+      <c r="D430">
+        <v>2</v>
+      </c>
+      <c r="E430" t="s">
+        <v>19</v>
+      </c>
+      <c r="F430">
+        <v>1986.5</v>
+      </c>
+      <c r="G430" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7">
+      <c r="A431" s="1">
+        <v>42269</v>
+      </c>
+      <c r="B431" s="5">
+        <v>0.82013888888888886</v>
+      </c>
+      <c r="D431">
+        <v>12</v>
+      </c>
+      <c r="E431" t="s">
+        <v>20</v>
+      </c>
+      <c r="F431">
+        <v>2209.4</v>
+      </c>
+      <c r="G431" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7">
+      <c r="A432" s="1">
+        <v>42269</v>
+      </c>
+      <c r="B432" s="5">
+        <v>0.82013888888888886</v>
+      </c>
+      <c r="D432">
+        <v>8</v>
+      </c>
+      <c r="E432" t="s">
+        <v>21</v>
+      </c>
+      <c r="F432">
+        <v>1453.3</v>
+      </c>
+      <c r="G432" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7">
+      <c r="A433" s="1">
+        <v>42269</v>
+      </c>
+      <c r="B433" s="5">
+        <v>0.82013888888888886</v>
+      </c>
+      <c r="D433">
+        <v>5</v>
+      </c>
+      <c r="E433" t="s">
+        <v>22</v>
+      </c>
+      <c r="F433">
+        <v>2216.5</v>
+      </c>
+      <c r="G433" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7">
+      <c r="A434" s="1">
+        <v>42269</v>
+      </c>
+      <c r="B434" s="5">
+        <v>0.82013888888888886</v>
+      </c>
+      <c r="D434">
+        <v>9</v>
+      </c>
+      <c r="E434" t="s">
+        <v>23</v>
+      </c>
+      <c r="F434">
+        <v>1703.3</v>
+      </c>
+      <c r="G434" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7">
+      <c r="A435" s="1">
+        <v>42269</v>
+      </c>
+      <c r="B435" s="5">
+        <v>0.83680555555555547</v>
+      </c>
+      <c r="D435">
+        <v>10</v>
+      </c>
+      <c r="E435" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7">
+      <c r="A436" s="1">
+        <v>42269</v>
+      </c>
+      <c r="B436" s="5">
+        <v>0.90972222222222221</v>
+      </c>
+      <c r="D436">
+        <v>6</v>
+      </c>
+      <c r="E436" t="s">
+        <v>5</v>
+      </c>
+      <c r="F436">
+        <v>1616.7</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7">
+      <c r="A437" s="1">
+        <v>42269</v>
+      </c>
+      <c r="B437" s="5">
+        <v>0.90972222222222221</v>
+      </c>
+      <c r="D437">
+        <v>16</v>
+      </c>
+      <c r="E437" t="s">
+        <v>24</v>
+      </c>
+      <c r="F437">
+        <v>1911.3</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7">
+      <c r="A438" s="1">
+        <v>42269</v>
+      </c>
+      <c r="B438" s="5">
+        <v>0.90972222222222221</v>
+      </c>
+      <c r="D438">
+        <v>13</v>
+      </c>
+      <c r="E438" t="s">
+        <v>8</v>
+      </c>
+      <c r="F438">
+        <v>12952.6</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7">
+      <c r="A439" s="1">
+        <v>42269</v>
+      </c>
+      <c r="B439" s="5">
+        <v>0.90972222222222221</v>
+      </c>
+      <c r="D439">
+        <v>14</v>
+      </c>
+      <c r="E439" t="s">
+        <v>10</v>
+      </c>
+      <c r="F439">
+        <v>2056.6999999999998</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7">
+      <c r="A440" s="1">
+        <v>42269</v>
+      </c>
+      <c r="B440" s="5">
+        <v>0.90972222222222221</v>
+      </c>
+      <c r="D440">
+        <v>11</v>
+      </c>
+      <c r="E440" t="s">
+        <v>12</v>
+      </c>
+      <c r="F440">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7">
+      <c r="A441" s="1">
+        <v>42269</v>
+      </c>
+      <c r="B441" s="5">
+        <v>0.90972222222222221</v>
+      </c>
+      <c r="D441">
+        <v>1</v>
+      </c>
+      <c r="E441" t="s">
+        <v>14</v>
+      </c>
+      <c r="F441">
+        <v>2042.8</v>
+      </c>
+      <c r="G441" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7">
+      <c r="A442" s="1">
+        <v>42269</v>
+      </c>
+      <c r="B442" s="5">
+        <v>0.92638888888888893</v>
+      </c>
+      <c r="D442">
+        <v>10</v>
+      </c>
+      <c r="E442" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7">
+      <c r="A443" s="1">
+        <v>42269</v>
+      </c>
+      <c r="B443" s="5">
+        <v>0.93333333333333324</v>
+      </c>
+      <c r="D443">
+        <v>4</v>
+      </c>
+      <c r="E443" t="s">
         <v>25</v>
       </c>
-      <c r="F370">
-        <v>2085.9</v>
-      </c>
-    </row>
-    <row r="371" spans="1:6">
-      <c r="A371" s="1">
-        <v>42261</v>
-      </c>
-      <c r="B371" s="5"/>
-      <c r="D371" s="5"/>
-      <c r="E371" t="s">
+      <c r="F443">
+        <v>2054.6999999999998</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7">
+      <c r="A444" s="1">
+        <v>42269</v>
+      </c>
+      <c r="B444" s="5">
+        <v>0.93333333333333324</v>
+      </c>
+      <c r="D444">
+        <v>2</v>
+      </c>
+      <c r="E444" t="s">
         <v>26</v>
       </c>
-      <c r="F371">
-        <v>1983.2</v>
-      </c>
-    </row>
-    <row r="372" spans="1:6">
-      <c r="A372" s="1">
-        <v>42261</v>
-      </c>
-      <c r="B372" s="5"/>
-      <c r="D372" s="5"/>
-      <c r="E372" t="s">
+      <c r="F444">
+        <v>1956.2</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7">
+      <c r="A445" s="1">
+        <v>42269</v>
+      </c>
+      <c r="B445" s="5">
+        <v>0.93333333333333324</v>
+      </c>
+      <c r="D445">
+        <v>12</v>
+      </c>
+      <c r="E445" t="s">
         <v>27</v>
       </c>
-      <c r="F372">
-        <v>1952.1</v>
-      </c>
-    </row>
-    <row r="373" spans="1:6">
-      <c r="A373" s="1">
-        <v>42261</v>
-      </c>
-      <c r="B373" s="5"/>
-      <c r="D373" s="5"/>
-      <c r="E373" t="s">
+      <c r="F445">
+        <v>1927.7</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7">
+      <c r="A446" s="1">
+        <v>42269</v>
+      </c>
+      <c r="B446" s="5">
+        <v>0.93333333333333324</v>
+      </c>
+      <c r="D446">
+        <v>8</v>
+      </c>
+      <c r="E446" t="s">
         <v>28</v>
       </c>
-      <c r="F373">
-        <v>2017.4</v>
-      </c>
-    </row>
-    <row r="374" spans="1:6">
-      <c r="A374" s="1">
-        <v>42261</v>
-      </c>
-      <c r="B374" s="5"/>
-      <c r="D374" s="5"/>
-      <c r="E374" t="s">
+      <c r="F446">
+        <v>1992.9</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7">
+      <c r="A447" s="1">
+        <v>42269</v>
+      </c>
+      <c r="B447" s="5">
+        <v>0.93333333333333324</v>
+      </c>
+      <c r="D447">
+        <v>5</v>
+      </c>
+      <c r="E447" t="s">
         <v>29</v>
       </c>
-      <c r="F374">
-        <v>2147.1</v>
-      </c>
-    </row>
-    <row r="375" spans="1:6">
-      <c r="A375" s="1">
-        <v>42261</v>
-      </c>
-      <c r="B375" s="5"/>
-      <c r="D375" s="5"/>
-      <c r="E375" t="s">
+      <c r="F447">
+        <v>2130.8000000000002</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7">
+      <c r="A448" s="1">
+        <v>42269</v>
+      </c>
+      <c r="B448" s="5">
+        <v>0.93333333333333324</v>
+      </c>
+      <c r="D448">
+        <v>9</v>
+      </c>
+      <c r="E448" t="s">
         <v>30</v>
       </c>
-      <c r="F375">
-        <v>1643</v>
-      </c>
-    </row>
-    <row r="376" spans="1:6">
-      <c r="D376" s="2"/>
-    </row>
-    <row r="377" spans="1:6">
-      <c r="D377" s="2"/>
-    </row>
-    <row r="378" spans="1:6">
-      <c r="D378" s="2"/>
-    </row>
-    <row r="379" spans="1:6">
-      <c r="D379" s="2"/>
-    </row>
-    <row r="380" spans="1:6">
-      <c r="D380" s="2"/>
-    </row>
-    <row r="381" spans="1:6">
-      <c r="D381" s="2"/>
-    </row>
-    <row r="382" spans="1:6">
-      <c r="D382" s="2"/>
+      <c r="F448">
+        <v>1615.4</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5">
+      <c r="A449" s="1">
+        <v>42269</v>
+      </c>
+      <c r="B449" s="5">
+        <v>0.95000000000000007</v>
+      </c>
+      <c r="D449">
+        <v>10</v>
+      </c>
+      <c r="E449" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5">
+      <c r="B450" s="5"/>
+      <c r="C450"/>
+    </row>
+    <row r="451" spans="1:5">
+      <c r="B451" s="5"/>
+      <c r="C451"/>
+    </row>
+    <row r="452" spans="1:5">
+      <c r="B452" s="5"/>
+      <c r="C452"/>
     </row>
   </sheetData>
+  <sortState ref="A3:G448">
+    <sortCondition ref="A3:A448"/>
+    <sortCondition ref="B3:B448"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/data/CoreData.xlsx
+++ b/data/CoreData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="62">
   <si>
     <t>Treatment</t>
   </si>
@@ -203,6 +203,9 @@
   </si>
   <si>
     <t xml:space="preserve">Placeholder; apparently the Picarro ran from the night of 8 Sep until midday 11 September </t>
+  </si>
+  <si>
+    <t>Mass corrected from 12952.6</t>
   </si>
 </sst>
 </file>
@@ -1440,8 +1443,8 @@
   <dimension ref="A1:G452"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B209" sqref="B209"/>
+      <pane ySplit="2" topLeftCell="A423" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G439" sqref="G439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -8821,7 +8824,10 @@
         <v>8</v>
       </c>
       <c r="F438">
-        <v>12952.6</v>
+        <v>1295.5999999999999</v>
+      </c>
+      <c r="G438" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="439" spans="1:7">

--- a/data/CoreData.xlsx
+++ b/data/CoreData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11020" yWindow="0" windowWidth="27420" windowHeight="24320" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24740" windowHeight="15600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="treatments.csv" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="63">
   <si>
     <t>Treatment</t>
   </si>
@@ -205,7 +205,10 @@
     <t xml:space="preserve">Placeholder; apparently the Picarro ran from the night of 8 Sep until midday 11 September </t>
   </si>
   <si>
-    <t>Mass corrected from 12952.6</t>
+    <t>Changed from 1827 per PS email</t>
+  </si>
+  <si>
+    <t>Changed from 12952.6 per PS email</t>
   </si>
 </sst>
 </file>
@@ -276,8 +279,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="185">
+  <cellStyleXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -473,7 +478,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="185">
+  <cellStyles count="187">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -566,6 +571,7 @@
     <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -658,6 +664,7 @@
     <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1443,8 +1450,8 @@
   <dimension ref="A1:G452"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A423" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G439" sqref="G439"/>
+      <pane ySplit="2" topLeftCell="A427" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F439" sqref="F439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -8824,10 +8831,10 @@
         <v>8</v>
       </c>
       <c r="F438">
-        <v>1295.5999999999999</v>
+        <v>1292.5999999999999</v>
       </c>
       <c r="G438" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="439" spans="1:7">
@@ -8861,7 +8868,10 @@
         <v>12</v>
       </c>
       <c r="F440">
-        <v>1827</v>
+        <v>1727</v>
+      </c>
+      <c r="G440" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="441" spans="1:7">

--- a/data/CoreData.xlsx
+++ b/data/CoreData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24740" windowHeight="15600" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24680" windowHeight="15600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="treatments.csv" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="63">
   <si>
     <t>Treatment</t>
   </si>
@@ -215,8 +215,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -279,7 +280,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="187">
+  <cellStyleXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -467,8 +468,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -477,8 +484,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="187">
+  <cellStyles count="193">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -572,6 +580,9 @@
     <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -665,6 +676,9 @@
     <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -967,7 +981,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1447,11 +1461,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G452"/>
+  <dimension ref="A1:G562"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A427" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F439" sqref="F439"/>
+      <pane ySplit="2" topLeftCell="A494" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E514" sqref="E514"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -9010,7 +9024,7 @@
         <v>1615.4</v>
       </c>
     </row>
-    <row r="449" spans="1:5">
+    <row r="449" spans="1:6">
       <c r="A449" s="1">
         <v>42269</v>
       </c>
@@ -9024,17 +9038,1424 @@
         <v>46</v>
       </c>
     </row>
-    <row r="450" spans="1:5">
+    <row r="450" spans="1:6">
+      <c r="A450" s="1">
+        <v>42271</v>
+      </c>
       <c r="B450" s="5"/>
-      <c r="C450"/>
-    </row>
-    <row r="451" spans="1:5">
+      <c r="D450" s="5"/>
+      <c r="E450" t="s">
+        <v>1</v>
+      </c>
+      <c r="F450" s="8">
+        <v>1964.8</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6">
+      <c r="A451" s="1">
+        <v>42271</v>
+      </c>
       <c r="B451" s="5"/>
-      <c r="C451"/>
-    </row>
-    <row r="452" spans="1:5">
+      <c r="D451" s="5"/>
+      <c r="E451" t="s">
+        <v>2</v>
+      </c>
+      <c r="F451" s="8">
+        <v>2174.6</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6">
+      <c r="A452" s="1">
+        <v>42271</v>
+      </c>
       <c r="B452" s="5"/>
-      <c r="C452"/>
+      <c r="D452" s="5"/>
+      <c r="E452" t="s">
+        <v>3</v>
+      </c>
+      <c r="F452" s="8">
+        <v>1442.2</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6">
+      <c r="A453" s="1">
+        <v>42271</v>
+      </c>
+      <c r="B453" s="5"/>
+      <c r="D453" s="5"/>
+      <c r="E453" t="s">
+        <v>4</v>
+      </c>
+      <c r="F453" s="8">
+        <v>1847.5</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6">
+      <c r="A454" s="1">
+        <v>42271</v>
+      </c>
+      <c r="B454" s="5"/>
+      <c r="D454" s="5"/>
+      <c r="E454" t="s">
+        <v>6</v>
+      </c>
+      <c r="F454" s="8">
+        <v>1857.4</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6">
+      <c r="A455" s="1">
+        <v>42271</v>
+      </c>
+      <c r="B455" s="5"/>
+      <c r="D455" s="5"/>
+      <c r="E455" t="s">
+        <v>7</v>
+      </c>
+      <c r="F455" s="8">
+        <v>2018.4</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6">
+      <c r="A456" s="1">
+        <v>42271</v>
+      </c>
+      <c r="B456" s="5"/>
+      <c r="D456" s="5"/>
+      <c r="E456" t="s">
+        <v>9</v>
+      </c>
+      <c r="F456" s="8">
+        <v>1910.1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6">
+      <c r="A457" s="1">
+        <v>42271</v>
+      </c>
+      <c r="B457" s="5"/>
+      <c r="D457" s="5"/>
+      <c r="E457" t="s">
+        <v>11</v>
+      </c>
+      <c r="F457" s="8">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6">
+      <c r="A458" s="1">
+        <v>42271</v>
+      </c>
+      <c r="B458" s="5"/>
+      <c r="D458" s="5"/>
+      <c r="E458" t="s">
+        <v>13</v>
+      </c>
+      <c r="F458" s="8">
+        <v>1678.8</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6">
+      <c r="A459" s="1">
+        <v>42271</v>
+      </c>
+      <c r="B459" s="5"/>
+      <c r="D459" s="5"/>
+      <c r="E459" t="s">
+        <v>15</v>
+      </c>
+      <c r="F459" s="8">
+        <v>2128.6</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6">
+      <c r="A460" s="1">
+        <v>42271</v>
+      </c>
+      <c r="B460" s="5"/>
+      <c r="D460" s="5"/>
+      <c r="E460" t="s">
+        <v>16</v>
+      </c>
+      <c r="F460" s="8">
+        <v>1656.6</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6">
+      <c r="A461" s="1">
+        <v>42271</v>
+      </c>
+      <c r="B461" s="5"/>
+      <c r="D461" s="5"/>
+      <c r="E461" t="s">
+        <v>17</v>
+      </c>
+      <c r="F461" s="8">
+        <v>1686.2</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6">
+      <c r="A462" s="1">
+        <v>42271</v>
+      </c>
+      <c r="B462" s="5"/>
+      <c r="D462" s="5"/>
+      <c r="E462" t="s">
+        <v>18</v>
+      </c>
+      <c r="F462" s="8">
+        <v>1577.7</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6">
+      <c r="A463" s="1">
+        <v>42271</v>
+      </c>
+      <c r="B463" s="5"/>
+      <c r="D463" s="5"/>
+      <c r="E463" t="s">
+        <v>19</v>
+      </c>
+      <c r="F463" s="8">
+        <v>1977.7</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6">
+      <c r="A464" s="1">
+        <v>42271</v>
+      </c>
+      <c r="B464" s="5"/>
+      <c r="D464" s="5"/>
+      <c r="E464" t="s">
+        <v>20</v>
+      </c>
+      <c r="F464" s="8">
+        <v>2195.1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6">
+      <c r="A465" s="1">
+        <v>42271</v>
+      </c>
+      <c r="B465" s="5"/>
+      <c r="D465" s="5"/>
+      <c r="E465" t="s">
+        <v>21</v>
+      </c>
+      <c r="F465" s="8">
+        <v>1439.9</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6">
+      <c r="A466" s="1">
+        <v>42271</v>
+      </c>
+      <c r="B466" s="5"/>
+      <c r="D466" s="5"/>
+      <c r="E466" t="s">
+        <v>22</v>
+      </c>
+      <c r="F466" s="8">
+        <v>2208.8000000000002</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6">
+      <c r="A467" s="1">
+        <v>42271</v>
+      </c>
+      <c r="B467" s="5"/>
+      <c r="D467" s="5"/>
+      <c r="E467" t="s">
+        <v>23</v>
+      </c>
+      <c r="F467" s="8">
+        <v>1695.1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6">
+      <c r="A468" s="1">
+        <v>42271</v>
+      </c>
+      <c r="B468" s="5"/>
+      <c r="D468" s="5"/>
+      <c r="E468" t="s">
+        <v>25</v>
+      </c>
+      <c r="F468" s="8">
+        <v>2050.5</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6">
+      <c r="A469" s="1">
+        <v>42271</v>
+      </c>
+      <c r="B469" s="5"/>
+      <c r="D469" s="5"/>
+      <c r="E469" t="s">
+        <v>26</v>
+      </c>
+      <c r="F469" s="8">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6">
+      <c r="A470" s="1">
+        <v>42271</v>
+      </c>
+      <c r="B470" s="5"/>
+      <c r="D470" s="5"/>
+      <c r="E470" t="s">
+        <v>27</v>
+      </c>
+      <c r="F470" s="8">
+        <v>1923.2</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6">
+      <c r="A471" s="1">
+        <v>42271</v>
+      </c>
+      <c r="B471" s="5"/>
+      <c r="D471" s="5"/>
+      <c r="E471" t="s">
+        <v>28</v>
+      </c>
+      <c r="F471" s="8">
+        <v>1988.5</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6">
+      <c r="A472" s="1">
+        <v>42271</v>
+      </c>
+      <c r="B472" s="5"/>
+      <c r="D472" s="5"/>
+      <c r="E472" t="s">
+        <v>29</v>
+      </c>
+      <c r="F472" s="8">
+        <v>2127.4</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6">
+      <c r="A473" s="1">
+        <v>42271</v>
+      </c>
+      <c r="B473" s="5"/>
+      <c r="D473" s="5"/>
+      <c r="E473" t="s">
+        <v>30</v>
+      </c>
+      <c r="F473" s="8">
+        <v>1609.7</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6">
+      <c r="A474" s="1">
+        <v>42271</v>
+      </c>
+      <c r="B474" s="5"/>
+      <c r="D474" s="5"/>
+      <c r="E474" t="s">
+        <v>5</v>
+      </c>
+      <c r="F474" s="8">
+        <v>1609.1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6">
+      <c r="A475" s="1">
+        <v>42271</v>
+      </c>
+      <c r="B475" s="5"/>
+      <c r="D475" s="5"/>
+      <c r="E475" t="s">
+        <v>24</v>
+      </c>
+      <c r="F475" s="8">
+        <v>1907.6</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6">
+      <c r="A476" s="1">
+        <v>42271</v>
+      </c>
+      <c r="B476" s="5"/>
+      <c r="D476" s="5"/>
+      <c r="E476" t="s">
+        <v>8</v>
+      </c>
+      <c r="F476" s="8">
+        <v>1288.2</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6">
+      <c r="A477" s="1">
+        <v>42271</v>
+      </c>
+      <c r="B477" s="5"/>
+      <c r="D477" s="5"/>
+      <c r="E477" t="s">
+        <v>10</v>
+      </c>
+      <c r="F477" s="8">
+        <v>2048.9</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6">
+      <c r="A478" s="1">
+        <v>42271</v>
+      </c>
+      <c r="B478" s="5"/>
+      <c r="D478" s="5"/>
+      <c r="E478" t="s">
+        <v>12</v>
+      </c>
+      <c r="F478" s="8">
+        <v>1726.2</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6">
+      <c r="A479" s="1">
+        <v>42271</v>
+      </c>
+      <c r="B479" s="5"/>
+      <c r="D479" s="5"/>
+      <c r="E479" t="s">
+        <v>14</v>
+      </c>
+      <c r="F479" s="8">
+        <v>2021.4</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6">
+      <c r="A480" s="1">
+        <v>42272</v>
+      </c>
+      <c r="B480" s="5">
+        <v>0.69513888888888886</v>
+      </c>
+      <c r="D480">
+        <v>6</v>
+      </c>
+      <c r="E480" t="s">
+        <v>1</v>
+      </c>
+      <c r="F480" s="8">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6">
+      <c r="A481" s="1">
+        <v>42272</v>
+      </c>
+      <c r="B481" s="5">
+        <v>0.69513888888888886</v>
+      </c>
+      <c r="D481">
+        <v>16</v>
+      </c>
+      <c r="E481" t="s">
+        <v>2</v>
+      </c>
+      <c r="F481" s="8">
+        <v>2173.3000000000002</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6">
+      <c r="A482" s="1">
+        <v>42272</v>
+      </c>
+      <c r="B482" s="5">
+        <v>0.69513888888888897</v>
+      </c>
+      <c r="D482">
+        <v>13</v>
+      </c>
+      <c r="E482" t="s">
+        <v>3</v>
+      </c>
+      <c r="F482" s="8">
+        <v>1438.5</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6">
+      <c r="A483" s="1">
+        <v>42272</v>
+      </c>
+      <c r="B483" s="5">
+        <v>0.69513888888888897</v>
+      </c>
+      <c r="D483">
+        <v>14</v>
+      </c>
+      <c r="E483" t="s">
+        <v>4</v>
+      </c>
+      <c r="F483" s="8">
+        <v>1845.1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6">
+      <c r="A484" s="1">
+        <v>42272</v>
+      </c>
+      <c r="B484" s="5">
+        <v>0.69513888888888897</v>
+      </c>
+      <c r="D484">
+        <v>11</v>
+      </c>
+      <c r="E484" t="s">
+        <v>6</v>
+      </c>
+      <c r="F484" s="8">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6">
+      <c r="A485" s="1">
+        <v>42272</v>
+      </c>
+      <c r="B485" s="5">
+        <v>0.69513888888888897</v>
+      </c>
+      <c r="D485">
+        <v>1</v>
+      </c>
+      <c r="E485" t="s">
+        <v>7</v>
+      </c>
+      <c r="F485" s="8">
+        <v>2016.7</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6">
+      <c r="A486" s="1">
+        <v>42272</v>
+      </c>
+      <c r="B486" s="5">
+        <v>0.71180555555555547</v>
+      </c>
+      <c r="D486">
+        <v>10</v>
+      </c>
+      <c r="E486" t="s">
+        <v>47</v>
+      </c>
+      <c r="F486" s="8"/>
+    </row>
+    <row r="487" spans="1:6">
+      <c r="A487" s="1">
+        <v>42272</v>
+      </c>
+      <c r="B487" s="5">
+        <v>0.71875</v>
+      </c>
+      <c r="D487">
+        <v>4</v>
+      </c>
+      <c r="E487" t="s">
+        <v>9</v>
+      </c>
+      <c r="F487" s="8">
+        <v>1922.5</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6">
+      <c r="A488" s="1">
+        <v>42272</v>
+      </c>
+      <c r="B488" s="5">
+        <v>0.71875</v>
+      </c>
+      <c r="D488">
+        <v>2</v>
+      </c>
+      <c r="E488" t="s">
+        <v>11</v>
+      </c>
+      <c r="F488" s="8">
+        <v>1702.5</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6">
+      <c r="A489" s="1">
+        <v>42272</v>
+      </c>
+      <c r="B489" s="5">
+        <v>0.71875</v>
+      </c>
+      <c r="D489">
+        <v>12</v>
+      </c>
+      <c r="E489" t="s">
+        <v>13</v>
+      </c>
+      <c r="F489" s="8">
+        <v>1676.1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6">
+      <c r="A490" s="1">
+        <v>42272</v>
+      </c>
+      <c r="B490" s="5">
+        <v>0.71875</v>
+      </c>
+      <c r="D490">
+        <v>8</v>
+      </c>
+      <c r="E490" t="s">
+        <v>15</v>
+      </c>
+      <c r="F490" s="8">
+        <v>2126.6</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6">
+      <c r="A491" s="1">
+        <v>42272</v>
+      </c>
+      <c r="B491" s="5">
+        <v>0.71875</v>
+      </c>
+      <c r="D491">
+        <v>5</v>
+      </c>
+      <c r="E491" t="s">
+        <v>16</v>
+      </c>
+      <c r="F491" s="8">
+        <v>1669.6</v>
+      </c>
+    </row>
+    <row r="492" spans="1:6">
+      <c r="A492" s="1">
+        <v>42272</v>
+      </c>
+      <c r="B492" s="5">
+        <v>0.71875</v>
+      </c>
+      <c r="D492">
+        <v>9</v>
+      </c>
+      <c r="E492" t="s">
+        <v>17</v>
+      </c>
+      <c r="F492" s="8">
+        <v>1684.1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:6">
+      <c r="A493" s="1">
+        <v>42272</v>
+      </c>
+      <c r="B493" s="5">
+        <v>0.73541666666666661</v>
+      </c>
+      <c r="D493">
+        <v>10</v>
+      </c>
+      <c r="E493" t="s">
+        <v>47</v>
+      </c>
+      <c r="F493" s="8"/>
+    </row>
+    <row r="494" spans="1:6">
+      <c r="A494" s="1">
+        <v>42272</v>
+      </c>
+      <c r="B494" s="5">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="D494">
+        <v>6</v>
+      </c>
+      <c r="E494" t="s">
+        <v>18</v>
+      </c>
+      <c r="F494" s="8">
+        <v>1582.6</v>
+      </c>
+    </row>
+    <row r="495" spans="1:6">
+      <c r="A495" s="1">
+        <v>42272</v>
+      </c>
+      <c r="B495" s="5">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="D495">
+        <v>16</v>
+      </c>
+      <c r="E495" t="s">
+        <v>19</v>
+      </c>
+      <c r="F495" s="8">
+        <v>1974.8</v>
+      </c>
+    </row>
+    <row r="496" spans="1:6">
+      <c r="A496" s="1">
+        <v>42272</v>
+      </c>
+      <c r="B496" s="5">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="D496">
+        <v>13</v>
+      </c>
+      <c r="E496" t="s">
+        <v>20</v>
+      </c>
+      <c r="F496" s="8">
+        <v>2191.4</v>
+      </c>
+    </row>
+    <row r="497" spans="1:6">
+      <c r="A497" s="1">
+        <v>42272</v>
+      </c>
+      <c r="B497" s="5">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="D497">
+        <v>14</v>
+      </c>
+      <c r="E497" t="s">
+        <v>21</v>
+      </c>
+      <c r="F497" s="8">
+        <v>1459.4</v>
+      </c>
+    </row>
+    <row r="498" spans="1:6">
+      <c r="A498" s="1">
+        <v>42272</v>
+      </c>
+      <c r="B498" s="5">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="D498">
+        <v>11</v>
+      </c>
+      <c r="E498" t="s">
+        <v>22</v>
+      </c>
+      <c r="F498" s="8">
+        <v>2216.5</v>
+      </c>
+    </row>
+    <row r="499" spans="1:6">
+      <c r="A499" s="1">
+        <v>42272</v>
+      </c>
+      <c r="B499" s="5">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="D499">
+        <v>1</v>
+      </c>
+      <c r="E499" t="s">
+        <v>23</v>
+      </c>
+      <c r="F499" s="8">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="500" spans="1:6">
+      <c r="A500" s="1">
+        <v>42272</v>
+      </c>
+      <c r="B500" s="5">
+        <v>0.78055555555555556</v>
+      </c>
+      <c r="D500">
+        <v>10</v>
+      </c>
+      <c r="E500" t="s">
+        <v>47</v>
+      </c>
+      <c r="F500" s="8"/>
+    </row>
+    <row r="501" spans="1:6">
+      <c r="A501" s="1">
+        <v>42272</v>
+      </c>
+      <c r="B501" s="5">
+        <v>0.83472222222222225</v>
+      </c>
+      <c r="D501">
+        <v>4</v>
+      </c>
+      <c r="E501" t="s">
+        <v>25</v>
+      </c>
+      <c r="F501" s="8">
+        <v>2048.8000000000002</v>
+      </c>
+    </row>
+    <row r="502" spans="1:6">
+      <c r="A502" s="1">
+        <v>42272</v>
+      </c>
+      <c r="B502" s="5">
+        <v>0.83472222222222225</v>
+      </c>
+      <c r="D502">
+        <v>2</v>
+      </c>
+      <c r="E502" t="s">
+        <v>26</v>
+      </c>
+      <c r="F502" s="8">
+        <v>1948.7</v>
+      </c>
+    </row>
+    <row r="503" spans="1:6">
+      <c r="A503" s="1">
+        <v>42272</v>
+      </c>
+      <c r="B503" s="5">
+        <v>0.83472222222222225</v>
+      </c>
+      <c r="D503">
+        <v>12</v>
+      </c>
+      <c r="E503" t="s">
+        <v>27</v>
+      </c>
+      <c r="F503" s="8">
+        <v>1921.2</v>
+      </c>
+    </row>
+    <row r="504" spans="1:6">
+      <c r="A504" s="1">
+        <v>42272</v>
+      </c>
+      <c r="B504" s="5">
+        <v>0.83472222222222225</v>
+      </c>
+      <c r="D504">
+        <v>8</v>
+      </c>
+      <c r="E504" t="s">
+        <v>28</v>
+      </c>
+      <c r="F504" s="8">
+        <v>1987.1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:6">
+      <c r="A505" s="1">
+        <v>42272</v>
+      </c>
+      <c r="B505" s="5">
+        <v>0.83472222222222225</v>
+      </c>
+      <c r="D505">
+        <v>5</v>
+      </c>
+      <c r="E505" t="s">
+        <v>29</v>
+      </c>
+      <c r="F505" s="8">
+        <v>2125.8000000000002</v>
+      </c>
+    </row>
+    <row r="506" spans="1:6">
+      <c r="A506" s="1">
+        <v>42272</v>
+      </c>
+      <c r="B506" s="5">
+        <v>0.83472222222222225</v>
+      </c>
+      <c r="D506">
+        <v>9</v>
+      </c>
+      <c r="E506" t="s">
+        <v>30</v>
+      </c>
+      <c r="F506" s="8">
+        <v>1606.5</v>
+      </c>
+    </row>
+    <row r="507" spans="1:6">
+      <c r="A507" s="1">
+        <v>42272</v>
+      </c>
+      <c r="B507" s="5">
+        <v>0.85138888888888886</v>
+      </c>
+      <c r="D507">
+        <v>10</v>
+      </c>
+      <c r="E507" t="s">
+        <v>46</v>
+      </c>
+      <c r="F507" s="8"/>
+    </row>
+    <row r="508" spans="1:6">
+      <c r="A508" s="1">
+        <v>42272</v>
+      </c>
+      <c r="B508" s="5">
+        <v>0.85833333333333339</v>
+      </c>
+      <c r="D508">
+        <v>6</v>
+      </c>
+      <c r="E508" t="s">
+        <v>5</v>
+      </c>
+      <c r="F508" s="8">
+        <v>1604.4</v>
+      </c>
+    </row>
+    <row r="509" spans="1:6">
+      <c r="A509" s="1">
+        <v>42272</v>
+      </c>
+      <c r="B509" s="5">
+        <v>0.85833333333333339</v>
+      </c>
+      <c r="D509">
+        <v>16</v>
+      </c>
+      <c r="E509" t="s">
+        <v>24</v>
+      </c>
+      <c r="F509" s="8">
+        <v>1908.4</v>
+      </c>
+    </row>
+    <row r="510" spans="1:6">
+      <c r="A510" s="1">
+        <v>42272</v>
+      </c>
+      <c r="B510" s="5">
+        <v>0.85833333333333339</v>
+      </c>
+      <c r="D510">
+        <v>13</v>
+      </c>
+      <c r="E510" t="s">
+        <v>8</v>
+      </c>
+      <c r="F510" s="8">
+        <v>1286.8</v>
+      </c>
+    </row>
+    <row r="511" spans="1:6">
+      <c r="A511" s="1">
+        <v>42272</v>
+      </c>
+      <c r="B511" s="5">
+        <v>0.85833333333333339</v>
+      </c>
+      <c r="D511">
+        <v>14</v>
+      </c>
+      <c r="E511" t="s">
+        <v>10</v>
+      </c>
+      <c r="F511" s="8">
+        <v>2050.1</v>
+      </c>
+    </row>
+    <row r="512" spans="1:6">
+      <c r="A512" s="1">
+        <v>42272</v>
+      </c>
+      <c r="B512" s="5">
+        <v>0.85833333333333339</v>
+      </c>
+      <c r="D512">
+        <v>11</v>
+      </c>
+      <c r="E512" t="s">
+        <v>12</v>
+      </c>
+      <c r="F512" s="8">
+        <v>1732.4</v>
+      </c>
+    </row>
+    <row r="513" spans="1:6">
+      <c r="A513" s="1">
+        <v>42272</v>
+      </c>
+      <c r="B513" s="5">
+        <v>0.85833333333333339</v>
+      </c>
+      <c r="D513">
+        <v>1</v>
+      </c>
+      <c r="E513" t="s">
+        <v>14</v>
+      </c>
+      <c r="F513" s="8">
+        <v>2012.1</v>
+      </c>
+    </row>
+    <row r="514" spans="1:6">
+      <c r="A514" s="1">
+        <v>42272</v>
+      </c>
+      <c r="B514" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="D514">
+        <v>10</v>
+      </c>
+      <c r="E514" t="s">
+        <v>46</v>
+      </c>
+      <c r="F514" s="8"/>
+    </row>
+    <row r="515" spans="1:6">
+      <c r="A515" s="1">
+        <v>42275</v>
+      </c>
+      <c r="B515" s="5"/>
+      <c r="D515" s="5"/>
+      <c r="E515" t="s">
+        <v>1</v>
+      </c>
+      <c r="F515" s="8">
+        <v>1960.9</v>
+      </c>
+    </row>
+    <row r="516" spans="1:6">
+      <c r="A516" s="1">
+        <v>42275</v>
+      </c>
+      <c r="B516" s="5"/>
+      <c r="D516" s="5"/>
+      <c r="E516" t="s">
+        <v>2</v>
+      </c>
+      <c r="F516" s="8">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="517" spans="1:6">
+      <c r="A517" s="1">
+        <v>42275</v>
+      </c>
+      <c r="B517" s="5"/>
+      <c r="D517" s="5"/>
+      <c r="E517" t="s">
+        <v>3</v>
+      </c>
+      <c r="F517" s="8">
+        <v>1437.7</v>
+      </c>
+    </row>
+    <row r="518" spans="1:6">
+      <c r="A518" s="1">
+        <v>42275</v>
+      </c>
+      <c r="B518" s="5"/>
+      <c r="D518" s="5"/>
+      <c r="E518" t="s">
+        <v>4</v>
+      </c>
+      <c r="F518" s="8">
+        <v>1843.4</v>
+      </c>
+    </row>
+    <row r="519" spans="1:6">
+      <c r="A519" s="1">
+        <v>42275</v>
+      </c>
+      <c r="B519" s="5"/>
+      <c r="D519" s="5"/>
+      <c r="E519" t="s">
+        <v>6</v>
+      </c>
+      <c r="F519" s="8">
+        <v>1853.2</v>
+      </c>
+    </row>
+    <row r="520" spans="1:6">
+      <c r="A520" s="1">
+        <v>42275</v>
+      </c>
+      <c r="B520" s="5"/>
+      <c r="D520" s="5"/>
+      <c r="E520" t="s">
+        <v>7</v>
+      </c>
+      <c r="F520" s="8">
+        <v>2014.1</v>
+      </c>
+    </row>
+    <row r="521" spans="1:6">
+      <c r="A521" s="1">
+        <v>42275</v>
+      </c>
+      <c r="B521" s="5"/>
+      <c r="D521" s="5"/>
+      <c r="E521" t="s">
+        <v>9</v>
+      </c>
+      <c r="F521" s="8">
+        <v>1908.1</v>
+      </c>
+    </row>
+    <row r="522" spans="1:6">
+      <c r="A522" s="1">
+        <v>42275</v>
+      </c>
+      <c r="B522" s="5"/>
+      <c r="D522" s="5"/>
+      <c r="E522" t="s">
+        <v>11</v>
+      </c>
+      <c r="F522" s="8">
+        <v>1692.8</v>
+      </c>
+    </row>
+    <row r="523" spans="1:6">
+      <c r="A523" s="1">
+        <v>42275</v>
+      </c>
+      <c r="B523" s="5"/>
+      <c r="D523" s="5"/>
+      <c r="E523" t="s">
+        <v>13</v>
+      </c>
+      <c r="F523" s="8">
+        <v>1669.5</v>
+      </c>
+    </row>
+    <row r="524" spans="1:6">
+      <c r="A524" s="1">
+        <v>42275</v>
+      </c>
+      <c r="B524" s="5"/>
+      <c r="D524" s="5"/>
+      <c r="E524" t="s">
+        <v>15</v>
+      </c>
+      <c r="F524" s="8">
+        <v>2121.1</v>
+      </c>
+    </row>
+    <row r="525" spans="1:6">
+      <c r="A525" s="1">
+        <v>42275</v>
+      </c>
+      <c r="B525" s="5"/>
+      <c r="D525" s="5"/>
+      <c r="E525" t="s">
+        <v>16</v>
+      </c>
+      <c r="F525" s="8">
+        <v>1652.8</v>
+      </c>
+    </row>
+    <row r="526" spans="1:6">
+      <c r="A526" s="1">
+        <v>42275</v>
+      </c>
+      <c r="B526" s="5"/>
+      <c r="D526" s="5"/>
+      <c r="E526" t="s">
+        <v>17</v>
+      </c>
+      <c r="F526" s="8">
+        <v>1678.3</v>
+      </c>
+    </row>
+    <row r="527" spans="1:6">
+      <c r="A527" s="1">
+        <v>42275</v>
+      </c>
+      <c r="B527" s="5"/>
+      <c r="D527" s="5"/>
+      <c r="E527" t="s">
+        <v>18</v>
+      </c>
+      <c r="F527" s="8">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="528" spans="1:6">
+      <c r="A528" s="1">
+        <v>42275</v>
+      </c>
+      <c r="B528" s="5"/>
+      <c r="D528" s="5"/>
+      <c r="E528" t="s">
+        <v>19</v>
+      </c>
+      <c r="F528" s="8">
+        <v>1967.1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:6">
+      <c r="A529" s="1">
+        <v>42275</v>
+      </c>
+      <c r="B529" s="5"/>
+      <c r="D529" s="5"/>
+      <c r="E529" t="s">
+        <v>20</v>
+      </c>
+      <c r="F529" s="8">
+        <v>2181.3000000000002</v>
+      </c>
+    </row>
+    <row r="530" spans="1:6">
+      <c r="A530" s="1">
+        <v>42275</v>
+      </c>
+      <c r="B530" s="5"/>
+      <c r="D530" s="5"/>
+      <c r="E530" t="s">
+        <v>21</v>
+      </c>
+      <c r="F530" s="8">
+        <v>1442.1</v>
+      </c>
+    </row>
+    <row r="531" spans="1:6">
+      <c r="A531" s="1">
+        <v>42275</v>
+      </c>
+      <c r="B531" s="5"/>
+      <c r="D531" s="5"/>
+      <c r="E531" t="s">
+        <v>22</v>
+      </c>
+      <c r="F531" s="8">
+        <v>2205.8000000000002</v>
+      </c>
+    </row>
+    <row r="532" spans="1:6">
+      <c r="A532" s="1">
+        <v>42275</v>
+      </c>
+      <c r="B532" s="5"/>
+      <c r="D532" s="5"/>
+      <c r="E532" t="s">
+        <v>23</v>
+      </c>
+      <c r="F532" s="8">
+        <v>1691.8</v>
+      </c>
+    </row>
+    <row r="533" spans="1:6">
+      <c r="A533" s="1">
+        <v>42275</v>
+      </c>
+      <c r="B533" s="5"/>
+      <c r="D533" s="5"/>
+      <c r="E533" t="s">
+        <v>25</v>
+      </c>
+      <c r="F533" s="8">
+        <v>2044.6</v>
+      </c>
+    </row>
+    <row r="534" spans="1:6">
+      <c r="A534" s="1">
+        <v>42275</v>
+      </c>
+      <c r="B534" s="5"/>
+      <c r="D534" s="5"/>
+      <c r="E534" t="s">
+        <v>26</v>
+      </c>
+      <c r="F534" s="8">
+        <v>1943.4</v>
+      </c>
+    </row>
+    <row r="535" spans="1:6">
+      <c r="A535" s="1">
+        <v>42275</v>
+      </c>
+      <c r="B535" s="5"/>
+      <c r="D535" s="5"/>
+      <c r="E535" t="s">
+        <v>27</v>
+      </c>
+      <c r="F535" s="8">
+        <v>1914.8</v>
+      </c>
+    </row>
+    <row r="536" spans="1:6">
+      <c r="A536" s="1">
+        <v>42275</v>
+      </c>
+      <c r="B536" s="5"/>
+      <c r="D536" s="5"/>
+      <c r="E536" t="s">
+        <v>28</v>
+      </c>
+      <c r="F536" s="8">
+        <v>1983.2</v>
+      </c>
+    </row>
+    <row r="537" spans="1:6">
+      <c r="A537" s="1">
+        <v>42275</v>
+      </c>
+      <c r="B537" s="5"/>
+      <c r="D537" s="5"/>
+      <c r="E537" t="s">
+        <v>29</v>
+      </c>
+      <c r="F537" s="8">
+        <v>2122.6</v>
+      </c>
+    </row>
+    <row r="538" spans="1:6">
+      <c r="A538" s="1">
+        <v>42275</v>
+      </c>
+      <c r="B538" s="5"/>
+      <c r="D538" s="5"/>
+      <c r="E538" t="s">
+        <v>30</v>
+      </c>
+      <c r="F538" s="8">
+        <v>1599.1</v>
+      </c>
+    </row>
+    <row r="539" spans="1:6">
+      <c r="A539" s="1">
+        <v>42275</v>
+      </c>
+      <c r="B539" s="5"/>
+      <c r="D539" s="5"/>
+      <c r="E539" t="s">
+        <v>5</v>
+      </c>
+      <c r="F539" s="8">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="540" spans="1:6">
+      <c r="A540" s="1">
+        <v>42275</v>
+      </c>
+      <c r="B540" s="5"/>
+      <c r="D540" s="5"/>
+      <c r="E540" t="s">
+        <v>24</v>
+      </c>
+      <c r="F540" s="8">
+        <v>1903.4</v>
+      </c>
+    </row>
+    <row r="541" spans="1:6">
+      <c r="A541" s="1">
+        <v>42275</v>
+      </c>
+      <c r="B541" s="5"/>
+      <c r="D541" s="5"/>
+      <c r="E541" t="s">
+        <v>8</v>
+      </c>
+      <c r="F541" s="8">
+        <v>1283.5999999999999</v>
+      </c>
+    </row>
+    <row r="542" spans="1:6">
+      <c r="A542" s="1">
+        <v>42275</v>
+      </c>
+      <c r="B542" s="5"/>
+      <c r="D542" s="5"/>
+      <c r="E542" t="s">
+        <v>10</v>
+      </c>
+      <c r="F542" s="8">
+        <v>2042.5</v>
+      </c>
+    </row>
+    <row r="543" spans="1:6">
+      <c r="A543" s="1">
+        <v>42275</v>
+      </c>
+      <c r="B543" s="5"/>
+      <c r="D543" s="5"/>
+      <c r="E543" t="s">
+        <v>12</v>
+      </c>
+      <c r="F543" s="8">
+        <v>1723.7</v>
+      </c>
+    </row>
+    <row r="544" spans="1:6">
+      <c r="A544" s="1">
+        <v>42275</v>
+      </c>
+      <c r="B544" s="5"/>
+      <c r="D544" s="5"/>
+      <c r="E544" t="s">
+        <v>14</v>
+      </c>
+      <c r="F544" s="8">
+        <v>2002.6</v>
+      </c>
+    </row>
+    <row r="545" spans="4:4">
+      <c r="D545" s="2"/>
+    </row>
+    <row r="546" spans="4:4">
+      <c r="D546" s="2"/>
+    </row>
+    <row r="547" spans="4:4">
+      <c r="D547" s="2"/>
+    </row>
+    <row r="548" spans="4:4">
+      <c r="D548" s="2"/>
+    </row>
+    <row r="549" spans="4:4">
+      <c r="D549" s="2"/>
+    </row>
+    <row r="550" spans="4:4">
+      <c r="D550" s="2"/>
+    </row>
+    <row r="551" spans="4:4">
+      <c r="D551" s="2"/>
+    </row>
+    <row r="552" spans="4:4">
+      <c r="D552" s="2"/>
+    </row>
+    <row r="553" spans="4:4">
+      <c r="D553" s="2"/>
+    </row>
+    <row r="554" spans="4:4">
+      <c r="D554" s="2"/>
+    </row>
+    <row r="555" spans="4:4">
+      <c r="D555" s="2"/>
+    </row>
+    <row r="556" spans="4:4">
+      <c r="D556" s="2"/>
+    </row>
+    <row r="557" spans="4:4">
+      <c r="D557" s="2"/>
+    </row>
+    <row r="558" spans="4:4">
+      <c r="D558" s="2"/>
+    </row>
+    <row r="559" spans="4:4">
+      <c r="D559" s="2"/>
+    </row>
+    <row r="560" spans="4:4">
+      <c r="D560" s="2"/>
+    </row>
+    <row r="561" spans="4:4">
+      <c r="D561" s="2"/>
+    </row>
+    <row r="562" spans="4:4">
+      <c r="D562" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A3:G448">

--- a/data/CoreData.xlsx
+++ b/data/CoreData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24680" windowHeight="15600" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26500" windowHeight="21080" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="treatments.csv" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="64">
   <si>
     <t>Treatment</t>
   </si>
@@ -210,6 +210,9 @@
   <si>
     <t>Changed from 12952.6 per PS email</t>
   </si>
+  <si>
+    <t>starts at 17:17, but looks like my breathing didn't dissipate for ~30 mins</t>
+  </si>
 </sst>
 </file>
 
@@ -280,8 +283,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="193">
+  <cellStyleXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -486,7 +495,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="193">
+  <cellStyles count="199">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -583,6 +592,9 @@
     <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -679,6 +691,9 @@
     <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1461,11 +1476,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G562"/>
+  <dimension ref="A1:G593"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A494" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E514" sqref="E514"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -10403,59 +10418,647 @@
         <v>2002.6</v>
       </c>
     </row>
-    <row r="545" spans="4:4">
-      <c r="D545" s="2"/>
-    </row>
-    <row r="546" spans="4:4">
-      <c r="D546" s="2"/>
-    </row>
-    <row r="547" spans="4:4">
-      <c r="D547" s="2"/>
-    </row>
-    <row r="548" spans="4:4">
-      <c r="D548" s="2"/>
-    </row>
-    <row r="549" spans="4:4">
-      <c r="D549" s="2"/>
-    </row>
-    <row r="550" spans="4:4">
-      <c r="D550" s="2"/>
-    </row>
-    <row r="551" spans="4:4">
-      <c r="D551" s="2"/>
-    </row>
-    <row r="552" spans="4:4">
-      <c r="D552" s="2"/>
-    </row>
-    <row r="553" spans="4:4">
-      <c r="D553" s="2"/>
-    </row>
-    <row r="554" spans="4:4">
-      <c r="D554" s="2"/>
-    </row>
-    <row r="555" spans="4:4">
-      <c r="D555" s="2"/>
-    </row>
-    <row r="556" spans="4:4">
-      <c r="D556" s="2"/>
-    </row>
-    <row r="557" spans="4:4">
-      <c r="D557" s="2"/>
-    </row>
-    <row r="558" spans="4:4">
-      <c r="D558" s="2"/>
-    </row>
-    <row r="559" spans="4:4">
-      <c r="D559" s="2"/>
-    </row>
-    <row r="560" spans="4:4">
-      <c r="D560" s="2"/>
-    </row>
-    <row r="561" spans="4:4">
-      <c r="D561" s="2"/>
-    </row>
-    <row r="562" spans="4:4">
-      <c r="D562" s="2"/>
+    <row r="545" spans="1:7">
+      <c r="A545" s="1">
+        <v>42276</v>
+      </c>
+      <c r="B545" s="5">
+        <v>0.74513888888888891</v>
+      </c>
+      <c r="D545">
+        <v>10</v>
+      </c>
+      <c r="E545" t="s">
+        <v>47</v>
+      </c>
+      <c r="F545" s="8"/>
+      <c r="G545" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="546" spans="1:7">
+      <c r="A546" s="1">
+        <v>42276</v>
+      </c>
+      <c r="B546" s="5">
+        <v>0.74791666666666667</v>
+      </c>
+      <c r="D546">
+        <v>6</v>
+      </c>
+      <c r="E546" t="s">
+        <v>1</v>
+      </c>
+      <c r="F546" s="8">
+        <v>1958.2</v>
+      </c>
+    </row>
+    <row r="547" spans="1:7">
+      <c r="A547" s="1">
+        <v>42276</v>
+      </c>
+      <c r="B547" s="5">
+        <v>0.74791666666666667</v>
+      </c>
+      <c r="D547">
+        <v>16</v>
+      </c>
+      <c r="E547" t="s">
+        <v>2</v>
+      </c>
+      <c r="F547" s="8">
+        <v>2170.4</v>
+      </c>
+    </row>
+    <row r="548" spans="1:7">
+      <c r="A548" s="1">
+        <v>42276</v>
+      </c>
+      <c r="B548" s="5">
+        <v>0.74791666666666667</v>
+      </c>
+      <c r="D548">
+        <v>13</v>
+      </c>
+      <c r="E548" t="s">
+        <v>3</v>
+      </c>
+      <c r="F548" s="8">
+        <v>1436.1</v>
+      </c>
+    </row>
+    <row r="549" spans="1:7">
+      <c r="A549" s="1">
+        <v>42276</v>
+      </c>
+      <c r="B549" s="5">
+        <v>0.74791666666666667</v>
+      </c>
+      <c r="D549">
+        <v>14</v>
+      </c>
+      <c r="E549" t="s">
+        <v>4</v>
+      </c>
+      <c r="F549" s="8">
+        <v>1841.9</v>
+      </c>
+    </row>
+    <row r="550" spans="1:7">
+      <c r="A550" s="1">
+        <v>42276</v>
+      </c>
+      <c r="B550" s="5">
+        <v>0.74791666666666667</v>
+      </c>
+      <c r="D550">
+        <v>11</v>
+      </c>
+      <c r="E550" t="s">
+        <v>6</v>
+      </c>
+      <c r="F550" s="8">
+        <v>1851.7</v>
+      </c>
+    </row>
+    <row r="551" spans="1:7">
+      <c r="A551" s="1">
+        <v>42276</v>
+      </c>
+      <c r="B551" s="5">
+        <v>0.74791666666666667</v>
+      </c>
+      <c r="D551">
+        <v>1</v>
+      </c>
+      <c r="E551" t="s">
+        <v>7</v>
+      </c>
+      <c r="F551" s="8">
+        <v>2011.6</v>
+      </c>
+    </row>
+    <row r="552" spans="1:7">
+      <c r="A552" s="1">
+        <v>42276</v>
+      </c>
+      <c r="B552" s="5">
+        <v>0.76458333333333339</v>
+      </c>
+      <c r="D552">
+        <v>10</v>
+      </c>
+      <c r="E552" t="s">
+        <v>47</v>
+      </c>
+      <c r="F552" s="8"/>
+    </row>
+    <row r="553" spans="1:7">
+      <c r="A553" s="1">
+        <v>42276</v>
+      </c>
+      <c r="B553" s="5">
+        <v>0.7715277777777777</v>
+      </c>
+      <c r="D553">
+        <v>4</v>
+      </c>
+      <c r="E553" t="s">
+        <v>9</v>
+      </c>
+      <c r="F553" s="8">
+        <v>1919.6</v>
+      </c>
+    </row>
+    <row r="554" spans="1:7">
+      <c r="A554" s="1">
+        <v>42276</v>
+      </c>
+      <c r="B554" s="5">
+        <v>0.7715277777777777</v>
+      </c>
+      <c r="D554">
+        <v>2</v>
+      </c>
+      <c r="E554" t="s">
+        <v>11</v>
+      </c>
+      <c r="F554" s="8">
+        <v>1705.9</v>
+      </c>
+    </row>
+    <row r="555" spans="1:7">
+      <c r="A555" s="1">
+        <v>42276</v>
+      </c>
+      <c r="B555" s="5">
+        <v>0.7715277777777777</v>
+      </c>
+      <c r="D555">
+        <v>12</v>
+      </c>
+      <c r="E555" t="s">
+        <v>13</v>
+      </c>
+      <c r="F555" s="8">
+        <v>1666.4</v>
+      </c>
+    </row>
+    <row r="556" spans="1:7">
+      <c r="A556" s="1">
+        <v>42276</v>
+      </c>
+      <c r="B556" s="5">
+        <v>0.7715277777777777</v>
+      </c>
+      <c r="D556">
+        <v>8</v>
+      </c>
+      <c r="E556" t="s">
+        <v>15</v>
+      </c>
+      <c r="F556" s="8">
+        <v>2123.4</v>
+      </c>
+    </row>
+    <row r="557" spans="1:7">
+      <c r="A557" s="1">
+        <v>42276</v>
+      </c>
+      <c r="B557" s="5">
+        <v>0.7715277777777777</v>
+      </c>
+      <c r="D557">
+        <v>5</v>
+      </c>
+      <c r="E557" t="s">
+        <v>16</v>
+      </c>
+      <c r="F557" s="8">
+        <v>1673.6</v>
+      </c>
+    </row>
+    <row r="558" spans="1:7">
+      <c r="A558" s="1">
+        <v>42276</v>
+      </c>
+      <c r="B558" s="5">
+        <v>0.7715277777777777</v>
+      </c>
+      <c r="D558">
+        <v>9</v>
+      </c>
+      <c r="E558" t="s">
+        <v>17</v>
+      </c>
+      <c r="F558" s="8">
+        <v>1675.6</v>
+      </c>
+    </row>
+    <row r="559" spans="1:7">
+      <c r="A559" s="1">
+        <v>42276</v>
+      </c>
+      <c r="B559" s="5">
+        <v>0.78819444444444453</v>
+      </c>
+      <c r="D559">
+        <v>10</v>
+      </c>
+      <c r="E559" t="s">
+        <v>47</v>
+      </c>
+      <c r="F559" s="8"/>
+    </row>
+    <row r="560" spans="1:7">
+      <c r="A560" s="1">
+        <v>42276</v>
+      </c>
+      <c r="B560" s="5">
+        <v>0.82986111111111116</v>
+      </c>
+      <c r="D560">
+        <v>6</v>
+      </c>
+      <c r="E560" t="s">
+        <v>18</v>
+      </c>
+      <c r="F560" s="8">
+        <v>1570.3</v>
+      </c>
+    </row>
+    <row r="561" spans="1:6">
+      <c r="A561" s="1">
+        <v>42276</v>
+      </c>
+      <c r="B561" s="5">
+        <v>0.82986111111111116</v>
+      </c>
+      <c r="D561">
+        <v>16</v>
+      </c>
+      <c r="E561" t="s">
+        <v>19</v>
+      </c>
+      <c r="F561" s="8">
+        <v>1964.1</v>
+      </c>
+    </row>
+    <row r="562" spans="1:6">
+      <c r="A562" s="1">
+        <v>42276</v>
+      </c>
+      <c r="B562" s="5">
+        <v>0.82986111111111116</v>
+      </c>
+      <c r="D562">
+        <v>13</v>
+      </c>
+      <c r="E562" t="s">
+        <v>20</v>
+      </c>
+      <c r="F562" s="8">
+        <v>2178.5</v>
+      </c>
+    </row>
+    <row r="563" spans="1:6">
+      <c r="A563" s="1">
+        <v>42276</v>
+      </c>
+      <c r="B563" s="5">
+        <v>0.82986111111111116</v>
+      </c>
+      <c r="D563">
+        <v>14</v>
+      </c>
+      <c r="E563" t="s">
+        <v>21</v>
+      </c>
+      <c r="F563" s="8">
+        <v>1459.33</v>
+      </c>
+    </row>
+    <row r="564" spans="1:6">
+      <c r="A564" s="1">
+        <v>42276</v>
+      </c>
+      <c r="B564" s="5">
+        <v>0.82986111111111116</v>
+      </c>
+      <c r="D564">
+        <v>11</v>
+      </c>
+      <c r="E564" t="s">
+        <v>22</v>
+      </c>
+      <c r="F564" s="8">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="565" spans="1:6">
+      <c r="A565" s="1">
+        <v>42276</v>
+      </c>
+      <c r="B565" s="5">
+        <v>0.82986111111111116</v>
+      </c>
+      <c r="D565">
+        <v>1</v>
+      </c>
+      <c r="E565" t="s">
+        <v>23</v>
+      </c>
+      <c r="F565" s="8">
+        <v>1696.1</v>
+      </c>
+    </row>
+    <row r="566" spans="1:6">
+      <c r="A566" s="1">
+        <v>42276</v>
+      </c>
+      <c r="B566" s="5">
+        <v>0.84652777777777777</v>
+      </c>
+      <c r="D566">
+        <v>10</v>
+      </c>
+      <c r="E566" t="s">
+        <v>46</v>
+      </c>
+      <c r="F566" s="8"/>
+    </row>
+    <row r="567" spans="1:6">
+      <c r="A567" s="1">
+        <v>42276</v>
+      </c>
+      <c r="B567" s="5">
+        <v>0.90138888888888891</v>
+      </c>
+      <c r="D567">
+        <v>4</v>
+      </c>
+      <c r="E567" t="s">
+        <v>25</v>
+      </c>
+      <c r="F567" s="8">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="568" spans="1:6">
+      <c r="A568" s="1">
+        <v>42276</v>
+      </c>
+      <c r="B568" s="5">
+        <v>0.90138888888888891</v>
+      </c>
+      <c r="D568">
+        <v>2</v>
+      </c>
+      <c r="E568" t="s">
+        <v>26</v>
+      </c>
+      <c r="F568" s="8">
+        <v>1941.5</v>
+      </c>
+    </row>
+    <row r="569" spans="1:6">
+      <c r="A569" s="1">
+        <v>42276</v>
+      </c>
+      <c r="B569" s="5">
+        <v>0.90138888888888891</v>
+      </c>
+      <c r="D569">
+        <v>12</v>
+      </c>
+      <c r="E569" t="s">
+        <v>27</v>
+      </c>
+      <c r="F569" s="8">
+        <v>1913.2</v>
+      </c>
+    </row>
+    <row r="570" spans="1:6">
+      <c r="A570" s="1">
+        <v>42276</v>
+      </c>
+      <c r="B570" s="5">
+        <v>0.90138888888888891</v>
+      </c>
+      <c r="D570">
+        <v>8</v>
+      </c>
+      <c r="E570" t="s">
+        <v>28</v>
+      </c>
+      <c r="F570" s="8">
+        <v>1981.9</v>
+      </c>
+    </row>
+    <row r="571" spans="1:6">
+      <c r="A571" s="1">
+        <v>42276</v>
+      </c>
+      <c r="B571" s="5">
+        <v>0.90138888888888891</v>
+      </c>
+      <c r="D571">
+        <v>5</v>
+      </c>
+      <c r="E571" t="s">
+        <v>29</v>
+      </c>
+      <c r="F571" s="8">
+        <v>2121.4</v>
+      </c>
+    </row>
+    <row r="572" spans="1:6">
+      <c r="A572" s="1">
+        <v>42276</v>
+      </c>
+      <c r="B572" s="5">
+        <v>0.90138888888888891</v>
+      </c>
+      <c r="D572">
+        <v>9</v>
+      </c>
+      <c r="E572" t="s">
+        <v>30</v>
+      </c>
+      <c r="F572" s="8">
+        <v>1595.9</v>
+      </c>
+    </row>
+    <row r="573" spans="1:6">
+      <c r="A573" s="1">
+        <v>42276</v>
+      </c>
+      <c r="B573" s="5">
+        <v>0.91805555555555562</v>
+      </c>
+      <c r="D573">
+        <v>10</v>
+      </c>
+      <c r="E573" t="s">
+        <v>46</v>
+      </c>
+      <c r="F573" s="8"/>
+    </row>
+    <row r="574" spans="1:6">
+      <c r="A574" s="1">
+        <v>42276</v>
+      </c>
+      <c r="B574" s="5">
+        <v>0.92499999999999993</v>
+      </c>
+      <c r="D574">
+        <v>6</v>
+      </c>
+      <c r="E574" t="s">
+        <v>5</v>
+      </c>
+      <c r="F574" s="8">
+        <v>1596.9</v>
+      </c>
+    </row>
+    <row r="575" spans="1:6">
+      <c r="A575" s="1">
+        <v>42276</v>
+      </c>
+      <c r="B575" s="5">
+        <v>0.92499999999999993</v>
+      </c>
+      <c r="D575">
+        <v>16</v>
+      </c>
+      <c r="E575" t="s">
+        <v>24</v>
+      </c>
+      <c r="F575" s="8">
+        <v>1904.3</v>
+      </c>
+    </row>
+    <row r="576" spans="1:6">
+      <c r="A576" s="1">
+        <v>42276</v>
+      </c>
+      <c r="B576" s="5">
+        <v>0.92499999999999993</v>
+      </c>
+      <c r="D576">
+        <v>13</v>
+      </c>
+      <c r="E576" t="s">
+        <v>8</v>
+      </c>
+      <c r="F576" s="8">
+        <v>1285.2</v>
+      </c>
+    </row>
+    <row r="577" spans="1:6">
+      <c r="A577" s="1">
+        <v>42276</v>
+      </c>
+      <c r="B577" s="5">
+        <v>0.92499999999999993</v>
+      </c>
+      <c r="D577">
+        <v>14</v>
+      </c>
+      <c r="E577" t="s">
+        <v>10</v>
+      </c>
+      <c r="F577" s="8">
+        <v>2048.9</v>
+      </c>
+    </row>
+    <row r="578" spans="1:6">
+      <c r="A578" s="1">
+        <v>42276</v>
+      </c>
+      <c r="B578" s="5">
+        <v>0.92499999999999993</v>
+      </c>
+      <c r="D578">
+        <v>11</v>
+      </c>
+      <c r="E578" t="s">
+        <v>12</v>
+      </c>
+      <c r="F578" s="8">
+        <v>1728.2</v>
+      </c>
+    </row>
+    <row r="579" spans="1:6">
+      <c r="A579" s="1">
+        <v>42276</v>
+      </c>
+      <c r="B579" s="5">
+        <v>0.92499999999999993</v>
+      </c>
+      <c r="D579">
+        <v>1</v>
+      </c>
+      <c r="E579" t="s">
+        <v>14</v>
+      </c>
+      <c r="F579" s="8">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="580" spans="1:6">
+      <c r="A580" s="1">
+        <v>42276</v>
+      </c>
+      <c r="B580" s="5">
+        <v>0.94166666666666676</v>
+      </c>
+      <c r="D580">
+        <v>10</v>
+      </c>
+      <c r="E580" t="s">
+        <v>46</v>
+      </c>
+      <c r="F580" s="8"/>
+    </row>
+    <row r="581" spans="1:6">
+      <c r="D581" s="2"/>
+    </row>
+    <row r="582" spans="1:6">
+      <c r="D582" s="2"/>
+    </row>
+    <row r="583" spans="1:6">
+      <c r="D583" s="2"/>
+    </row>
+    <row r="584" spans="1:6">
+      <c r="D584" s="2"/>
+    </row>
+    <row r="585" spans="1:6">
+      <c r="D585" s="2"/>
+    </row>
+    <row r="586" spans="1:6">
+      <c r="D586" s="2"/>
+    </row>
+    <row r="587" spans="1:6">
+      <c r="D587" s="2"/>
+    </row>
+    <row r="588" spans="1:6">
+      <c r="D588" s="2"/>
+    </row>
+    <row r="589" spans="1:6">
+      <c r="D589" s="2"/>
+    </row>
+    <row r="590" spans="1:6">
+      <c r="D590" s="2"/>
+    </row>
+    <row r="591" spans="1:6">
+      <c r="D591" s="2"/>
+    </row>
+    <row r="592" spans="1:6">
+      <c r="D592" s="2"/>
+    </row>
+    <row r="593" spans="4:4">
+      <c r="D593" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A3:G448">

--- a/data/CoreData.xlsx
+++ b/data/CoreData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26500" windowHeight="21080" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29320" windowHeight="25340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="treatments.csv" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="64">
   <si>
     <t>Treatment</t>
   </si>
@@ -283,7 +283,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="199">
+  <cellStyleXfs count="205">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -483,8 +483,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -494,8 +500,14 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="199">
+  <cellStyles count="205">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -595,6 +607,9 @@
     <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -694,6 +709,9 @@
     <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -997,7 +1015,7 @@
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1476,11 +1494,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G593"/>
+  <dimension ref="A1:G651"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <pane ySplit="2" topLeftCell="A630" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E648" sqref="E648"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -11022,43 +11040,996 @@
       <c r="F580" s="8"/>
     </row>
     <row r="581" spans="1:6">
-      <c r="D581" s="2"/>
+      <c r="A581" s="1">
+        <v>42279</v>
+      </c>
+      <c r="B581" s="5">
+        <v>0.81527777777777777</v>
+      </c>
+      <c r="D581" s="9">
+        <v>6</v>
+      </c>
+      <c r="E581" t="s">
+        <v>1</v>
+      </c>
+      <c r="F581" s="8">
+        <v>1957.2</v>
+      </c>
     </row>
     <row r="582" spans="1:6">
-      <c r="D582" s="2"/>
+      <c r="A582" s="1">
+        <v>42279</v>
+      </c>
+      <c r="B582" s="5">
+        <v>0.81527777777777777</v>
+      </c>
+      <c r="D582" s="9">
+        <v>16</v>
+      </c>
+      <c r="E582" t="s">
+        <v>2</v>
+      </c>
+      <c r="F582" s="8">
+        <v>2168.1</v>
+      </c>
     </row>
     <row r="583" spans="1:6">
-      <c r="D583" s="2"/>
+      <c r="A583" s="1">
+        <v>42279</v>
+      </c>
+      <c r="B583" s="5">
+        <v>0.81527777777777777</v>
+      </c>
+      <c r="D583" s="9">
+        <v>13</v>
+      </c>
+      <c r="E583" t="s">
+        <v>3</v>
+      </c>
+      <c r="F583" s="8">
+        <v>1433.2</v>
+      </c>
     </row>
     <row r="584" spans="1:6">
-      <c r="D584" s="2"/>
+      <c r="A584" s="1">
+        <v>42279</v>
+      </c>
+      <c r="B584" s="5">
+        <v>0.81527777777777777</v>
+      </c>
+      <c r="D584" s="9">
+        <v>14</v>
+      </c>
+      <c r="E584" t="s">
+        <v>4</v>
+      </c>
+      <c r="F584" s="8">
+        <v>1840.5</v>
+      </c>
     </row>
     <row r="585" spans="1:6">
-      <c r="D585" s="2"/>
+      <c r="A585" s="1">
+        <v>42279</v>
+      </c>
+      <c r="B585" s="5">
+        <v>0.81527777777777777</v>
+      </c>
+      <c r="D585" s="9">
+        <v>11</v>
+      </c>
+      <c r="E585" t="s">
+        <v>6</v>
+      </c>
+      <c r="F585" s="8">
+        <v>1849.9</v>
+      </c>
     </row>
     <row r="586" spans="1:6">
-      <c r="D586" s="2"/>
+      <c r="A586" s="1">
+        <v>42279</v>
+      </c>
+      <c r="B586" s="5">
+        <v>0.81527777777777777</v>
+      </c>
+      <c r="D586" s="9">
+        <v>1</v>
+      </c>
+      <c r="E586" t="s">
+        <v>7</v>
+      </c>
+      <c r="F586" s="8">
+        <v>2011</v>
+      </c>
     </row>
     <row r="587" spans="1:6">
-      <c r="D587" s="2"/>
+      <c r="A587" s="1">
+        <v>42279</v>
+      </c>
+      <c r="B587" s="5">
+        <v>0.83194444444444438</v>
+      </c>
+      <c r="D587">
+        <v>10</v>
+      </c>
+      <c r="E587" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="588" spans="1:6">
-      <c r="D588" s="2"/>
+      <c r="A588" s="1">
+        <v>42279</v>
+      </c>
+      <c r="B588" s="5">
+        <v>0.83888888888888891</v>
+      </c>
+      <c r="D588" s="9">
+        <v>4</v>
+      </c>
+      <c r="E588" t="s">
+        <v>9</v>
+      </c>
+      <c r="F588" s="8">
+        <v>1929.6</v>
+      </c>
     </row>
     <row r="589" spans="1:6">
-      <c r="D589" s="2"/>
+      <c r="A589" s="1">
+        <v>42279</v>
+      </c>
+      <c r="B589" s="5">
+        <v>0.83888888888888891</v>
+      </c>
+      <c r="D589" s="9">
+        <v>2</v>
+      </c>
+      <c r="E589" t="s">
+        <v>11</v>
+      </c>
+      <c r="F589" s="8">
+        <v>1701.7</v>
+      </c>
     </row>
     <row r="590" spans="1:6">
-      <c r="D590" s="2"/>
+      <c r="A590" s="1">
+        <v>42279</v>
+      </c>
+      <c r="B590" s="5">
+        <v>0.83888888888888891</v>
+      </c>
+      <c r="D590" s="9">
+        <v>12</v>
+      </c>
+      <c r="E590" t="s">
+        <v>13</v>
+      </c>
+      <c r="F590" s="8">
+        <v>1659.7</v>
+      </c>
     </row>
     <row r="591" spans="1:6">
-      <c r="D591" s="2"/>
+      <c r="A591" s="1">
+        <v>42279</v>
+      </c>
+      <c r="B591" s="5">
+        <v>0.83888888888888891</v>
+      </c>
+      <c r="D591" s="9">
+        <v>8</v>
+      </c>
+      <c r="E591" t="s">
+        <v>15</v>
+      </c>
+      <c r="F591" s="8">
+        <v>2119.9</v>
+      </c>
     </row>
     <row r="592" spans="1:6">
-      <c r="D592" s="2"/>
-    </row>
-    <row r="593" spans="4:4">
-      <c r="D593" s="2"/>
+      <c r="A592" s="1">
+        <v>42279</v>
+      </c>
+      <c r="B592" s="5">
+        <v>0.83888888888888891</v>
+      </c>
+      <c r="D592" s="9">
+        <v>5</v>
+      </c>
+      <c r="E592" t="s">
+        <v>16</v>
+      </c>
+      <c r="F592" s="8">
+        <v>1661.7</v>
+      </c>
+    </row>
+    <row r="593" spans="1:6">
+      <c r="A593" s="1">
+        <v>42279</v>
+      </c>
+      <c r="B593" s="5">
+        <v>0.83888888888888891</v>
+      </c>
+      <c r="D593" s="9">
+        <v>9</v>
+      </c>
+      <c r="E593" t="s">
+        <v>17</v>
+      </c>
+      <c r="F593" s="8">
+        <v>1670.1</v>
+      </c>
+    </row>
+    <row r="594" spans="1:6">
+      <c r="A594" s="1">
+        <v>42279</v>
+      </c>
+      <c r="B594" s="5">
+        <v>0.85555555555555562</v>
+      </c>
+      <c r="D594">
+        <v>10</v>
+      </c>
+      <c r="E594" t="s">
+        <v>47</v>
+      </c>
+      <c r="F594" s="8"/>
+    </row>
+    <row r="595" spans="1:6">
+      <c r="A595" s="1">
+        <v>42279</v>
+      </c>
+      <c r="B595" s="5">
+        <v>0.87222222222222223</v>
+      </c>
+      <c r="D595" s="9">
+        <v>6</v>
+      </c>
+      <c r="E595" t="s">
+        <v>18</v>
+      </c>
+      <c r="F595" s="8">
+        <v>1569.8</v>
+      </c>
+    </row>
+    <row r="596" spans="1:6">
+      <c r="A596" s="1">
+        <v>42279</v>
+      </c>
+      <c r="B596" s="5">
+        <v>0.87222222222222223</v>
+      </c>
+      <c r="D596" s="10">
+        <v>16</v>
+      </c>
+      <c r="E596" t="s">
+        <v>19</v>
+      </c>
+      <c r="F596" s="8">
+        <v>1957.4</v>
+      </c>
+    </row>
+    <row r="597" spans="1:6">
+      <c r="A597" s="1">
+        <v>42279</v>
+      </c>
+      <c r="B597" s="5">
+        <v>0.87222222222222223</v>
+      </c>
+      <c r="D597" s="9">
+        <v>13</v>
+      </c>
+      <c r="E597" t="s">
+        <v>20</v>
+      </c>
+      <c r="F597" s="8">
+        <v>2171.9</v>
+      </c>
+    </row>
+    <row r="598" spans="1:6">
+      <c r="A598" s="1">
+        <v>42279</v>
+      </c>
+      <c r="B598" s="5">
+        <v>0.87222222222222223</v>
+      </c>
+      <c r="D598" s="9">
+        <v>14</v>
+      </c>
+      <c r="E598" t="s">
+        <v>21</v>
+      </c>
+      <c r="F598" s="8">
+        <v>1450.8</v>
+      </c>
+    </row>
+    <row r="599" spans="1:6">
+      <c r="A599" s="1">
+        <v>42279</v>
+      </c>
+      <c r="B599" s="5">
+        <v>0.87222222222222223</v>
+      </c>
+      <c r="D599" s="9">
+        <v>11</v>
+      </c>
+      <c r="E599" t="s">
+        <v>22</v>
+      </c>
+      <c r="F599" s="8">
+        <v>2202.1</v>
+      </c>
+    </row>
+    <row r="600" spans="1:6">
+      <c r="A600" s="1">
+        <v>42279</v>
+      </c>
+      <c r="B600" s="5">
+        <v>0.87222222222222223</v>
+      </c>
+      <c r="D600" s="9">
+        <v>1</v>
+      </c>
+      <c r="E600" t="s">
+        <v>23</v>
+      </c>
+      <c r="F600" s="8">
+        <v>1696.1</v>
+      </c>
+    </row>
+    <row r="601" spans="1:6">
+      <c r="A601" s="1">
+        <v>42279</v>
+      </c>
+      <c r="B601" s="5">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="D601">
+        <v>10</v>
+      </c>
+      <c r="E601" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="602" spans="1:6">
+      <c r="A602" s="1">
+        <v>42279</v>
+      </c>
+      <c r="B602" s="5">
+        <v>0.94513888888888886</v>
+      </c>
+      <c r="D602" s="9">
+        <v>4</v>
+      </c>
+      <c r="E602" t="s">
+        <v>25</v>
+      </c>
+      <c r="F602" s="8">
+        <v>2039.3</v>
+      </c>
+    </row>
+    <row r="603" spans="1:6">
+      <c r="A603" s="1">
+        <v>42279</v>
+      </c>
+      <c r="B603" s="5">
+        <v>0.94513888888888886</v>
+      </c>
+      <c r="D603" s="9">
+        <v>2</v>
+      </c>
+      <c r="E603" t="s">
+        <v>26</v>
+      </c>
+      <c r="F603" s="8">
+        <v>1936.8</v>
+      </c>
+    </row>
+    <row r="604" spans="1:6">
+      <c r="A604" s="1">
+        <v>42279</v>
+      </c>
+      <c r="B604" s="5">
+        <v>0.94513888888888886</v>
+      </c>
+      <c r="D604" s="9">
+        <v>12</v>
+      </c>
+      <c r="E604" t="s">
+        <v>27</v>
+      </c>
+      <c r="F604" s="8">
+        <v>1908.9</v>
+      </c>
+    </row>
+    <row r="605" spans="1:6">
+      <c r="A605" s="1">
+        <v>42279</v>
+      </c>
+      <c r="B605" s="5">
+        <v>0.94513888888888886</v>
+      </c>
+      <c r="D605" s="9">
+        <v>8</v>
+      </c>
+      <c r="E605" t="s">
+        <v>28</v>
+      </c>
+      <c r="F605" s="8">
+        <v>1978.4</v>
+      </c>
+    </row>
+    <row r="606" spans="1:6">
+      <c r="A606" s="1">
+        <v>42279</v>
+      </c>
+      <c r="B606" s="5">
+        <v>0.94513888888888886</v>
+      </c>
+      <c r="D606" s="9">
+        <v>5</v>
+      </c>
+      <c r="E606" t="s">
+        <v>29</v>
+      </c>
+      <c r="F606" s="8">
+        <v>2118.1999999999998</v>
+      </c>
+    </row>
+    <row r="607" spans="1:6">
+      <c r="A607" s="1">
+        <v>42279</v>
+      </c>
+      <c r="B607" s="5">
+        <v>0.94513888888888886</v>
+      </c>
+      <c r="D607" s="9">
+        <v>9</v>
+      </c>
+      <c r="E607" t="s">
+        <v>30</v>
+      </c>
+      <c r="F607" s="8">
+        <v>1589.9</v>
+      </c>
+    </row>
+    <row r="608" spans="1:6">
+      <c r="A608" s="1">
+        <v>42279</v>
+      </c>
+      <c r="B608" s="5">
+        <v>0.96111111111111114</v>
+      </c>
+      <c r="D608">
+        <v>10</v>
+      </c>
+      <c r="E608" t="s">
+        <v>46</v>
+      </c>
+      <c r="F608" s="8"/>
+    </row>
+    <row r="609" spans="1:6">
+      <c r="A609" s="1">
+        <v>42279</v>
+      </c>
+      <c r="B609" s="5">
+        <v>0.96805555555555556</v>
+      </c>
+      <c r="D609" s="9">
+        <v>6</v>
+      </c>
+      <c r="E609" t="s">
+        <v>5</v>
+      </c>
+      <c r="F609" s="8">
+        <v>1586.9</v>
+      </c>
+    </row>
+    <row r="610" spans="1:6">
+      <c r="A610" s="1">
+        <v>42279</v>
+      </c>
+      <c r="B610" s="5">
+        <v>0.96805555555555556</v>
+      </c>
+      <c r="D610" s="9">
+        <v>16</v>
+      </c>
+      <c r="E610" t="s">
+        <v>24</v>
+      </c>
+      <c r="F610" s="8">
+        <v>1900.9</v>
+      </c>
+    </row>
+    <row r="611" spans="1:6">
+      <c r="A611" s="1">
+        <v>42279</v>
+      </c>
+      <c r="B611" s="5">
+        <v>0.96805555555555556</v>
+      </c>
+      <c r="D611" s="9">
+        <v>13</v>
+      </c>
+      <c r="E611" t="s">
+        <v>8</v>
+      </c>
+      <c r="F611" s="8">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="612" spans="1:6">
+      <c r="A612" s="1">
+        <v>42279</v>
+      </c>
+      <c r="B612" s="5">
+        <v>0.96805555555555556</v>
+      </c>
+      <c r="D612" s="9">
+        <v>14</v>
+      </c>
+      <c r="E612" t="s">
+        <v>10</v>
+      </c>
+      <c r="F612" s="8">
+        <v>2040.3</v>
+      </c>
+    </row>
+    <row r="613" spans="1:6">
+      <c r="A613" s="1">
+        <v>42279</v>
+      </c>
+      <c r="B613" s="5">
+        <v>0.96805555555555556</v>
+      </c>
+      <c r="D613" s="9">
+        <v>11</v>
+      </c>
+      <c r="E613" t="s">
+        <v>12</v>
+      </c>
+      <c r="F613" s="8">
+        <v>1721.1</v>
+      </c>
+    </row>
+    <row r="614" spans="1:6">
+      <c r="A614" s="1">
+        <v>42279</v>
+      </c>
+      <c r="B614" s="5">
+        <v>0.96805555555555556</v>
+      </c>
+      <c r="D614" s="9">
+        <v>1</v>
+      </c>
+      <c r="E614" t="s">
+        <v>14</v>
+      </c>
+      <c r="F614" s="8">
+        <v>1996.2</v>
+      </c>
+    </row>
+    <row r="615" spans="1:6">
+      <c r="A615" s="1">
+        <v>42279</v>
+      </c>
+      <c r="B615" s="5">
+        <v>0.98472222222222217</v>
+      </c>
+      <c r="D615">
+        <v>10</v>
+      </c>
+      <c r="E615" t="s">
+        <v>46</v>
+      </c>
+      <c r="F615" s="8"/>
+    </row>
+    <row r="616" spans="1:6">
+      <c r="A616" s="1">
+        <v>42282</v>
+      </c>
+      <c r="B616" s="5"/>
+      <c r="D616" s="5"/>
+      <c r="E616" t="s">
+        <v>1</v>
+      </c>
+      <c r="F616" s="8">
+        <v>1963.9</v>
+      </c>
+    </row>
+    <row r="617" spans="1:6">
+      <c r="A617" s="1">
+        <v>42282</v>
+      </c>
+      <c r="B617" s="5"/>
+      <c r="D617" s="5"/>
+      <c r="E617" t="s">
+        <v>2</v>
+      </c>
+      <c r="F617" s="8">
+        <v>2176.5</v>
+      </c>
+    </row>
+    <row r="618" spans="1:6">
+      <c r="A618" s="1">
+        <v>42282</v>
+      </c>
+      <c r="B618" s="5"/>
+      <c r="D618" s="5"/>
+      <c r="E618" t="s">
+        <v>3</v>
+      </c>
+      <c r="F618" s="8">
+        <v>1436.3</v>
+      </c>
+    </row>
+    <row r="619" spans="1:6">
+      <c r="A619" s="1">
+        <v>42282</v>
+      </c>
+      <c r="B619" s="5"/>
+      <c r="D619" s="5"/>
+      <c r="E619" t="s">
+        <v>4</v>
+      </c>
+      <c r="F619" s="8">
+        <v>1846.3</v>
+      </c>
+    </row>
+    <row r="620" spans="1:6">
+      <c r="A620" s="1">
+        <v>42282</v>
+      </c>
+      <c r="B620" s="5"/>
+      <c r="D620" s="5"/>
+      <c r="E620" t="s">
+        <v>6</v>
+      </c>
+      <c r="F620" s="8">
+        <v>1855.1</v>
+      </c>
+    </row>
+    <row r="621" spans="1:6">
+      <c r="A621" s="1">
+        <v>42282</v>
+      </c>
+      <c r="B621" s="5"/>
+      <c r="D621" s="5"/>
+      <c r="E621" t="s">
+        <v>7</v>
+      </c>
+      <c r="F621" s="8">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="622" spans="1:6">
+      <c r="A622" s="1">
+        <v>42282</v>
+      </c>
+      <c r="B622" s="5"/>
+      <c r="D622" s="5"/>
+      <c r="E622" t="s">
+        <v>9</v>
+      </c>
+      <c r="F622" s="8">
+        <v>1915.6</v>
+      </c>
+    </row>
+    <row r="623" spans="1:6">
+      <c r="A623" s="1">
+        <v>42282</v>
+      </c>
+      <c r="B623" s="5"/>
+      <c r="D623" s="5"/>
+      <c r="E623" t="s">
+        <v>11</v>
+      </c>
+      <c r="F623" s="8">
+        <v>1700.3</v>
+      </c>
+    </row>
+    <row r="624" spans="1:6">
+      <c r="A624" s="1">
+        <v>42282</v>
+      </c>
+      <c r="B624" s="5"/>
+      <c r="D624" s="5"/>
+      <c r="E624" t="s">
+        <v>13</v>
+      </c>
+      <c r="F624" s="8">
+        <v>1653.4</v>
+      </c>
+    </row>
+    <row r="625" spans="1:6">
+      <c r="A625" s="1">
+        <v>42282</v>
+      </c>
+      <c r="B625" s="5"/>
+      <c r="D625" s="5"/>
+      <c r="E625" t="s">
+        <v>15</v>
+      </c>
+      <c r="F625" s="8">
+        <v>2114.4</v>
+      </c>
+    </row>
+    <row r="626" spans="1:6">
+      <c r="A626" s="1">
+        <v>42282</v>
+      </c>
+      <c r="B626" s="5"/>
+      <c r="D626" s="5"/>
+      <c r="E626" t="s">
+        <v>16</v>
+      </c>
+      <c r="F626" s="8">
+        <v>1660.5</v>
+      </c>
+    </row>
+    <row r="627" spans="1:6">
+      <c r="A627" s="1">
+        <v>42282</v>
+      </c>
+      <c r="B627" s="5"/>
+      <c r="D627" s="5"/>
+      <c r="E627" t="s">
+        <v>17</v>
+      </c>
+      <c r="F627" s="8">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="628" spans="1:6">
+      <c r="A628" s="1">
+        <v>42282</v>
+      </c>
+      <c r="B628" s="5"/>
+      <c r="D628" s="5"/>
+      <c r="E628" t="s">
+        <v>18</v>
+      </c>
+      <c r="F628" s="8">
+        <v>1561.4</v>
+      </c>
+    </row>
+    <row r="629" spans="1:6">
+      <c r="A629" s="1">
+        <v>42282</v>
+      </c>
+      <c r="B629" s="5"/>
+      <c r="D629" s="5"/>
+      <c r="E629" t="s">
+        <v>19</v>
+      </c>
+      <c r="F629" s="8">
+        <v>1951.2</v>
+      </c>
+    </row>
+    <row r="630" spans="1:6">
+      <c r="A630" s="1">
+        <v>42282</v>
+      </c>
+      <c r="B630" s="5"/>
+      <c r="D630" s="5"/>
+      <c r="E630" t="s">
+        <v>20</v>
+      </c>
+      <c r="F630" s="8">
+        <v>2165.1999999999998</v>
+      </c>
+    </row>
+    <row r="631" spans="1:6">
+      <c r="A631" s="1">
+        <v>42282</v>
+      </c>
+      <c r="B631" s="5"/>
+      <c r="D631" s="5"/>
+      <c r="E631" t="s">
+        <v>21</v>
+      </c>
+      <c r="F631" s="8">
+        <v>1442.7</v>
+      </c>
+    </row>
+    <row r="632" spans="1:6">
+      <c r="A632" s="1">
+        <v>42282</v>
+      </c>
+      <c r="B632" s="5"/>
+      <c r="D632" s="5"/>
+      <c r="E632" t="s">
+        <v>22</v>
+      </c>
+      <c r="F632" s="8">
+        <v>2195.5</v>
+      </c>
+    </row>
+    <row r="633" spans="1:6">
+      <c r="A633" s="1">
+        <v>42282</v>
+      </c>
+      <c r="B633" s="5"/>
+      <c r="D633" s="5"/>
+      <c r="E633" t="s">
+        <v>23</v>
+      </c>
+      <c r="F633" s="8">
+        <v>1684.2</v>
+      </c>
+    </row>
+    <row r="634" spans="1:6">
+      <c r="A634" s="1">
+        <v>42282</v>
+      </c>
+      <c r="B634" s="5"/>
+      <c r="D634" s="5"/>
+      <c r="E634" t="s">
+        <v>25</v>
+      </c>
+      <c r="F634" s="8">
+        <v>2036.1</v>
+      </c>
+    </row>
+    <row r="635" spans="1:6">
+      <c r="A635" s="1">
+        <v>42282</v>
+      </c>
+      <c r="B635" s="5"/>
+      <c r="D635" s="5"/>
+      <c r="E635" t="s">
+        <v>26</v>
+      </c>
+      <c r="F635" s="8">
+        <v>1932.8</v>
+      </c>
+    </row>
+    <row r="636" spans="1:6">
+      <c r="A636" s="1">
+        <v>42282</v>
+      </c>
+      <c r="B636" s="5"/>
+      <c r="D636" s="5"/>
+      <c r="E636" t="s">
+        <v>27</v>
+      </c>
+      <c r="F636" s="8">
+        <v>1905.1</v>
+      </c>
+    </row>
+    <row r="637" spans="1:6">
+      <c r="A637" s="1">
+        <v>42282</v>
+      </c>
+      <c r="B637" s="5"/>
+      <c r="D637" s="5"/>
+      <c r="E637" t="s">
+        <v>28</v>
+      </c>
+      <c r="F637" s="8">
+        <v>1975.5</v>
+      </c>
+    </row>
+    <row r="638" spans="1:6">
+      <c r="A638" s="1">
+        <v>42282</v>
+      </c>
+      <c r="B638" s="5"/>
+      <c r="D638" s="5"/>
+      <c r="E638" t="s">
+        <v>29</v>
+      </c>
+      <c r="F638" s="8">
+        <v>2112.9</v>
+      </c>
+    </row>
+    <row r="639" spans="1:6">
+      <c r="A639" s="1">
+        <v>42282</v>
+      </c>
+      <c r="B639" s="5"/>
+      <c r="D639" s="5"/>
+      <c r="E639" t="s">
+        <v>30</v>
+      </c>
+      <c r="F639" s="8">
+        <v>1584.5</v>
+      </c>
+    </row>
+    <row r="640" spans="1:6">
+      <c r="A640" s="1">
+        <v>42282</v>
+      </c>
+      <c r="B640" s="5"/>
+      <c r="D640" s="5"/>
+      <c r="E640" t="s">
+        <v>5</v>
+      </c>
+      <c r="F640" s="8">
+        <v>1588.3</v>
+      </c>
+    </row>
+    <row r="641" spans="1:6">
+      <c r="A641" s="1">
+        <v>42282</v>
+      </c>
+      <c r="B641" s="5"/>
+      <c r="D641" s="5"/>
+      <c r="E641" t="s">
+        <v>24</v>
+      </c>
+      <c r="F641" s="8">
+        <v>1899.3</v>
+      </c>
+    </row>
+    <row r="642" spans="1:6">
+      <c r="A642" s="1">
+        <v>42282</v>
+      </c>
+      <c r="B642" s="5"/>
+      <c r="D642" s="5"/>
+      <c r="E642" t="s">
+        <v>8</v>
+      </c>
+      <c r="F642" s="8">
+        <v>1279.0999999999999</v>
+      </c>
+    </row>
+    <row r="643" spans="1:6">
+      <c r="A643" s="1">
+        <v>42282</v>
+      </c>
+      <c r="B643" s="5"/>
+      <c r="D643" s="5"/>
+      <c r="E643" t="s">
+        <v>10</v>
+      </c>
+      <c r="F643" s="8">
+        <v>2037.7</v>
+      </c>
+    </row>
+    <row r="644" spans="1:6">
+      <c r="A644" s="1">
+        <v>42282</v>
+      </c>
+      <c r="B644" s="5"/>
+      <c r="D644" s="5"/>
+      <c r="E644" t="s">
+        <v>12</v>
+      </c>
+      <c r="F644" s="8">
+        <v>1719.6</v>
+      </c>
+    </row>
+    <row r="645" spans="1:6">
+      <c r="A645" s="1">
+        <v>42282</v>
+      </c>
+      <c r="B645" s="5"/>
+      <c r="D645" s="5"/>
+      <c r="E645" t="s">
+        <v>14</v>
+      </c>
+      <c r="F645" s="8">
+        <v>1997.8</v>
+      </c>
+    </row>
+    <row r="646" spans="1:6">
+      <c r="B646" s="5"/>
+      <c r="F646" s="8"/>
+    </row>
+    <row r="647" spans="1:6">
+      <c r="D647" s="2"/>
+    </row>
+    <row r="648" spans="1:6">
+      <c r="D648" s="2"/>
+    </row>
+    <row r="649" spans="1:6">
+      <c r="D649" s="2"/>
+    </row>
+    <row r="650" spans="1:6">
+      <c r="D650" s="2"/>
+    </row>
+    <row r="651" spans="1:6">
+      <c r="D651" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A3:G448">

--- a/data/CoreData.xlsx
+++ b/data/CoreData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="29320" windowHeight="25340" activeTab="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="64">
   <si>
     <t>Treatment</t>
   </si>
@@ -274,7 +274,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -282,8 +282,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="205">
+  <cellStyleXfs count="211">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -489,8 +498,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -506,8 +521,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="205">
+  <cellStyles count="211">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -610,6 +626,9 @@
     <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -712,6 +731,9 @@
     <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1014,8 +1036,8 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1494,11 +1516,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G651"/>
+  <dimension ref="A1:G843"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A630" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E648" sqref="E648"/>
+      <pane ySplit="2" topLeftCell="A597" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E597" sqref="E597"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -12013,23 +12035,2676 @@
       </c>
     </row>
     <row r="646" spans="1:6">
-      <c r="B646" s="5"/>
+      <c r="A646" s="1">
+        <v>42283</v>
+      </c>
+      <c r="B646" s="5">
+        <v>0.74722222222222223</v>
+      </c>
+      <c r="D646">
+        <v>10</v>
+      </c>
+      <c r="E646" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="F646" s="8"/>
     </row>
     <row r="647" spans="1:6">
-      <c r="D647" s="2"/>
+      <c r="A647" s="1">
+        <v>42283</v>
+      </c>
+      <c r="B647" s="5">
+        <v>0.74791666666666667</v>
+      </c>
+      <c r="D647" s="9">
+        <v>6</v>
+      </c>
+      <c r="E647" t="s">
+        <v>1</v>
+      </c>
+      <c r="F647" s="8">
+        <v>1959.7</v>
+      </c>
     </row>
     <row r="648" spans="1:6">
-      <c r="D648" s="2"/>
+      <c r="A648" s="1">
+        <v>42283</v>
+      </c>
+      <c r="B648" s="5">
+        <v>0.74791666666666667</v>
+      </c>
+      <c r="D648" s="9">
+        <v>16</v>
+      </c>
+      <c r="E648" t="s">
+        <v>2</v>
+      </c>
+      <c r="F648" s="8">
+        <v>2173</v>
+      </c>
     </row>
     <row r="649" spans="1:6">
-      <c r="D649" s="2"/>
+      <c r="A649" s="1">
+        <v>42283</v>
+      </c>
+      <c r="B649" s="5">
+        <v>0.74791666666666667</v>
+      </c>
+      <c r="D649" s="9">
+        <v>13</v>
+      </c>
+      <c r="E649" t="s">
+        <v>3</v>
+      </c>
+      <c r="F649" s="8">
+        <v>1431.6</v>
+      </c>
     </row>
     <row r="650" spans="1:6">
-      <c r="D650" s="2"/>
+      <c r="A650" s="1">
+        <v>42283</v>
+      </c>
+      <c r="B650" s="5">
+        <v>0.74791666666666667</v>
+      </c>
+      <c r="D650" s="9">
+        <v>14</v>
+      </c>
+      <c r="E650" t="s">
+        <v>4</v>
+      </c>
+      <c r="F650" s="8">
+        <v>1842.8</v>
+      </c>
     </row>
     <row r="651" spans="1:6">
-      <c r="D651" s="2"/>
+      <c r="A651" s="1">
+        <v>42283</v>
+      </c>
+      <c r="B651" s="5">
+        <v>0.74791666666666667</v>
+      </c>
+      <c r="D651" s="9">
+        <v>11</v>
+      </c>
+      <c r="E651" t="s">
+        <v>6</v>
+      </c>
+      <c r="F651" s="8">
+        <v>1852.8</v>
+      </c>
+    </row>
+    <row r="652" spans="1:6">
+      <c r="A652" s="1">
+        <v>42283</v>
+      </c>
+      <c r="B652" s="5">
+        <v>0.74791666666666667</v>
+      </c>
+      <c r="D652" s="9">
+        <v>1</v>
+      </c>
+      <c r="E652" t="s">
+        <v>7</v>
+      </c>
+      <c r="F652" s="8">
+        <v>2014.4</v>
+      </c>
+    </row>
+    <row r="653" spans="1:6">
+      <c r="A653" s="1">
+        <v>42283</v>
+      </c>
+      <c r="B653" s="5">
+        <v>0.76458333333333339</v>
+      </c>
+      <c r="D653">
+        <v>10</v>
+      </c>
+      <c r="E653" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F653" s="8"/>
+    </row>
+    <row r="654" spans="1:6">
+      <c r="A654" s="1">
+        <v>42283</v>
+      </c>
+      <c r="B654" s="5">
+        <v>0.7715277777777777</v>
+      </c>
+      <c r="D654" s="9">
+        <v>4</v>
+      </c>
+      <c r="E654" t="s">
+        <v>9</v>
+      </c>
+      <c r="F654" s="8">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="655" spans="1:6">
+      <c r="A655" s="1">
+        <v>42283</v>
+      </c>
+      <c r="B655" s="5">
+        <v>0.7715277777777777</v>
+      </c>
+      <c r="D655" s="9">
+        <v>2</v>
+      </c>
+      <c r="E655" t="s">
+        <v>11</v>
+      </c>
+      <c r="F655" s="8">
+        <v>1697.2</v>
+      </c>
+    </row>
+    <row r="656" spans="1:6">
+      <c r="A656" s="1">
+        <v>42283</v>
+      </c>
+      <c r="B656" s="5">
+        <v>0.7715277777777777</v>
+      </c>
+      <c r="D656" s="9">
+        <v>12</v>
+      </c>
+      <c r="E656" t="s">
+        <v>13</v>
+      </c>
+      <c r="F656" s="8">
+        <v>1650.9</v>
+      </c>
+    </row>
+    <row r="657" spans="1:6">
+      <c r="A657" s="1">
+        <v>42283</v>
+      </c>
+      <c r="B657" s="5">
+        <v>0.7715277777777777</v>
+      </c>
+      <c r="D657" s="9">
+        <v>8</v>
+      </c>
+      <c r="E657" t="s">
+        <v>15</v>
+      </c>
+      <c r="F657" s="8">
+        <v>2111.9</v>
+      </c>
+    </row>
+    <row r="658" spans="1:6">
+      <c r="A658" s="1">
+        <v>42283</v>
+      </c>
+      <c r="B658" s="5">
+        <v>0.7715277777777777</v>
+      </c>
+      <c r="D658" s="9">
+        <v>5</v>
+      </c>
+      <c r="E658" t="s">
+        <v>16</v>
+      </c>
+      <c r="F658" s="8">
+        <v>1654.6</v>
+      </c>
+    </row>
+    <row r="659" spans="1:6">
+      <c r="A659" s="1">
+        <v>42283</v>
+      </c>
+      <c r="B659" s="5">
+        <v>0.7715277777777777</v>
+      </c>
+      <c r="D659" s="9">
+        <v>9</v>
+      </c>
+      <c r="E659" t="s">
+        <v>17</v>
+      </c>
+      <c r="F659" s="8">
+        <v>1662.8</v>
+      </c>
+    </row>
+    <row r="660" spans="1:6">
+      <c r="A660" s="1">
+        <v>42283</v>
+      </c>
+      <c r="B660" s="5">
+        <v>0.78819444444444453</v>
+      </c>
+      <c r="D660">
+        <v>10</v>
+      </c>
+      <c r="E660" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="661" spans="1:6">
+      <c r="A661" s="1">
+        <v>42283</v>
+      </c>
+      <c r="B661" s="5">
+        <v>0.81736111111111109</v>
+      </c>
+      <c r="D661" s="9">
+        <v>6</v>
+      </c>
+      <c r="E661" t="s">
+        <v>18</v>
+      </c>
+      <c r="F661" s="8">
+        <v>1558.3</v>
+      </c>
+    </row>
+    <row r="662" spans="1:6">
+      <c r="A662" s="1">
+        <v>42283</v>
+      </c>
+      <c r="B662" s="5">
+        <v>0.81736111111111109</v>
+      </c>
+      <c r="D662" s="10">
+        <v>16</v>
+      </c>
+      <c r="E662" t="s">
+        <v>19</v>
+      </c>
+      <c r="F662" s="8">
+        <v>1948.9</v>
+      </c>
+    </row>
+    <row r="663" spans="1:6">
+      <c r="A663" s="1">
+        <v>42283</v>
+      </c>
+      <c r="B663" s="5">
+        <v>0.81736111111111109</v>
+      </c>
+      <c r="D663" s="9">
+        <v>13</v>
+      </c>
+      <c r="E663" t="s">
+        <v>20</v>
+      </c>
+      <c r="F663" s="8">
+        <v>2162.6999999999998</v>
+      </c>
+    </row>
+    <row r="664" spans="1:6">
+      <c r="A664" s="1">
+        <v>42283</v>
+      </c>
+      <c r="B664" s="5">
+        <v>0.81736111111111109</v>
+      </c>
+      <c r="D664" s="9">
+        <v>14</v>
+      </c>
+      <c r="E664" t="s">
+        <v>21</v>
+      </c>
+      <c r="F664" s="8">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="665" spans="1:6">
+      <c r="A665" s="1">
+        <v>42283</v>
+      </c>
+      <c r="B665" s="5">
+        <v>0.81736111111111109</v>
+      </c>
+      <c r="D665" s="9">
+        <v>11</v>
+      </c>
+      <c r="E665" t="s">
+        <v>22</v>
+      </c>
+      <c r="F665" s="8">
+        <v>2192.6999999999998</v>
+      </c>
+    </row>
+    <row r="666" spans="1:6">
+      <c r="A666" s="1">
+        <v>42283</v>
+      </c>
+      <c r="B666" s="5">
+        <v>0.81736111111111109</v>
+      </c>
+      <c r="D666" s="9">
+        <v>1</v>
+      </c>
+      <c r="E666" t="s">
+        <v>23</v>
+      </c>
+      <c r="F666" s="8">
+        <v>1680.8</v>
+      </c>
+    </row>
+    <row r="667" spans="1:6">
+      <c r="A667" s="1">
+        <v>42283</v>
+      </c>
+      <c r="B667" s="5">
+        <v>0.8340277777777777</v>
+      </c>
+      <c r="D667">
+        <v>10</v>
+      </c>
+      <c r="E667" t="s">
+        <v>46</v>
+      </c>
+      <c r="F667" s="8"/>
+    </row>
+    <row r="668" spans="1:6">
+      <c r="A668" s="1">
+        <v>42283</v>
+      </c>
+      <c r="B668" s="5">
+        <v>0.93472222222222223</v>
+      </c>
+      <c r="D668" s="9">
+        <v>4</v>
+      </c>
+      <c r="E668" t="s">
+        <v>25</v>
+      </c>
+      <c r="F668" s="8">
+        <v>2034.6</v>
+      </c>
+    </row>
+    <row r="669" spans="1:6">
+      <c r="A669" s="1">
+        <v>42283</v>
+      </c>
+      <c r="B669" s="5">
+        <v>0.93472222222222223</v>
+      </c>
+      <c r="D669" s="9">
+        <v>2</v>
+      </c>
+      <c r="E669" t="s">
+        <v>26</v>
+      </c>
+      <c r="F669" s="8">
+        <v>1930.9</v>
+      </c>
+    </row>
+    <row r="670" spans="1:6">
+      <c r="A670" s="1">
+        <v>42283</v>
+      </c>
+      <c r="B670" s="5">
+        <v>0.93472222222222223</v>
+      </c>
+      <c r="D670" s="9">
+        <v>12</v>
+      </c>
+      <c r="E670" t="s">
+        <v>27</v>
+      </c>
+      <c r="F670" s="8">
+        <v>1903.1</v>
+      </c>
+    </row>
+    <row r="671" spans="1:6">
+      <c r="A671" s="1">
+        <v>42283</v>
+      </c>
+      <c r="B671" s="5">
+        <v>0.93472222222222223</v>
+      </c>
+      <c r="D671" s="9">
+        <v>8</v>
+      </c>
+      <c r="E671" t="s">
+        <v>28</v>
+      </c>
+      <c r="F671" s="8">
+        <v>1973.8</v>
+      </c>
+    </row>
+    <row r="672" spans="1:6">
+      <c r="A672" s="1">
+        <v>42283</v>
+      </c>
+      <c r="B672" s="5">
+        <v>0.93472222222222223</v>
+      </c>
+      <c r="D672" s="9">
+        <v>5</v>
+      </c>
+      <c r="E672" t="s">
+        <v>29</v>
+      </c>
+      <c r="F672" s="8">
+        <v>2113.5</v>
+      </c>
+    </row>
+    <row r="673" spans="1:6">
+      <c r="A673" s="1">
+        <v>42283</v>
+      </c>
+      <c r="B673" s="5">
+        <v>0.93472222222222223</v>
+      </c>
+      <c r="D673" s="9">
+        <v>9</v>
+      </c>
+      <c r="E673" t="s">
+        <v>30</v>
+      </c>
+      <c r="F673" s="8">
+        <v>1581.7</v>
+      </c>
+    </row>
+    <row r="674" spans="1:6">
+      <c r="A674" s="1">
+        <v>42283</v>
+      </c>
+      <c r="B674" s="5">
+        <v>0.95138888888888884</v>
+      </c>
+      <c r="D674">
+        <v>10</v>
+      </c>
+      <c r="E674" t="s">
+        <v>46</v>
+      </c>
+      <c r="F674" s="8"/>
+    </row>
+    <row r="675" spans="1:6">
+      <c r="A675" s="1">
+        <v>42283</v>
+      </c>
+      <c r="B675" s="5">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D675" s="9">
+        <v>6</v>
+      </c>
+      <c r="E675" t="s">
+        <v>5</v>
+      </c>
+      <c r="F675" s="8">
+        <v>1588.5</v>
+      </c>
+    </row>
+    <row r="676" spans="1:6">
+      <c r="A676" s="1">
+        <v>42283</v>
+      </c>
+      <c r="B676" s="5">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D676" s="9">
+        <v>16</v>
+      </c>
+      <c r="E676" t="s">
+        <v>24</v>
+      </c>
+      <c r="F676" s="8">
+        <v>1899.4</v>
+      </c>
+    </row>
+    <row r="677" spans="1:6">
+      <c r="A677" s="1">
+        <v>42283</v>
+      </c>
+      <c r="B677" s="5">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D677" s="9">
+        <v>13</v>
+      </c>
+      <c r="E677" t="s">
+        <v>8</v>
+      </c>
+      <c r="F677" s="8">
+        <v>1279.7</v>
+      </c>
+    </row>
+    <row r="678" spans="1:6">
+      <c r="A678" s="1">
+        <v>42283</v>
+      </c>
+      <c r="B678" s="5">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D678" s="9">
+        <v>14</v>
+      </c>
+      <c r="E678" t="s">
+        <v>10</v>
+      </c>
+      <c r="F678" s="8">
+        <v>2037.4</v>
+      </c>
+    </row>
+    <row r="679" spans="1:6">
+      <c r="A679" s="1">
+        <v>42283</v>
+      </c>
+      <c r="B679" s="5">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D679" s="9">
+        <v>11</v>
+      </c>
+      <c r="E679" t="s">
+        <v>12</v>
+      </c>
+      <c r="F679" s="8">
+        <v>1720.3</v>
+      </c>
+    </row>
+    <row r="680" spans="1:6">
+      <c r="A680" s="1">
+        <v>42283</v>
+      </c>
+      <c r="B680" s="5">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D680" s="9">
+        <v>1</v>
+      </c>
+      <c r="E680" t="s">
+        <v>14</v>
+      </c>
+      <c r="F680" s="8">
+        <v>1999.3</v>
+      </c>
+    </row>
+    <row r="681" spans="1:6">
+      <c r="A681" s="1">
+        <v>42283</v>
+      </c>
+      <c r="B681" s="5">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="D681">
+        <v>10</v>
+      </c>
+      <c r="E681" t="s">
+        <v>46</v>
+      </c>
+      <c r="F681" s="8"/>
+    </row>
+    <row r="682" spans="1:6">
+      <c r="A682" s="1">
+        <v>42289</v>
+      </c>
+      <c r="B682" s="5"/>
+      <c r="D682" s="5"/>
+      <c r="E682" t="s">
+        <v>1</v>
+      </c>
+      <c r="F682" s="8">
+        <v>1956.9</v>
+      </c>
+    </row>
+    <row r="683" spans="1:6">
+      <c r="A683" s="1">
+        <v>42289</v>
+      </c>
+      <c r="B683" s="5"/>
+      <c r="D683" s="5"/>
+      <c r="E683" t="s">
+        <v>2</v>
+      </c>
+      <c r="F683" s="8">
+        <v>2170.3000000000002</v>
+      </c>
+    </row>
+    <row r="684" spans="1:6">
+      <c r="A684" s="1">
+        <v>42289</v>
+      </c>
+      <c r="B684" s="5"/>
+      <c r="D684" s="5"/>
+      <c r="E684" t="s">
+        <v>3</v>
+      </c>
+      <c r="F684" s="8">
+        <v>1432.9</v>
+      </c>
+    </row>
+    <row r="685" spans="1:6">
+      <c r="A685" s="1">
+        <v>42289</v>
+      </c>
+      <c r="B685" s="5"/>
+      <c r="D685" s="5"/>
+      <c r="E685" t="s">
+        <v>4</v>
+      </c>
+      <c r="F685" s="8">
+        <v>1841.5</v>
+      </c>
+    </row>
+    <row r="686" spans="1:6">
+      <c r="A686" s="1">
+        <v>42289</v>
+      </c>
+      <c r="B686" s="5"/>
+      <c r="D686" s="5"/>
+      <c r="E686" t="s">
+        <v>6</v>
+      </c>
+      <c r="F686" s="8">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="687" spans="1:6">
+      <c r="A687" s="1">
+        <v>42289</v>
+      </c>
+      <c r="B687" s="5"/>
+      <c r="D687" s="5"/>
+      <c r="E687" t="s">
+        <v>7</v>
+      </c>
+      <c r="F687" s="8">
+        <v>2011.9</v>
+      </c>
+    </row>
+    <row r="688" spans="1:6">
+      <c r="A688" s="1">
+        <v>42289</v>
+      </c>
+      <c r="B688" s="5"/>
+      <c r="D688" s="5"/>
+      <c r="E688" t="s">
+        <v>9</v>
+      </c>
+      <c r="F688" s="8">
+        <v>1918.2</v>
+      </c>
+    </row>
+    <row r="689" spans="1:6">
+      <c r="A689" s="1">
+        <v>42289</v>
+      </c>
+      <c r="B689" s="5"/>
+      <c r="D689" s="5"/>
+      <c r="E689" t="s">
+        <v>11</v>
+      </c>
+      <c r="F689" s="8">
+        <v>1705.7</v>
+      </c>
+    </row>
+    <row r="690" spans="1:6">
+      <c r="A690" s="1">
+        <v>42289</v>
+      </c>
+      <c r="B690" s="5"/>
+      <c r="D690" s="5"/>
+      <c r="E690" t="s">
+        <v>13</v>
+      </c>
+      <c r="F690" s="8">
+        <v>1639.7</v>
+      </c>
+    </row>
+    <row r="691" spans="1:6">
+      <c r="A691" s="1">
+        <v>42289</v>
+      </c>
+      <c r="B691" s="5"/>
+      <c r="D691" s="5"/>
+      <c r="E691" t="s">
+        <v>15</v>
+      </c>
+      <c r="F691" s="8">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="692" spans="1:6">
+      <c r="A692" s="1">
+        <v>42289</v>
+      </c>
+      <c r="B692" s="5"/>
+      <c r="D692" s="5"/>
+      <c r="E692" t="s">
+        <v>16</v>
+      </c>
+      <c r="F692" s="8">
+        <v>1669.7</v>
+      </c>
+    </row>
+    <row r="693" spans="1:6">
+      <c r="A693" s="1">
+        <v>42289</v>
+      </c>
+      <c r="B693" s="5"/>
+      <c r="D693" s="5"/>
+      <c r="E693" t="s">
+        <v>17</v>
+      </c>
+      <c r="F693" s="8">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="694" spans="1:6">
+      <c r="A694" s="1">
+        <v>42289</v>
+      </c>
+      <c r="B694" s="5"/>
+      <c r="D694" s="5"/>
+      <c r="E694" t="s">
+        <v>18</v>
+      </c>
+      <c r="F694" s="8">
+        <v>1554.3</v>
+      </c>
+    </row>
+    <row r="695" spans="1:6">
+      <c r="A695" s="1">
+        <v>42289</v>
+      </c>
+      <c r="B695" s="5"/>
+      <c r="D695" s="5"/>
+      <c r="E695" t="s">
+        <v>19</v>
+      </c>
+      <c r="F695" s="8">
+        <v>1936.5</v>
+      </c>
+    </row>
+    <row r="696" spans="1:6">
+      <c r="A696" s="1">
+        <v>42289</v>
+      </c>
+      <c r="B696" s="5"/>
+      <c r="D696" s="5"/>
+      <c r="E696" t="s">
+        <v>20</v>
+      </c>
+      <c r="F696" s="8">
+        <v>2155.1</v>
+      </c>
+    </row>
+    <row r="697" spans="1:6">
+      <c r="A697" s="1">
+        <v>42289</v>
+      </c>
+      <c r="B697" s="5"/>
+      <c r="D697" s="5"/>
+      <c r="E697" t="s">
+        <v>21</v>
+      </c>
+      <c r="F697" s="8">
+        <v>1439.3</v>
+      </c>
+    </row>
+    <row r="698" spans="1:6">
+      <c r="A698" s="1">
+        <v>42289</v>
+      </c>
+      <c r="B698" s="5"/>
+      <c r="D698" s="5"/>
+      <c r="E698" t="s">
+        <v>22</v>
+      </c>
+      <c r="F698" s="8">
+        <v>2187.1999999999998</v>
+      </c>
+    </row>
+    <row r="699" spans="1:6">
+      <c r="A699" s="1">
+        <v>42289</v>
+      </c>
+      <c r="B699" s="5"/>
+      <c r="D699" s="5"/>
+      <c r="E699" t="s">
+        <v>23</v>
+      </c>
+      <c r="F699" s="8">
+        <v>1679.2</v>
+      </c>
+    </row>
+    <row r="700" spans="1:6">
+      <c r="A700" s="1">
+        <v>42289</v>
+      </c>
+      <c r="B700" s="5"/>
+      <c r="D700" s="5"/>
+      <c r="E700" t="s">
+        <v>25</v>
+      </c>
+      <c r="F700" s="8">
+        <v>2028.2</v>
+      </c>
+    </row>
+    <row r="701" spans="1:6">
+      <c r="A701" s="1">
+        <v>42289</v>
+      </c>
+      <c r="B701" s="5"/>
+      <c r="D701" s="5"/>
+      <c r="E701" t="s">
+        <v>26</v>
+      </c>
+      <c r="F701" s="8">
+        <v>1925.3</v>
+      </c>
+    </row>
+    <row r="702" spans="1:6">
+      <c r="A702" s="1">
+        <v>42289</v>
+      </c>
+      <c r="B702" s="5"/>
+      <c r="D702" s="5"/>
+      <c r="E702" t="s">
+        <v>27</v>
+      </c>
+      <c r="F702" s="8">
+        <v>1896.9</v>
+      </c>
+    </row>
+    <row r="703" spans="1:6">
+      <c r="A703" s="1">
+        <v>42289</v>
+      </c>
+      <c r="B703" s="5"/>
+      <c r="D703" s="5"/>
+      <c r="E703" t="s">
+        <v>28</v>
+      </c>
+      <c r="F703" s="8">
+        <v>1969.3</v>
+      </c>
+    </row>
+    <row r="704" spans="1:6">
+      <c r="A704" s="1">
+        <v>42289</v>
+      </c>
+      <c r="B704" s="5"/>
+      <c r="D704" s="5"/>
+      <c r="E704" t="s">
+        <v>29</v>
+      </c>
+      <c r="F704" s="8">
+        <v>2108.8000000000002</v>
+      </c>
+    </row>
+    <row r="705" spans="1:6">
+      <c r="A705" s="1">
+        <v>42289</v>
+      </c>
+      <c r="B705" s="5"/>
+      <c r="D705" s="5"/>
+      <c r="E705" t="s">
+        <v>30</v>
+      </c>
+      <c r="F705" s="8">
+        <v>1573.6</v>
+      </c>
+    </row>
+    <row r="706" spans="1:6">
+      <c r="A706" s="1">
+        <v>42289</v>
+      </c>
+      <c r="B706" s="5"/>
+      <c r="D706" s="5"/>
+      <c r="E706" t="s">
+        <v>5</v>
+      </c>
+      <c r="F706" s="8">
+        <v>1587.3</v>
+      </c>
+    </row>
+    <row r="707" spans="1:6">
+      <c r="A707" s="1">
+        <v>42289</v>
+      </c>
+      <c r="B707" s="5"/>
+      <c r="D707" s="5"/>
+      <c r="E707" t="s">
+        <v>24</v>
+      </c>
+      <c r="F707" s="8">
+        <v>1899.2</v>
+      </c>
+    </row>
+    <row r="708" spans="1:6">
+      <c r="A708" s="1">
+        <v>42289</v>
+      </c>
+      <c r="B708" s="5"/>
+      <c r="D708" s="5"/>
+      <c r="E708" t="s">
+        <v>8</v>
+      </c>
+      <c r="F708" s="8">
+        <v>1279.8</v>
+      </c>
+    </row>
+    <row r="709" spans="1:6">
+      <c r="A709" s="1">
+        <v>42289</v>
+      </c>
+      <c r="B709" s="5"/>
+      <c r="D709" s="5"/>
+      <c r="E709" t="s">
+        <v>10</v>
+      </c>
+      <c r="F709" s="8">
+        <v>2036.9</v>
+      </c>
+    </row>
+    <row r="710" spans="1:6">
+      <c r="A710" s="1">
+        <v>42289</v>
+      </c>
+      <c r="B710" s="5"/>
+      <c r="D710" s="5"/>
+      <c r="E710" t="s">
+        <v>12</v>
+      </c>
+      <c r="F710" s="8">
+        <v>1718.8</v>
+      </c>
+    </row>
+    <row r="711" spans="1:6">
+      <c r="A711" s="1">
+        <v>42289</v>
+      </c>
+      <c r="B711" s="5"/>
+      <c r="D711" s="5"/>
+      <c r="E711" t="s">
+        <v>14</v>
+      </c>
+      <c r="F711" s="8">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="712" spans="1:6">
+      <c r="A712" s="1">
+        <v>42292</v>
+      </c>
+      <c r="B712" s="5"/>
+      <c r="D712">
+        <v>6</v>
+      </c>
+      <c r="E712" t="s">
+        <v>1</v>
+      </c>
+      <c r="F712" s="8">
+        <v>1956.2</v>
+      </c>
+    </row>
+    <row r="713" spans="1:6">
+      <c r="A713" s="1">
+        <v>42292</v>
+      </c>
+      <c r="B713" s="5"/>
+      <c r="D713">
+        <v>16</v>
+      </c>
+      <c r="E713" t="s">
+        <v>2</v>
+      </c>
+      <c r="F713" s="8">
+        <v>2169.4</v>
+      </c>
+    </row>
+    <row r="714" spans="1:6">
+      <c r="A714" s="1">
+        <v>42292</v>
+      </c>
+      <c r="B714" s="5"/>
+      <c r="D714">
+        <v>13</v>
+      </c>
+      <c r="E714" t="s">
+        <v>3</v>
+      </c>
+      <c r="F714" s="8">
+        <v>1430.4</v>
+      </c>
+    </row>
+    <row r="715" spans="1:6">
+      <c r="A715" s="1">
+        <v>42292</v>
+      </c>
+      <c r="B715" s="5"/>
+      <c r="D715">
+        <v>14</v>
+      </c>
+      <c r="E715" t="s">
+        <v>4</v>
+      </c>
+      <c r="F715" s="8">
+        <v>1841.5</v>
+      </c>
+    </row>
+    <row r="716" spans="1:6">
+      <c r="A716" s="1">
+        <v>42292</v>
+      </c>
+      <c r="B716" s="5"/>
+      <c r="D716">
+        <v>11</v>
+      </c>
+      <c r="E716" t="s">
+        <v>6</v>
+      </c>
+      <c r="F716" s="8">
+        <v>1849.4</v>
+      </c>
+    </row>
+    <row r="717" spans="1:6">
+      <c r="A717" s="1">
+        <v>42292</v>
+      </c>
+      <c r="B717" s="5"/>
+      <c r="D717">
+        <v>1</v>
+      </c>
+      <c r="E717" t="s">
+        <v>7</v>
+      </c>
+      <c r="F717" s="8">
+        <v>2011.7</v>
+      </c>
+    </row>
+    <row r="718" spans="1:6">
+      <c r="A718" s="1">
+        <v>42292</v>
+      </c>
+      <c r="B718" s="5"/>
+      <c r="D718">
+        <v>4</v>
+      </c>
+      <c r="E718" t="s">
+        <v>9</v>
+      </c>
+      <c r="F718" s="8">
+        <v>1913.1</v>
+      </c>
+    </row>
+    <row r="719" spans="1:6">
+      <c r="A719" s="1">
+        <v>42292</v>
+      </c>
+      <c r="B719" s="5"/>
+      <c r="D719">
+        <v>2</v>
+      </c>
+      <c r="E719" t="s">
+        <v>11</v>
+      </c>
+      <c r="F719" s="8">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="720" spans="1:6">
+      <c r="A720" s="1">
+        <v>42292</v>
+      </c>
+      <c r="B720" s="5"/>
+      <c r="D720">
+        <v>12</v>
+      </c>
+      <c r="E720" t="s">
+        <v>13</v>
+      </c>
+      <c r="F720" s="8">
+        <v>1640.2</v>
+      </c>
+    </row>
+    <row r="721" spans="1:6">
+      <c r="A721" s="1">
+        <v>42292</v>
+      </c>
+      <c r="B721" s="5"/>
+      <c r="D721">
+        <v>8</v>
+      </c>
+      <c r="E721" t="s">
+        <v>15</v>
+      </c>
+      <c r="F721" s="8">
+        <v>2113.1999999999998</v>
+      </c>
+    </row>
+    <row r="722" spans="1:6">
+      <c r="A722" s="1">
+        <v>42292</v>
+      </c>
+      <c r="B722" s="5"/>
+      <c r="D722">
+        <v>5</v>
+      </c>
+      <c r="E722" t="s">
+        <v>16</v>
+      </c>
+      <c r="F722" s="8">
+        <v>1662.2</v>
+      </c>
+    </row>
+    <row r="723" spans="1:6">
+      <c r="A723" s="1">
+        <v>42292</v>
+      </c>
+      <c r="B723" s="5"/>
+      <c r="D723">
+        <v>9</v>
+      </c>
+      <c r="E723" t="s">
+        <v>17</v>
+      </c>
+      <c r="F723" s="8">
+        <v>1648.6</v>
+      </c>
+    </row>
+    <row r="724" spans="1:6">
+      <c r="A724" s="1">
+        <v>42292</v>
+      </c>
+      <c r="B724" s="5"/>
+      <c r="D724">
+        <v>6</v>
+      </c>
+      <c r="E724" t="s">
+        <v>18</v>
+      </c>
+      <c r="F724" s="8">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="725" spans="1:6">
+      <c r="A725" s="1">
+        <v>42292</v>
+      </c>
+      <c r="B725" s="5"/>
+      <c r="D725">
+        <v>16</v>
+      </c>
+      <c r="E725" t="s">
+        <v>19</v>
+      </c>
+      <c r="F725" s="8">
+        <v>1931.5</v>
+      </c>
+    </row>
+    <row r="726" spans="1:6">
+      <c r="A726" s="1">
+        <v>42292</v>
+      </c>
+      <c r="B726" s="5"/>
+      <c r="D726">
+        <v>13</v>
+      </c>
+      <c r="E726" t="s">
+        <v>20</v>
+      </c>
+      <c r="F726" s="8">
+        <v>2151.6</v>
+      </c>
+    </row>
+    <row r="727" spans="1:6">
+      <c r="A727" s="1">
+        <v>42292</v>
+      </c>
+      <c r="B727" s="5"/>
+      <c r="D727">
+        <v>14</v>
+      </c>
+      <c r="E727" t="s">
+        <v>21</v>
+      </c>
+      <c r="F727" s="8">
+        <v>1431.9</v>
+      </c>
+    </row>
+    <row r="728" spans="1:6">
+      <c r="A728" s="1">
+        <v>42292</v>
+      </c>
+      <c r="B728" s="5"/>
+      <c r="D728">
+        <v>11</v>
+      </c>
+      <c r="E728" t="s">
+        <v>22</v>
+      </c>
+      <c r="F728" s="8">
+        <v>2183.4</v>
+      </c>
+    </row>
+    <row r="729" spans="1:6">
+      <c r="A729" s="1">
+        <v>42292</v>
+      </c>
+      <c r="B729" s="5"/>
+      <c r="D729">
+        <v>1</v>
+      </c>
+      <c r="E729" t="s">
+        <v>23</v>
+      </c>
+      <c r="F729" s="8">
+        <v>1675.1</v>
+      </c>
+    </row>
+    <row r="730" spans="1:6">
+      <c r="A730" s="1">
+        <v>42292</v>
+      </c>
+      <c r="B730" s="5"/>
+      <c r="D730">
+        <v>4</v>
+      </c>
+      <c r="E730" t="s">
+        <v>25</v>
+      </c>
+      <c r="F730" s="8">
+        <v>2026.4</v>
+      </c>
+    </row>
+    <row r="731" spans="1:6">
+      <c r="A731" s="1">
+        <v>42292</v>
+      </c>
+      <c r="B731" s="5"/>
+      <c r="D731">
+        <v>2</v>
+      </c>
+      <c r="E731" t="s">
+        <v>26</v>
+      </c>
+      <c r="F731" s="8">
+        <v>1922.8</v>
+      </c>
+    </row>
+    <row r="732" spans="1:6">
+      <c r="A732" s="1">
+        <v>42292</v>
+      </c>
+      <c r="B732" s="5"/>
+      <c r="D732">
+        <v>12</v>
+      </c>
+      <c r="E732" t="s">
+        <v>27</v>
+      </c>
+      <c r="F732" s="8">
+        <v>1894.3</v>
+      </c>
+    </row>
+    <row r="733" spans="1:6">
+      <c r="A733" s="1">
+        <v>42292</v>
+      </c>
+      <c r="B733" s="5"/>
+      <c r="D733">
+        <v>8</v>
+      </c>
+      <c r="E733" t="s">
+        <v>28</v>
+      </c>
+      <c r="F733" s="8">
+        <v>1967.2</v>
+      </c>
+    </row>
+    <row r="734" spans="1:6">
+      <c r="A734" s="1">
+        <v>42292</v>
+      </c>
+      <c r="B734" s="5"/>
+      <c r="D734">
+        <v>5</v>
+      </c>
+      <c r="E734" t="s">
+        <v>29</v>
+      </c>
+      <c r="F734" s="8">
+        <v>2103.6999999999998</v>
+      </c>
+    </row>
+    <row r="735" spans="1:6">
+      <c r="A735" s="1">
+        <v>42292</v>
+      </c>
+      <c r="B735" s="5"/>
+      <c r="D735">
+        <v>9</v>
+      </c>
+      <c r="E735" t="s">
+        <v>30</v>
+      </c>
+      <c r="F735" s="8">
+        <v>1568.8</v>
+      </c>
+    </row>
+    <row r="736" spans="1:6">
+      <c r="A736" s="1">
+        <v>42292</v>
+      </c>
+      <c r="B736" s="5"/>
+      <c r="D736">
+        <v>6</v>
+      </c>
+      <c r="E736" t="s">
+        <v>5</v>
+      </c>
+      <c r="F736" s="8">
+        <v>1583.5</v>
+      </c>
+    </row>
+    <row r="737" spans="1:6">
+      <c r="A737" s="1">
+        <v>42292</v>
+      </c>
+      <c r="B737" s="5"/>
+      <c r="D737">
+        <v>16</v>
+      </c>
+      <c r="E737" t="s">
+        <v>24</v>
+      </c>
+      <c r="F737" s="8">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="738" spans="1:6">
+      <c r="A738" s="1">
+        <v>42292</v>
+      </c>
+      <c r="B738" s="5"/>
+      <c r="D738">
+        <v>13</v>
+      </c>
+      <c r="E738" t="s">
+        <v>8</v>
+      </c>
+      <c r="F738" s="8">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="739" spans="1:6">
+      <c r="A739" s="1">
+        <v>42292</v>
+      </c>
+      <c r="B739" s="5"/>
+      <c r="D739">
+        <v>14</v>
+      </c>
+      <c r="E739" t="s">
+        <v>10</v>
+      </c>
+      <c r="F739" s="8">
+        <v>2035.3</v>
+      </c>
+    </row>
+    <row r="740" spans="1:6">
+      <c r="A740" s="1">
+        <v>42292</v>
+      </c>
+      <c r="B740" s="5"/>
+      <c r="D740">
+        <v>11</v>
+      </c>
+      <c r="E740" t="s">
+        <v>12</v>
+      </c>
+      <c r="F740" s="8">
+        <v>1718.4</v>
+      </c>
+    </row>
+    <row r="741" spans="1:6">
+      <c r="A741" s="1">
+        <v>42292</v>
+      </c>
+      <c r="B741" s="5"/>
+      <c r="D741">
+        <v>1</v>
+      </c>
+      <c r="E741" t="s">
+        <v>14</v>
+      </c>
+      <c r="F741" s="8">
+        <v>1996.4</v>
+      </c>
+    </row>
+    <row r="742" spans="1:6">
+      <c r="A742" s="1">
+        <v>42296</v>
+      </c>
+      <c r="B742" s="5"/>
+      <c r="E742" t="s">
+        <v>1</v>
+      </c>
+      <c r="F742" s="8">
+        <v>1957.1</v>
+      </c>
+    </row>
+    <row r="743" spans="1:6">
+      <c r="A743" s="1">
+        <v>42296</v>
+      </c>
+      <c r="B743" s="5"/>
+      <c r="E743" t="s">
+        <v>2</v>
+      </c>
+      <c r="F743" s="8">
+        <v>2170.9</v>
+      </c>
+    </row>
+    <row r="744" spans="1:6">
+      <c r="A744" s="1">
+        <v>42296</v>
+      </c>
+      <c r="B744" s="5"/>
+      <c r="E744" t="s">
+        <v>3</v>
+      </c>
+      <c r="F744" s="8">
+        <v>1431.9</v>
+      </c>
+    </row>
+    <row r="745" spans="1:6">
+      <c r="A745" s="1">
+        <v>42296</v>
+      </c>
+      <c r="B745" s="5"/>
+      <c r="E745" t="s">
+        <v>4</v>
+      </c>
+      <c r="F745" s="8">
+        <v>1842.9</v>
+      </c>
+    </row>
+    <row r="746" spans="1:6">
+      <c r="A746" s="1">
+        <v>42296</v>
+      </c>
+      <c r="B746" s="5"/>
+      <c r="E746" t="s">
+        <v>6</v>
+      </c>
+      <c r="F746" s="8">
+        <v>1851.6</v>
+      </c>
+    </row>
+    <row r="747" spans="1:6">
+      <c r="A747" s="1">
+        <v>42296</v>
+      </c>
+      <c r="B747" s="5"/>
+      <c r="E747" t="s">
+        <v>7</v>
+      </c>
+      <c r="F747" s="8">
+        <v>2013.2</v>
+      </c>
+    </row>
+    <row r="748" spans="1:6">
+      <c r="A748" s="1">
+        <v>42296</v>
+      </c>
+      <c r="B748" s="5"/>
+      <c r="E748" t="s">
+        <v>9</v>
+      </c>
+      <c r="F748" s="8">
+        <v>1910.1</v>
+      </c>
+    </row>
+    <row r="749" spans="1:6">
+      <c r="A749" s="1">
+        <v>42296</v>
+      </c>
+      <c r="B749" s="5"/>
+      <c r="E749" t="s">
+        <v>11</v>
+      </c>
+      <c r="F749" s="8">
+        <v>1695.3</v>
+      </c>
+    </row>
+    <row r="750" spans="1:6">
+      <c r="A750" s="1">
+        <v>42296</v>
+      </c>
+      <c r="B750" s="5"/>
+      <c r="E750" t="s">
+        <v>13</v>
+      </c>
+      <c r="F750" s="8">
+        <v>1636.1</v>
+      </c>
+    </row>
+    <row r="751" spans="1:6">
+      <c r="A751" s="1">
+        <v>42296</v>
+      </c>
+      <c r="B751" s="5"/>
+      <c r="E751" t="s">
+        <v>15</v>
+      </c>
+      <c r="F751" s="8">
+        <v>2114.3000000000002</v>
+      </c>
+    </row>
+    <row r="752" spans="1:6">
+      <c r="A752" s="1">
+        <v>42296</v>
+      </c>
+      <c r="B752" s="5"/>
+      <c r="E752" t="s">
+        <v>16</v>
+      </c>
+      <c r="F752" s="8">
+        <v>1657.5</v>
+      </c>
+    </row>
+    <row r="753" spans="1:6">
+      <c r="A753" s="1">
+        <v>42296</v>
+      </c>
+      <c r="B753" s="5"/>
+      <c r="E753" t="s">
+        <v>17</v>
+      </c>
+      <c r="F753" s="8">
+        <v>1642.6</v>
+      </c>
+    </row>
+    <row r="754" spans="1:6">
+      <c r="A754" s="1">
+        <v>42296</v>
+      </c>
+      <c r="B754" s="5"/>
+      <c r="E754" t="s">
+        <v>18</v>
+      </c>
+      <c r="F754" s="8">
+        <v>1547.3</v>
+      </c>
+    </row>
+    <row r="755" spans="1:6">
+      <c r="A755" s="1">
+        <v>42296</v>
+      </c>
+      <c r="B755" s="5"/>
+      <c r="E755" t="s">
+        <v>19</v>
+      </c>
+      <c r="F755" s="8">
+        <v>1925.7</v>
+      </c>
+    </row>
+    <row r="756" spans="1:6">
+      <c r="A756" s="1">
+        <v>42296</v>
+      </c>
+      <c r="B756" s="5"/>
+      <c r="E756" t="s">
+        <v>20</v>
+      </c>
+      <c r="F756" s="8">
+        <v>2147.3000000000002</v>
+      </c>
+    </row>
+    <row r="757" spans="1:6">
+      <c r="A757" s="1">
+        <v>42296</v>
+      </c>
+      <c r="B757" s="5"/>
+      <c r="E757" t="s">
+        <v>21</v>
+      </c>
+      <c r="F757" s="8">
+        <v>1428.9</v>
+      </c>
+    </row>
+    <row r="758" spans="1:6">
+      <c r="A758" s="1">
+        <v>42296</v>
+      </c>
+      <c r="B758" s="5"/>
+      <c r="E758" t="s">
+        <v>22</v>
+      </c>
+      <c r="F758" s="8">
+        <v>2180.5</v>
+      </c>
+    </row>
+    <row r="759" spans="1:6">
+      <c r="A759" s="1">
+        <v>42296</v>
+      </c>
+      <c r="B759" s="5"/>
+      <c r="E759" t="s">
+        <v>23</v>
+      </c>
+      <c r="F759" s="8">
+        <v>1670.4</v>
+      </c>
+    </row>
+    <row r="760" spans="1:6">
+      <c r="A760" s="1">
+        <v>42296</v>
+      </c>
+      <c r="B760" s="5"/>
+      <c r="E760" t="s">
+        <v>25</v>
+      </c>
+      <c r="F760" s="8">
+        <v>2022.8</v>
+      </c>
+    </row>
+    <row r="761" spans="1:6">
+      <c r="A761" s="1">
+        <v>42296</v>
+      </c>
+      <c r="B761" s="5"/>
+      <c r="E761" t="s">
+        <v>26</v>
+      </c>
+      <c r="F761" s="8">
+        <v>1918.4</v>
+      </c>
+    </row>
+    <row r="762" spans="1:6">
+      <c r="A762" s="1">
+        <v>42296</v>
+      </c>
+      <c r="B762" s="5"/>
+      <c r="E762" t="s">
+        <v>27</v>
+      </c>
+      <c r="F762" s="8">
+        <v>1889.8</v>
+      </c>
+    </row>
+    <row r="763" spans="1:6">
+      <c r="A763" s="1">
+        <v>42296</v>
+      </c>
+      <c r="B763" s="5"/>
+      <c r="E763" t="s">
+        <v>28</v>
+      </c>
+      <c r="F763" s="8">
+        <v>1962.2</v>
+      </c>
+    </row>
+    <row r="764" spans="1:6">
+      <c r="A764" s="1">
+        <v>42296</v>
+      </c>
+      <c r="B764" s="5"/>
+      <c r="E764" t="s">
+        <v>29</v>
+      </c>
+      <c r="F764" s="8">
+        <v>2103.1</v>
+      </c>
+    </row>
+    <row r="765" spans="1:6">
+      <c r="A765" s="1">
+        <v>42296</v>
+      </c>
+      <c r="B765" s="5"/>
+      <c r="E765" t="s">
+        <v>30</v>
+      </c>
+      <c r="F765" s="8">
+        <v>1562.3</v>
+      </c>
+    </row>
+    <row r="766" spans="1:6">
+      <c r="A766" s="1">
+        <v>42296</v>
+      </c>
+      <c r="B766" s="5"/>
+      <c r="E766" t="s">
+        <v>5</v>
+      </c>
+      <c r="F766" s="8">
+        <v>1582.2</v>
+      </c>
+    </row>
+    <row r="767" spans="1:6">
+      <c r="A767" s="1">
+        <v>42296</v>
+      </c>
+      <c r="B767" s="5"/>
+      <c r="E767" t="s">
+        <v>24</v>
+      </c>
+      <c r="F767" s="8">
+        <v>1894.9</v>
+      </c>
+    </row>
+    <row r="768" spans="1:6">
+      <c r="A768" s="1">
+        <v>42296</v>
+      </c>
+      <c r="B768" s="5"/>
+      <c r="E768" t="s">
+        <v>8</v>
+      </c>
+      <c r="F768" s="8">
+        <v>1276.9000000000001</v>
+      </c>
+    </row>
+    <row r="769" spans="1:6">
+      <c r="A769" s="1">
+        <v>42296</v>
+      </c>
+      <c r="B769" s="5"/>
+      <c r="E769" t="s">
+        <v>10</v>
+      </c>
+      <c r="F769" s="8">
+        <v>2031.9</v>
+      </c>
+    </row>
+    <row r="770" spans="1:6">
+      <c r="A770" s="1">
+        <v>42296</v>
+      </c>
+      <c r="B770" s="5"/>
+      <c r="E770" t="s">
+        <v>12</v>
+      </c>
+      <c r="F770" s="8">
+        <v>1715.3</v>
+      </c>
+    </row>
+    <row r="771" spans="1:6">
+      <c r="A771" s="1">
+        <v>42296</v>
+      </c>
+      <c r="B771" s="5"/>
+      <c r="E771" t="s">
+        <v>14</v>
+      </c>
+      <c r="F771" s="8">
+        <v>1994.6</v>
+      </c>
+    </row>
+    <row r="772" spans="1:6">
+      <c r="A772" s="1">
+        <v>42297</v>
+      </c>
+      <c r="B772" s="5"/>
+      <c r="D772">
+        <v>6</v>
+      </c>
+      <c r="E772" t="s">
+        <v>1</v>
+      </c>
+      <c r="F772" s="8">
+        <v>1961.4</v>
+      </c>
+    </row>
+    <row r="773" spans="1:6">
+      <c r="A773" s="1">
+        <v>42297</v>
+      </c>
+      <c r="B773" s="5"/>
+      <c r="D773">
+        <v>16</v>
+      </c>
+      <c r="E773" t="s">
+        <v>2</v>
+      </c>
+      <c r="F773" s="8">
+        <v>2174.6</v>
+      </c>
+    </row>
+    <row r="774" spans="1:6">
+      <c r="A774" s="1">
+        <v>42297</v>
+      </c>
+      <c r="B774" s="5"/>
+      <c r="D774">
+        <v>13</v>
+      </c>
+      <c r="E774" t="s">
+        <v>3</v>
+      </c>
+      <c r="F774" s="8">
+        <v>1428.3</v>
+      </c>
+    </row>
+    <row r="775" spans="1:6">
+      <c r="A775" s="1">
+        <v>42297</v>
+      </c>
+      <c r="B775" s="5"/>
+      <c r="D775">
+        <v>14</v>
+      </c>
+      <c r="E775" t="s">
+        <v>4</v>
+      </c>
+      <c r="F775" s="8">
+        <v>1842.7</v>
+      </c>
+    </row>
+    <row r="776" spans="1:6">
+      <c r="A776" s="1">
+        <v>42297</v>
+      </c>
+      <c r="B776" s="5"/>
+      <c r="D776">
+        <v>11</v>
+      </c>
+      <c r="E776" t="s">
+        <v>6</v>
+      </c>
+      <c r="F776" s="8">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="777" spans="1:6">
+      <c r="A777" s="1">
+        <v>42297</v>
+      </c>
+      <c r="B777" s="5"/>
+      <c r="D777">
+        <v>1</v>
+      </c>
+      <c r="E777" t="s">
+        <v>7</v>
+      </c>
+      <c r="F777" s="8">
+        <v>2013.6</v>
+      </c>
+    </row>
+    <row r="778" spans="1:6">
+      <c r="A778" s="1">
+        <v>42297</v>
+      </c>
+      <c r="B778" s="5"/>
+      <c r="D778">
+        <v>4</v>
+      </c>
+      <c r="E778" t="s">
+        <v>9</v>
+      </c>
+      <c r="F778" s="8">
+        <v>1921.6</v>
+      </c>
+    </row>
+    <row r="779" spans="1:6">
+      <c r="A779" s="1">
+        <v>42297</v>
+      </c>
+      <c r="B779" s="5"/>
+      <c r="D779">
+        <v>2</v>
+      </c>
+      <c r="E779" t="s">
+        <v>11</v>
+      </c>
+      <c r="F779" s="8">
+        <v>1703.7</v>
+      </c>
+    </row>
+    <row r="780" spans="1:6">
+      <c r="A780" s="1">
+        <v>42297</v>
+      </c>
+      <c r="B780" s="5"/>
+      <c r="D780">
+        <v>12</v>
+      </c>
+      <c r="E780" t="s">
+        <v>13</v>
+      </c>
+      <c r="F780" s="8">
+        <v>1638.5</v>
+      </c>
+    </row>
+    <row r="781" spans="1:6">
+      <c r="A781" s="1">
+        <v>42297</v>
+      </c>
+      <c r="B781" s="5"/>
+      <c r="D781">
+        <v>8</v>
+      </c>
+      <c r="E781" t="s">
+        <v>15</v>
+      </c>
+      <c r="F781" s="8">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="782" spans="1:6">
+      <c r="A782" s="1">
+        <v>42297</v>
+      </c>
+      <c r="B782" s="5"/>
+      <c r="D782">
+        <v>5</v>
+      </c>
+      <c r="E782" t="s">
+        <v>16</v>
+      </c>
+      <c r="F782" s="8">
+        <v>1675.7</v>
+      </c>
+    </row>
+    <row r="783" spans="1:6">
+      <c r="A783" s="1">
+        <v>42297</v>
+      </c>
+      <c r="B783" s="5"/>
+      <c r="D783">
+        <v>9</v>
+      </c>
+      <c r="E783" t="s">
+        <v>17</v>
+      </c>
+      <c r="F783" s="8">
+        <v>1641.6</v>
+      </c>
+    </row>
+    <row r="784" spans="1:6">
+      <c r="A784" s="1">
+        <v>42297</v>
+      </c>
+      <c r="B784" s="5"/>
+      <c r="D784">
+        <v>6</v>
+      </c>
+      <c r="E784" t="s">
+        <v>18</v>
+      </c>
+      <c r="F784" s="8">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="785" spans="1:6">
+      <c r="A785" s="1">
+        <v>42297</v>
+      </c>
+      <c r="B785" s="5"/>
+      <c r="D785">
+        <v>16</v>
+      </c>
+      <c r="E785" t="s">
+        <v>19</v>
+      </c>
+      <c r="F785" s="8">
+        <v>1924.7</v>
+      </c>
+    </row>
+    <row r="786" spans="1:6">
+      <c r="A786" s="1">
+        <v>42297</v>
+      </c>
+      <c r="B786" s="5"/>
+      <c r="D786">
+        <v>13</v>
+      </c>
+      <c r="E786" t="s">
+        <v>20</v>
+      </c>
+      <c r="F786" s="8">
+        <v>2149.6</v>
+      </c>
+    </row>
+    <row r="787" spans="1:6">
+      <c r="A787" s="1">
+        <v>42297</v>
+      </c>
+      <c r="B787" s="5"/>
+      <c r="D787">
+        <v>14</v>
+      </c>
+      <c r="E787" t="s">
+        <v>21</v>
+      </c>
+      <c r="F787" s="8">
+        <v>1442.2</v>
+      </c>
+    </row>
+    <row r="788" spans="1:6">
+      <c r="A788" s="1">
+        <v>42297</v>
+      </c>
+      <c r="B788" s="5"/>
+      <c r="D788">
+        <v>11</v>
+      </c>
+      <c r="E788" t="s">
+        <v>22</v>
+      </c>
+      <c r="F788" s="8">
+        <v>2179.6999999999998</v>
+      </c>
+    </row>
+    <row r="789" spans="1:6">
+      <c r="A789" s="1">
+        <v>42297</v>
+      </c>
+      <c r="B789" s="5"/>
+      <c r="D789">
+        <v>1</v>
+      </c>
+      <c r="E789" t="s">
+        <v>23</v>
+      </c>
+      <c r="F789" s="8">
+        <v>1672.5</v>
+      </c>
+    </row>
+    <row r="790" spans="1:6">
+      <c r="A790" s="1">
+        <v>42297</v>
+      </c>
+      <c r="B790" s="5"/>
+      <c r="D790">
+        <v>4</v>
+      </c>
+      <c r="E790" t="s">
+        <v>25</v>
+      </c>
+      <c r="F790" s="8">
+        <v>2026.1</v>
+      </c>
+    </row>
+    <row r="791" spans="1:6">
+      <c r="A791" s="1">
+        <v>42297</v>
+      </c>
+      <c r="B791" s="5"/>
+      <c r="D791">
+        <v>2</v>
+      </c>
+      <c r="E791" t="s">
+        <v>26</v>
+      </c>
+      <c r="F791" s="8">
+        <v>1917.7</v>
+      </c>
+    </row>
+    <row r="792" spans="1:6">
+      <c r="A792" s="1">
+        <v>42297</v>
+      </c>
+      <c r="B792" s="5"/>
+      <c r="D792">
+        <v>12</v>
+      </c>
+      <c r="E792" t="s">
+        <v>27</v>
+      </c>
+      <c r="F792" s="8">
+        <v>1888.9</v>
+      </c>
+    </row>
+    <row r="793" spans="1:6">
+      <c r="A793" s="1">
+        <v>42297</v>
+      </c>
+      <c r="B793" s="5"/>
+      <c r="D793">
+        <v>8</v>
+      </c>
+      <c r="E793" t="s">
+        <v>28</v>
+      </c>
+      <c r="F793" s="8">
+        <v>1961.2</v>
+      </c>
+    </row>
+    <row r="794" spans="1:6">
+      <c r="A794" s="1">
+        <v>42297</v>
+      </c>
+      <c r="B794" s="5"/>
+      <c r="D794">
+        <v>5</v>
+      </c>
+      <c r="E794" t="s">
+        <v>29</v>
+      </c>
+      <c r="F794" s="8">
+        <v>2102.5</v>
+      </c>
+    </row>
+    <row r="795" spans="1:6">
+      <c r="A795" s="1">
+        <v>42297</v>
+      </c>
+      <c r="B795" s="5"/>
+      <c r="D795">
+        <v>9</v>
+      </c>
+      <c r="E795" t="s">
+        <v>30</v>
+      </c>
+      <c r="F795" s="8">
+        <v>1561.1</v>
+      </c>
+    </row>
+    <row r="796" spans="1:6">
+      <c r="A796" s="1">
+        <v>42297</v>
+      </c>
+      <c r="B796" s="5"/>
+      <c r="D796">
+        <v>6</v>
+      </c>
+      <c r="E796" t="s">
+        <v>5</v>
+      </c>
+      <c r="F796" s="8">
+        <v>1582.4</v>
+      </c>
+    </row>
+    <row r="797" spans="1:6">
+      <c r="A797" s="1">
+        <v>42297</v>
+      </c>
+      <c r="B797" s="5"/>
+      <c r="D797">
+        <v>16</v>
+      </c>
+      <c r="E797" t="s">
+        <v>24</v>
+      </c>
+      <c r="F797" s="8">
+        <v>1899.5</v>
+      </c>
+    </row>
+    <row r="798" spans="1:6">
+      <c r="A798" s="1">
+        <v>42297</v>
+      </c>
+      <c r="B798" s="5"/>
+      <c r="D798">
+        <v>13</v>
+      </c>
+      <c r="E798" t="s">
+        <v>8</v>
+      </c>
+      <c r="F798" s="8">
+        <v>1277.5</v>
+      </c>
+    </row>
+    <row r="799" spans="1:6">
+      <c r="A799" s="1">
+        <v>42297</v>
+      </c>
+      <c r="B799" s="5"/>
+      <c r="D799">
+        <v>14</v>
+      </c>
+      <c r="E799" t="s">
+        <v>10</v>
+      </c>
+      <c r="F799" s="8">
+        <v>2033.2</v>
+      </c>
+    </row>
+    <row r="800" spans="1:6">
+      <c r="A800" s="1">
+        <v>42297</v>
+      </c>
+      <c r="B800" s="5"/>
+      <c r="D800">
+        <v>11</v>
+      </c>
+      <c r="E800" t="s">
+        <v>12</v>
+      </c>
+      <c r="F800" s="8">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="801" spans="1:6">
+      <c r="A801" s="1">
+        <v>42297</v>
+      </c>
+      <c r="B801" s="5"/>
+      <c r="D801">
+        <v>1</v>
+      </c>
+      <c r="E801" t="s">
+        <v>14</v>
+      </c>
+      <c r="F801" s="8">
+        <v>1995.6</v>
+      </c>
+    </row>
+    <row r="802" spans="1:6">
+      <c r="A802" s="1">
+        <v>42297</v>
+      </c>
+      <c r="B802" s="5"/>
+      <c r="D802">
+        <v>10</v>
+      </c>
+      <c r="E802" t="s">
+        <v>46</v>
+      </c>
+      <c r="F802" s="8"/>
+    </row>
+    <row r="803" spans="1:6">
+      <c r="A803" s="1">
+        <v>42303</v>
+      </c>
+      <c r="B803" s="5"/>
+      <c r="E803" t="s">
+        <v>1</v>
+      </c>
+      <c r="F803" s="8">
+        <v>1955.4</v>
+      </c>
+    </row>
+    <row r="804" spans="1:6">
+      <c r="A804" s="1">
+        <v>42303</v>
+      </c>
+      <c r="B804" s="5"/>
+      <c r="E804" t="s">
+        <v>2</v>
+      </c>
+      <c r="F804" s="8">
+        <v>2168.8000000000002</v>
+      </c>
+    </row>
+    <row r="805" spans="1:6">
+      <c r="A805" s="1">
+        <v>42303</v>
+      </c>
+      <c r="B805" s="5"/>
+      <c r="E805" t="s">
+        <v>3</v>
+      </c>
+      <c r="F805" s="8">
+        <v>1426.1</v>
+      </c>
+    </row>
+    <row r="806" spans="1:6">
+      <c r="A806" s="1">
+        <v>42303</v>
+      </c>
+      <c r="B806" s="5"/>
+      <c r="E806" t="s">
+        <v>4</v>
+      </c>
+      <c r="F806" s="8">
+        <v>1838.7</v>
+      </c>
+    </row>
+    <row r="807" spans="1:6">
+      <c r="A807" s="1">
+        <v>42303</v>
+      </c>
+      <c r="B807" s="5"/>
+      <c r="E807" t="s">
+        <v>6</v>
+      </c>
+      <c r="F807" s="8">
+        <v>1848.8</v>
+      </c>
+    </row>
+    <row r="808" spans="1:6">
+      <c r="A808" s="1">
+        <v>42303</v>
+      </c>
+      <c r="B808" s="5"/>
+      <c r="E808" t="s">
+        <v>7</v>
+      </c>
+      <c r="F808" s="8">
+        <v>2009.8</v>
+      </c>
+    </row>
+    <row r="809" spans="1:6">
+      <c r="A809" s="1">
+        <v>42303</v>
+      </c>
+      <c r="B809" s="5"/>
+      <c r="E809" t="s">
+        <v>9</v>
+      </c>
+      <c r="F809" s="8">
+        <v>1900.1</v>
+      </c>
+    </row>
+    <row r="810" spans="1:6">
+      <c r="A810" s="1">
+        <v>42303</v>
+      </c>
+      <c r="B810" s="5"/>
+      <c r="E810" t="s">
+        <v>11</v>
+      </c>
+      <c r="F810" s="8">
+        <v>1689.1</v>
+      </c>
+    </row>
+    <row r="811" spans="1:6">
+      <c r="A811" s="1">
+        <v>42303</v>
+      </c>
+      <c r="B811" s="5"/>
+      <c r="E811" t="s">
+        <v>13</v>
+      </c>
+      <c r="F811" s="8">
+        <v>1629.8</v>
+      </c>
+    </row>
+    <row r="812" spans="1:6">
+      <c r="A812" s="1">
+        <v>42303</v>
+      </c>
+      <c r="B812" s="5"/>
+      <c r="E812" t="s">
+        <v>15</v>
+      </c>
+      <c r="F812" s="8">
+        <v>2107.9</v>
+      </c>
+    </row>
+    <row r="813" spans="1:6">
+      <c r="A813" s="1">
+        <v>42303</v>
+      </c>
+      <c r="B813" s="5"/>
+      <c r="E813" t="s">
+        <v>16</v>
+      </c>
+      <c r="F813" s="8">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="814" spans="1:6">
+      <c r="A814" s="1">
+        <v>42303</v>
+      </c>
+      <c r="B814" s="5"/>
+      <c r="E814" t="s">
+        <v>17</v>
+      </c>
+      <c r="F814" s="8">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="815" spans="1:6">
+      <c r="A815" s="1">
+        <v>42303</v>
+      </c>
+      <c r="B815" s="5"/>
+      <c r="E815" t="s">
+        <v>18</v>
+      </c>
+      <c r="F815" s="8">
+        <v>1540.5</v>
+      </c>
+    </row>
+    <row r="816" spans="1:6">
+      <c r="A816" s="1">
+        <v>42303</v>
+      </c>
+      <c r="B816" s="5"/>
+      <c r="E816" t="s">
+        <v>19</v>
+      </c>
+      <c r="F816" s="8">
+        <v>1918.9</v>
+      </c>
+    </row>
+    <row r="817" spans="1:6">
+      <c r="A817" s="1">
+        <v>42303</v>
+      </c>
+      <c r="B817" s="5"/>
+      <c r="E817" t="s">
+        <v>20</v>
+      </c>
+      <c r="F817" s="8">
+        <v>2142.6999999999998</v>
+      </c>
+    </row>
+    <row r="818" spans="1:6">
+      <c r="A818" s="1">
+        <v>42303</v>
+      </c>
+      <c r="B818" s="5"/>
+      <c r="E818" t="s">
+        <v>21</v>
+      </c>
+      <c r="F818" s="8">
+        <v>1417.2</v>
+      </c>
+    </row>
+    <row r="819" spans="1:6">
+      <c r="A819" s="1">
+        <v>42303</v>
+      </c>
+      <c r="B819" s="5"/>
+      <c r="E819" t="s">
+        <v>22</v>
+      </c>
+      <c r="F819" s="8">
+        <v>2172.1999999999998</v>
+      </c>
+    </row>
+    <row r="820" spans="1:6">
+      <c r="A820" s="1">
+        <v>42303</v>
+      </c>
+      <c r="B820" s="5"/>
+      <c r="E820" t="s">
+        <v>23</v>
+      </c>
+      <c r="F820" s="8">
+        <v>1663.4</v>
+      </c>
+    </row>
+    <row r="821" spans="1:6">
+      <c r="A821" s="1">
+        <v>42303</v>
+      </c>
+      <c r="B821" s="5"/>
+      <c r="E821" t="s">
+        <v>25</v>
+      </c>
+      <c r="F821" s="8">
+        <v>2022.1</v>
+      </c>
+    </row>
+    <row r="822" spans="1:6">
+      <c r="A822" s="1">
+        <v>42303</v>
+      </c>
+      <c r="B822" s="5"/>
+      <c r="E822" t="s">
+        <v>26</v>
+      </c>
+      <c r="F822" s="8">
+        <v>1912.8</v>
+      </c>
+    </row>
+    <row r="823" spans="1:6">
+      <c r="A823" s="1">
+        <v>42303</v>
+      </c>
+      <c r="B823" s="5"/>
+      <c r="E823" t="s">
+        <v>27</v>
+      </c>
+      <c r="F823" s="8">
+        <v>1883.4</v>
+      </c>
+    </row>
+    <row r="824" spans="1:6">
+      <c r="A824" s="1">
+        <v>42303</v>
+      </c>
+      <c r="B824" s="5"/>
+      <c r="E824" t="s">
+        <v>28</v>
+      </c>
+      <c r="F824" s="8">
+        <v>1957.4</v>
+      </c>
+    </row>
+    <row r="825" spans="1:6">
+      <c r="A825" s="1">
+        <v>42303</v>
+      </c>
+      <c r="B825" s="5"/>
+      <c r="E825" t="s">
+        <v>29</v>
+      </c>
+      <c r="F825" s="8">
+        <v>2097.6</v>
+      </c>
+    </row>
+    <row r="826" spans="1:6">
+      <c r="A826" s="1">
+        <v>42303</v>
+      </c>
+      <c r="B826" s="5"/>
+      <c r="E826" t="s">
+        <v>30</v>
+      </c>
+      <c r="F826" s="8">
+        <v>1552.4</v>
+      </c>
+    </row>
+    <row r="827" spans="1:6">
+      <c r="A827" s="1">
+        <v>42303</v>
+      </c>
+      <c r="B827" s="5"/>
+      <c r="E827" t="s">
+        <v>5</v>
+      </c>
+      <c r="F827" s="8">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="828" spans="1:6">
+      <c r="A828" s="1">
+        <v>42303</v>
+      </c>
+      <c r="B828" s="5"/>
+      <c r="E828" t="s">
+        <v>24</v>
+      </c>
+      <c r="F828" s="8">
+        <v>1896.9</v>
+      </c>
+    </row>
+    <row r="829" spans="1:6">
+      <c r="A829" s="1">
+        <v>42303</v>
+      </c>
+      <c r="B829" s="5"/>
+      <c r="E829" t="s">
+        <v>8</v>
+      </c>
+      <c r="F829" s="8">
+        <v>1275.9000000000001</v>
+      </c>
+    </row>
+    <row r="830" spans="1:6">
+      <c r="A830" s="1">
+        <v>42303</v>
+      </c>
+      <c r="B830" s="5"/>
+      <c r="E830" t="s">
+        <v>10</v>
+      </c>
+      <c r="F830" s="8">
+        <v>2031.1</v>
+      </c>
+    </row>
+    <row r="831" spans="1:6">
+      <c r="A831" s="1">
+        <v>42303</v>
+      </c>
+      <c r="B831" s="5"/>
+      <c r="E831" t="s">
+        <v>12</v>
+      </c>
+      <c r="F831" s="8">
+        <v>1717.9</v>
+      </c>
+    </row>
+    <row r="832" spans="1:6">
+      <c r="A832" s="1">
+        <v>42303</v>
+      </c>
+      <c r="B832" s="5"/>
+      <c r="E832" t="s">
+        <v>14</v>
+      </c>
+      <c r="F832" s="8">
+        <v>1992.3</v>
+      </c>
+    </row>
+    <row r="833" spans="2:6">
+      <c r="B833" s="5"/>
+      <c r="F833" s="8"/>
+    </row>
+    <row r="834" spans="2:6">
+      <c r="B834" s="5"/>
+      <c r="F834" s="8"/>
+    </row>
+    <row r="835" spans="2:6">
+      <c r="B835" s="5"/>
+      <c r="F835" s="8"/>
+    </row>
+    <row r="836" spans="2:6">
+      <c r="B836" s="5"/>
+      <c r="F836" s="8"/>
+    </row>
+    <row r="837" spans="2:6">
+      <c r="B837" s="5"/>
+      <c r="F837" s="8"/>
+    </row>
+    <row r="838" spans="2:6">
+      <c r="B838" s="5"/>
+      <c r="C838"/>
+      <c r="E838" s="8"/>
+    </row>
+    <row r="839" spans="2:6">
+      <c r="B839" s="5"/>
+      <c r="C839"/>
+      <c r="E839" s="8"/>
+    </row>
+    <row r="840" spans="2:6">
+      <c r="B840" s="5"/>
+      <c r="C840"/>
+      <c r="E840" s="8"/>
+    </row>
+    <row r="841" spans="2:6">
+      <c r="B841" s="5"/>
+      <c r="C841"/>
+      <c r="E841" s="8"/>
+    </row>
+    <row r="842" spans="2:6">
+      <c r="B842" s="5"/>
+      <c r="C842"/>
+      <c r="E842" s="8"/>
+    </row>
+    <row r="843" spans="2:6">
+      <c r="B843" s="5"/>
+      <c r="C843"/>
+      <c r="E843" s="8"/>
     </row>
   </sheetData>
   <sortState ref="A3:G448">

--- a/data/CoreData.xlsx
+++ b/data/CoreData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24740" windowHeight="15600" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28480" windowHeight="24460" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="treatments.csv" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="71">
   <si>
     <t>Treatment</t>
   </si>
@@ -228,6 +228,12 @@
   <si>
     <t>ambient in 4C chamber</t>
   </si>
+  <si>
+    <t>***Port switch! Third run of duplicate measurements - ignore first two runs (ports 4, 2, 12, …)</t>
+  </si>
+  <si>
+    <t>***second run of duplicate measurements. First run questionable. Let's disucss.</t>
+  </si>
 </sst>
 </file>
 
@@ -307,7 +313,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="221">
+  <cellStyleXfs count="231">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -529,8 +535,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -547,8 +563,10 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="221">
+  <cellStyles count="231">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -659,6 +677,11 @@
     <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -769,6 +792,11 @@
     <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1551,11 +1579,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G856"/>
+  <dimension ref="A1:G934"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A799" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A800" sqref="A800"/>
+      <pane ySplit="2" topLeftCell="A839" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E879" sqref="E879"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -14992,43 +15020,805 @@
       </c>
     </row>
     <row r="844" spans="1:6">
-      <c r="D844" s="2"/>
+      <c r="A844" s="1">
+        <v>42304</v>
+      </c>
+      <c r="B844" s="5">
+        <v>0.72569444444444453</v>
+      </c>
+      <c r="D844">
+        <v>10</v>
+      </c>
+      <c r="E844" t="s">
+        <v>47</v>
+      </c>
+      <c r="F844" s="8"/>
     </row>
     <row r="845" spans="1:6">
-      <c r="D845" s="2"/>
+      <c r="A845" s="1">
+        <v>42304</v>
+      </c>
+      <c r="B845" s="5">
+        <v>0.7270833333333333</v>
+      </c>
+      <c r="D845">
+        <v>6</v>
+      </c>
+      <c r="E845" t="s">
+        <v>1</v>
+      </c>
+      <c r="F845" s="8">
+        <v>1958.7</v>
+      </c>
     </row>
     <row r="846" spans="1:6">
-      <c r="D846" s="2"/>
+      <c r="A846" s="1">
+        <v>42304</v>
+      </c>
+      <c r="B846" s="5">
+        <v>0.7270833333333333</v>
+      </c>
+      <c r="D846">
+        <v>16</v>
+      </c>
+      <c r="E846" t="s">
+        <v>2</v>
+      </c>
+      <c r="F846" s="8">
+        <v>2169</v>
+      </c>
     </row>
     <row r="847" spans="1:6">
-      <c r="D847" s="2"/>
+      <c r="A847" s="1">
+        <v>42304</v>
+      </c>
+      <c r="B847" s="5">
+        <v>0.7270833333333333</v>
+      </c>
+      <c r="D847">
+        <v>13</v>
+      </c>
+      <c r="E847" t="s">
+        <v>3</v>
+      </c>
+      <c r="F847" s="8">
+        <v>1423</v>
+      </c>
     </row>
     <row r="848" spans="1:6">
-      <c r="D848" s="2"/>
-    </row>
-    <row r="849" spans="4:4">
-      <c r="D849" s="2"/>
-    </row>
-    <row r="850" spans="4:4">
-      <c r="D850" s="2"/>
-    </row>
-    <row r="851" spans="4:4">
-      <c r="D851" s="2"/>
-    </row>
-    <row r="852" spans="4:4">
-      <c r="D852" s="2"/>
-    </row>
-    <row r="853" spans="4:4">
-      <c r="D853" s="2"/>
-    </row>
-    <row r="854" spans="4:4">
-      <c r="D854" s="2"/>
-    </row>
-    <row r="855" spans="4:4">
-      <c r="D855" s="2"/>
-    </row>
-    <row r="856" spans="4:4">
-      <c r="D856" s="2"/>
+      <c r="A848" s="1">
+        <v>42304</v>
+      </c>
+      <c r="B848" s="5">
+        <v>0.7270833333333333</v>
+      </c>
+      <c r="D848">
+        <v>14</v>
+      </c>
+      <c r="E848" t="s">
+        <v>4</v>
+      </c>
+      <c r="F848" s="8">
+        <v>1838.5</v>
+      </c>
+    </row>
+    <row r="849" spans="1:6">
+      <c r="A849" s="1">
+        <v>42304</v>
+      </c>
+      <c r="B849" s="5">
+        <v>0.7270833333333333</v>
+      </c>
+      <c r="D849">
+        <v>11</v>
+      </c>
+      <c r="E849" t="s">
+        <v>6</v>
+      </c>
+      <c r="F849" s="8">
+        <v>1847.4</v>
+      </c>
+    </row>
+    <row r="850" spans="1:6">
+      <c r="A850" s="1">
+        <v>42304</v>
+      </c>
+      <c r="B850" s="5">
+        <v>0.7270833333333333</v>
+      </c>
+      <c r="D850">
+        <v>1</v>
+      </c>
+      <c r="E850" t="s">
+        <v>7</v>
+      </c>
+      <c r="F850" s="8">
+        <v>2012.3</v>
+      </c>
+    </row>
+    <row r="851" spans="1:6">
+      <c r="A851" s="1">
+        <v>42304</v>
+      </c>
+      <c r="B851" s="5">
+        <v>0.74375000000000002</v>
+      </c>
+      <c r="D851">
+        <v>10</v>
+      </c>
+      <c r="E851" t="s">
+        <v>47</v>
+      </c>
+      <c r="F851" s="8"/>
+    </row>
+    <row r="852" spans="1:6">
+      <c r="A852" s="1">
+        <v>42304</v>
+      </c>
+      <c r="B852" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D852">
+        <v>4</v>
+      </c>
+      <c r="E852" t="s">
+        <v>9</v>
+      </c>
+      <c r="F852" s="8">
+        <v>1911.6</v>
+      </c>
+    </row>
+    <row r="853" spans="1:6">
+      <c r="A853" s="1">
+        <v>42304</v>
+      </c>
+      <c r="B853" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D853">
+        <v>2</v>
+      </c>
+      <c r="E853" t="s">
+        <v>11</v>
+      </c>
+      <c r="F853" s="8">
+        <v>1707.3</v>
+      </c>
+    </row>
+    <row r="854" spans="1:6">
+      <c r="A854" s="1">
+        <v>42304</v>
+      </c>
+      <c r="B854" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D854">
+        <v>12</v>
+      </c>
+      <c r="E854" t="s">
+        <v>13</v>
+      </c>
+      <c r="F854" s="8">
+        <v>1635.2</v>
+      </c>
+    </row>
+    <row r="855" spans="1:6">
+      <c r="A855" s="1">
+        <v>42304</v>
+      </c>
+      <c r="B855" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D855">
+        <v>8</v>
+      </c>
+      <c r="E855" t="s">
+        <v>15</v>
+      </c>
+      <c r="F855" s="8">
+        <v>2116.6999999999998</v>
+      </c>
+    </row>
+    <row r="856" spans="1:6">
+      <c r="A856" s="1">
+        <v>42304</v>
+      </c>
+      <c r="B856" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D856">
+        <v>5</v>
+      </c>
+      <c r="E856" t="s">
+        <v>16</v>
+      </c>
+      <c r="F856" s="8">
+        <v>1660.7</v>
+      </c>
+    </row>
+    <row r="857" spans="1:6">
+      <c r="A857" s="1">
+        <v>42304</v>
+      </c>
+      <c r="B857" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D857">
+        <v>9</v>
+      </c>
+      <c r="E857" t="s">
+        <v>17</v>
+      </c>
+      <c r="F857" s="8">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="858" spans="1:6">
+      <c r="A858" s="1">
+        <v>42304</v>
+      </c>
+      <c r="B858" s="5">
+        <v>0.76736111111111116</v>
+      </c>
+      <c r="D858">
+        <v>10</v>
+      </c>
+      <c r="E858" t="s">
+        <v>47</v>
+      </c>
+      <c r="F858" s="8"/>
+    </row>
+    <row r="859" spans="1:6">
+      <c r="A859" s="1">
+        <v>42304</v>
+      </c>
+      <c r="B859" s="5">
+        <v>0.79791666666666661</v>
+      </c>
+      <c r="D859">
+        <v>6</v>
+      </c>
+      <c r="E859" t="s">
+        <v>18</v>
+      </c>
+      <c r="F859" s="8">
+        <v>1541.5</v>
+      </c>
+    </row>
+    <row r="860" spans="1:6">
+      <c r="A860" s="1">
+        <v>42304</v>
+      </c>
+      <c r="B860" s="5">
+        <v>0.79791666666666661</v>
+      </c>
+      <c r="D860">
+        <v>16</v>
+      </c>
+      <c r="E860" t="s">
+        <v>19</v>
+      </c>
+      <c r="F860" s="8">
+        <v>1917.5</v>
+      </c>
+    </row>
+    <row r="861" spans="1:6">
+      <c r="A861" s="1">
+        <v>42304</v>
+      </c>
+      <c r="B861" s="5">
+        <v>0.79791666666666661</v>
+      </c>
+      <c r="D861">
+        <v>13</v>
+      </c>
+      <c r="E861" t="s">
+        <v>20</v>
+      </c>
+      <c r="F861" s="8">
+        <v>2142.3000000000002</v>
+      </c>
+    </row>
+    <row r="862" spans="1:6">
+      <c r="A862" s="1">
+        <v>42304</v>
+      </c>
+      <c r="B862" s="5">
+        <v>0.79791666666666661</v>
+      </c>
+      <c r="D862">
+        <v>14</v>
+      </c>
+      <c r="E862" t="s">
+        <v>21</v>
+      </c>
+      <c r="F862" s="8">
+        <v>1424.4</v>
+      </c>
+    </row>
+    <row r="863" spans="1:6">
+      <c r="A863" s="1">
+        <v>42304</v>
+      </c>
+      <c r="B863" s="5">
+        <v>0.79791666666666661</v>
+      </c>
+      <c r="D863">
+        <v>11</v>
+      </c>
+      <c r="E863" t="s">
+        <v>22</v>
+      </c>
+      <c r="F863" s="8">
+        <v>2171.9</v>
+      </c>
+    </row>
+    <row r="864" spans="1:6">
+      <c r="A864" s="1">
+        <v>42304</v>
+      </c>
+      <c r="B864" s="5">
+        <v>0.79791666666666661</v>
+      </c>
+      <c r="D864">
+        <v>1</v>
+      </c>
+      <c r="E864" t="s">
+        <v>23</v>
+      </c>
+      <c r="F864" s="8">
+        <v>1664.5</v>
+      </c>
+    </row>
+    <row r="865" spans="1:7">
+      <c r="A865" s="1">
+        <v>42304</v>
+      </c>
+      <c r="B865" s="5">
+        <v>0.81319444444444444</v>
+      </c>
+      <c r="D865">
+        <v>10</v>
+      </c>
+      <c r="E865" t="s">
+        <v>47</v>
+      </c>
+      <c r="F865" s="8"/>
+    </row>
+    <row r="866" spans="1:7">
+      <c r="A866" s="1">
+        <v>42304</v>
+      </c>
+      <c r="B866" s="12">
+        <v>0.96388888888888891</v>
+      </c>
+      <c r="D866" s="4">
+        <v>6</v>
+      </c>
+      <c r="E866" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F866" s="13">
+        <v>2124.8000000000002</v>
+      </c>
+      <c r="G866" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="867" spans="1:7">
+      <c r="A867" s="1">
+        <v>42304</v>
+      </c>
+      <c r="B867" s="12">
+        <v>0.96388888888888891</v>
+      </c>
+      <c r="D867" s="4">
+        <v>16</v>
+      </c>
+      <c r="E867" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F867" s="13">
+        <v>1911.54</v>
+      </c>
+      <c r="G867" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="868" spans="1:7">
+      <c r="A868" s="1">
+        <v>42304</v>
+      </c>
+      <c r="B868" s="12">
+        <v>0.96388888888888891</v>
+      </c>
+      <c r="D868" s="4">
+        <v>13</v>
+      </c>
+      <c r="E868" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F868" s="13">
+        <v>1882</v>
+      </c>
+      <c r="G868" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="869" spans="1:7">
+      <c r="A869" s="1">
+        <v>42304</v>
+      </c>
+      <c r="B869" s="12">
+        <v>0.96388888888888891</v>
+      </c>
+      <c r="D869" s="4">
+        <v>14</v>
+      </c>
+      <c r="E869" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F869" s="13">
+        <v>1958.9</v>
+      </c>
+      <c r="G869" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="870" spans="1:7">
+      <c r="A870" s="1">
+        <v>42304</v>
+      </c>
+      <c r="B870" s="12">
+        <v>0.96388888888888891</v>
+      </c>
+      <c r="D870" s="4">
+        <v>11</v>
+      </c>
+      <c r="E870" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F870" s="13">
+        <v>2096.3000000000002</v>
+      </c>
+      <c r="G870" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="871" spans="1:7">
+      <c r="A871" s="1">
+        <v>42304</v>
+      </c>
+      <c r="B871" s="12">
+        <v>0.96388888888888891</v>
+      </c>
+      <c r="D871" s="4">
+        <v>1</v>
+      </c>
+      <c r="E871" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F871" s="13">
+        <v>1558.8</v>
+      </c>
+      <c r="G871" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="872" spans="1:7">
+      <c r="A872" s="1">
+        <v>42304</v>
+      </c>
+      <c r="B872" s="5">
+        <v>0.98055555555555562</v>
+      </c>
+      <c r="D872">
+        <v>10</v>
+      </c>
+      <c r="E872" t="s">
+        <v>46</v>
+      </c>
+      <c r="F872" s="8"/>
+    </row>
+    <row r="873" spans="1:7">
+      <c r="A873" s="1">
+        <v>42304</v>
+      </c>
+      <c r="B873" s="12">
+        <v>0.93333333333333324</v>
+      </c>
+      <c r="D873" s="4">
+        <v>6</v>
+      </c>
+      <c r="E873" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F873" s="13">
+        <v>1584.5</v>
+      </c>
+      <c r="G873" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="874" spans="1:7">
+      <c r="A874" s="1">
+        <v>42304</v>
+      </c>
+      <c r="B874" s="12">
+        <v>0.93333333333333324</v>
+      </c>
+      <c r="D874" s="4">
+        <v>16</v>
+      </c>
+      <c r="E874" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F874" s="13">
+        <v>1895.2</v>
+      </c>
+      <c r="G874" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="875" spans="1:7">
+      <c r="A875" s="1">
+        <v>42304</v>
+      </c>
+      <c r="B875" s="12">
+        <v>0.93333333333333324</v>
+      </c>
+      <c r="D875" s="4">
+        <v>13</v>
+      </c>
+      <c r="E875" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F875" s="13">
+        <v>1275.0999999999999</v>
+      </c>
+      <c r="G875" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="876" spans="1:7">
+      <c r="A876" s="1">
+        <v>42304</v>
+      </c>
+      <c r="B876" s="12">
+        <v>0.93333333333333324</v>
+      </c>
+      <c r="D876" s="4">
+        <v>14</v>
+      </c>
+      <c r="E876" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F876" s="13">
+        <v>2027.1</v>
+      </c>
+      <c r="G876" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="877" spans="1:7">
+      <c r="A877" s="1">
+        <v>42304</v>
+      </c>
+      <c r="B877" s="12">
+        <v>0.93333333333333324</v>
+      </c>
+      <c r="D877" s="4">
+        <v>11</v>
+      </c>
+      <c r="E877" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F877" s="13">
+        <v>1715.4</v>
+      </c>
+      <c r="G877" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="878" spans="1:7">
+      <c r="A878" s="1">
+        <v>42304</v>
+      </c>
+      <c r="B878" s="12">
+        <v>0.93333333333333324</v>
+      </c>
+      <c r="D878" s="4">
+        <v>1</v>
+      </c>
+      <c r="E878" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F878" s="13">
+        <v>1992.4</v>
+      </c>
+      <c r="G878" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="879" spans="1:7">
+      <c r="A879" s="1">
+        <v>42304</v>
+      </c>
+      <c r="B879" s="5">
+        <v>0.95000000000000007</v>
+      </c>
+      <c r="D879">
+        <v>10</v>
+      </c>
+      <c r="E879" t="s">
+        <v>46</v>
+      </c>
+      <c r="F879" s="8"/>
+    </row>
+    <row r="880" spans="1:7">
+      <c r="D880" s="2"/>
+    </row>
+    <row r="881" spans="4:4">
+      <c r="D881" s="2"/>
+    </row>
+    <row r="882" spans="4:4">
+      <c r="D882" s="2"/>
+    </row>
+    <row r="883" spans="4:4">
+      <c r="D883" s="2"/>
+    </row>
+    <row r="884" spans="4:4">
+      <c r="D884" s="2"/>
+    </row>
+    <row r="885" spans="4:4">
+      <c r="D885" s="2"/>
+    </row>
+    <row r="886" spans="4:4">
+      <c r="D886" s="2"/>
+    </row>
+    <row r="887" spans="4:4">
+      <c r="D887" s="2"/>
+    </row>
+    <row r="888" spans="4:4">
+      <c r="D888" s="2"/>
+    </row>
+    <row r="889" spans="4:4">
+      <c r="D889" s="2"/>
+    </row>
+    <row r="890" spans="4:4">
+      <c r="D890" s="2"/>
+    </row>
+    <row r="891" spans="4:4">
+      <c r="D891" s="2"/>
+    </row>
+    <row r="892" spans="4:4">
+      <c r="D892" s="2"/>
+    </row>
+    <row r="893" spans="4:4">
+      <c r="D893" s="2"/>
+    </row>
+    <row r="894" spans="4:4">
+      <c r="D894" s="2"/>
+    </row>
+    <row r="895" spans="4:4">
+      <c r="D895" s="2"/>
+    </row>
+    <row r="896" spans="4:4">
+      <c r="D896" s="2"/>
+    </row>
+    <row r="897" spans="4:4">
+      <c r="D897" s="2"/>
+    </row>
+    <row r="898" spans="4:4">
+      <c r="D898" s="2"/>
+    </row>
+    <row r="899" spans="4:4">
+      <c r="D899" s="2"/>
+    </row>
+    <row r="900" spans="4:4">
+      <c r="D900" s="2"/>
+    </row>
+    <row r="901" spans="4:4">
+      <c r="D901" s="2"/>
+    </row>
+    <row r="902" spans="4:4">
+      <c r="D902" s="2"/>
+    </row>
+    <row r="903" spans="4:4">
+      <c r="D903" s="2"/>
+    </row>
+    <row r="904" spans="4:4">
+      <c r="D904" s="2"/>
+    </row>
+    <row r="905" spans="4:4">
+      <c r="D905" s="2"/>
+    </row>
+    <row r="906" spans="4:4">
+      <c r="D906" s="2"/>
+    </row>
+    <row r="907" spans="4:4">
+      <c r="D907" s="2"/>
+    </row>
+    <row r="908" spans="4:4">
+      <c r="D908" s="2"/>
+    </row>
+    <row r="909" spans="4:4">
+      <c r="D909" s="2"/>
+    </row>
+    <row r="910" spans="4:4">
+      <c r="D910" s="2"/>
+    </row>
+    <row r="911" spans="4:4">
+      <c r="D911" s="2"/>
+    </row>
+    <row r="912" spans="4:4">
+      <c r="D912" s="2"/>
+    </row>
+    <row r="913" spans="4:4">
+      <c r="D913" s="2"/>
+    </row>
+    <row r="914" spans="4:4">
+      <c r="D914" s="2"/>
+    </row>
+    <row r="915" spans="4:4">
+      <c r="D915" s="2"/>
+    </row>
+    <row r="916" spans="4:4">
+      <c r="D916" s="2"/>
+    </row>
+    <row r="917" spans="4:4">
+      <c r="D917" s="2"/>
+    </row>
+    <row r="918" spans="4:4">
+      <c r="D918" s="2"/>
+    </row>
+    <row r="919" spans="4:4">
+      <c r="D919" s="2"/>
+    </row>
+    <row r="920" spans="4:4">
+      <c r="D920" s="2"/>
+    </row>
+    <row r="921" spans="4:4">
+      <c r="D921" s="2"/>
+    </row>
+    <row r="922" spans="4:4">
+      <c r="D922" s="2"/>
+    </row>
+    <row r="923" spans="4:4">
+      <c r="D923" s="2"/>
+    </row>
+    <row r="924" spans="4:4">
+      <c r="D924" s="2"/>
+    </row>
+    <row r="925" spans="4:4">
+      <c r="D925" s="2"/>
+    </row>
+    <row r="926" spans="4:4">
+      <c r="D926" s="2"/>
+    </row>
+    <row r="927" spans="4:4">
+      <c r="D927" s="2"/>
+    </row>
+    <row r="928" spans="4:4">
+      <c r="D928" s="2"/>
+    </row>
+    <row r="929" spans="4:4">
+      <c r="D929" s="2"/>
+    </row>
+    <row r="930" spans="4:4">
+      <c r="D930" s="2"/>
+    </row>
+    <row r="931" spans="4:4">
+      <c r="D931" s="2"/>
+    </row>
+    <row r="932" spans="4:4">
+      <c r="D932" s="2"/>
+    </row>
+    <row r="933" spans="4:4">
+      <c r="D933" s="2"/>
+    </row>
+    <row r="934" spans="4:4">
+      <c r="D934" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A3:G448">

--- a/data/CoreData.xlsx
+++ b/data/CoreData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28480" windowHeight="24460" activeTab="1"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="24200" windowHeight="15040" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="treatments.csv" sheetId="2" r:id="rId1"/>
@@ -1582,8 +1582,8 @@
   <dimension ref="A1:G934"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A839" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E879" sqref="E879"/>
+      <pane ySplit="2" topLeftCell="A855" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F867" sqref="F867"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -15399,7 +15399,7 @@
         <v>25</v>
       </c>
       <c r="F866" s="13">
-        <v>2124.8000000000002</v>
+        <v>2024.8</v>
       </c>
       <c r="G866" s="4" t="s">
         <v>69</v>

--- a/data/CoreData.xlsx
+++ b/data/CoreData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="24200" windowHeight="15040" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24700" windowHeight="15600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="treatments.csv" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="75">
   <si>
     <t>Treatment</t>
   </si>
@@ -234,6 +234,18 @@
   <si>
     <t>***second run of duplicate measurements. First run questionable. Let's disucss.</t>
   </si>
+  <si>
+    <t>and again at:20:44</t>
+  </si>
+  <si>
+    <t>Ignore all data collected past 23:14:04</t>
+  </si>
+  <si>
+    <t>I think we should remove these!</t>
+  </si>
+  <si>
+    <t>Keep these</t>
+  </si>
 </sst>
 </file>
 
@@ -243,7 +255,7 @@
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,6 +298,20 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -313,7 +339,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="231">
+  <cellStyleXfs count="243">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -545,8 +571,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -565,8 +603,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="231">
+  <cellStyles count="243">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -682,6 +723,12 @@
     <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -797,6 +844,12 @@
     <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1099,7 +1152,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -1579,11 +1632,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G934"/>
+  <dimension ref="A1:G1064"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A855" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F867" sqref="F867"/>
+      <pane ySplit="2" topLeftCell="A983" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1011" sqref="E1011"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -15656,169 +15709,2252 @@
       <c r="F879" s="8"/>
     </row>
     <row r="880" spans="1:7">
-      <c r="D880" s="2"/>
-    </row>
-    <row r="881" spans="4:4">
-      <c r="D881" s="2"/>
-    </row>
-    <row r="882" spans="4:4">
-      <c r="D882" s="2"/>
-    </row>
-    <row r="883" spans="4:4">
-      <c r="D883" s="2"/>
-    </row>
-    <row r="884" spans="4:4">
-      <c r="D884" s="2"/>
-    </row>
-    <row r="885" spans="4:4">
-      <c r="D885" s="2"/>
-    </row>
-    <row r="886" spans="4:4">
-      <c r="D886" s="2"/>
-    </row>
-    <row r="887" spans="4:4">
-      <c r="D887" s="2"/>
-    </row>
-    <row r="888" spans="4:4">
-      <c r="D888" s="2"/>
-    </row>
-    <row r="889" spans="4:4">
-      <c r="D889" s="2"/>
-    </row>
-    <row r="890" spans="4:4">
-      <c r="D890" s="2"/>
-    </row>
-    <row r="891" spans="4:4">
-      <c r="D891" s="2"/>
-    </row>
-    <row r="892" spans="4:4">
-      <c r="D892" s="2"/>
-    </row>
-    <row r="893" spans="4:4">
-      <c r="D893" s="2"/>
-    </row>
-    <row r="894" spans="4:4">
-      <c r="D894" s="2"/>
-    </row>
-    <row r="895" spans="4:4">
-      <c r="D895" s="2"/>
-    </row>
-    <row r="896" spans="4:4">
-      <c r="D896" s="2"/>
-    </row>
-    <row r="897" spans="4:4">
-      <c r="D897" s="2"/>
-    </row>
-    <row r="898" spans="4:4">
-      <c r="D898" s="2"/>
-    </row>
-    <row r="899" spans="4:4">
-      <c r="D899" s="2"/>
-    </row>
-    <row r="900" spans="4:4">
-      <c r="D900" s="2"/>
-    </row>
-    <row r="901" spans="4:4">
-      <c r="D901" s="2"/>
-    </row>
-    <row r="902" spans="4:4">
-      <c r="D902" s="2"/>
-    </row>
-    <row r="903" spans="4:4">
-      <c r="D903" s="2"/>
-    </row>
-    <row r="904" spans="4:4">
-      <c r="D904" s="2"/>
-    </row>
-    <row r="905" spans="4:4">
-      <c r="D905" s="2"/>
-    </row>
-    <row r="906" spans="4:4">
-      <c r="D906" s="2"/>
-    </row>
-    <row r="907" spans="4:4">
-      <c r="D907" s="2"/>
-    </row>
-    <row r="908" spans="4:4">
-      <c r="D908" s="2"/>
-    </row>
-    <row r="909" spans="4:4">
-      <c r="D909" s="2"/>
-    </row>
-    <row r="910" spans="4:4">
-      <c r="D910" s="2"/>
-    </row>
-    <row r="911" spans="4:4">
-      <c r="D911" s="2"/>
-    </row>
-    <row r="912" spans="4:4">
-      <c r="D912" s="2"/>
-    </row>
-    <row r="913" spans="4:4">
-      <c r="D913" s="2"/>
-    </row>
-    <row r="914" spans="4:4">
-      <c r="D914" s="2"/>
-    </row>
-    <row r="915" spans="4:4">
-      <c r="D915" s="2"/>
-    </row>
-    <row r="916" spans="4:4">
-      <c r="D916" s="2"/>
-    </row>
-    <row r="917" spans="4:4">
-      <c r="D917" s="2"/>
-    </row>
-    <row r="918" spans="4:4">
-      <c r="D918" s="2"/>
-    </row>
-    <row r="919" spans="4:4">
-      <c r="D919" s="2"/>
-    </row>
-    <row r="920" spans="4:4">
-      <c r="D920" s="2"/>
-    </row>
-    <row r="921" spans="4:4">
-      <c r="D921" s="2"/>
-    </row>
-    <row r="922" spans="4:4">
-      <c r="D922" s="2"/>
-    </row>
-    <row r="923" spans="4:4">
-      <c r="D923" s="2"/>
-    </row>
-    <row r="924" spans="4:4">
-      <c r="D924" s="2"/>
-    </row>
-    <row r="925" spans="4:4">
-      <c r="D925" s="2"/>
-    </row>
-    <row r="926" spans="4:4">
-      <c r="D926" s="2"/>
-    </row>
-    <row r="927" spans="4:4">
-      <c r="D927" s="2"/>
-    </row>
-    <row r="928" spans="4:4">
-      <c r="D928" s="2"/>
-    </row>
-    <row r="929" spans="4:4">
-      <c r="D929" s="2"/>
-    </row>
-    <row r="930" spans="4:4">
-      <c r="D930" s="2"/>
-    </row>
-    <row r="931" spans="4:4">
-      <c r="D931" s="2"/>
-    </row>
-    <row r="932" spans="4:4">
-      <c r="D932" s="2"/>
-    </row>
-    <row r="933" spans="4:4">
-      <c r="D933" s="2"/>
-    </row>
-    <row r="934" spans="4:4">
-      <c r="D934" s="2"/>
+      <c r="A880" s="1">
+        <v>42310</v>
+      </c>
+      <c r="B880" s="5"/>
+      <c r="E880" t="s">
+        <v>1</v>
+      </c>
+      <c r="F880" s="8">
+        <v>1955.4</v>
+      </c>
+    </row>
+    <row r="881" spans="1:6">
+      <c r="A881" s="1">
+        <v>42310</v>
+      </c>
+      <c r="B881" s="5"/>
+      <c r="E881" t="s">
+        <v>2</v>
+      </c>
+      <c r="F881" s="8">
+        <v>2167.5</v>
+      </c>
+    </row>
+    <row r="882" spans="1:6">
+      <c r="A882" s="1">
+        <v>42310</v>
+      </c>
+      <c r="B882" s="5"/>
+      <c r="E882" t="s">
+        <v>3</v>
+      </c>
+      <c r="F882" s="8">
+        <v>1422.5</v>
+      </c>
+    </row>
+    <row r="883" spans="1:6">
+      <c r="A883" s="1">
+        <v>42310</v>
+      </c>
+      <c r="B883" s="5"/>
+      <c r="E883" t="s">
+        <v>4</v>
+      </c>
+      <c r="F883" s="8">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="884" spans="1:6">
+      <c r="A884" s="1">
+        <v>42310</v>
+      </c>
+      <c r="B884" s="5"/>
+      <c r="E884" t="s">
+        <v>6</v>
+      </c>
+      <c r="F884" s="8">
+        <v>1844.7</v>
+      </c>
+    </row>
+    <row r="885" spans="1:6">
+      <c r="A885" s="1">
+        <v>42310</v>
+      </c>
+      <c r="B885" s="5"/>
+      <c r="E885" t="s">
+        <v>7</v>
+      </c>
+      <c r="F885" s="8">
+        <v>2011.4</v>
+      </c>
+    </row>
+    <row r="886" spans="1:6">
+      <c r="A886" s="1">
+        <v>42310</v>
+      </c>
+      <c r="B886" s="5"/>
+      <c r="E886" t="s">
+        <v>9</v>
+      </c>
+      <c r="F886" s="8">
+        <v>1903.4</v>
+      </c>
+    </row>
+    <row r="887" spans="1:6">
+      <c r="A887" s="1">
+        <v>42310</v>
+      </c>
+      <c r="B887" s="5"/>
+      <c r="E887" t="s">
+        <v>11</v>
+      </c>
+      <c r="F887" s="8">
+        <v>1690.9</v>
+      </c>
+    </row>
+    <row r="888" spans="1:6">
+      <c r="A888" s="1">
+        <v>42310</v>
+      </c>
+      <c r="B888" s="5"/>
+      <c r="E888" t="s">
+        <v>13</v>
+      </c>
+      <c r="F888" s="8">
+        <v>1630.9</v>
+      </c>
+    </row>
+    <row r="889" spans="1:6">
+      <c r="A889" s="1">
+        <v>42310</v>
+      </c>
+      <c r="B889" s="5"/>
+      <c r="E889" t="s">
+        <v>15</v>
+      </c>
+      <c r="F889" s="8">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="890" spans="1:6">
+      <c r="A890" s="1">
+        <v>42310</v>
+      </c>
+      <c r="B890" s="5"/>
+      <c r="E890" t="s">
+        <v>16</v>
+      </c>
+      <c r="F890" s="8">
+        <v>1645.5</v>
+      </c>
+    </row>
+    <row r="891" spans="1:6">
+      <c r="A891" s="1">
+        <v>42310</v>
+      </c>
+      <c r="B891" s="5"/>
+      <c r="E891" t="s">
+        <v>17</v>
+      </c>
+      <c r="F891" s="8">
+        <v>1633.5</v>
+      </c>
+    </row>
+    <row r="892" spans="1:6">
+      <c r="A892" s="1">
+        <v>42310</v>
+      </c>
+      <c r="B892" s="5"/>
+      <c r="E892" t="s">
+        <v>18</v>
+      </c>
+      <c r="F892" s="8">
+        <v>1539.1</v>
+      </c>
+    </row>
+    <row r="893" spans="1:6">
+      <c r="A893" s="1">
+        <v>42310</v>
+      </c>
+      <c r="B893" s="5"/>
+      <c r="E893" t="s">
+        <v>19</v>
+      </c>
+      <c r="F893" s="8">
+        <v>1915.9</v>
+      </c>
+    </row>
+    <row r="894" spans="1:6">
+      <c r="A894" s="1">
+        <v>42310</v>
+      </c>
+      <c r="B894" s="5"/>
+      <c r="E894" t="s">
+        <v>20</v>
+      </c>
+      <c r="F894" s="8">
+        <v>2138.6999999999998</v>
+      </c>
+    </row>
+    <row r="895" spans="1:6">
+      <c r="A895" s="1">
+        <v>42310</v>
+      </c>
+      <c r="B895" s="5"/>
+      <c r="E895" t="s">
+        <v>21</v>
+      </c>
+      <c r="F895" s="8">
+        <v>1416.9</v>
+      </c>
+    </row>
+    <row r="896" spans="1:6">
+      <c r="A896" s="1">
+        <v>42310</v>
+      </c>
+      <c r="B896" s="5"/>
+      <c r="E896" t="s">
+        <v>22</v>
+      </c>
+      <c r="F896" s="8">
+        <v>2169.4</v>
+      </c>
+    </row>
+    <row r="897" spans="1:6">
+      <c r="A897" s="1">
+        <v>42310</v>
+      </c>
+      <c r="B897" s="5"/>
+      <c r="E897" t="s">
+        <v>23</v>
+      </c>
+      <c r="F897" s="8">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="898" spans="1:6">
+      <c r="A898" s="1">
+        <v>42310</v>
+      </c>
+      <c r="B898" s="5"/>
+      <c r="E898" t="s">
+        <v>25</v>
+      </c>
+      <c r="F898" s="8">
+        <v>2017.6</v>
+      </c>
+    </row>
+    <row r="899" spans="1:6">
+      <c r="A899" s="1">
+        <v>42310</v>
+      </c>
+      <c r="B899" s="5"/>
+      <c r="E899" t="s">
+        <v>26</v>
+      </c>
+      <c r="F899" s="8">
+        <v>1907.1</v>
+      </c>
+    </row>
+    <row r="900" spans="1:6">
+      <c r="A900" s="1">
+        <v>42310</v>
+      </c>
+      <c r="B900" s="5"/>
+      <c r="E900" t="s">
+        <v>27</v>
+      </c>
+      <c r="F900" s="8">
+        <v>1876.6</v>
+      </c>
+    </row>
+    <row r="901" spans="1:6">
+      <c r="A901" s="1">
+        <v>42310</v>
+      </c>
+      <c r="B901" s="5"/>
+      <c r="E901" t="s">
+        <v>28</v>
+      </c>
+      <c r="F901" s="8">
+        <v>1953.6</v>
+      </c>
+    </row>
+    <row r="902" spans="1:6">
+      <c r="A902" s="1">
+        <v>42310</v>
+      </c>
+      <c r="B902" s="5"/>
+      <c r="E902" t="s">
+        <v>29</v>
+      </c>
+      <c r="F902" s="8">
+        <v>2091.5</v>
+      </c>
+    </row>
+    <row r="903" spans="1:6">
+      <c r="A903" s="1">
+        <v>42310</v>
+      </c>
+      <c r="B903" s="5"/>
+      <c r="E903" t="s">
+        <v>30</v>
+      </c>
+      <c r="F903" s="8">
+        <v>1548.9</v>
+      </c>
+    </row>
+    <row r="904" spans="1:6">
+      <c r="A904" s="1">
+        <v>42310</v>
+      </c>
+      <c r="B904" s="5"/>
+      <c r="E904" t="s">
+        <v>5</v>
+      </c>
+      <c r="F904" s="8">
+        <v>1576.9</v>
+      </c>
+    </row>
+    <row r="905" spans="1:6">
+      <c r="A905" s="1">
+        <v>42310</v>
+      </c>
+      <c r="B905" s="5"/>
+      <c r="E905" t="s">
+        <v>24</v>
+      </c>
+      <c r="F905" s="8">
+        <v>1893.2</v>
+      </c>
+    </row>
+    <row r="906" spans="1:6">
+      <c r="A906" s="1">
+        <v>42310</v>
+      </c>
+      <c r="B906" s="5"/>
+      <c r="E906" t="s">
+        <v>8</v>
+      </c>
+      <c r="F906" s="8">
+        <v>1273.2</v>
+      </c>
+    </row>
+    <row r="907" spans="1:6">
+      <c r="A907" s="1">
+        <v>42310</v>
+      </c>
+      <c r="B907" s="5"/>
+      <c r="E907" t="s">
+        <v>10</v>
+      </c>
+      <c r="F907" s="8">
+        <v>2027.5</v>
+      </c>
+    </row>
+    <row r="908" spans="1:6">
+      <c r="A908" s="1">
+        <v>42310</v>
+      </c>
+      <c r="B908" s="5"/>
+      <c r="E908" t="s">
+        <v>12</v>
+      </c>
+      <c r="F908" s="8">
+        <v>1714.1</v>
+      </c>
+    </row>
+    <row r="909" spans="1:6">
+      <c r="A909" s="1">
+        <v>42310</v>
+      </c>
+      <c r="B909" s="5"/>
+      <c r="E909" t="s">
+        <v>14</v>
+      </c>
+      <c r="F909" s="8">
+        <v>1988.3</v>
+      </c>
+    </row>
+    <row r="910" spans="1:6">
+      <c r="A910" s="1">
+        <v>42311</v>
+      </c>
+      <c r="B910" s="5">
+        <v>0.76111111111111107</v>
+      </c>
+      <c r="D910">
+        <v>10</v>
+      </c>
+      <c r="E910" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F910" s="8"/>
+    </row>
+    <row r="911" spans="1:6">
+      <c r="A911" s="1">
+        <v>42311</v>
+      </c>
+      <c r="B911" s="5">
+        <v>0.76527777777777783</v>
+      </c>
+      <c r="D911">
+        <v>6</v>
+      </c>
+      <c r="E911" t="s">
+        <v>1</v>
+      </c>
+      <c r="F911" s="8">
+        <v>1964.1</v>
+      </c>
+    </row>
+    <row r="912" spans="1:6">
+      <c r="A912" s="1">
+        <v>42311</v>
+      </c>
+      <c r="B912" s="5">
+        <v>0.76527777777777783</v>
+      </c>
+      <c r="D912">
+        <v>16</v>
+      </c>
+      <c r="E912" t="s">
+        <v>2</v>
+      </c>
+      <c r="F912" s="8">
+        <v>2171.1</v>
+      </c>
+    </row>
+    <row r="913" spans="1:7">
+      <c r="A913" s="1">
+        <v>42311</v>
+      </c>
+      <c r="B913" s="5">
+        <v>0.76527777777777783</v>
+      </c>
+      <c r="D913">
+        <v>13</v>
+      </c>
+      <c r="E913" t="s">
+        <v>3</v>
+      </c>
+      <c r="F913" s="8">
+        <v>1421.4</v>
+      </c>
+    </row>
+    <row r="914" spans="1:7">
+      <c r="A914" s="1">
+        <v>42311</v>
+      </c>
+      <c r="B914" s="5">
+        <v>0.76527777777777783</v>
+      </c>
+      <c r="D914">
+        <v>14</v>
+      </c>
+      <c r="E914" t="s">
+        <v>4</v>
+      </c>
+      <c r="F914" s="8">
+        <v>1837.7</v>
+      </c>
+    </row>
+    <row r="915" spans="1:7">
+      <c r="A915" s="1">
+        <v>42311</v>
+      </c>
+      <c r="B915" s="5">
+        <v>0.76527777777777783</v>
+      </c>
+      <c r="D915">
+        <v>11</v>
+      </c>
+      <c r="E915" t="s">
+        <v>6</v>
+      </c>
+      <c r="F915" s="8">
+        <v>1850.4</v>
+      </c>
+    </row>
+    <row r="916" spans="1:7">
+      <c r="A916" s="1">
+        <v>42311</v>
+      </c>
+      <c r="B916" s="5">
+        <v>0.76527777777777783</v>
+      </c>
+      <c r="D916">
+        <v>1</v>
+      </c>
+      <c r="E916" t="s">
+        <v>7</v>
+      </c>
+      <c r="F916" s="8">
+        <v>2013.9</v>
+      </c>
+    </row>
+    <row r="917" spans="1:7">
+      <c r="A917" s="1">
+        <v>42311</v>
+      </c>
+      <c r="B917" s="5">
+        <v>0.78194444444444444</v>
+      </c>
+      <c r="D917">
+        <v>10</v>
+      </c>
+      <c r="E917" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="918" spans="1:7">
+      <c r="A918" s="1">
+        <v>42311</v>
+      </c>
+      <c r="B918" s="5">
+        <v>0.78888888888888886</v>
+      </c>
+      <c r="D918">
+        <v>4</v>
+      </c>
+      <c r="E918" t="s">
+        <v>9</v>
+      </c>
+      <c r="F918" s="8">
+        <v>1934.9</v>
+      </c>
+    </row>
+    <row r="919" spans="1:7">
+      <c r="A919" s="1">
+        <v>42311</v>
+      </c>
+      <c r="B919" s="5">
+        <v>0.78888888888888886</v>
+      </c>
+      <c r="D919">
+        <v>2</v>
+      </c>
+      <c r="E919" t="s">
+        <v>11</v>
+      </c>
+      <c r="F919" s="8">
+        <v>1704.3</v>
+      </c>
+    </row>
+    <row r="920" spans="1:7">
+      <c r="A920" s="1">
+        <v>42311</v>
+      </c>
+      <c r="B920" s="5">
+        <v>0.78888888888888886</v>
+      </c>
+      <c r="D920">
+        <v>12</v>
+      </c>
+      <c r="E920" t="s">
+        <v>13</v>
+      </c>
+      <c r="F920" s="8">
+        <v>1634.8</v>
+      </c>
+    </row>
+    <row r="921" spans="1:7">
+      <c r="A921" s="1">
+        <v>42311</v>
+      </c>
+      <c r="B921" s="5">
+        <v>0.78888888888888886</v>
+      </c>
+      <c r="D921">
+        <v>8</v>
+      </c>
+      <c r="E921" t="s">
+        <v>15</v>
+      </c>
+      <c r="F921" s="8">
+        <v>2115.4</v>
+      </c>
+    </row>
+    <row r="922" spans="1:7">
+      <c r="A922" s="1">
+        <v>42311</v>
+      </c>
+      <c r="B922" s="5">
+        <v>0.78888888888888886</v>
+      </c>
+      <c r="D922">
+        <v>5</v>
+      </c>
+      <c r="E922" t="s">
+        <v>16</v>
+      </c>
+      <c r="F922" s="8">
+        <v>1666.4</v>
+      </c>
+    </row>
+    <row r="923" spans="1:7">
+      <c r="A923" s="1">
+        <v>42311</v>
+      </c>
+      <c r="B923" s="5">
+        <v>0.78888888888888886</v>
+      </c>
+      <c r="D923">
+        <v>9</v>
+      </c>
+      <c r="E923" t="s">
+        <v>17</v>
+      </c>
+      <c r="F923" s="8">
+        <v>1632.2</v>
+      </c>
+    </row>
+    <row r="924" spans="1:7">
+      <c r="A924" s="1">
+        <v>42311</v>
+      </c>
+      <c r="B924" s="5">
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="D924">
+        <v>10</v>
+      </c>
+      <c r="E924" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="925" spans="1:7">
+      <c r="A925" s="1">
+        <v>42311</v>
+      </c>
+      <c r="B925" s="5">
+        <v>0.8340277777777777</v>
+      </c>
+      <c r="D925">
+        <v>6</v>
+      </c>
+      <c r="E925" t="s">
+        <v>18</v>
+      </c>
+      <c r="F925" s="8">
+        <v>1543.9</v>
+      </c>
+      <c r="G925" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="926" spans="1:7">
+      <c r="A926" s="1">
+        <v>42311</v>
+      </c>
+      <c r="B926" s="5">
+        <v>0.8340277777777777</v>
+      </c>
+      <c r="D926">
+        <v>16</v>
+      </c>
+      <c r="E926" t="s">
+        <v>19</v>
+      </c>
+      <c r="F926" s="8">
+        <v>1919.9</v>
+      </c>
+      <c r="G926" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="927" spans="1:7">
+      <c r="A927" s="1">
+        <v>42311</v>
+      </c>
+      <c r="B927" s="5">
+        <v>0.8340277777777777</v>
+      </c>
+      <c r="D927">
+        <v>13</v>
+      </c>
+      <c r="E927" t="s">
+        <v>20</v>
+      </c>
+      <c r="F927" s="8">
+        <v>2143.1</v>
+      </c>
+      <c r="G927" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="928" spans="1:7">
+      <c r="A928" s="1">
+        <v>42311</v>
+      </c>
+      <c r="B928" s="5">
+        <v>0.8340277777777777</v>
+      </c>
+      <c r="D928">
+        <v>14</v>
+      </c>
+      <c r="E928" t="s">
+        <v>21</v>
+      </c>
+      <c r="F928" s="8">
+        <v>1435.1</v>
+      </c>
+      <c r="G928" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="929" spans="1:7">
+      <c r="A929" s="1">
+        <v>42311</v>
+      </c>
+      <c r="B929" s="5">
+        <v>0.8340277777777777</v>
+      </c>
+      <c r="D929">
+        <v>11</v>
+      </c>
+      <c r="E929" t="s">
+        <v>22</v>
+      </c>
+      <c r="F929" s="8">
+        <v>2173.5</v>
+      </c>
+      <c r="G929" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="930" spans="1:7">
+      <c r="A930" s="1">
+        <v>42311</v>
+      </c>
+      <c r="B930" s="5">
+        <v>0.8340277777777777</v>
+      </c>
+      <c r="D930">
+        <v>1</v>
+      </c>
+      <c r="E930" t="s">
+        <v>23</v>
+      </c>
+      <c r="F930" s="8">
+        <v>1662.9</v>
+      </c>
+      <c r="G930" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="931" spans="1:7">
+      <c r="A931" s="1">
+        <v>42311</v>
+      </c>
+      <c r="B931" s="5">
+        <v>0.8881944444444444</v>
+      </c>
+      <c r="D931">
+        <v>10</v>
+      </c>
+      <c r="E931" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="932" spans="1:7">
+      <c r="A932" s="1">
+        <v>42311</v>
+      </c>
+      <c r="B932" s="5">
+        <v>0.92291666666666661</v>
+      </c>
+      <c r="D932">
+        <v>4</v>
+      </c>
+      <c r="E932" t="s">
+        <v>25</v>
+      </c>
+      <c r="F932" s="8">
+        <v>2027</v>
+      </c>
+      <c r="G932" s="4"/>
+    </row>
+    <row r="933" spans="1:7">
+      <c r="A933" s="1">
+        <v>42311</v>
+      </c>
+      <c r="B933" s="5">
+        <v>0.92291666666666661</v>
+      </c>
+      <c r="D933">
+        <v>2</v>
+      </c>
+      <c r="E933" t="s">
+        <v>26</v>
+      </c>
+      <c r="F933" s="8">
+        <v>1906</v>
+      </c>
+      <c r="G933" s="4"/>
+    </row>
+    <row r="934" spans="1:7">
+      <c r="A934" s="1">
+        <v>42311</v>
+      </c>
+      <c r="B934" s="5">
+        <v>0.92291666666666661</v>
+      </c>
+      <c r="D934">
+        <v>12</v>
+      </c>
+      <c r="E934" t="s">
+        <v>27</v>
+      </c>
+      <c r="F934" s="8">
+        <v>1875.2</v>
+      </c>
+      <c r="G934" s="4"/>
+    </row>
+    <row r="935" spans="1:7">
+      <c r="A935" s="1">
+        <v>42311</v>
+      </c>
+      <c r="B935" s="5">
+        <v>0.92291666666666661</v>
+      </c>
+      <c r="D935">
+        <v>8</v>
+      </c>
+      <c r="E935" t="s">
+        <v>28</v>
+      </c>
+      <c r="F935" s="8">
+        <v>1956.8</v>
+      </c>
+      <c r="G935" s="4"/>
+    </row>
+    <row r="936" spans="1:7">
+      <c r="A936" s="1">
+        <v>42311</v>
+      </c>
+      <c r="B936" s="5">
+        <v>0.92291666666666661</v>
+      </c>
+      <c r="D936">
+        <v>5</v>
+      </c>
+      <c r="E936" t="s">
+        <v>29</v>
+      </c>
+      <c r="F936" s="8">
+        <v>2090.1</v>
+      </c>
+      <c r="G936" s="4"/>
+    </row>
+    <row r="937" spans="1:7">
+      <c r="A937" s="1">
+        <v>42311</v>
+      </c>
+      <c r="B937" s="5">
+        <v>0.92291666666666661</v>
+      </c>
+      <c r="D937">
+        <v>9</v>
+      </c>
+      <c r="E937" t="s">
+        <v>30</v>
+      </c>
+      <c r="F937" s="8">
+        <v>1555.2</v>
+      </c>
+      <c r="G937" s="4"/>
+    </row>
+    <row r="938" spans="1:7">
+      <c r="A938" s="1">
+        <v>42311</v>
+      </c>
+      <c r="B938" s="5">
+        <v>0.93958333333333333</v>
+      </c>
+      <c r="D938">
+        <v>10</v>
+      </c>
+      <c r="E938" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="939" spans="1:7">
+      <c r="A939" s="1">
+        <v>42311</v>
+      </c>
+      <c r="B939" s="5">
+        <v>0.94652777777777775</v>
+      </c>
+      <c r="D939">
+        <v>6</v>
+      </c>
+      <c r="E939" t="s">
+        <v>5</v>
+      </c>
+      <c r="F939" s="8">
+        <v>1587.5</v>
+      </c>
+    </row>
+    <row r="940" spans="1:7">
+      <c r="A940" s="1">
+        <v>42311</v>
+      </c>
+      <c r="B940" s="5">
+        <v>0.94652777777777775</v>
+      </c>
+      <c r="D940">
+        <v>16</v>
+      </c>
+      <c r="E940" t="s">
+        <v>24</v>
+      </c>
+      <c r="F940" s="8">
+        <v>1892.1</v>
+      </c>
+    </row>
+    <row r="941" spans="1:7">
+      <c r="A941" s="1">
+        <v>42311</v>
+      </c>
+      <c r="B941" s="5">
+        <v>0.94652777777777775</v>
+      </c>
+      <c r="D941">
+        <v>13</v>
+      </c>
+      <c r="E941" t="s">
+        <v>8</v>
+      </c>
+      <c r="F941" s="8">
+        <v>1272.2</v>
+      </c>
+    </row>
+    <row r="942" spans="1:7">
+      <c r="A942" s="1">
+        <v>42311</v>
+      </c>
+      <c r="B942" s="5">
+        <v>0.94652777777777775</v>
+      </c>
+      <c r="D942">
+        <v>14</v>
+      </c>
+      <c r="E942" t="s">
+        <v>10</v>
+      </c>
+      <c r="F942" s="8">
+        <v>2023.7</v>
+      </c>
+    </row>
+    <row r="943" spans="1:7">
+      <c r="A943" s="1">
+        <v>42311</v>
+      </c>
+      <c r="B943" s="5">
+        <v>0.94652777777777775</v>
+      </c>
+      <c r="D943">
+        <v>11</v>
+      </c>
+      <c r="E943" t="s">
+        <v>12</v>
+      </c>
+      <c r="F943" s="8">
+        <v>1716.5</v>
+      </c>
+    </row>
+    <row r="944" spans="1:7">
+      <c r="A944" s="1">
+        <v>42311</v>
+      </c>
+      <c r="B944" s="5">
+        <v>0.94652777777777775</v>
+      </c>
+      <c r="D944">
+        <v>1</v>
+      </c>
+      <c r="E944" t="s">
+        <v>14</v>
+      </c>
+      <c r="F944" s="8">
+        <v>1986.3</v>
+      </c>
+    </row>
+    <row r="945" spans="1:7">
+      <c r="A945" s="1">
+        <v>42311</v>
+      </c>
+      <c r="B945" s="5">
+        <v>0.96319444444444446</v>
+      </c>
+      <c r="D945">
+        <v>10</v>
+      </c>
+      <c r="E945" t="s">
+        <v>46</v>
+      </c>
+      <c r="F945" s="8"/>
+      <c r="G945" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="946" spans="1:7">
+      <c r="A946" s="1">
+        <v>42317</v>
+      </c>
+      <c r="B946" s="5"/>
+      <c r="D946" s="5"/>
+      <c r="E946" t="s">
+        <v>1</v>
+      </c>
+      <c r="F946" s="8">
+        <v>1954.6</v>
+      </c>
+    </row>
+    <row r="947" spans="1:7">
+      <c r="A947" s="1">
+        <v>42317</v>
+      </c>
+      <c r="B947" s="5"/>
+      <c r="D947" s="5"/>
+      <c r="E947" t="s">
+        <v>2</v>
+      </c>
+      <c r="F947" s="8">
+        <v>2167.6</v>
+      </c>
+    </row>
+    <row r="948" spans="1:7">
+      <c r="A948" s="1">
+        <v>42317</v>
+      </c>
+      <c r="B948" s="5"/>
+      <c r="D948" s="5"/>
+      <c r="E948" t="s">
+        <v>3</v>
+      </c>
+      <c r="F948" s="8">
+        <v>1421.1</v>
+      </c>
+    </row>
+    <row r="949" spans="1:7">
+      <c r="A949" s="1">
+        <v>42317</v>
+      </c>
+      <c r="B949" s="5"/>
+      <c r="D949" s="5"/>
+      <c r="E949" t="s">
+        <v>4</v>
+      </c>
+      <c r="F949" s="8">
+        <v>1836.3</v>
+      </c>
+    </row>
+    <row r="950" spans="1:7">
+      <c r="A950" s="1">
+        <v>42317</v>
+      </c>
+      <c r="B950" s="5"/>
+      <c r="D950" s="5"/>
+      <c r="E950" t="s">
+        <v>6</v>
+      </c>
+      <c r="F950" s="8">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="951" spans="1:7">
+      <c r="A951" s="1">
+        <v>42317</v>
+      </c>
+      <c r="B951" s="5"/>
+      <c r="D951" s="5"/>
+      <c r="E951" t="s">
+        <v>7</v>
+      </c>
+      <c r="F951" s="8">
+        <v>2008.2</v>
+      </c>
+    </row>
+    <row r="952" spans="1:7">
+      <c r="A952" s="1">
+        <v>42317</v>
+      </c>
+      <c r="B952" s="5"/>
+      <c r="D952" s="5"/>
+      <c r="E952" t="s">
+        <v>9</v>
+      </c>
+      <c r="F952" s="8">
+        <v>1903.4</v>
+      </c>
+    </row>
+    <row r="953" spans="1:7">
+      <c r="A953" s="1">
+        <v>42317</v>
+      </c>
+      <c r="B953" s="5"/>
+      <c r="D953" s="5"/>
+      <c r="E953" t="s">
+        <v>11</v>
+      </c>
+      <c r="F953" s="8">
+        <v>1692.4</v>
+      </c>
+    </row>
+    <row r="954" spans="1:7">
+      <c r="A954" s="1">
+        <v>42317</v>
+      </c>
+      <c r="B954" s="5"/>
+      <c r="D954" s="5"/>
+      <c r="E954" t="s">
+        <v>13</v>
+      </c>
+      <c r="F954" s="8">
+        <v>1627.3</v>
+      </c>
+    </row>
+    <row r="955" spans="1:7">
+      <c r="A955" s="1">
+        <v>42317</v>
+      </c>
+      <c r="B955" s="5"/>
+      <c r="D955" s="5"/>
+      <c r="E955" t="s">
+        <v>15</v>
+      </c>
+      <c r="F955" s="8">
+        <v>2102.4</v>
+      </c>
+    </row>
+    <row r="956" spans="1:7">
+      <c r="A956" s="1">
+        <v>42317</v>
+      </c>
+      <c r="B956" s="5"/>
+      <c r="D956" s="5"/>
+      <c r="E956" t="s">
+        <v>16</v>
+      </c>
+      <c r="F956" s="8">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="957" spans="1:7">
+      <c r="A957" s="1">
+        <v>42317</v>
+      </c>
+      <c r="B957" s="5"/>
+      <c r="D957" s="5"/>
+      <c r="E957" t="s">
+        <v>17</v>
+      </c>
+      <c r="F957" s="8">
+        <v>1630.4</v>
+      </c>
+    </row>
+    <row r="958" spans="1:7">
+      <c r="A958" s="1">
+        <v>42317</v>
+      </c>
+      <c r="B958" s="5"/>
+      <c r="D958" s="5"/>
+      <c r="E958" t="s">
+        <v>18</v>
+      </c>
+      <c r="F958" s="8">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="959" spans="1:7">
+      <c r="A959" s="1">
+        <v>42317</v>
+      </c>
+      <c r="B959" s="5"/>
+      <c r="D959" s="5"/>
+      <c r="E959" t="s">
+        <v>19</v>
+      </c>
+      <c r="F959" s="8">
+        <v>1914.6</v>
+      </c>
+    </row>
+    <row r="960" spans="1:7">
+      <c r="A960" s="1">
+        <v>42317</v>
+      </c>
+      <c r="B960" s="5"/>
+      <c r="D960" s="5"/>
+      <c r="E960" t="s">
+        <v>20</v>
+      </c>
+      <c r="F960" s="8">
+        <v>2133.9</v>
+      </c>
+    </row>
+    <row r="961" spans="1:6">
+      <c r="A961" s="1">
+        <v>42317</v>
+      </c>
+      <c r="B961" s="5"/>
+      <c r="D961" s="5"/>
+      <c r="E961" t="s">
+        <v>21</v>
+      </c>
+      <c r="F961" s="8">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="962" spans="1:6">
+      <c r="A962" s="1">
+        <v>42317</v>
+      </c>
+      <c r="B962" s="5"/>
+      <c r="D962" s="5"/>
+      <c r="E962" t="s">
+        <v>22</v>
+      </c>
+      <c r="F962" s="8">
+        <v>2168.1</v>
+      </c>
+    </row>
+    <row r="963" spans="1:6">
+      <c r="A963" s="1">
+        <v>42317</v>
+      </c>
+      <c r="B963" s="5"/>
+      <c r="D963" s="5"/>
+      <c r="E963" t="s">
+        <v>23</v>
+      </c>
+      <c r="F963" s="8">
+        <v>1655.4</v>
+      </c>
+    </row>
+    <row r="964" spans="1:6">
+      <c r="A964" s="1">
+        <v>42317</v>
+      </c>
+      <c r="B964" s="5"/>
+      <c r="D964" s="5"/>
+      <c r="E964" t="s">
+        <v>25</v>
+      </c>
+      <c r="F964" s="8">
+        <v>2015.2</v>
+      </c>
+    </row>
+    <row r="965" spans="1:6">
+      <c r="A965" s="1">
+        <v>42317</v>
+      </c>
+      <c r="B965" s="5"/>
+      <c r="D965" s="5"/>
+      <c r="E965" t="s">
+        <v>26</v>
+      </c>
+      <c r="F965" s="8">
+        <v>1899.7</v>
+      </c>
+    </row>
+    <row r="966" spans="1:6">
+      <c r="A966" s="1">
+        <v>42317</v>
+      </c>
+      <c r="B966" s="5"/>
+      <c r="D966" s="5"/>
+      <c r="E966" t="s">
+        <v>27</v>
+      </c>
+      <c r="F966" s="8">
+        <v>1867.7</v>
+      </c>
+    </row>
+    <row r="967" spans="1:6">
+      <c r="A967" s="1">
+        <v>42317</v>
+      </c>
+      <c r="B967" s="5"/>
+      <c r="D967" s="5"/>
+      <c r="E967" t="s">
+        <v>28</v>
+      </c>
+      <c r="F967" s="8">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="968" spans="1:6">
+      <c r="A968" s="1">
+        <v>42317</v>
+      </c>
+      <c r="B968" s="5"/>
+      <c r="D968" s="5"/>
+      <c r="E968" t="s">
+        <v>29</v>
+      </c>
+      <c r="F968" s="8">
+        <v>2082.8000000000002</v>
+      </c>
+    </row>
+    <row r="969" spans="1:6">
+      <c r="A969" s="1">
+        <v>42317</v>
+      </c>
+      <c r="B969" s="5"/>
+      <c r="D969" s="5"/>
+      <c r="E969" t="s">
+        <v>30</v>
+      </c>
+      <c r="F969" s="8">
+        <v>1543.9</v>
+      </c>
+    </row>
+    <row r="970" spans="1:6">
+      <c r="A970" s="1">
+        <v>42317</v>
+      </c>
+      <c r="B970" s="5"/>
+      <c r="D970" s="5"/>
+      <c r="E970" t="s">
+        <v>5</v>
+      </c>
+      <c r="F970" s="8">
+        <v>1578.5</v>
+      </c>
+    </row>
+    <row r="971" spans="1:6">
+      <c r="A971" s="1">
+        <v>42317</v>
+      </c>
+      <c r="B971" s="5"/>
+      <c r="D971" s="5"/>
+      <c r="E971" t="s">
+        <v>24</v>
+      </c>
+      <c r="F971" s="8">
+        <v>1892.8</v>
+      </c>
+    </row>
+    <row r="972" spans="1:6">
+      <c r="A972" s="1">
+        <v>42317</v>
+      </c>
+      <c r="B972" s="5"/>
+      <c r="D972" s="5"/>
+      <c r="E972" t="s">
+        <v>8</v>
+      </c>
+      <c r="F972" s="8">
+        <v>1270.9000000000001</v>
+      </c>
+    </row>
+    <row r="973" spans="1:6">
+      <c r="A973" s="1">
+        <v>42317</v>
+      </c>
+      <c r="B973" s="5"/>
+      <c r="D973" s="5"/>
+      <c r="E973" t="s">
+        <v>10</v>
+      </c>
+      <c r="F973" s="8">
+        <v>2022.6</v>
+      </c>
+    </row>
+    <row r="974" spans="1:6">
+      <c r="A974" s="1">
+        <v>42317</v>
+      </c>
+      <c r="B974" s="5"/>
+      <c r="D974" s="5"/>
+      <c r="E974" t="s">
+        <v>12</v>
+      </c>
+      <c r="F974" s="8">
+        <v>1716.1</v>
+      </c>
+    </row>
+    <row r="975" spans="1:6">
+      <c r="A975" s="1">
+        <v>42317</v>
+      </c>
+      <c r="B975" s="5"/>
+      <c r="D975" s="5"/>
+      <c r="E975" t="s">
+        <v>14</v>
+      </c>
+      <c r="F975" s="8">
+        <v>1982.9</v>
+      </c>
+    </row>
+    <row r="976" spans="1:6">
+      <c r="A976" s="1">
+        <v>42319</v>
+      </c>
+      <c r="B976" s="5">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="D976">
+        <v>10</v>
+      </c>
+      <c r="E976" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="977" spans="1:7">
+      <c r="A977" s="1">
+        <v>42319</v>
+      </c>
+      <c r="B977" s="5">
+        <v>0.78819444444444453</v>
+      </c>
+      <c r="D977">
+        <v>6</v>
+      </c>
+      <c r="E977" t="s">
+        <v>5</v>
+      </c>
+      <c r="F977" s="8">
+        <v>1584.6</v>
+      </c>
+    </row>
+    <row r="978" spans="1:7">
+      <c r="A978" s="1">
+        <v>42319</v>
+      </c>
+      <c r="B978" s="5">
+        <v>0.78819444444444453</v>
+      </c>
+      <c r="D978">
+        <v>16</v>
+      </c>
+      <c r="E978" t="s">
+        <v>24</v>
+      </c>
+      <c r="F978" s="8">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="979" spans="1:7">
+      <c r="A979" s="1">
+        <v>42319</v>
+      </c>
+      <c r="B979" s="5">
+        <v>0.78819444444444453</v>
+      </c>
+      <c r="D979">
+        <v>13</v>
+      </c>
+      <c r="E979" t="s">
+        <v>8</v>
+      </c>
+      <c r="F979" s="8">
+        <v>1270.8</v>
+      </c>
+    </row>
+    <row r="980" spans="1:7">
+      <c r="A980" s="1">
+        <v>42319</v>
+      </c>
+      <c r="B980" s="5">
+        <v>0.78819444444444453</v>
+      </c>
+      <c r="D980">
+        <v>14</v>
+      </c>
+      <c r="E980" t="s">
+        <v>10</v>
+      </c>
+      <c r="F980" s="8">
+        <v>2024.5</v>
+      </c>
+    </row>
+    <row r="981" spans="1:7">
+      <c r="A981" s="1">
+        <v>42319</v>
+      </c>
+      <c r="B981" s="5">
+        <v>0.78819444444444453</v>
+      </c>
+      <c r="D981">
+        <v>11</v>
+      </c>
+      <c r="E981" t="s">
+        <v>12</v>
+      </c>
+      <c r="F981" s="8">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="982" spans="1:7">
+      <c r="A982" s="1">
+        <v>42319</v>
+      </c>
+      <c r="B982" s="5">
+        <v>0.78819444444444453</v>
+      </c>
+      <c r="D982">
+        <v>1</v>
+      </c>
+      <c r="E982" t="s">
+        <v>14</v>
+      </c>
+      <c r="F982" s="8">
+        <v>1981.3</v>
+      </c>
+    </row>
+    <row r="983" spans="1:7">
+      <c r="A983" s="1">
+        <v>42319</v>
+      </c>
+      <c r="B983" s="5">
+        <v>0.80486111111111114</v>
+      </c>
+      <c r="D983">
+        <v>10</v>
+      </c>
+      <c r="E983" t="s">
+        <v>46</v>
+      </c>
+      <c r="F983" s="8"/>
+    </row>
+    <row r="984" spans="1:7">
+      <c r="A984" s="1">
+        <v>42319</v>
+      </c>
+      <c r="B984" s="5">
+        <v>0.81180555555555556</v>
+      </c>
+      <c r="D984" s="14">
+        <v>4</v>
+      </c>
+      <c r="E984" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F984" s="15">
+        <v>2025.2</v>
+      </c>
+      <c r="G984" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="985" spans="1:7">
+      <c r="A985" s="1">
+        <v>42319</v>
+      </c>
+      <c r="B985" s="5">
+        <v>0.81180555555555556</v>
+      </c>
+      <c r="D985" s="14">
+        <v>2</v>
+      </c>
+      <c r="E985" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F985" s="15">
+        <v>1906.4</v>
+      </c>
+      <c r="G985" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="986" spans="1:7">
+      <c r="A986" s="1">
+        <v>42319</v>
+      </c>
+      <c r="B986" s="5">
+        <v>0.81180555555555556</v>
+      </c>
+      <c r="D986" s="14">
+        <v>12</v>
+      </c>
+      <c r="E986" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F986" s="15">
+        <v>1867.7</v>
+      </c>
+      <c r="G986" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="987" spans="1:7">
+      <c r="A987" s="1">
+        <v>42319</v>
+      </c>
+      <c r="B987" s="5">
+        <v>0.81180555555555556</v>
+      </c>
+      <c r="D987" s="14">
+        <v>8</v>
+      </c>
+      <c r="E987" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F987" s="15">
+        <v>1960.5</v>
+      </c>
+      <c r="G987" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="988" spans="1:7">
+      <c r="A988" s="1">
+        <v>42319</v>
+      </c>
+      <c r="B988" s="5">
+        <v>0.81180555555555556</v>
+      </c>
+      <c r="D988" s="14">
+        <v>5</v>
+      </c>
+      <c r="E988" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F988" s="15">
+        <v>2083.6999999999998</v>
+      </c>
+      <c r="G988" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="989" spans="1:7">
+      <c r="A989" s="1">
+        <v>42319</v>
+      </c>
+      <c r="B989" s="5">
+        <v>0.81180555555555556</v>
+      </c>
+      <c r="D989" s="14">
+        <v>9</v>
+      </c>
+      <c r="E989" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F989" s="15">
+        <v>1548.9</v>
+      </c>
+      <c r="G989" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="990" spans="1:7">
+      <c r="A990" s="1">
+        <v>42319</v>
+      </c>
+      <c r="B990" s="5">
+        <v>0.85972222222222217</v>
+      </c>
+      <c r="D990">
+        <v>10</v>
+      </c>
+      <c r="E990" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="991" spans="1:7">
+      <c r="A991" s="1">
+        <v>42319</v>
+      </c>
+      <c r="B991" s="5">
+        <v>0.86388888888888893</v>
+      </c>
+      <c r="D991">
+        <v>6</v>
+      </c>
+      <c r="E991" t="s">
+        <v>25</v>
+      </c>
+      <c r="F991" s="8">
+        <v>2025.2</v>
+      </c>
+      <c r="G991" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="992" spans="1:7">
+      <c r="A992" s="1">
+        <v>42319</v>
+      </c>
+      <c r="B992" s="5">
+        <v>0.86388888888888893</v>
+      </c>
+      <c r="D992">
+        <v>16</v>
+      </c>
+      <c r="E992" t="s">
+        <v>26</v>
+      </c>
+      <c r="F992" s="8">
+        <v>1906.4</v>
+      </c>
+      <c r="G992" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="993" spans="1:7">
+      <c r="A993" s="1">
+        <v>42319</v>
+      </c>
+      <c r="B993" s="5">
+        <v>0.86388888888888893</v>
+      </c>
+      <c r="D993">
+        <v>13</v>
+      </c>
+      <c r="E993" t="s">
+        <v>27</v>
+      </c>
+      <c r="F993" s="8">
+        <v>1867.7</v>
+      </c>
+      <c r="G993" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="994" spans="1:7">
+      <c r="A994" s="1">
+        <v>42319</v>
+      </c>
+      <c r="B994" s="5">
+        <v>0.86388888888888893</v>
+      </c>
+      <c r="D994">
+        <v>14</v>
+      </c>
+      <c r="E994" t="s">
+        <v>28</v>
+      </c>
+      <c r="F994" s="8">
+        <v>1960.5</v>
+      </c>
+      <c r="G994" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="995" spans="1:7">
+      <c r="A995" s="1">
+        <v>42319</v>
+      </c>
+      <c r="B995" s="5">
+        <v>0.86388888888888893</v>
+      </c>
+      <c r="D995">
+        <v>11</v>
+      </c>
+      <c r="E995" t="s">
+        <v>29</v>
+      </c>
+      <c r="F995" s="8">
+        <v>2083.6999999999998</v>
+      </c>
+      <c r="G995" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="996" spans="1:7">
+      <c r="A996" s="1">
+        <v>42319</v>
+      </c>
+      <c r="B996" s="5">
+        <v>0.86388888888888893</v>
+      </c>
+      <c r="D996">
+        <v>1</v>
+      </c>
+      <c r="E996" t="s">
+        <v>30</v>
+      </c>
+      <c r="F996" s="8">
+        <v>1548.9</v>
+      </c>
+      <c r="G996" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="997" spans="1:7">
+      <c r="A997" s="1">
+        <v>42319</v>
+      </c>
+      <c r="B997" s="5">
+        <v>0.96250000000000002</v>
+      </c>
+      <c r="D997">
+        <v>10</v>
+      </c>
+      <c r="E997" t="s">
+        <v>47</v>
+      </c>
+      <c r="F997" s="16"/>
+    </row>
+    <row r="998" spans="1:7">
+      <c r="A998" s="1">
+        <v>42319</v>
+      </c>
+      <c r="B998" s="5">
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="D998">
+        <v>6</v>
+      </c>
+      <c r="E998" t="s">
+        <v>1</v>
+      </c>
+      <c r="F998" s="8">
+        <v>1954.2</v>
+      </c>
+    </row>
+    <row r="999" spans="1:7">
+      <c r="A999" s="1">
+        <v>42319</v>
+      </c>
+      <c r="B999" s="5">
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="D999">
+        <v>16</v>
+      </c>
+      <c r="E999" t="s">
+        <v>2</v>
+      </c>
+      <c r="F999" s="8">
+        <v>2166.6999999999998</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:7">
+      <c r="A1000" s="1">
+        <v>42319</v>
+      </c>
+      <c r="B1000" s="5">
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="D1000">
+        <v>13</v>
+      </c>
+      <c r="E1000" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1000" s="8">
+        <v>1415.2</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:7">
+      <c r="A1001" s="1">
+        <v>42319</v>
+      </c>
+      <c r="B1001" s="5">
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="D1001">
+        <v>14</v>
+      </c>
+      <c r="E1001" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1001" s="8">
+        <v>1836.2</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:7">
+      <c r="A1002" s="1">
+        <v>42319</v>
+      </c>
+      <c r="B1002" s="5">
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="D1002">
+        <v>11</v>
+      </c>
+      <c r="E1002" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1002" s="8">
+        <v>1846.4</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:7">
+      <c r="A1003" s="1">
+        <v>42319</v>
+      </c>
+      <c r="B1003" s="5">
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="D1003">
+        <v>1</v>
+      </c>
+      <c r="E1003" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1003" s="8">
+        <v>2005.4</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:7">
+      <c r="A1004" s="1">
+        <v>42319</v>
+      </c>
+      <c r="B1004" s="5">
+        <v>0.98333333333333339</v>
+      </c>
+      <c r="D1004">
+        <v>10</v>
+      </c>
+      <c r="E1004" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:7">
+      <c r="A1005" s="1">
+        <v>42319</v>
+      </c>
+      <c r="B1005" s="5">
+        <v>0.9902777777777777</v>
+      </c>
+      <c r="D1005">
+        <v>4</v>
+      </c>
+      <c r="E1005" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1005" s="8">
+        <v>1914.5</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:7">
+      <c r="A1006" s="1">
+        <v>42319</v>
+      </c>
+      <c r="B1006" s="5">
+        <v>0.9902777777777777</v>
+      </c>
+      <c r="D1006">
+        <v>2</v>
+      </c>
+      <c r="E1006" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1006" s="8">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:7">
+      <c r="A1007" s="1">
+        <v>42319</v>
+      </c>
+      <c r="B1007" s="5">
+        <v>0.9902777777777777</v>
+      </c>
+      <c r="D1007">
+        <v>12</v>
+      </c>
+      <c r="E1007" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1007" s="8">
+        <v>1638.7</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:7">
+      <c r="A1008" s="1">
+        <v>42319</v>
+      </c>
+      <c r="B1008" s="5">
+        <v>0.9902777777777777</v>
+      </c>
+      <c r="D1008">
+        <v>8</v>
+      </c>
+      <c r="E1008" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1008" s="8">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:6">
+      <c r="A1009" s="1">
+        <v>42319</v>
+      </c>
+      <c r="B1009" s="5">
+        <v>0.9902777777777777</v>
+      </c>
+      <c r="D1009">
+        <v>5</v>
+      </c>
+      <c r="E1009" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1009" s="8">
+        <v>1653.9</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:6">
+      <c r="A1010" s="1">
+        <v>42319</v>
+      </c>
+      <c r="B1010" s="5">
+        <v>0.9902777777777777</v>
+      </c>
+      <c r="D1010">
+        <v>9</v>
+      </c>
+      <c r="E1010" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1010" s="8">
+        <v>1632.8</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:6">
+      <c r="A1011" s="1">
+        <v>42320</v>
+      </c>
+      <c r="B1011" s="5">
+        <v>2.4999999999999998E-2</v>
+      </c>
+      <c r="D1011">
+        <v>10</v>
+      </c>
+      <c r="E1011" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:6">
+      <c r="A1012" s="1">
+        <v>42320</v>
+      </c>
+      <c r="B1012" s="5">
+        <v>2.6388888888888889E-2</v>
+      </c>
+      <c r="D1012">
+        <v>6</v>
+      </c>
+      <c r="E1012" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1012" s="8">
+        <v>1534.6</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:6">
+      <c r="A1013" s="1">
+        <v>42320</v>
+      </c>
+      <c r="B1013" s="5">
+        <v>2.6388888888888889E-2</v>
+      </c>
+      <c r="D1013">
+        <v>16</v>
+      </c>
+      <c r="E1013" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1013" s="8">
+        <v>1911.8</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:6">
+      <c r="A1014" s="1">
+        <v>42320</v>
+      </c>
+      <c r="B1014" s="5">
+        <v>2.6388888888888889E-2</v>
+      </c>
+      <c r="D1014">
+        <v>13</v>
+      </c>
+      <c r="E1014" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1014" s="8">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:6">
+      <c r="A1015" s="1">
+        <v>42320</v>
+      </c>
+      <c r="B1015" s="5">
+        <v>2.6388888888888889E-2</v>
+      </c>
+      <c r="D1015">
+        <v>14</v>
+      </c>
+      <c r="E1015" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1015" s="8">
+        <v>1421.2</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:6">
+      <c r="A1016" s="1">
+        <v>42320</v>
+      </c>
+      <c r="B1016" s="5">
+        <v>2.6388888888888889E-2</v>
+      </c>
+      <c r="D1016">
+        <v>11</v>
+      </c>
+      <c r="E1016" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1016" s="8">
+        <v>2165.6999999999998</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:6">
+      <c r="A1017" s="1">
+        <v>42320</v>
+      </c>
+      <c r="B1017" s="5">
+        <v>2.6388888888888889E-2</v>
+      </c>
+      <c r="D1017">
+        <v>1</v>
+      </c>
+      <c r="E1017" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1017" s="8">
+        <v>1666.6</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:6">
+      <c r="D1018" s="2"/>
+    </row>
+    <row r="1019" spans="1:6">
+      <c r="D1019" s="2"/>
+    </row>
+    <row r="1020" spans="1:6">
+      <c r="D1020" s="2"/>
+    </row>
+    <row r="1021" spans="1:6">
+      <c r="D1021" s="2"/>
+    </row>
+    <row r="1022" spans="1:6">
+      <c r="D1022" s="2"/>
+    </row>
+    <row r="1023" spans="1:6">
+      <c r="D1023" s="2"/>
+    </row>
+    <row r="1024" spans="1:6">
+      <c r="D1024" s="2"/>
+    </row>
+    <row r="1025" spans="4:4">
+      <c r="D1025" s="2"/>
+    </row>
+    <row r="1026" spans="4:4">
+      <c r="D1026" s="2"/>
+    </row>
+    <row r="1027" spans="4:4">
+      <c r="D1027" s="2"/>
+    </row>
+    <row r="1028" spans="4:4">
+      <c r="D1028" s="2"/>
+    </row>
+    <row r="1029" spans="4:4">
+      <c r="D1029" s="2"/>
+    </row>
+    <row r="1030" spans="4:4">
+      <c r="D1030" s="2"/>
+    </row>
+    <row r="1031" spans="4:4">
+      <c r="D1031" s="2"/>
+    </row>
+    <row r="1032" spans="4:4">
+      <c r="D1032" s="2"/>
+    </row>
+    <row r="1033" spans="4:4">
+      <c r="D1033" s="2"/>
+    </row>
+    <row r="1034" spans="4:4">
+      <c r="D1034" s="2"/>
+    </row>
+    <row r="1035" spans="4:4">
+      <c r="D1035" s="2"/>
+    </row>
+    <row r="1036" spans="4:4">
+      <c r="D1036" s="2"/>
+    </row>
+    <row r="1037" spans="4:4">
+      <c r="D1037" s="2"/>
+    </row>
+    <row r="1038" spans="4:4">
+      <c r="D1038" s="2"/>
+    </row>
+    <row r="1039" spans="4:4">
+      <c r="D1039" s="2"/>
+    </row>
+    <row r="1040" spans="4:4">
+      <c r="D1040" s="2"/>
+    </row>
+    <row r="1041" spans="4:4">
+      <c r="D1041" s="2"/>
+    </row>
+    <row r="1042" spans="4:4">
+      <c r="D1042" s="2"/>
+    </row>
+    <row r="1043" spans="4:4">
+      <c r="D1043" s="2"/>
+    </row>
+    <row r="1044" spans="4:4">
+      <c r="D1044" s="2"/>
+    </row>
+    <row r="1045" spans="4:4">
+      <c r="D1045" s="2"/>
+    </row>
+    <row r="1046" spans="4:4">
+      <c r="D1046" s="2"/>
+    </row>
+    <row r="1047" spans="4:4">
+      <c r="D1047" s="2"/>
+    </row>
+    <row r="1048" spans="4:4">
+      <c r="D1048" s="2"/>
+    </row>
+    <row r="1049" spans="4:4">
+      <c r="D1049" s="2"/>
+    </row>
+    <row r="1050" spans="4:4">
+      <c r="D1050" s="2"/>
+    </row>
+    <row r="1051" spans="4:4">
+      <c r="D1051" s="2"/>
+    </row>
+    <row r="1052" spans="4:4">
+      <c r="D1052" s="2"/>
+    </row>
+    <row r="1053" spans="4:4">
+      <c r="D1053" s="2"/>
+    </row>
+    <row r="1054" spans="4:4">
+      <c r="D1054" s="2"/>
+    </row>
+    <row r="1055" spans="4:4">
+      <c r="D1055" s="2"/>
+    </row>
+    <row r="1056" spans="4:4">
+      <c r="D1056" s="2"/>
+    </row>
+    <row r="1057" spans="4:4">
+      <c r="D1057" s="2"/>
+    </row>
+    <row r="1058" spans="4:4">
+      <c r="D1058" s="2"/>
+    </row>
+    <row r="1059" spans="4:4">
+      <c r="D1059" s="2"/>
+    </row>
+    <row r="1060" spans="4:4">
+      <c r="D1060" s="2"/>
+    </row>
+    <row r="1061" spans="4:4">
+      <c r="D1061" s="2"/>
+    </row>
+    <row r="1062" spans="4:4">
+      <c r="D1062" s="2"/>
+    </row>
+    <row r="1063" spans="4:4">
+      <c r="D1063" s="2"/>
+    </row>
+    <row r="1064" spans="4:4">
+      <c r="D1064" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A3:G448">

--- a/data/CoreData.xlsx
+++ b/data/CoreData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24700" windowHeight="15600" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24740" windowHeight="15600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="treatments.csv" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="78">
   <si>
     <t>Treatment</t>
   </si>
@@ -246,6 +246,15 @@
   <si>
     <t>Keep these</t>
   </si>
+  <si>
+    <t>port switch</t>
+  </si>
+  <si>
+    <t>20C</t>
+  </si>
+  <si>
+    <t>4C</t>
+  </si>
 </sst>
 </file>
 
@@ -339,8 +348,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="243">
+  <cellStyleXfs count="257">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -607,7 +630,7 @@
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="243">
+  <cellStyles count="257">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -729,6 +752,13 @@
     <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -850,6 +880,13 @@
     <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1153,7 +1190,7 @@
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1632,11 +1669,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1064"/>
+  <dimension ref="A1:G1152"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A983" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1011" sqref="E1011"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -17816,145 +17853,1969 @@
       </c>
     </row>
     <row r="1018" spans="1:6">
-      <c r="D1018" s="2"/>
+      <c r="A1018" s="1">
+        <v>42327</v>
+      </c>
+      <c r="B1018" s="5"/>
+      <c r="E1018" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1018" s="8">
+        <v>1958.6</v>
+      </c>
     </row>
     <row r="1019" spans="1:6">
-      <c r="D1019" s="2"/>
+      <c r="A1019" s="1">
+        <v>42327</v>
+      </c>
+      <c r="B1019" s="5"/>
+      <c r="E1019" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1019" s="8">
+        <v>2174.1</v>
+      </c>
     </row>
     <row r="1020" spans="1:6">
-      <c r="D1020" s="2"/>
+      <c r="A1020" s="1">
+        <v>42327</v>
+      </c>
+      <c r="B1020" s="5"/>
+      <c r="E1020" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1020" s="8">
+        <v>1421.4</v>
+      </c>
     </row>
     <row r="1021" spans="1:6">
-      <c r="D1021" s="2"/>
+      <c r="A1021" s="1">
+        <v>42327</v>
+      </c>
+      <c r="B1021" s="5"/>
+      <c r="E1021" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1021" s="8">
+        <v>1840.9</v>
+      </c>
     </row>
     <row r="1022" spans="1:6">
-      <c r="D1022" s="2"/>
+      <c r="A1022" s="1">
+        <v>42327</v>
+      </c>
+      <c r="B1022" s="5"/>
+      <c r="E1022" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1022" s="8">
+        <v>1850.6</v>
+      </c>
     </row>
     <row r="1023" spans="1:6">
-      <c r="D1023" s="2"/>
+      <c r="A1023" s="1">
+        <v>42327</v>
+      </c>
+      <c r="B1023" s="5"/>
+      <c r="E1023" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1023" s="8">
+        <v>2014.1</v>
+      </c>
     </row>
     <row r="1024" spans="1:6">
-      <c r="D1024" s="2"/>
-    </row>
-    <row r="1025" spans="4:4">
-      <c r="D1025" s="2"/>
-    </row>
-    <row r="1026" spans="4:4">
-      <c r="D1026" s="2"/>
-    </row>
-    <row r="1027" spans="4:4">
-      <c r="D1027" s="2"/>
-    </row>
-    <row r="1028" spans="4:4">
-      <c r="D1028" s="2"/>
-    </row>
-    <row r="1029" spans="4:4">
-      <c r="D1029" s="2"/>
-    </row>
-    <row r="1030" spans="4:4">
-      <c r="D1030" s="2"/>
-    </row>
-    <row r="1031" spans="4:4">
-      <c r="D1031" s="2"/>
-    </row>
-    <row r="1032" spans="4:4">
-      <c r="D1032" s="2"/>
-    </row>
-    <row r="1033" spans="4:4">
-      <c r="D1033" s="2"/>
-    </row>
-    <row r="1034" spans="4:4">
-      <c r="D1034" s="2"/>
-    </row>
-    <row r="1035" spans="4:4">
-      <c r="D1035" s="2"/>
-    </row>
-    <row r="1036" spans="4:4">
-      <c r="D1036" s="2"/>
-    </row>
-    <row r="1037" spans="4:4">
-      <c r="D1037" s="2"/>
-    </row>
-    <row r="1038" spans="4:4">
-      <c r="D1038" s="2"/>
-    </row>
-    <row r="1039" spans="4:4">
-      <c r="D1039" s="2"/>
-    </row>
-    <row r="1040" spans="4:4">
-      <c r="D1040" s="2"/>
-    </row>
-    <row r="1041" spans="4:4">
-      <c r="D1041" s="2"/>
-    </row>
-    <row r="1042" spans="4:4">
-      <c r="D1042" s="2"/>
-    </row>
-    <row r="1043" spans="4:4">
-      <c r="D1043" s="2"/>
-    </row>
-    <row r="1044" spans="4:4">
-      <c r="D1044" s="2"/>
-    </row>
-    <row r="1045" spans="4:4">
-      <c r="D1045" s="2"/>
-    </row>
-    <row r="1046" spans="4:4">
-      <c r="D1046" s="2"/>
-    </row>
-    <row r="1047" spans="4:4">
-      <c r="D1047" s="2"/>
-    </row>
-    <row r="1048" spans="4:4">
-      <c r="D1048" s="2"/>
-    </row>
-    <row r="1049" spans="4:4">
-      <c r="D1049" s="2"/>
-    </row>
-    <row r="1050" spans="4:4">
-      <c r="D1050" s="2"/>
-    </row>
-    <row r="1051" spans="4:4">
-      <c r="D1051" s="2"/>
-    </row>
-    <row r="1052" spans="4:4">
-      <c r="D1052" s="2"/>
-    </row>
-    <row r="1053" spans="4:4">
-      <c r="D1053" s="2"/>
-    </row>
-    <row r="1054" spans="4:4">
-      <c r="D1054" s="2"/>
-    </row>
-    <row r="1055" spans="4:4">
-      <c r="D1055" s="2"/>
-    </row>
-    <row r="1056" spans="4:4">
-      <c r="D1056" s="2"/>
-    </row>
-    <row r="1057" spans="4:4">
-      <c r="D1057" s="2"/>
-    </row>
-    <row r="1058" spans="4:4">
-      <c r="D1058" s="2"/>
-    </row>
-    <row r="1059" spans="4:4">
-      <c r="D1059" s="2"/>
-    </row>
-    <row r="1060" spans="4:4">
-      <c r="D1060" s="2"/>
-    </row>
-    <row r="1061" spans="4:4">
-      <c r="D1061" s="2"/>
-    </row>
-    <row r="1062" spans="4:4">
-      <c r="D1062" s="2"/>
-    </row>
-    <row r="1063" spans="4:4">
-      <c r="D1063" s="2"/>
-    </row>
-    <row r="1064" spans="4:4">
-      <c r="D1064" s="2"/>
+      <c r="A1024" s="1">
+        <v>42327</v>
+      </c>
+      <c r="B1024" s="5"/>
+      <c r="E1024" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1024" s="8">
+        <v>1900.3</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:6">
+      <c r="A1025" s="1">
+        <v>42327</v>
+      </c>
+      <c r="B1025" s="5"/>
+      <c r="E1025" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1025" s="8">
+        <v>1688.7</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:6">
+      <c r="A1026" s="1">
+        <v>42327</v>
+      </c>
+      <c r="B1026" s="5"/>
+      <c r="E1026" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1026" s="8">
+        <v>1633.7</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:6">
+      <c r="A1027" s="1">
+        <v>42327</v>
+      </c>
+      <c r="B1027" s="5"/>
+      <c r="E1027" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1027" s="8">
+        <v>2106.1</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:6">
+      <c r="A1028" s="1">
+        <v>42327</v>
+      </c>
+      <c r="B1028" s="5"/>
+      <c r="E1028" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1028" s="8">
+        <v>1639.9</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:6">
+      <c r="A1029" s="1">
+        <v>42327</v>
+      </c>
+      <c r="B1029" s="5"/>
+      <c r="E1029" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1029" s="8">
+        <v>1630.6</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:6">
+      <c r="A1030" s="1">
+        <v>42327</v>
+      </c>
+      <c r="B1030" s="5"/>
+      <c r="E1030" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1030" s="8">
+        <v>1532.7</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:6">
+      <c r="A1031" s="1">
+        <v>42327</v>
+      </c>
+      <c r="B1031" s="5"/>
+      <c r="E1031" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1031" s="8">
+        <v>1915.1</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:6">
+      <c r="A1032" s="1">
+        <v>42327</v>
+      </c>
+      <c r="B1032" s="5"/>
+      <c r="E1032" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1032" s="8">
+        <v>2137.5</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:6">
+      <c r="A1033" s="1">
+        <v>42327</v>
+      </c>
+      <c r="B1033" s="5"/>
+      <c r="E1033" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1033" s="8">
+        <v>1406.5</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:6">
+      <c r="A1034" s="1">
+        <v>42327</v>
+      </c>
+      <c r="B1034" s="5"/>
+      <c r="E1034" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1034" s="8">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:6">
+      <c r="A1035" s="1">
+        <v>42327</v>
+      </c>
+      <c r="B1035" s="5"/>
+      <c r="E1035" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1035" s="8">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:6">
+      <c r="A1036" s="1">
+        <v>42327</v>
+      </c>
+      <c r="B1036" s="5"/>
+      <c r="E1036" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1036" s="8">
+        <v>2020.2</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:6">
+      <c r="A1037" s="1">
+        <v>42327</v>
+      </c>
+      <c r="B1037" s="5"/>
+      <c r="E1037" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1037" s="8">
+        <v>1904.6</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:6">
+      <c r="A1038" s="1">
+        <v>42327</v>
+      </c>
+      <c r="B1038" s="5"/>
+      <c r="E1038" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1038" s="8">
+        <v>1866.2</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:6">
+      <c r="A1039" s="1">
+        <v>42327</v>
+      </c>
+      <c r="B1039" s="5"/>
+      <c r="E1039" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1039" s="8">
+        <v>1953.6</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:6">
+      <c r="A1040" s="1">
+        <v>42327</v>
+      </c>
+      <c r="B1040" s="5"/>
+      <c r="E1040" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1040" s="8">
+        <v>2081.5</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:6">
+      <c r="A1041" s="1">
+        <v>42327</v>
+      </c>
+      <c r="B1041" s="5"/>
+      <c r="E1041" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1041" s="8">
+        <v>1543.7</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:6">
+      <c r="A1042" s="1">
+        <v>42327</v>
+      </c>
+      <c r="B1042" s="5"/>
+      <c r="E1042" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1042" s="8">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:6">
+      <c r="A1043" s="1">
+        <v>42327</v>
+      </c>
+      <c r="B1043" s="5"/>
+      <c r="E1043" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1043" s="8">
+        <v>1898.4</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:6">
+      <c r="A1044" s="1">
+        <v>42327</v>
+      </c>
+      <c r="B1044" s="5"/>
+      <c r="E1044" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1044" s="8">
+        <v>1274.8</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:6">
+      <c r="A1045" s="1">
+        <v>42327</v>
+      </c>
+      <c r="B1045" s="5"/>
+      <c r="E1045" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1045" s="8">
+        <v>2028.1</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:6">
+      <c r="A1046" s="1">
+        <v>42327</v>
+      </c>
+      <c r="B1046" s="5"/>
+      <c r="E1046" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1046" s="8">
+        <v>1718.2</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:6">
+      <c r="A1047" s="1">
+        <v>42327</v>
+      </c>
+      <c r="B1047" s="5"/>
+      <c r="E1047" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1047" s="8">
+        <v>1985.3</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:6">
+      <c r="A1048" s="1">
+        <v>42328</v>
+      </c>
+      <c r="B1048" s="5">
+        <v>0.7319444444444444</v>
+      </c>
+      <c r="D1048">
+        <v>10</v>
+      </c>
+      <c r="E1048" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1048" s="8"/>
+    </row>
+    <row r="1049" spans="1:6">
+      <c r="A1049" s="1">
+        <v>42328</v>
+      </c>
+      <c r="B1049" s="5">
+        <v>0.75624999999999998</v>
+      </c>
+      <c r="D1049">
+        <v>6</v>
+      </c>
+      <c r="E1049" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1049" s="8">
+        <v>1971.9</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:6">
+      <c r="A1050" s="1">
+        <v>42328</v>
+      </c>
+      <c r="B1050" s="5">
+        <v>0.75624999999999998</v>
+      </c>
+      <c r="D1050">
+        <v>16</v>
+      </c>
+      <c r="E1050" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1050" s="8">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:6">
+      <c r="A1051" s="1">
+        <v>42328</v>
+      </c>
+      <c r="B1051" s="5">
+        <v>0.75624999999999998</v>
+      </c>
+      <c r="D1051">
+        <v>13</v>
+      </c>
+      <c r="E1051" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1051" s="8">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:6">
+      <c r="A1052" s="1">
+        <v>42328</v>
+      </c>
+      <c r="B1052" s="5">
+        <v>0.75624999999999998</v>
+      </c>
+      <c r="D1052">
+        <v>14</v>
+      </c>
+      <c r="E1052" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1052" s="8">
+        <v>1845.6</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:6">
+      <c r="A1053" s="1">
+        <v>42328</v>
+      </c>
+      <c r="B1053" s="5">
+        <v>0.75624999999999998</v>
+      </c>
+      <c r="D1053">
+        <v>11</v>
+      </c>
+      <c r="E1053" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1053" s="8">
+        <v>1856.3</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:6">
+      <c r="A1054" s="1">
+        <v>42328</v>
+      </c>
+      <c r="B1054" s="5">
+        <v>0.75624999999999998</v>
+      </c>
+      <c r="D1054">
+        <v>1</v>
+      </c>
+      <c r="E1054" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1054" s="8">
+        <v>2017.8</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:6">
+      <c r="A1055" s="1">
+        <v>42328</v>
+      </c>
+      <c r="B1055" s="5">
+        <v>0.77361111111111114</v>
+      </c>
+      <c r="D1055">
+        <v>10</v>
+      </c>
+      <c r="E1055" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:6">
+      <c r="A1056" s="1">
+        <v>42328</v>
+      </c>
+      <c r="B1056" s="5">
+        <v>0.77986111111111101</v>
+      </c>
+      <c r="D1056">
+        <v>4</v>
+      </c>
+      <c r="E1056" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1056" s="8">
+        <v>1916.6</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:7">
+      <c r="A1057" s="1">
+        <v>42328</v>
+      </c>
+      <c r="B1057" s="5">
+        <v>0.77986111111111101</v>
+      </c>
+      <c r="D1057">
+        <v>2</v>
+      </c>
+      <c r="E1057" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1057" s="8">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:7">
+      <c r="A1058" s="1">
+        <v>42328</v>
+      </c>
+      <c r="B1058" s="5">
+        <v>0.77986111111111101</v>
+      </c>
+      <c r="D1058">
+        <v>12</v>
+      </c>
+      <c r="E1058" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1058" s="8">
+        <v>1639.8</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:7">
+      <c r="A1059" s="1">
+        <v>42328</v>
+      </c>
+      <c r="B1059" s="5">
+        <v>0.77986111111111101</v>
+      </c>
+      <c r="D1059">
+        <v>8</v>
+      </c>
+      <c r="E1059" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1059" s="8">
+        <v>2115.4</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:7">
+      <c r="A1060" s="1">
+        <v>42328</v>
+      </c>
+      <c r="B1060" s="5">
+        <v>0.77986111111111101</v>
+      </c>
+      <c r="D1060">
+        <v>5</v>
+      </c>
+      <c r="E1060" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1060" s="8">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:7">
+      <c r="A1061" s="1">
+        <v>42328</v>
+      </c>
+      <c r="B1061" s="5">
+        <v>0.77986111111111101</v>
+      </c>
+      <c r="D1061">
+        <v>9</v>
+      </c>
+      <c r="E1061" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1061" s="8">
+        <v>1631.5</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:7">
+      <c r="A1062" s="1">
+        <v>42328</v>
+      </c>
+      <c r="B1062" s="5">
+        <v>0.79722222222222217</v>
+      </c>
+      <c r="D1062">
+        <v>10</v>
+      </c>
+      <c r="E1062" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:7">
+      <c r="A1063" s="1">
+        <v>42328</v>
+      </c>
+      <c r="B1063" s="5">
+        <v>0.83819444444444446</v>
+      </c>
+      <c r="D1063">
+        <v>6</v>
+      </c>
+      <c r="E1063" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1063" s="8">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:7">
+      <c r="A1064" s="1">
+        <v>42328</v>
+      </c>
+      <c r="B1064" s="5">
+        <v>0.83819444444444446</v>
+      </c>
+      <c r="D1064">
+        <v>16</v>
+      </c>
+      <c r="E1064" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1064" s="8">
+        <v>1914.4</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:7">
+      <c r="A1065" s="1">
+        <v>42328</v>
+      </c>
+      <c r="B1065" s="5">
+        <v>0.83819444444444446</v>
+      </c>
+      <c r="D1065">
+        <v>13</v>
+      </c>
+      <c r="E1065" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1065" s="8">
+        <v>2138.1</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:7">
+      <c r="A1066" s="1">
+        <v>42328</v>
+      </c>
+      <c r="B1066" s="5">
+        <v>0.83819444444444446</v>
+      </c>
+      <c r="D1066">
+        <v>14</v>
+      </c>
+      <c r="E1066" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1066" s="8">
+        <v>1420.3</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:7">
+      <c r="A1067" s="1">
+        <v>42328</v>
+      </c>
+      <c r="B1067" s="5">
+        <v>0.83819444444444446</v>
+      </c>
+      <c r="D1067">
+        <v>11</v>
+      </c>
+      <c r="E1067" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1067" s="8">
+        <v>2171.6</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:7">
+      <c r="A1068" s="1">
+        <v>42328</v>
+      </c>
+      <c r="B1068" s="5">
+        <v>0.83819444444444446</v>
+      </c>
+      <c r="D1068">
+        <v>1</v>
+      </c>
+      <c r="E1068" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1068" s="8">
+        <v>1662.3</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:7">
+      <c r="A1069" s="1">
+        <v>42328</v>
+      </c>
+      <c r="B1069" s="5">
+        <v>0.8534722222222223</v>
+      </c>
+      <c r="D1069">
+        <v>10</v>
+      </c>
+      <c r="E1069" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:7">
+      <c r="A1070" s="1">
+        <v>42328</v>
+      </c>
+      <c r="B1070" s="5">
+        <v>0.87777777777777777</v>
+      </c>
+      <c r="D1070" s="4">
+        <v>6</v>
+      </c>
+      <c r="E1070" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1070" s="8">
+        <v>2023.8</v>
+      </c>
+      <c r="G1070" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:7">
+      <c r="A1071" s="1">
+        <v>42328</v>
+      </c>
+      <c r="B1071" s="5">
+        <v>0.87777777777777777</v>
+      </c>
+      <c r="D1071" s="4">
+        <v>16</v>
+      </c>
+      <c r="E1071" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1071" s="8">
+        <v>1905.5</v>
+      </c>
+      <c r="G1071" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:7">
+      <c r="A1072" s="1">
+        <v>42328</v>
+      </c>
+      <c r="B1072" s="5">
+        <v>0.87777777777777777</v>
+      </c>
+      <c r="D1072" s="4">
+        <v>13</v>
+      </c>
+      <c r="E1072" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1072" s="8">
+        <v>1864.1</v>
+      </c>
+      <c r="G1072" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:7">
+      <c r="A1073" s="1">
+        <v>42328</v>
+      </c>
+      <c r="B1073" s="5">
+        <v>0.87777777777777777</v>
+      </c>
+      <c r="D1073" s="4">
+        <v>14</v>
+      </c>
+      <c r="E1073" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1073" s="8">
+        <v>1957.2</v>
+      </c>
+      <c r="G1073" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:7">
+      <c r="A1074" s="1">
+        <v>42328</v>
+      </c>
+      <c r="B1074" s="5">
+        <v>0.87777777777777777</v>
+      </c>
+      <c r="D1074" s="4">
+        <v>11</v>
+      </c>
+      <c r="E1074" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1074" s="8">
+        <v>2079.6</v>
+      </c>
+      <c r="G1074" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:7">
+      <c r="A1075" s="1">
+        <v>42328</v>
+      </c>
+      <c r="B1075" s="5">
+        <v>0.87777777777777777</v>
+      </c>
+      <c r="D1075" s="4">
+        <v>1</v>
+      </c>
+      <c r="E1075" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1075" s="8">
+        <v>1550.3</v>
+      </c>
+      <c r="G1075" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:7">
+      <c r="A1076" s="1">
+        <v>42328</v>
+      </c>
+      <c r="B1076" s="5">
+        <v>0.89444444444444438</v>
+      </c>
+      <c r="D1076">
+        <v>10</v>
+      </c>
+      <c r="E1076" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:7">
+      <c r="A1077" s="1">
+        <v>42328</v>
+      </c>
+      <c r="B1077" s="5">
+        <v>0.91736111111111107</v>
+      </c>
+      <c r="D1077">
+        <v>6</v>
+      </c>
+      <c r="E1077" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1077" s="8">
+        <v>1585.2</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:7">
+      <c r="A1078" s="1">
+        <v>42328</v>
+      </c>
+      <c r="B1078" s="5">
+        <v>0.91736111111111107</v>
+      </c>
+      <c r="D1078">
+        <v>16</v>
+      </c>
+      <c r="E1078" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1078" s="8">
+        <v>1898.9</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:7">
+      <c r="A1079" s="1">
+        <v>42328</v>
+      </c>
+      <c r="B1079" s="5">
+        <v>0.91736111111111107</v>
+      </c>
+      <c r="D1079">
+        <v>13</v>
+      </c>
+      <c r="E1079" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1079" s="8">
+        <v>1274.0999999999999</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:7">
+      <c r="A1080" s="1">
+        <v>42328</v>
+      </c>
+      <c r="B1080" s="5">
+        <v>0.91736111111111107</v>
+      </c>
+      <c r="D1080">
+        <v>14</v>
+      </c>
+      <c r="E1080" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1080" s="8">
+        <v>2030.5</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:7">
+      <c r="A1081" s="1">
+        <v>42328</v>
+      </c>
+      <c r="B1081" s="5">
+        <v>0.91736111111111107</v>
+      </c>
+      <c r="D1081">
+        <v>11</v>
+      </c>
+      <c r="E1081" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1081" s="8">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:7">
+      <c r="A1082" s="1">
+        <v>42328</v>
+      </c>
+      <c r="B1082" s="5">
+        <v>0.91736111111111107</v>
+      </c>
+      <c r="D1082">
+        <v>1</v>
+      </c>
+      <c r="E1082" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1082" s="8">
+        <v>1986.1</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:7">
+      <c r="A1083" s="1">
+        <v>42328</v>
+      </c>
+      <c r="B1083" s="5">
+        <v>0.93402777777777779</v>
+      </c>
+      <c r="D1083">
+        <v>10</v>
+      </c>
+      <c r="E1083" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1083" s="8"/>
+    </row>
+    <row r="1084" spans="1:7">
+      <c r="A1084" s="1">
+        <v>42332</v>
+      </c>
+      <c r="B1084" s="5"/>
+      <c r="E1084" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1084" s="8">
+        <v>1959.5</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:7">
+      <c r="A1085" s="1">
+        <v>42332</v>
+      </c>
+      <c r="B1085" s="5"/>
+      <c r="E1085" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1085" s="8">
+        <v>2175.5</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:7">
+      <c r="A1086" s="1">
+        <v>42332</v>
+      </c>
+      <c r="B1086" s="5"/>
+      <c r="E1086" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1086" s="8">
+        <v>1420.9</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:7">
+      <c r="A1087" s="1">
+        <v>42332</v>
+      </c>
+      <c r="B1087" s="5"/>
+      <c r="E1087" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1087" s="8">
+        <v>1840.2</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:7">
+      <c r="A1088" s="1">
+        <v>42332</v>
+      </c>
+      <c r="B1088" s="5"/>
+      <c r="E1088" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1088" s="8">
+        <v>1854.5</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:6">
+      <c r="A1089" s="1">
+        <v>42332</v>
+      </c>
+      <c r="B1089" s="5"/>
+      <c r="E1089" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1089" s="8">
+        <v>2012.6</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:6">
+      <c r="A1090" s="1">
+        <v>42332</v>
+      </c>
+      <c r="B1090" s="5"/>
+      <c r="E1090" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1090" s="8">
+        <v>1903.1</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:6">
+      <c r="A1091" s="1">
+        <v>42332</v>
+      </c>
+      <c r="B1091" s="5"/>
+      <c r="E1091" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1091" s="8">
+        <v>1694.4</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:6">
+      <c r="A1092" s="1">
+        <v>42332</v>
+      </c>
+      <c r="B1092" s="5"/>
+      <c r="E1092" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1092" s="8">
+        <v>1631.1</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:6">
+      <c r="A1093" s="1">
+        <v>42332</v>
+      </c>
+      <c r="B1093" s="5"/>
+      <c r="E1093" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1093" s="8">
+        <v>2107.1</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:6">
+      <c r="A1094" s="1">
+        <v>42332</v>
+      </c>
+      <c r="B1094" s="5"/>
+      <c r="E1094" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1094" s="8">
+        <v>1637.8</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:6">
+      <c r="A1095" s="1">
+        <v>42332</v>
+      </c>
+      <c r="B1095" s="5"/>
+      <c r="E1095" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1095" s="8">
+        <v>1629.6</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:6">
+      <c r="A1096" s="1">
+        <v>42332</v>
+      </c>
+      <c r="B1096" s="5"/>
+      <c r="E1096" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1096" s="8">
+        <v>1530.4</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:6">
+      <c r="A1097" s="1">
+        <v>42332</v>
+      </c>
+      <c r="B1097" s="5"/>
+      <c r="E1097" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1097" s="8">
+        <v>1912.6</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:6">
+      <c r="A1098" s="1">
+        <v>42332</v>
+      </c>
+      <c r="B1098" s="5"/>
+      <c r="E1098" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1098" s="8">
+        <v>2136.5</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:6">
+      <c r="A1099" s="1">
+        <v>42332</v>
+      </c>
+      <c r="B1099" s="5"/>
+      <c r="E1099" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1099" s="8">
+        <v>1413.2</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:6">
+      <c r="A1100" s="1">
+        <v>42332</v>
+      </c>
+      <c r="B1100" s="5"/>
+      <c r="E1100" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1100" s="8">
+        <v>2168.4</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:6">
+      <c r="A1101" s="1">
+        <v>42332</v>
+      </c>
+      <c r="B1101" s="5"/>
+      <c r="E1101" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1101" s="8">
+        <v>1657.2</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:6">
+      <c r="A1102" s="1">
+        <v>42332</v>
+      </c>
+      <c r="B1102" s="5"/>
+      <c r="E1102" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1102" s="8">
+        <v>2020.9</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:6">
+      <c r="A1103" s="1">
+        <v>42332</v>
+      </c>
+      <c r="B1103" s="5"/>
+      <c r="E1103" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1103" s="8">
+        <v>1904.9</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:6">
+      <c r="A1104" s="1">
+        <v>42332</v>
+      </c>
+      <c r="B1104" s="5"/>
+      <c r="E1104" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1104" s="8">
+        <v>1863.5</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:6">
+      <c r="A1105" s="1">
+        <v>42332</v>
+      </c>
+      <c r="B1105" s="5"/>
+      <c r="E1105" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1105" s="8">
+        <v>1954.3</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:6">
+      <c r="A1106" s="1">
+        <v>42332</v>
+      </c>
+      <c r="B1106" s="5"/>
+      <c r="E1106" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1106" s="8">
+        <v>2080.1</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:6">
+      <c r="A1107" s="1">
+        <v>42332</v>
+      </c>
+      <c r="B1107" s="5"/>
+      <c r="E1107" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1107" s="8">
+        <v>1542.3</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:6">
+      <c r="A1108" s="1">
+        <v>42332</v>
+      </c>
+      <c r="B1108" s="5"/>
+      <c r="E1108" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1108" s="8">
+        <v>1579.9</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:6">
+      <c r="A1109" s="1">
+        <v>42332</v>
+      </c>
+      <c r="B1109" s="5"/>
+      <c r="E1109" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1109" s="8">
+        <v>1895.8</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:6">
+      <c r="A1110" s="1">
+        <v>42332</v>
+      </c>
+      <c r="B1110" s="5"/>
+      <c r="E1110" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1110" s="8">
+        <v>1271.0999999999999</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:6">
+      <c r="A1111" s="1">
+        <v>42332</v>
+      </c>
+      <c r="B1111" s="5"/>
+      <c r="E1111" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1111" s="8">
+        <v>2023.2</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:6">
+      <c r="A1112" s="1">
+        <v>42332</v>
+      </c>
+      <c r="B1112" s="5"/>
+      <c r="E1112" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1112" s="8">
+        <v>1718.2</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:6">
+      <c r="A1113" s="1">
+        <v>42332</v>
+      </c>
+      <c r="B1113" s="5"/>
+      <c r="E1113" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1113" s="8">
+        <v>1982.4</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:6">
+      <c r="A1114" s="1">
+        <v>42339</v>
+      </c>
+      <c r="B1114" s="5">
+        <v>0.75208333333333333</v>
+      </c>
+      <c r="D1114">
+        <v>10</v>
+      </c>
+      <c r="E1114" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1114" s="8"/>
+    </row>
+    <row r="1115" spans="1:6">
+      <c r="A1115" s="1">
+        <v>42339</v>
+      </c>
+      <c r="B1115" s="6">
+        <v>0.77708333333333324</v>
+      </c>
+      <c r="D1115">
+        <v>6</v>
+      </c>
+      <c r="E1115" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1115" s="8">
+        <v>1537.6</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:6">
+      <c r="A1116" s="1">
+        <v>42339</v>
+      </c>
+      <c r="B1116" s="6">
+        <v>0.77708333333333324</v>
+      </c>
+      <c r="D1116">
+        <v>16</v>
+      </c>
+      <c r="E1116" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1116" s="8">
+        <v>1910.7</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:6">
+      <c r="A1117" s="1">
+        <v>42339</v>
+      </c>
+      <c r="B1117" s="6">
+        <v>0.77708333333333324</v>
+      </c>
+      <c r="D1117">
+        <v>13</v>
+      </c>
+      <c r="E1117" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1117" s="8">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:6">
+      <c r="A1118" s="1">
+        <v>42339</v>
+      </c>
+      <c r="B1118" s="6">
+        <v>0.77708333333333324</v>
+      </c>
+      <c r="D1118">
+        <v>14</v>
+      </c>
+      <c r="E1118" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1118" s="8">
+        <v>1423.6</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:6">
+      <c r="A1119" s="1">
+        <v>42339</v>
+      </c>
+      <c r="B1119" s="6">
+        <v>0.77708333333333324</v>
+      </c>
+      <c r="D1119">
+        <v>11</v>
+      </c>
+      <c r="E1119" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1119" s="8">
+        <v>2163.3000000000002</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:6">
+      <c r="A1120" s="1">
+        <v>42339</v>
+      </c>
+      <c r="B1120" s="6">
+        <v>0.77708333333333324</v>
+      </c>
+      <c r="D1120">
+        <v>1</v>
+      </c>
+      <c r="E1120" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1120" s="8">
+        <v>1651.6</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:7">
+      <c r="A1121" s="1">
+        <v>42339</v>
+      </c>
+      <c r="B1121" s="5">
+        <v>0.79375000000000007</v>
+      </c>
+      <c r="D1121">
+        <v>10</v>
+      </c>
+      <c r="E1121" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1121" s="8"/>
+    </row>
+    <row r="1122" spans="1:7">
+      <c r="A1122" s="1">
+        <v>42339</v>
+      </c>
+      <c r="B1122" s="5">
+        <v>0.80069444444444438</v>
+      </c>
+      <c r="D1122">
+        <v>4</v>
+      </c>
+      <c r="E1122" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1122" s="8">
+        <v>1906.8</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:7">
+      <c r="A1123" s="1">
+        <v>42339</v>
+      </c>
+      <c r="B1123" s="5">
+        <v>0.80069444444444438</v>
+      </c>
+      <c r="D1123">
+        <v>2</v>
+      </c>
+      <c r="E1123" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1123" s="8">
+        <v>1696.9</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:7">
+      <c r="A1124" s="1">
+        <v>42339</v>
+      </c>
+      <c r="B1124" s="5">
+        <v>0.80069444444444438</v>
+      </c>
+      <c r="D1124">
+        <v>12</v>
+      </c>
+      <c r="E1124" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1124" s="8">
+        <v>1632.1</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:7">
+      <c r="A1125" s="1">
+        <v>42339</v>
+      </c>
+      <c r="B1125" s="5">
+        <v>0.80069444444444438</v>
+      </c>
+      <c r="D1125">
+        <v>8</v>
+      </c>
+      <c r="E1125" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1125" s="8">
+        <v>2108.4</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:7">
+      <c r="A1126" s="1">
+        <v>42339</v>
+      </c>
+      <c r="B1126" s="5">
+        <v>0.80069444444444438</v>
+      </c>
+      <c r="D1126">
+        <v>5</v>
+      </c>
+      <c r="E1126" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1126" s="8">
+        <v>1634.5</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:7">
+      <c r="A1127" s="1">
+        <v>42339</v>
+      </c>
+      <c r="B1127" s="5">
+        <v>0.80069444444444438</v>
+      </c>
+      <c r="D1127">
+        <v>9</v>
+      </c>
+      <c r="E1127" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1127" s="8">
+        <v>1633.2</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:7">
+      <c r="A1128" s="1">
+        <v>42339</v>
+      </c>
+      <c r="B1128" s="5">
+        <v>0.81805555555555554</v>
+      </c>
+      <c r="D1128">
+        <v>10</v>
+      </c>
+      <c r="E1128" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1128" s="8"/>
+    </row>
+    <row r="1129" spans="1:7">
+      <c r="A1129" s="1">
+        <v>42339</v>
+      </c>
+      <c r="B1129" s="5">
+        <v>0.84444444444444444</v>
+      </c>
+      <c r="D1129">
+        <v>6</v>
+      </c>
+      <c r="E1129" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1129" s="8">
+        <v>1958.2</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:7">
+      <c r="A1130" s="1">
+        <v>42339</v>
+      </c>
+      <c r="B1130" s="5">
+        <v>0.84444444444444444</v>
+      </c>
+      <c r="D1130">
+        <v>16</v>
+      </c>
+      <c r="E1130" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1130" s="8">
+        <v>2173.1999999999998</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:7">
+      <c r="A1131" s="1">
+        <v>42339</v>
+      </c>
+      <c r="B1131" s="5">
+        <v>0.84444444444444444</v>
+      </c>
+      <c r="D1131">
+        <v>13</v>
+      </c>
+      <c r="E1131" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1131" s="8">
+        <v>1412.9</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:7">
+      <c r="A1132" s="1">
+        <v>42339</v>
+      </c>
+      <c r="B1132" s="5">
+        <v>0.84444444444444444</v>
+      </c>
+      <c r="D1132">
+        <v>14</v>
+      </c>
+      <c r="E1132" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1132" s="8">
+        <v>1839.3</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:7">
+      <c r="A1133" s="1">
+        <v>42339</v>
+      </c>
+      <c r="B1133" s="5">
+        <v>0.84444444444444444</v>
+      </c>
+      <c r="D1133">
+        <v>11</v>
+      </c>
+      <c r="E1133" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1133" s="8">
+        <v>1854.4</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:7">
+      <c r="A1134" s="1">
+        <v>42339</v>
+      </c>
+      <c r="B1134" s="5">
+        <v>0.84444444444444444</v>
+      </c>
+      <c r="D1134">
+        <v>1</v>
+      </c>
+      <c r="E1134" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1134" s="8">
+        <v>2011.3</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:7">
+      <c r="A1135" s="1">
+        <v>42339</v>
+      </c>
+      <c r="B1135" s="5">
+        <v>0.86041666666666661</v>
+      </c>
+      <c r="D1135">
+        <v>10</v>
+      </c>
+      <c r="E1135" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1135" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:7">
+      <c r="A1136" s="1">
+        <v>42339</v>
+      </c>
+      <c r="B1136" s="5">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="D1136">
+        <v>10</v>
+      </c>
+      <c r="E1136" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1136" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:7">
+      <c r="A1137" s="1">
+        <v>42339</v>
+      </c>
+      <c r="B1137" s="5">
+        <v>0.9145833333333333</v>
+      </c>
+      <c r="D1137" s="4">
+        <v>6</v>
+      </c>
+      <c r="E1137" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1137">
+        <v>2012.7</v>
+      </c>
+      <c r="G1137" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:7">
+      <c r="A1138" s="1">
+        <v>42339</v>
+      </c>
+      <c r="B1138" s="5">
+        <v>0.9145833333333333</v>
+      </c>
+      <c r="D1138" s="4">
+        <v>16</v>
+      </c>
+      <c r="E1138" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1138">
+        <v>1896.4</v>
+      </c>
+      <c r="G1138" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:7">
+      <c r="A1139" s="1">
+        <v>42339</v>
+      </c>
+      <c r="B1139" s="5">
+        <v>0.9145833333333333</v>
+      </c>
+      <c r="D1139" s="4">
+        <v>13</v>
+      </c>
+      <c r="E1139" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1139">
+        <v>1856.2</v>
+      </c>
+      <c r="G1139" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:7">
+      <c r="A1140" s="1">
+        <v>42339</v>
+      </c>
+      <c r="B1140" s="5">
+        <v>0.9145833333333333</v>
+      </c>
+      <c r="D1140" s="4">
+        <v>14</v>
+      </c>
+      <c r="E1140" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1140">
+        <v>1948.5</v>
+      </c>
+      <c r="G1140" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:7">
+      <c r="A1141" s="1">
+        <v>42339</v>
+      </c>
+      <c r="B1141" s="5">
+        <v>0.9145833333333333</v>
+      </c>
+      <c r="D1141" s="4">
+        <v>11</v>
+      </c>
+      <c r="E1141" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1141">
+        <v>2069.1</v>
+      </c>
+      <c r="G1141" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:7">
+      <c r="A1142" s="1">
+        <v>42339</v>
+      </c>
+      <c r="B1142" s="5">
+        <v>0.9145833333333333</v>
+      </c>
+      <c r="D1142" s="4">
+        <v>1</v>
+      </c>
+      <c r="E1142" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1142">
+        <v>1529.5</v>
+      </c>
+      <c r="G1142" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:7">
+      <c r="A1143" s="1">
+        <v>42339</v>
+      </c>
+      <c r="B1143" s="5">
+        <v>0.93055555555555547</v>
+      </c>
+      <c r="D1143">
+        <v>10</v>
+      </c>
+      <c r="E1143" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1143" s="8"/>
+    </row>
+    <row r="1144" spans="1:7">
+      <c r="A1144" s="1">
+        <v>42339</v>
+      </c>
+      <c r="B1144" s="5">
+        <v>0.97152777777777777</v>
+      </c>
+      <c r="D1144">
+        <v>6</v>
+      </c>
+      <c r="E1144" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1144">
+        <v>1579.5</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:7">
+      <c r="A1145" s="1">
+        <v>42339</v>
+      </c>
+      <c r="B1145" s="5">
+        <v>0.97152777777777777</v>
+      </c>
+      <c r="D1145">
+        <v>16</v>
+      </c>
+      <c r="E1145" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1145">
+        <v>1894.4</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:7">
+      <c r="A1146" s="1">
+        <v>42339</v>
+      </c>
+      <c r="B1146" s="5">
+        <v>0.97152777777777777</v>
+      </c>
+      <c r="D1146">
+        <v>13</v>
+      </c>
+      <c r="E1146" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1146">
+        <v>1271.3</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:7">
+      <c r="A1147" s="1">
+        <v>42339</v>
+      </c>
+      <c r="B1147" s="5">
+        <v>0.97152777777777777</v>
+      </c>
+      <c r="D1147">
+        <v>14</v>
+      </c>
+      <c r="E1147" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1147">
+        <v>2025.9</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:7">
+      <c r="A1148" s="1">
+        <v>42339</v>
+      </c>
+      <c r="B1148" s="5">
+        <v>0.97152777777777777</v>
+      </c>
+      <c r="D1148">
+        <v>11</v>
+      </c>
+      <c r="E1148" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1148">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:7">
+      <c r="A1149" s="1">
+        <v>42339</v>
+      </c>
+      <c r="B1149" s="5">
+        <v>0.97152777777777777</v>
+      </c>
+      <c r="D1149">
+        <v>1</v>
+      </c>
+      <c r="E1149" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1149">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:7">
+      <c r="D1150" s="2"/>
+    </row>
+    <row r="1151" spans="1:7">
+      <c r="D1151" s="2"/>
+    </row>
+    <row r="1152" spans="1:7">
+      <c r="D1152" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A3:G448">

--- a/data/CoreData.xlsx
+++ b/data/CoreData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24740" windowHeight="15600" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="24400" windowHeight="15360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="treatments.csv" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="79">
   <si>
     <t>Treatment</t>
   </si>
@@ -255,6 +255,9 @@
   <si>
     <t>4C</t>
   </si>
+  <si>
+    <t>new port valves</t>
+  </si>
 </sst>
 </file>
 
@@ -348,8 +351,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="257">
+  <cellStyleXfs count="267">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -630,7 +643,7 @@
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="257">
+  <cellStyles count="267">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -759,6 +772,11 @@
     <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -887,6 +905,11 @@
     <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1669,11 +1692,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1152"/>
+  <dimension ref="A1:G1215"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <pane ySplit="2" topLeftCell="A1195" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1216" sqref="A1216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -19809,13 +19832,977 @@
       </c>
     </row>
     <row r="1150" spans="1:7">
-      <c r="D1150" s="2"/>
+      <c r="A1150" s="1">
+        <v>42346</v>
+      </c>
+      <c r="C1150"/>
+      <c r="E1150" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1150" s="8">
+        <v>1956.6</v>
+      </c>
     </row>
     <row r="1151" spans="1:7">
-      <c r="D1151" s="2"/>
+      <c r="A1151" s="1">
+        <v>42346</v>
+      </c>
+      <c r="C1151"/>
+      <c r="E1151" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1151" s="8">
+        <v>2174.9</v>
+      </c>
     </row>
     <row r="1152" spans="1:7">
-      <c r="D1152" s="2"/>
+      <c r="A1152" s="1">
+        <v>42346</v>
+      </c>
+      <c r="C1152"/>
+      <c r="E1152" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1152" s="8">
+        <v>1412.2</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:6">
+      <c r="A1153" s="1">
+        <v>42346</v>
+      </c>
+      <c r="C1153"/>
+      <c r="E1153" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1153" s="8">
+        <v>1840.1</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:6">
+      <c r="A1154" s="1">
+        <v>42346</v>
+      </c>
+      <c r="C1154"/>
+      <c r="E1154" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1154" s="8">
+        <v>1850.8</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:6">
+      <c r="A1155" s="1">
+        <v>42346</v>
+      </c>
+      <c r="C1155"/>
+      <c r="E1155" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1155" s="8">
+        <v>2011.2</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:6">
+      <c r="A1156" s="1">
+        <v>42346</v>
+      </c>
+      <c r="C1156"/>
+      <c r="E1156" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1156" s="8">
+        <v>1907.3</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:6">
+      <c r="A1157" s="1">
+        <v>42346</v>
+      </c>
+      <c r="C1157"/>
+      <c r="E1157" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1157" s="8">
+        <v>1691.5</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:6">
+      <c r="A1158" s="1">
+        <v>42346</v>
+      </c>
+      <c r="C1158"/>
+      <c r="E1158" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1158" s="8">
+        <v>1627.6</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:6">
+      <c r="A1159" s="1">
+        <v>42346</v>
+      </c>
+      <c r="C1159"/>
+      <c r="E1159" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1159" s="8">
+        <v>2107.3000000000002</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:6">
+      <c r="A1160" s="1">
+        <v>42346</v>
+      </c>
+      <c r="C1160"/>
+      <c r="E1160" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1160" s="8">
+        <v>1624.1</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:6">
+      <c r="A1161" s="1">
+        <v>42346</v>
+      </c>
+      <c r="C1161"/>
+      <c r="E1161" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1161" s="8">
+        <v>1631.5</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:6">
+      <c r="A1162" s="1">
+        <v>42346</v>
+      </c>
+      <c r="C1162"/>
+      <c r="E1162" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1162" s="8">
+        <v>1528.5</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:6">
+      <c r="A1163" s="1">
+        <v>42346</v>
+      </c>
+      <c r="C1163"/>
+      <c r="E1163" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1163" s="8">
+        <v>1908.8</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:6">
+      <c r="A1164" s="1">
+        <v>42346</v>
+      </c>
+      <c r="C1164"/>
+      <c r="E1164" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1164" s="8">
+        <v>2131.6</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:6">
+      <c r="A1165" s="1">
+        <v>42346</v>
+      </c>
+      <c r="C1165"/>
+      <c r="E1165" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1165" s="8">
+        <v>1403.2</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:6">
+      <c r="A1166" s="1">
+        <v>42346</v>
+      </c>
+      <c r="C1166"/>
+      <c r="E1166" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1166" s="8">
+        <v>2164.1</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:6">
+      <c r="A1167" s="1">
+        <v>42346</v>
+      </c>
+      <c r="C1167"/>
+      <c r="E1167" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1167" s="8">
+        <v>1654.63</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:6">
+      <c r="A1168" s="1">
+        <v>42346</v>
+      </c>
+      <c r="C1168"/>
+      <c r="E1168" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1168" s="8">
+        <v>2017.8</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:6">
+      <c r="A1169" s="1">
+        <v>42346</v>
+      </c>
+      <c r="C1169"/>
+      <c r="E1169" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1169" s="8">
+        <v>1898.5</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:6">
+      <c r="A1170" s="1">
+        <v>42346</v>
+      </c>
+      <c r="C1170"/>
+      <c r="E1170" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1170" s="8">
+        <v>1859.7</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:6">
+      <c r="A1171" s="1">
+        <v>42346</v>
+      </c>
+      <c r="C1171"/>
+      <c r="E1171" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1171" s="8">
+        <v>1948.3</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:6">
+      <c r="A1172" s="1">
+        <v>42346</v>
+      </c>
+      <c r="C1172"/>
+      <c r="E1172" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1172" s="8">
+        <v>2069.5</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:6">
+      <c r="A1173" s="1">
+        <v>42346</v>
+      </c>
+      <c r="C1173"/>
+      <c r="E1173" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1173" s="8">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:6">
+      <c r="A1174" s="1">
+        <v>42346</v>
+      </c>
+      <c r="C1174"/>
+      <c r="E1174" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1174" s="8">
+        <v>1590.4</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:6">
+      <c r="A1175" s="1">
+        <v>42346</v>
+      </c>
+      <c r="C1175"/>
+      <c r="E1175" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1175" s="8">
+        <v>1905.3</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:6">
+      <c r="A1176" s="1">
+        <v>42346</v>
+      </c>
+      <c r="C1176"/>
+      <c r="E1176" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1176" s="8">
+        <v>1282.4000000000001</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:6">
+      <c r="A1177" s="1">
+        <v>42346</v>
+      </c>
+      <c r="C1177"/>
+      <c r="E1177" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1177" s="8">
+        <v>2039.3</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:6">
+      <c r="A1178" s="1">
+        <v>42346</v>
+      </c>
+      <c r="C1178"/>
+      <c r="E1178" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1178" s="8">
+        <v>1726.4</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:6">
+      <c r="A1179" s="1">
+        <v>42346</v>
+      </c>
+      <c r="C1179"/>
+      <c r="E1179" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1179" s="8">
+        <v>1987.6</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:6">
+      <c r="A1180" s="1">
+        <v>42347</v>
+      </c>
+      <c r="B1180" s="5">
+        <v>0.73263888888888884</v>
+      </c>
+      <c r="D1180">
+        <v>10</v>
+      </c>
+      <c r="E1180" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:6">
+      <c r="A1181" s="1">
+        <v>42347</v>
+      </c>
+      <c r="B1181" s="5">
+        <v>0.7402777777777777</v>
+      </c>
+      <c r="D1181">
+        <v>6</v>
+      </c>
+      <c r="E1181" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1181" s="8">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:6">
+      <c r="A1182" s="1">
+        <v>42347</v>
+      </c>
+      <c r="B1182" s="5">
+        <v>0.7402777777777777</v>
+      </c>
+      <c r="D1182">
+        <v>16</v>
+      </c>
+      <c r="E1182" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1182" s="8">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:6">
+      <c r="A1183" s="1">
+        <v>42347</v>
+      </c>
+      <c r="B1183" s="5">
+        <v>0.7402777777777777</v>
+      </c>
+      <c r="D1183">
+        <v>13</v>
+      </c>
+      <c r="E1183" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1183" s="8">
+        <v>1415.9</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:6">
+      <c r="A1184" s="1">
+        <v>42347</v>
+      </c>
+      <c r="B1184" s="5">
+        <v>0.7402777777777777</v>
+      </c>
+      <c r="D1184">
+        <v>14</v>
+      </c>
+      <c r="E1184" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1184" s="8">
+        <v>1843.8</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:6">
+      <c r="A1185" s="1">
+        <v>42347</v>
+      </c>
+      <c r="B1185" s="5">
+        <v>0.7402777777777777</v>
+      </c>
+      <c r="D1185">
+        <v>11</v>
+      </c>
+      <c r="E1185" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1185" s="8">
+        <v>1860.8</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:6">
+      <c r="A1186" s="1">
+        <v>42347</v>
+      </c>
+      <c r="B1186" s="5">
+        <v>0.7402777777777777</v>
+      </c>
+      <c r="D1186">
+        <v>1</v>
+      </c>
+      <c r="E1186" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1186" s="8">
+        <v>2016.5</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:6">
+      <c r="A1187" s="1">
+        <v>42347</v>
+      </c>
+      <c r="B1187" s="5">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="D1187">
+        <v>10</v>
+      </c>
+      <c r="E1187" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:6">
+      <c r="A1188" s="1">
+        <v>42347</v>
+      </c>
+      <c r="B1188" s="5">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="D1188">
+        <v>4</v>
+      </c>
+      <c r="E1188" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1188" s="8">
+        <v>1925.2</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:6">
+      <c r="A1189" s="1">
+        <v>42347</v>
+      </c>
+      <c r="B1189" s="5">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="D1189">
+        <v>2</v>
+      </c>
+      <c r="E1189" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1189" s="8">
+        <v>1706.1</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:6">
+      <c r="A1190" s="1">
+        <v>42347</v>
+      </c>
+      <c r="B1190" s="5">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="D1190">
+        <v>12</v>
+      </c>
+      <c r="E1190" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1190" s="8">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:6">
+      <c r="A1191" s="1">
+        <v>42347</v>
+      </c>
+      <c r="B1191" s="5">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="D1191">
+        <v>8</v>
+      </c>
+      <c r="E1191" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1191" s="8">
+        <v>2116.5</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:6">
+      <c r="A1192" s="1">
+        <v>42347</v>
+      </c>
+      <c r="B1192" s="5">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="D1192">
+        <v>5</v>
+      </c>
+      <c r="E1192" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1192" s="8">
+        <v>1642.2</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:6">
+      <c r="A1193" s="1">
+        <v>42347</v>
+      </c>
+      <c r="B1193" s="5">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="D1193">
+        <v>9</v>
+      </c>
+      <c r="E1193" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1193" s="8">
+        <v>1631.6</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:6">
+      <c r="A1194" s="1">
+        <v>42347</v>
+      </c>
+      <c r="B1194" s="5">
+        <v>0.81736111111111109</v>
+      </c>
+      <c r="D1194">
+        <v>10</v>
+      </c>
+      <c r="E1194" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:6">
+      <c r="A1195" s="1">
+        <v>42347</v>
+      </c>
+      <c r="B1195" s="5">
+        <v>0.8222222222222223</v>
+      </c>
+      <c r="D1195">
+        <v>6</v>
+      </c>
+      <c r="E1195" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1195" s="8">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:6">
+      <c r="A1196" s="1">
+        <v>42347</v>
+      </c>
+      <c r="B1196" s="5">
+        <v>0.8222222222222223</v>
+      </c>
+      <c r="D1196">
+        <v>16</v>
+      </c>
+      <c r="E1196" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1196" s="8">
+        <v>1914.2</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:6">
+      <c r="A1197" s="1">
+        <v>42347</v>
+      </c>
+      <c r="B1197" s="5">
+        <v>0.8222222222222223</v>
+      </c>
+      <c r="D1197">
+        <v>13</v>
+      </c>
+      <c r="E1197" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1197" s="8">
+        <v>2137.1</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:6">
+      <c r="A1198" s="1">
+        <v>42347</v>
+      </c>
+      <c r="B1198" s="5">
+        <v>0.8222222222222223</v>
+      </c>
+      <c r="D1198">
+        <v>14</v>
+      </c>
+      <c r="E1198" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1198" s="8">
+        <v>1426.4</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:6">
+      <c r="A1199" s="1">
+        <v>42347</v>
+      </c>
+      <c r="B1199" s="5">
+        <v>0.8222222222222223</v>
+      </c>
+      <c r="D1199">
+        <v>11</v>
+      </c>
+      <c r="E1199" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1199" s="8">
+        <v>2118.9</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:6">
+      <c r="A1200" s="1">
+        <v>42347</v>
+      </c>
+      <c r="B1200" s="5">
+        <v>0.8222222222222223</v>
+      </c>
+      <c r="D1200">
+        <v>1</v>
+      </c>
+      <c r="E1200" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1200" s="8">
+        <v>1660.5</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:7">
+      <c r="A1201" s="1">
+        <v>42347</v>
+      </c>
+      <c r="B1201" s="5">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D1201">
+        <v>10</v>
+      </c>
+      <c r="E1201" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:7">
+      <c r="A1202" s="1">
+        <v>42347</v>
+      </c>
+      <c r="B1202" s="5">
+        <v>0.9375</v>
+      </c>
+      <c r="D1202" s="4">
+        <v>6</v>
+      </c>
+      <c r="E1202" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1202" s="8">
+        <v>2021.8</v>
+      </c>
+      <c r="G1202" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:7">
+      <c r="A1203" s="1">
+        <v>42347</v>
+      </c>
+      <c r="B1203" s="5">
+        <v>0.9375</v>
+      </c>
+      <c r="D1203" s="4">
+        <v>16</v>
+      </c>
+      <c r="E1203" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1203" s="8">
+        <v>1903.6</v>
+      </c>
+      <c r="G1203" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:7">
+      <c r="A1204" s="1">
+        <v>42347</v>
+      </c>
+      <c r="B1204" s="5">
+        <v>0.9375</v>
+      </c>
+      <c r="D1204" s="4">
+        <v>13</v>
+      </c>
+      <c r="E1204" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1204" s="8">
+        <v>1856.8</v>
+      </c>
+      <c r="G1204" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:7">
+      <c r="A1205" s="1">
+        <v>42347</v>
+      </c>
+      <c r="B1205" s="5">
+        <v>0.9375</v>
+      </c>
+      <c r="D1205" s="4">
+        <v>14</v>
+      </c>
+      <c r="E1205" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1205" s="8">
+        <v>1952.9</v>
+      </c>
+      <c r="G1205" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:7">
+      <c r="A1206" s="1">
+        <v>42347</v>
+      </c>
+      <c r="B1206" s="5">
+        <v>0.9375</v>
+      </c>
+      <c r="D1206" s="4">
+        <v>11</v>
+      </c>
+      <c r="E1206" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1206" s="8">
+        <v>2066.8000000000002</v>
+      </c>
+      <c r="G1206" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:7">
+      <c r="A1207" s="1">
+        <v>42347</v>
+      </c>
+      <c r="B1207" s="5">
+        <v>0.9375</v>
+      </c>
+      <c r="D1207" s="4">
+        <v>1</v>
+      </c>
+      <c r="E1207" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1207" s="8">
+        <v>1542.3</v>
+      </c>
+      <c r="G1207" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:7">
+      <c r="A1208" s="1">
+        <v>42347</v>
+      </c>
+      <c r="B1208" s="5">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="D1208">
+        <v>10</v>
+      </c>
+      <c r="E1208" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:7">
+      <c r="A1209" s="1">
+        <v>42347</v>
+      </c>
+      <c r="B1209" s="5">
+        <v>0.9819444444444444</v>
+      </c>
+      <c r="D1209">
+        <v>6</v>
+      </c>
+      <c r="E1209" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1209" s="8">
+        <v>1579.7</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:7">
+      <c r="A1210" s="1">
+        <v>42347</v>
+      </c>
+      <c r="B1210" s="5">
+        <v>0.9819444444444444</v>
+      </c>
+      <c r="D1210">
+        <v>16</v>
+      </c>
+      <c r="E1210" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1210" s="8">
+        <v>1894.8</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:7">
+      <c r="A1211" s="1">
+        <v>42347</v>
+      </c>
+      <c r="B1211" s="5">
+        <v>0.9819444444444444</v>
+      </c>
+      <c r="D1211">
+        <v>13</v>
+      </c>
+      <c r="E1211" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1211" s="8">
+        <v>1268.5999999999999</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:7">
+      <c r="A1212" s="1">
+        <v>42347</v>
+      </c>
+      <c r="B1212" s="5">
+        <v>0.9819444444444444</v>
+      </c>
+      <c r="D1212">
+        <v>14</v>
+      </c>
+      <c r="E1212" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1212" s="8">
+        <v>2026.7</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:7">
+      <c r="A1213" s="1">
+        <v>42347</v>
+      </c>
+      <c r="B1213" s="5">
+        <v>0.9819444444444444</v>
+      </c>
+      <c r="D1213">
+        <v>11</v>
+      </c>
+      <c r="E1213" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1213" s="8">
+        <v>1723.9</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:7">
+      <c r="A1214" s="1">
+        <v>42347</v>
+      </c>
+      <c r="B1214" s="5">
+        <v>0.9819444444444444</v>
+      </c>
+      <c r="D1214">
+        <v>1</v>
+      </c>
+      <c r="E1214" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1214" s="8">
+        <v>1980.3</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:7">
+      <c r="A1215" s="1">
+        <v>42347</v>
+      </c>
+      <c r="B1215" s="5">
+        <v>0.99861111111111101</v>
+      </c>
+      <c r="D1215">
+        <v>10</v>
+      </c>
+      <c r="E1215" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1215" s="8"/>
     </row>
   </sheetData>
   <sortState ref="A3:G448">

--- a/data/CoreData.xlsx
+++ b/data/CoreData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="24400" windowHeight="15360" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24700" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="treatments.csv" sheetId="2" r:id="rId1"/>
@@ -154,9 +154,6 @@
     <t>NOTE: this sheet gets updated each time</t>
   </si>
   <si>
-    <t>Volume</t>
-  </si>
-  <si>
     <t>Time_set_start_UTC</t>
   </si>
   <si>
@@ -257,6 +254,9 @@
   </si>
   <si>
     <t>new port valves</t>
+  </si>
+  <si>
+    <t>SoilVolume_cm3</t>
   </si>
 </sst>
 </file>
@@ -1211,9 +1211,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1234,12 +1234,12 @@
         <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
         <v>40</v>
@@ -1250,7 +1250,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
         <v>40</v>
@@ -1694,7 +1694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1215"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A1195" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A1216" sqref="A1216"/>
     </sheetView>
@@ -1715,7 +1715,7 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>37</v>
@@ -1747,7 +1747,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1884,7 +1884,7 @@
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2021,7 +2021,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2158,7 +2158,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2295,7 +2295,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2432,7 +2432,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2569,7 +2569,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2706,7 +2706,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2843,7 +2843,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2980,7 +2980,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3117,7 +3117,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3391,7 +3391,7 @@
         <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3528,7 +3528,7 @@
         <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3665,7 +3665,7 @@
         <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3802,7 +3802,7 @@
         <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3939,7 +3939,7 @@
         <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -4076,7 +4076,7 @@
         <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -4213,7 +4213,7 @@
         <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -4350,7 +4350,7 @@
         <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4990,7 +4990,7 @@
         <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -5106,7 +5106,7 @@
         <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -5222,7 +5222,7 @@
         <v>10</v>
       </c>
       <c r="E194" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5338,7 +5338,7 @@
         <v>10</v>
       </c>
       <c r="E201" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>10</v>
       </c>
       <c r="E208" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -5468,10 +5468,10 @@
         <v>10</v>
       </c>
       <c r="E209" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G209" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -5875,7 +5875,7 @@
         <v>10</v>
       </c>
       <c r="E240" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5991,7 +5991,7 @@
         <v>10</v>
       </c>
       <c r="E247" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6107,7 +6107,7 @@
         <v>10</v>
       </c>
       <c r="E254" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6223,7 +6223,7 @@
         <v>10</v>
       </c>
       <c r="E261" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -6243,7 +6243,7 @@
         <v>2103.5</v>
       </c>
       <c r="G262" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -6263,7 +6263,7 @@
         <v>1999.2</v>
       </c>
       <c r="G263" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -6283,7 +6283,7 @@
         <v>1967.3</v>
       </c>
       <c r="G264" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -6303,7 +6303,7 @@
         <v>2034.7</v>
       </c>
       <c r="G265" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -6323,7 +6323,7 @@
         <v>2158.3000000000002</v>
       </c>
       <c r="G266" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -6343,7 +6343,7 @@
         <v>1659.2</v>
       </c>
       <c r="G267" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -6357,7 +6357,7 @@
         <v>10</v>
       </c>
       <c r="E268" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -6473,7 +6473,7 @@
         <v>10</v>
       </c>
       <c r="E275" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -6877,7 +6877,7 @@
         <v>10</v>
       </c>
       <c r="E306" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="307" spans="1:6">
@@ -6993,7 +6993,7 @@
         <v>10</v>
       </c>
       <c r="E313" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="314" spans="1:6">
@@ -7109,7 +7109,7 @@
         <v>10</v>
       </c>
       <c r="E320" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="321" spans="1:6">
@@ -7225,7 +7225,7 @@
         <v>10</v>
       </c>
       <c r="E327" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="328" spans="1:6">
@@ -7341,7 +7341,7 @@
         <v>10</v>
       </c>
       <c r="E334" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="335" spans="1:6">
@@ -7457,7 +7457,7 @@
         <v>10</v>
       </c>
       <c r="E341" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="342" spans="1:7">
@@ -7573,7 +7573,7 @@
         <v>10</v>
       </c>
       <c r="E348" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="349" spans="1:7">
@@ -7593,7 +7593,7 @@
         <v>1921.4</v>
       </c>
       <c r="G349" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="350" spans="1:7">
@@ -7613,7 +7613,7 @@
         <v>1711.5</v>
       </c>
       <c r="G350" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="351" spans="1:7">
@@ -7633,7 +7633,7 @@
         <v>1699</v>
       </c>
       <c r="G351" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="352" spans="1:7">
@@ -7653,7 +7653,7 @@
         <v>2146.8000000000002</v>
       </c>
       <c r="G352" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="353" spans="1:7">
@@ -7673,7 +7673,7 @@
         <v>1661.6</v>
       </c>
       <c r="G353" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="354" spans="1:7">
@@ -7693,7 +7693,7 @@
         <v>1703.8</v>
       </c>
       <c r="G354" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="355" spans="1:7">
@@ -7707,7 +7707,7 @@
         <v>10</v>
       </c>
       <c r="E355" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="356" spans="1:7">
@@ -7823,7 +7823,7 @@
         <v>10</v>
       </c>
       <c r="E362" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="363" spans="1:7">
@@ -7939,7 +7939,7 @@
         <v>10</v>
       </c>
       <c r="E369" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="370" spans="1:7">
@@ -8055,7 +8055,7 @@
         <v>10</v>
       </c>
       <c r="E376" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="377" spans="1:7">
@@ -8071,7 +8071,7 @@
         <v>1962.9</v>
       </c>
       <c r="G377" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="378" spans="1:7">
@@ -8087,7 +8087,7 @@
         <v>2173.1</v>
       </c>
       <c r="G378" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="379" spans="1:7">
@@ -8103,7 +8103,7 @@
         <v>1441.9</v>
       </c>
       <c r="G379" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="380" spans="1:7">
@@ -8119,7 +8119,7 @@
         <v>1843.5</v>
       </c>
       <c r="G380" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="381" spans="1:7">
@@ -8135,7 +8135,7 @@
         <v>1853.6</v>
       </c>
       <c r="G381" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="382" spans="1:7">
@@ -8151,7 +8151,7 @@
         <v>2016.2</v>
       </c>
       <c r="G382" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="383" spans="1:7">
@@ -8167,7 +8167,7 @@
         <v>1908.3</v>
       </c>
       <c r="G383" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="384" spans="1:7">
@@ -8183,7 +8183,7 @@
         <v>1698.8</v>
       </c>
       <c r="G384" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="385" spans="1:7">
@@ -8225,7 +8225,7 @@
         <v>1648</v>
       </c>
       <c r="G387" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="388" spans="1:7">
@@ -8254,7 +8254,7 @@
         <v>1580.9</v>
       </c>
       <c r="G389" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="390" spans="1:7">
@@ -8270,7 +8270,7 @@
         <v>1974.9</v>
       </c>
       <c r="G390" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="391" spans="1:7">
@@ -8286,7 +8286,7 @@
         <v>2171.3000000000002</v>
       </c>
       <c r="G391" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="392" spans="1:7">
@@ -8302,7 +8302,7 @@
         <v>1421</v>
       </c>
       <c r="G392" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="393" spans="1:7">
@@ -8318,7 +8318,7 @@
         <v>2196.4</v>
       </c>
       <c r="G393" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="394" spans="1:7">
@@ -8334,7 +8334,7 @@
         <v>1678.7</v>
       </c>
       <c r="G394" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="395" spans="1:7">
@@ -8428,7 +8428,7 @@
         <v>1611.8</v>
       </c>
       <c r="G401" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="402" spans="1:7">
@@ -8444,7 +8444,7 @@
         <v>1903.3</v>
       </c>
       <c r="G402" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="403" spans="1:7">
@@ -8460,7 +8460,7 @@
         <v>1286.8</v>
       </c>
       <c r="G403" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="404" spans="1:7">
@@ -8476,7 +8476,7 @@
         <v>2041.3</v>
       </c>
       <c r="G404" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="405" spans="1:7">
@@ -8505,7 +8505,7 @@
         <v>2012.2</v>
       </c>
       <c r="G406" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="407" spans="1:7">
@@ -8519,7 +8519,7 @@
         <v>10</v>
       </c>
       <c r="E407" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="408" spans="1:7">
@@ -8556,7 +8556,7 @@
         <v>2180.4</v>
       </c>
       <c r="G409" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="410" spans="1:7">
@@ -8576,7 +8576,7 @@
         <v>1443.3</v>
       </c>
       <c r="G410" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="411" spans="1:7">
@@ -8641,7 +8641,7 @@
         <v>10</v>
       </c>
       <c r="E414" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="415" spans="1:7">
@@ -8757,7 +8757,7 @@
         <v>10</v>
       </c>
       <c r="E421" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="422" spans="1:7">
@@ -8777,7 +8777,7 @@
         <v>1973.3</v>
       </c>
       <c r="G422" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="423" spans="1:7">
@@ -8797,7 +8797,7 @@
         <v>2180.4</v>
       </c>
       <c r="G423" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="424" spans="1:7">
@@ -8817,7 +8817,7 @@
         <v>1443.3</v>
       </c>
       <c r="G424" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="425" spans="1:7">
@@ -8837,7 +8837,7 @@
         <v>1851</v>
       </c>
       <c r="G425" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="426" spans="1:7">
@@ -8857,7 +8857,7 @@
         <v>1862.9</v>
       </c>
       <c r="G426" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="427" spans="1:7">
@@ -8877,7 +8877,7 @@
         <v>2026.8</v>
       </c>
       <c r="G427" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="428" spans="1:7">
@@ -8891,7 +8891,7 @@
         <v>10</v>
       </c>
       <c r="E428" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="429" spans="1:7">
@@ -8911,7 +8911,7 @@
         <v>1585.9</v>
       </c>
       <c r="G429" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="430" spans="1:7">
@@ -8931,7 +8931,7 @@
         <v>1986.5</v>
       </c>
       <c r="G430" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="431" spans="1:7">
@@ -8951,7 +8951,7 @@
         <v>2209.4</v>
       </c>
       <c r="G431" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="432" spans="1:7">
@@ -8971,7 +8971,7 @@
         <v>1453.3</v>
       </c>
       <c r="G432" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="433" spans="1:7">
@@ -8991,7 +8991,7 @@
         <v>2216.5</v>
       </c>
       <c r="G433" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="434" spans="1:7">
@@ -9011,7 +9011,7 @@
         <v>1703.3</v>
       </c>
       <c r="G434" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="435" spans="1:7">
@@ -9025,7 +9025,7 @@
         <v>10</v>
       </c>
       <c r="E435" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="436" spans="1:7">
@@ -9079,7 +9079,7 @@
         <v>1292.5999999999999</v>
       </c>
       <c r="G438" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="439" spans="1:7">
@@ -9116,7 +9116,7 @@
         <v>1727</v>
       </c>
       <c r="G440" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="441" spans="1:7">
@@ -9136,7 +9136,7 @@
         <v>2042.8</v>
       </c>
       <c r="G441" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="442" spans="1:7">
@@ -9150,7 +9150,7 @@
         <v>10</v>
       </c>
       <c r="E442" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="443" spans="1:7">
@@ -9266,7 +9266,7 @@
         <v>10</v>
       </c>
       <c r="E449" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="450" spans="1:6">
@@ -9772,7 +9772,7 @@
         <v>10</v>
       </c>
       <c r="E486" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F486" s="8"/>
     </row>
@@ -9889,7 +9889,7 @@
         <v>10</v>
       </c>
       <c r="E493" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F493" s="8"/>
     </row>
@@ -10006,7 +10006,7 @@
         <v>10</v>
       </c>
       <c r="E500" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F500" s="8"/>
     </row>
@@ -10123,7 +10123,7 @@
         <v>10</v>
       </c>
       <c r="E507" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F507" s="8"/>
     </row>
@@ -10240,7 +10240,7 @@
         <v>10</v>
       </c>
       <c r="E514" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F514" s="8"/>
     </row>
@@ -10645,11 +10645,11 @@
         <v>10</v>
       </c>
       <c r="E545" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F545" s="8"/>
       <c r="G545" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="546" spans="1:7">
@@ -10765,7 +10765,7 @@
         <v>10</v>
       </c>
       <c r="E552" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F552" s="8"/>
     </row>
@@ -10882,7 +10882,7 @@
         <v>10</v>
       </c>
       <c r="E559" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F559" s="8"/>
     </row>
@@ -10999,7 +10999,7 @@
         <v>10</v>
       </c>
       <c r="E566" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F566" s="8"/>
     </row>
@@ -11116,7 +11116,7 @@
         <v>10</v>
       </c>
       <c r="E573" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F573" s="8"/>
     </row>
@@ -11233,7 +11233,7 @@
         <v>10</v>
       </c>
       <c r="E580" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F580" s="8"/>
     </row>
@@ -11350,7 +11350,7 @@
         <v>10</v>
       </c>
       <c r="E587" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="588" spans="1:6">
@@ -11466,7 +11466,7 @@
         <v>10</v>
       </c>
       <c r="E594" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F594" s="8"/>
     </row>
@@ -11583,7 +11583,7 @@
         <v>10</v>
       </c>
       <c r="E601" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="602" spans="1:6">
@@ -11699,7 +11699,7 @@
         <v>10</v>
       </c>
       <c r="E608" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F608" s="8"/>
     </row>
@@ -11816,7 +11816,7 @@
         <v>10</v>
       </c>
       <c r="E615" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F615" s="8"/>
     </row>
@@ -12221,7 +12221,7 @@
         <v>10</v>
       </c>
       <c r="E646" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F646" s="8"/>
     </row>
@@ -12338,7 +12338,7 @@
         <v>10</v>
       </c>
       <c r="E653" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F653" s="8"/>
     </row>
@@ -12455,7 +12455,7 @@
         <v>10</v>
       </c>
       <c r="E660" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="661" spans="1:6">
@@ -12571,7 +12571,7 @@
         <v>10</v>
       </c>
       <c r="E667" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F667" s="8"/>
     </row>
@@ -12688,7 +12688,7 @@
         <v>10</v>
       </c>
       <c r="E674" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F674" s="8"/>
     </row>
@@ -12805,7 +12805,7 @@
         <v>10</v>
       </c>
       <c r="E681" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F681" s="8"/>
     </row>
@@ -13312,7 +13312,7 @@
         <v>10</v>
       </c>
       <c r="E718" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F718" s="8"/>
     </row>
@@ -13429,7 +13429,7 @@
         <v>10</v>
       </c>
       <c r="E725" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F725" s="8"/>
     </row>
@@ -13546,7 +13546,7 @@
         <v>10</v>
       </c>
       <c r="E732" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F732" s="8"/>
     </row>
@@ -13561,11 +13561,11 @@
         <v>10</v>
       </c>
       <c r="E733" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F733" s="8"/>
       <c r="G733" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="734" spans="1:7">
@@ -13681,7 +13681,7 @@
         <v>10</v>
       </c>
       <c r="E740" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F740" s="8"/>
     </row>
@@ -14158,7 +14158,7 @@
         <v>10</v>
       </c>
       <c r="E777" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F777" s="8"/>
     </row>
@@ -14275,7 +14275,7 @@
         <v>10</v>
       </c>
       <c r="E784" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="785" spans="1:7">
@@ -14295,7 +14295,7 @@
         <v>1921.6</v>
       </c>
       <c r="G785" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="786" spans="1:7">
@@ -14315,7 +14315,7 @@
         <v>1703.7</v>
       </c>
       <c r="G786" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="787" spans="1:7">
@@ -14397,7 +14397,7 @@
         <v>10</v>
       </c>
       <c r="E791" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="792" spans="1:7">
@@ -14513,11 +14513,11 @@
         <v>10</v>
       </c>
       <c r="E798" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F798" s="8"/>
       <c r="G798" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="799" spans="1:7">
@@ -14531,11 +14531,11 @@
         <v>10</v>
       </c>
       <c r="E799" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F799" s="8"/>
       <c r="G799" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="800" spans="1:7">
@@ -14651,7 +14651,7 @@
         <v>10</v>
       </c>
       <c r="E806" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F806" s="8"/>
     </row>
@@ -14768,7 +14768,7 @@
         <v>10</v>
       </c>
       <c r="E813" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F813" s="8"/>
     </row>
@@ -15143,7 +15143,7 @@
         <v>10</v>
       </c>
       <c r="E844" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F844" s="8"/>
     </row>
@@ -15260,7 +15260,7 @@
         <v>10</v>
       </c>
       <c r="E851" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F851" s="8"/>
     </row>
@@ -15377,7 +15377,7 @@
         <v>10</v>
       </c>
       <c r="E858" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F858" s="8"/>
     </row>
@@ -15494,7 +15494,7 @@
         <v>10</v>
       </c>
       <c r="E865" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F865" s="8"/>
     </row>
@@ -15515,7 +15515,7 @@
         <v>2024.8</v>
       </c>
       <c r="G866" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="867" spans="1:7">
@@ -15535,7 +15535,7 @@
         <v>1911.54</v>
       </c>
       <c r="G867" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="868" spans="1:7">
@@ -15555,7 +15555,7 @@
         <v>1882</v>
       </c>
       <c r="G868" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="869" spans="1:7">
@@ -15575,7 +15575,7 @@
         <v>1958.9</v>
       </c>
       <c r="G869" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="870" spans="1:7">
@@ -15595,7 +15595,7 @@
         <v>2096.3000000000002</v>
       </c>
       <c r="G870" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="871" spans="1:7">
@@ -15615,7 +15615,7 @@
         <v>1558.8</v>
       </c>
       <c r="G871" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="872" spans="1:7">
@@ -15629,7 +15629,7 @@
         <v>10</v>
       </c>
       <c r="E872" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F872" s="8"/>
     </row>
@@ -15650,7 +15650,7 @@
         <v>1584.5</v>
       </c>
       <c r="G873" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="874" spans="1:7">
@@ -15670,7 +15670,7 @@
         <v>1895.2</v>
       </c>
       <c r="G874" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="875" spans="1:7">
@@ -15690,7 +15690,7 @@
         <v>1275.0999999999999</v>
       </c>
       <c r="G875" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="876" spans="1:7">
@@ -15710,7 +15710,7 @@
         <v>2027.1</v>
       </c>
       <c r="G876" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="877" spans="1:7">
@@ -15730,7 +15730,7 @@
         <v>1715.4</v>
       </c>
       <c r="G877" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="878" spans="1:7">
@@ -15750,7 +15750,7 @@
         <v>1992.4</v>
       </c>
       <c r="G878" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="879" spans="1:7">
@@ -15764,7 +15764,7 @@
         <v>10</v>
       </c>
       <c r="E879" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F879" s="8"/>
     </row>
@@ -16139,7 +16139,7 @@
         <v>10</v>
       </c>
       <c r="E910" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F910" s="8"/>
     </row>
@@ -16256,7 +16256,7 @@
         <v>10</v>
       </c>
       <c r="E917" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="918" spans="1:7">
@@ -16372,7 +16372,7 @@
         <v>10</v>
       </c>
       <c r="E924" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="925" spans="1:7">
@@ -16392,7 +16392,7 @@
         <v>1543.9</v>
       </c>
       <c r="G925" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="926" spans="1:7">
@@ -16412,7 +16412,7 @@
         <v>1919.9</v>
       </c>
       <c r="G926" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="927" spans="1:7">
@@ -16432,7 +16432,7 @@
         <v>2143.1</v>
       </c>
       <c r="G927" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="928" spans="1:7">
@@ -16452,7 +16452,7 @@
         <v>1435.1</v>
       </c>
       <c r="G928" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="929" spans="1:7">
@@ -16472,7 +16472,7 @@
         <v>2173.5</v>
       </c>
       <c r="G929" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="930" spans="1:7">
@@ -16492,7 +16492,7 @@
         <v>1662.9</v>
       </c>
       <c r="G930" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="931" spans="1:7">
@@ -16506,7 +16506,7 @@
         <v>10</v>
       </c>
       <c r="E931" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="932" spans="1:7">
@@ -16628,7 +16628,7 @@
         <v>10</v>
       </c>
       <c r="E938" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="939" spans="1:7">
@@ -16744,11 +16744,11 @@
         <v>10</v>
       </c>
       <c r="E945" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F945" s="8"/>
       <c r="G945" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="946" spans="1:7">
@@ -17152,7 +17152,7 @@
         <v>10</v>
       </c>
       <c r="E976" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="977" spans="1:7">
@@ -17268,7 +17268,7 @@
         <v>10</v>
       </c>
       <c r="E983" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F983" s="8"/>
     </row>
@@ -17289,7 +17289,7 @@
         <v>2025.2</v>
       </c>
       <c r="G984" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="985" spans="1:7">
@@ -17309,7 +17309,7 @@
         <v>1906.4</v>
       </c>
       <c r="G985" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="986" spans="1:7">
@@ -17329,7 +17329,7 @@
         <v>1867.7</v>
       </c>
       <c r="G986" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="987" spans="1:7">
@@ -17349,7 +17349,7 @@
         <v>1960.5</v>
       </c>
       <c r="G987" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="988" spans="1:7">
@@ -17369,7 +17369,7 @@
         <v>2083.6999999999998</v>
       </c>
       <c r="G988" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="989" spans="1:7">
@@ -17389,7 +17389,7 @@
         <v>1548.9</v>
       </c>
       <c r="G989" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="990" spans="1:7">
@@ -17403,7 +17403,7 @@
         <v>10</v>
       </c>
       <c r="E990" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="991" spans="1:7">
@@ -17423,7 +17423,7 @@
         <v>2025.2</v>
       </c>
       <c r="G991" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="992" spans="1:7">
@@ -17443,7 +17443,7 @@
         <v>1906.4</v>
       </c>
       <c r="G992" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="993" spans="1:7">
@@ -17463,7 +17463,7 @@
         <v>1867.7</v>
       </c>
       <c r="G993" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="994" spans="1:7">
@@ -17483,7 +17483,7 @@
         <v>1960.5</v>
       </c>
       <c r="G994" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="995" spans="1:7">
@@ -17503,7 +17503,7 @@
         <v>2083.6999999999998</v>
       </c>
       <c r="G995" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="996" spans="1:7">
@@ -17523,7 +17523,7 @@
         <v>1548.9</v>
       </c>
       <c r="G996" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="997" spans="1:7">
@@ -17537,7 +17537,7 @@
         <v>10</v>
       </c>
       <c r="E997" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F997" s="16"/>
     </row>
@@ -17654,7 +17654,7 @@
         <v>10</v>
       </c>
       <c r="E1004" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1005" spans="1:7">
@@ -17770,7 +17770,7 @@
         <v>10</v>
       </c>
       <c r="E1011" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1012" spans="1:6">
@@ -18246,7 +18246,7 @@
         <v>10</v>
       </c>
       <c r="E1048" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F1048" s="8"/>
     </row>
@@ -18363,7 +18363,7 @@
         <v>10</v>
       </c>
       <c r="E1055" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1056" spans="1:6">
@@ -18479,7 +18479,7 @@
         <v>10</v>
       </c>
       <c r="E1062" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1063" spans="1:7">
@@ -18595,7 +18595,7 @@
         <v>10</v>
       </c>
       <c r="E1069" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="1070" spans="1:7">
@@ -18615,7 +18615,7 @@
         <v>2023.8</v>
       </c>
       <c r="G1070" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="1071" spans="1:7">
@@ -18635,7 +18635,7 @@
         <v>1905.5</v>
       </c>
       <c r="G1071" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="1072" spans="1:7">
@@ -18655,7 +18655,7 @@
         <v>1864.1</v>
       </c>
       <c r="G1072" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="1073" spans="1:7">
@@ -18675,7 +18675,7 @@
         <v>1957.2</v>
       </c>
       <c r="G1073" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="1074" spans="1:7">
@@ -18695,7 +18695,7 @@
         <v>2079.6</v>
       </c>
       <c r="G1074" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="1075" spans="1:7">
@@ -18715,7 +18715,7 @@
         <v>1550.3</v>
       </c>
       <c r="G1075" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="1076" spans="1:7">
@@ -18729,7 +18729,7 @@
         <v>10</v>
       </c>
       <c r="E1076" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="1077" spans="1:7">
@@ -18845,7 +18845,7 @@
         <v>10</v>
       </c>
       <c r="E1083" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F1083" s="8"/>
     </row>
@@ -19220,7 +19220,7 @@
         <v>10</v>
       </c>
       <c r="E1114" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F1114" s="8"/>
     </row>
@@ -19337,7 +19337,7 @@
         <v>10</v>
       </c>
       <c r="E1121" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F1121" s="8"/>
     </row>
@@ -19454,7 +19454,7 @@
         <v>10</v>
       </c>
       <c r="E1128" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F1128" s="8"/>
     </row>
@@ -19571,10 +19571,10 @@
         <v>10</v>
       </c>
       <c r="E1135" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G1135" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1136" spans="1:7">
@@ -19588,10 +19588,10 @@
         <v>10</v>
       </c>
       <c r="E1136" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G1136" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="1137" spans="1:7">
@@ -19611,7 +19611,7 @@
         <v>2012.7</v>
       </c>
       <c r="G1137" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="1138" spans="1:7">
@@ -19631,7 +19631,7 @@
         <v>1896.4</v>
       </c>
       <c r="G1138" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="1139" spans="1:7">
@@ -19651,7 +19651,7 @@
         <v>1856.2</v>
       </c>
       <c r="G1139" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="1140" spans="1:7">
@@ -19671,7 +19671,7 @@
         <v>1948.5</v>
       </c>
       <c r="G1140" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="1141" spans="1:7">
@@ -19691,7 +19691,7 @@
         <v>2069.1</v>
       </c>
       <c r="G1141" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="1142" spans="1:7">
@@ -19711,7 +19711,7 @@
         <v>1529.5</v>
       </c>
       <c r="G1142" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="1143" spans="1:7">
@@ -19725,7 +19725,7 @@
         <v>10</v>
       </c>
       <c r="E1143" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F1143" s="8"/>
     </row>
@@ -20202,7 +20202,7 @@
         <v>10</v>
       </c>
       <c r="E1180" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1181" spans="1:6">
@@ -20318,7 +20318,7 @@
         <v>10</v>
       </c>
       <c r="E1187" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1188" spans="1:6">
@@ -20434,7 +20434,7 @@
         <v>10</v>
       </c>
       <c r="E1194" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1195" spans="1:6">
@@ -20550,7 +20550,7 @@
         <v>10</v>
       </c>
       <c r="E1201" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="1202" spans="1:7">
@@ -20570,7 +20570,7 @@
         <v>2021.8</v>
       </c>
       <c r="G1202" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="1203" spans="1:7">
@@ -20590,7 +20590,7 @@
         <v>1903.6</v>
       </c>
       <c r="G1203" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="1204" spans="1:7">
@@ -20610,7 +20610,7 @@
         <v>1856.8</v>
       </c>
       <c r="G1204" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="1205" spans="1:7">
@@ -20630,7 +20630,7 @@
         <v>1952.9</v>
       </c>
       <c r="G1205" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="1206" spans="1:7">
@@ -20650,7 +20650,7 @@
         <v>2066.8000000000002</v>
       </c>
       <c r="G1206" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="1207" spans="1:7">
@@ -20670,7 +20670,7 @@
         <v>1542.3</v>
       </c>
       <c r="G1207" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="1208" spans="1:7">
@@ -20684,7 +20684,7 @@
         <v>10</v>
       </c>
       <c r="E1208" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="1209" spans="1:7">
@@ -20800,7 +20800,7 @@
         <v>10</v>
       </c>
       <c r="E1215" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F1215" s="8"/>
     </row>

--- a/data/CoreData.xlsx
+++ b/data/CoreData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="81">
   <si>
     <t>Treatment</t>
   </si>
@@ -258,6 +258,12 @@
   <si>
     <t>SoilVolume_cm3</t>
   </si>
+  <si>
+    <t>CoreSleeveMass_g</t>
+  </si>
+  <si>
+    <t>SoilDryMass_g</t>
+  </si>
 </sst>
 </file>
 
@@ -351,8 +357,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="267">
+  <cellStyleXfs count="271">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -643,7 +653,7 @@
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="267">
+  <cellStyles count="271">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -777,6 +787,8 @@
     <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -910,6 +922,8 @@
     <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1209,21 +1223,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="18">
+    <row r="1" spans="1:6" s="4" customFormat="1" ht="18">
       <c r="A1" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -1236,156 +1250,234 @@
       <c r="D2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="D3">
+        <v>1139.9000000000001</v>
+      </c>
+      <c r="E3">
+        <v>148.9</v>
+      </c>
+      <c r="F3">
+        <v>1759.3119999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C4">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="D4">
+        <v>1139.9000000000001</v>
+      </c>
+      <c r="E4">
+        <v>151.9</v>
+      </c>
+      <c r="F4">
+        <v>832.48400000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D5">
+        <v>1242.4000000000001</v>
+      </c>
+      <c r="E5">
+        <v>151.6</v>
+      </c>
+      <c r="F5">
+        <v>1799.9380000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
         <v>1162.7</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6">
-        <v>22</v>
-      </c>
-      <c r="D6">
-        <v>1253.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <v>150.9</v>
+      </c>
+      <c r="F6">
+        <v>1229.8240000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>1139.9000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>1162.7</v>
+      </c>
+      <c r="E7">
+        <v>151.1</v>
+      </c>
+      <c r="F7">
+        <v>1666.933</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8">
         <v>22</v>
       </c>
       <c r="D8">
-        <v>1185.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>1048.7</v>
+      </c>
+      <c r="E8">
+        <v>149.30000000000001</v>
+      </c>
+      <c r="F8">
+        <v>1421.643</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D9">
         <v>1231</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9">
+        <v>149</v>
+      </c>
+      <c r="F9">
+        <v>1845.2750000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10">
         <v>22</v>
       </c>
       <c r="D10">
-        <v>1185.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>1071.5</v>
+      </c>
+      <c r="E10">
+        <v>147.69999999999999</v>
+      </c>
+      <c r="F10">
+        <v>1495.182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>22</v>
       </c>
       <c r="D11">
-        <v>1162.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>1025.9000000000001</v>
+      </c>
+      <c r="E11">
+        <v>134.69999999999999</v>
+      </c>
+      <c r="F11">
+        <v>1335.673</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>22</v>
       </c>
       <c r="D12">
-        <v>1071.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>1253.8</v>
+      </c>
+      <c r="E12">
+        <v>154.80000000000001</v>
+      </c>
+      <c r="F12">
+        <v>1964.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D13">
-        <v>1048.7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>1185.5</v>
+      </c>
+      <c r="E13">
+        <v>128.80000000000001</v>
+      </c>
+      <c r="F13">
+        <v>1600.3969999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1398,24 +1490,36 @@
       <c r="D14">
         <v>1299.4000000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14">
+        <v>148.4</v>
+      </c>
+      <c r="F14">
+        <v>1907.1690000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15">
         <v>22</v>
       </c>
       <c r="D15">
-        <v>1139.9000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>1231</v>
+      </c>
+      <c r="E15">
+        <v>146.80000000000001</v>
+      </c>
+      <c r="F15">
+        <v>1461.6859999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
         <v>33</v>
@@ -1424,12 +1528,18 @@
         <v>22</v>
       </c>
       <c r="D16">
-        <v>1094.3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>1162.7</v>
+      </c>
+      <c r="E16">
+        <v>129.9</v>
+      </c>
+      <c r="F16">
+        <v>1708.298</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
         <v>35</v>
@@ -1438,38 +1548,56 @@
         <v>22</v>
       </c>
       <c r="D17">
-        <v>1025.9000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>1162.7</v>
+      </c>
+      <c r="E17">
+        <v>132.30000000000001</v>
+      </c>
+      <c r="F17">
+        <v>1727.0160000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C18">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D18">
-        <v>1162.7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>957.5</v>
+      </c>
+      <c r="E18">
+        <v>149.6</v>
+      </c>
+      <c r="F18">
+        <v>1162.577</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C19">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D19">
-        <v>1299.4000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>1048.7</v>
+      </c>
+      <c r="E19">
+        <v>129.4</v>
+      </c>
+      <c r="F19">
+        <v>1726.425</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1482,10 +1610,16 @@
       <c r="D20">
         <v>957.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20">
+        <v>148.19999999999999</v>
+      </c>
+      <c r="F20">
+        <v>1140.2629999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>35</v>
@@ -1494,38 +1628,56 @@
         <v>22</v>
       </c>
       <c r="D21">
-        <v>1253.8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>1299.4000000000001</v>
+      </c>
+      <c r="E21">
+        <v>147.19999999999999</v>
+      </c>
+      <c r="F21">
+        <v>1950.2550000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C22">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D22">
         <v>1094.3</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22">
+        <v>154.9</v>
+      </c>
+      <c r="F22">
+        <v>1351.7080000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B23" t="s">
         <v>32</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D23">
-        <v>957.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>1185.5</v>
+      </c>
+      <c r="E23">
+        <v>147.69999999999999</v>
+      </c>
+      <c r="F23">
+        <v>1651.3109999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1538,148 +1690,199 @@
       <c r="D24">
         <v>1185.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24">
+        <v>155.4</v>
+      </c>
+      <c r="F24">
+        <v>1486.2750000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D25">
         <v>1094.3</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25">
+        <v>148.9</v>
+      </c>
+      <c r="F25">
+        <v>1448.2239999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B26" t="s">
         <v>32</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D26">
-        <v>1139.9000000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>1162.7</v>
+      </c>
+      <c r="E26">
+        <v>149.4</v>
+      </c>
+      <c r="F26">
+        <v>1567.252</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B27" t="s">
         <v>32</v>
       </c>
       <c r="C27">
+        <v>22</v>
+      </c>
+      <c r="D27">
+        <v>1253.8</v>
+      </c>
+      <c r="E27">
+        <v>150.9</v>
+      </c>
+      <c r="F27">
+        <v>1815.444</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
         <v>4</v>
-      </c>
-      <c r="D27">
-        <v>1094.3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>14</v>
       </c>
       <c r="B28" t="s">
         <v>32</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D28">
         <v>1185.5</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28">
+        <v>152.1</v>
+      </c>
+      <c r="F28">
+        <v>1414.568</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D29">
-        <v>1242.4000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>1094.3</v>
+      </c>
+      <c r="E29">
+        <v>148.30000000000001</v>
+      </c>
+      <c r="F29">
+        <v>1470.0139999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C30">
         <v>4</v>
       </c>
       <c r="D30">
-        <v>1048.7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>1139.9000000000001</v>
+      </c>
+      <c r="E30">
+        <v>133.5</v>
+      </c>
+      <c r="F30">
+        <v>1640.9259999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C31">
         <v>4</v>
       </c>
       <c r="D31">
-        <v>1162.7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>1094.3</v>
+      </c>
+      <c r="E31">
+        <v>149.1</v>
+      </c>
+      <c r="F31">
+        <v>735.10699999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
       </c>
       <c r="C32">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D32">
         <v>1139.9000000000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32">
+        <v>148.6</v>
+      </c>
+      <c r="F32">
+        <v>1385.0909999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C33">
-        <v>4</v>
-      </c>
-      <c r="D33">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C34">
         <v>4</v>
       </c>
-      <c r="D34">
-        <v>1162.7</v>
-      </c>
     </row>
   </sheetData>
+  <sortState ref="A3:D34">
+    <sortCondition ref="A3:A34"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/data/CoreData.xlsx
+++ b/data/CoreData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24700" windowHeight="15600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24680" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="treatments.csv" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="78">
   <si>
     <t>Treatment</t>
   </si>
@@ -254,15 +254,6 @@
   </si>
   <si>
     <t>new port valves</t>
-  </si>
-  <si>
-    <t>SoilVolume_cm3</t>
-  </si>
-  <si>
-    <t>CoreSleeveMass_g</t>
-  </si>
-  <si>
-    <t>SoilDryMass_g</t>
   </si>
 </sst>
 </file>
@@ -1223,21 +1214,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" ht="18">
+    <row r="1" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A1" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -1247,17 +1238,8 @@
       <c r="C2" t="s">
         <v>34</v>
       </c>
-      <c r="D2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1267,17 +1249,8 @@
       <c r="C3">
         <v>4</v>
       </c>
-      <c r="D3">
-        <v>1139.9000000000001</v>
-      </c>
-      <c r="E3">
-        <v>148.9</v>
-      </c>
-      <c r="F3">
-        <v>1759.3119999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1287,17 +1260,8 @@
       <c r="C4">
         <v>22</v>
       </c>
-      <c r="D4">
-        <v>1139.9000000000001</v>
-      </c>
-      <c r="E4">
-        <v>151.9</v>
-      </c>
-      <c r="F4">
-        <v>832.48400000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1307,17 +1271,8 @@
       <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5">
-        <v>1242.4000000000001</v>
-      </c>
-      <c r="E5">
-        <v>151.6</v>
-      </c>
-      <c r="F5">
-        <v>1799.9380000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1327,17 +1282,8 @@
       <c r="C6">
         <v>4</v>
       </c>
-      <c r="D6">
-        <v>1162.7</v>
-      </c>
-      <c r="E6">
-        <v>150.9</v>
-      </c>
-      <c r="F6">
-        <v>1229.8240000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -1347,17 +1293,8 @@
       <c r="C7">
         <v>4</v>
       </c>
-      <c r="D7">
-        <v>1162.7</v>
-      </c>
-      <c r="E7">
-        <v>151.1</v>
-      </c>
-      <c r="F7">
-        <v>1666.933</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1367,17 +1304,8 @@
       <c r="C8">
         <v>22</v>
       </c>
-      <c r="D8">
-        <v>1048.7</v>
-      </c>
-      <c r="E8">
-        <v>149.30000000000001</v>
-      </c>
-      <c r="F8">
-        <v>1421.643</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -1387,17 +1315,8 @@
       <c r="C9">
         <v>4</v>
       </c>
-      <c r="D9">
-        <v>1231</v>
-      </c>
-      <c r="E9">
-        <v>149</v>
-      </c>
-      <c r="F9">
-        <v>1845.2750000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1407,17 +1326,8 @@
       <c r="C10">
         <v>22</v>
       </c>
-      <c r="D10">
-        <v>1071.5</v>
-      </c>
-      <c r="E10">
-        <v>147.69999999999999</v>
-      </c>
-      <c r="F10">
-        <v>1495.182</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1427,17 +1337,8 @@
       <c r="C11">
         <v>22</v>
       </c>
-      <c r="D11">
-        <v>1025.9000000000001</v>
-      </c>
-      <c r="E11">
-        <v>134.69999999999999</v>
-      </c>
-      <c r="F11">
-        <v>1335.673</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1447,17 +1348,8 @@
       <c r="C12">
         <v>22</v>
       </c>
-      <c r="D12">
-        <v>1253.8</v>
-      </c>
-      <c r="E12">
-        <v>154.80000000000001</v>
-      </c>
-      <c r="F12">
-        <v>1964.05</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1467,17 +1359,8 @@
       <c r="C13">
         <v>4</v>
       </c>
-      <c r="D13">
-        <v>1185.5</v>
-      </c>
-      <c r="E13">
-        <v>128.80000000000001</v>
-      </c>
-      <c r="F13">
-        <v>1600.3969999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1487,17 +1370,8 @@
       <c r="C14">
         <v>22</v>
       </c>
-      <c r="D14">
-        <v>1299.4000000000001</v>
-      </c>
-      <c r="E14">
-        <v>148.4</v>
-      </c>
-      <c r="F14">
-        <v>1907.1690000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -1507,17 +1381,8 @@
       <c r="C15">
         <v>22</v>
       </c>
-      <c r="D15">
-        <v>1231</v>
-      </c>
-      <c r="E15">
-        <v>146.80000000000001</v>
-      </c>
-      <c r="F15">
-        <v>1461.6859999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -1527,17 +1392,8 @@
       <c r="C16">
         <v>22</v>
       </c>
-      <c r="D16">
-        <v>1162.7</v>
-      </c>
-      <c r="E16">
-        <v>129.9</v>
-      </c>
-      <c r="F16">
-        <v>1708.298</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1547,17 +1403,8 @@
       <c r="C17">
         <v>22</v>
       </c>
-      <c r="D17">
-        <v>1162.7</v>
-      </c>
-      <c r="E17">
-        <v>132.30000000000001</v>
-      </c>
-      <c r="F17">
-        <v>1727.0160000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1567,17 +1414,8 @@
       <c r="C18">
         <v>4</v>
       </c>
-      <c r="D18">
-        <v>957.5</v>
-      </c>
-      <c r="E18">
-        <v>149.6</v>
-      </c>
-      <c r="F18">
-        <v>1162.577</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1587,17 +1425,8 @@
       <c r="C19">
         <v>4</v>
       </c>
-      <c r="D19">
-        <v>1048.7</v>
-      </c>
-      <c r="E19">
-        <v>129.4</v>
-      </c>
-      <c r="F19">
-        <v>1726.425</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1607,17 +1436,8 @@
       <c r="C20">
         <v>22</v>
       </c>
-      <c r="D20">
-        <v>957.5</v>
-      </c>
-      <c r="E20">
-        <v>148.19999999999999</v>
-      </c>
-      <c r="F20">
-        <v>1140.2629999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1627,17 +1447,8 @@
       <c r="C21">
         <v>22</v>
       </c>
-      <c r="D21">
-        <v>1299.4000000000001</v>
-      </c>
-      <c r="E21">
-        <v>147.19999999999999</v>
-      </c>
-      <c r="F21">
-        <v>1950.2550000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1647,17 +1458,8 @@
       <c r="C22">
         <v>4</v>
       </c>
-      <c r="D22">
-        <v>1094.3</v>
-      </c>
-      <c r="E22">
-        <v>154.9</v>
-      </c>
-      <c r="F22">
-        <v>1351.7080000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1667,17 +1469,8 @@
       <c r="C23">
         <v>22</v>
       </c>
-      <c r="D23">
-        <v>1185.5</v>
-      </c>
-      <c r="E23">
-        <v>147.69999999999999</v>
-      </c>
-      <c r="F23">
-        <v>1651.3109999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1687,17 +1480,8 @@
       <c r="C24">
         <v>4</v>
       </c>
-      <c r="D24">
-        <v>1185.5</v>
-      </c>
-      <c r="E24">
-        <v>155.4</v>
-      </c>
-      <c r="F24">
-        <v>1486.2750000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -1707,17 +1491,8 @@
       <c r="C25">
         <v>22</v>
       </c>
-      <c r="D25">
-        <v>1094.3</v>
-      </c>
-      <c r="E25">
-        <v>148.9</v>
-      </c>
-      <c r="F25">
-        <v>1448.2239999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -1727,17 +1502,8 @@
       <c r="C26">
         <v>22</v>
       </c>
-      <c r="D26">
-        <v>1162.7</v>
-      </c>
-      <c r="E26">
-        <v>149.4</v>
-      </c>
-      <c r="F26">
-        <v>1567.252</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -1747,17 +1513,8 @@
       <c r="C27">
         <v>22</v>
       </c>
-      <c r="D27">
-        <v>1253.8</v>
-      </c>
-      <c r="E27">
-        <v>150.9</v>
-      </c>
-      <c r="F27">
-        <v>1815.444</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -1767,17 +1524,8 @@
       <c r="C28">
         <v>22</v>
       </c>
-      <c r="D28">
-        <v>1185.5</v>
-      </c>
-      <c r="E28">
-        <v>152.1</v>
-      </c>
-      <c r="F28">
-        <v>1414.568</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -1787,17 +1535,8 @@
       <c r="C29">
         <v>22</v>
       </c>
-      <c r="D29">
-        <v>1094.3</v>
-      </c>
-      <c r="E29">
-        <v>148.30000000000001</v>
-      </c>
-      <c r="F29">
-        <v>1470.0139999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -1807,17 +1546,8 @@
       <c r="C30">
         <v>4</v>
       </c>
-      <c r="D30">
-        <v>1139.9000000000001</v>
-      </c>
-      <c r="E30">
-        <v>133.5</v>
-      </c>
-      <c r="F30">
-        <v>1640.9259999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -1827,17 +1557,8 @@
       <c r="C31">
         <v>4</v>
       </c>
-      <c r="D31">
-        <v>1094.3</v>
-      </c>
-      <c r="E31">
-        <v>149.1</v>
-      </c>
-      <c r="F31">
-        <v>735.10699999999997</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -1846,15 +1567,6 @@
       </c>
       <c r="C32">
         <v>22</v>
-      </c>
-      <c r="D32">
-        <v>1139.9000000000001</v>
-      </c>
-      <c r="E32">
-        <v>148.6</v>
-      </c>
-      <c r="F32">
-        <v>1385.0909999999999</v>
       </c>
     </row>
     <row r="33" spans="1:3">

--- a/data/CoreData.xlsx
+++ b/data/CoreData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24680" windowHeight="15600"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="24400" windowHeight="15360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="treatments.csv" sheetId="2" r:id="rId1"/>
@@ -160,9 +160,6 @@
     <t>Ambient4</t>
   </si>
   <si>
-    <t>Ambient22</t>
-  </si>
-  <si>
     <t xml:space="preserve">10ml water added 9/10/2015 accidental </t>
   </si>
   <si>
@@ -254,6 +251,9 @@
   </si>
   <si>
     <t>new port valves</t>
+  </si>
+  <si>
+    <t>Ambient20</t>
   </si>
 </sst>
 </file>
@@ -1216,9 +1216,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="B33" t="s">
         <v>40</v>
@@ -1609,9 +1609,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1215"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A1195" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1216" sqref="A1216"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1662,7 +1662,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1799,7 +1799,7 @@
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1936,7 +1936,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2621,7 +2621,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2758,7 +2758,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2895,7 +2895,7 @@
         <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3032,7 +3032,7 @@
         <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3169,7 +3169,7 @@
         <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3306,7 +3306,7 @@
         <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3991,7 +3991,7 @@
         <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -4128,7 +4128,7 @@
         <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -4265,7 +4265,7 @@
         <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -4789,7 +4789,7 @@
         <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4905,7 +4905,7 @@
         <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -5021,7 +5021,7 @@
         <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -5386,7 +5386,7 @@
         <v>45</v>
       </c>
       <c r="G209" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -5790,7 +5790,7 @@
         <v>10</v>
       </c>
       <c r="E240" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5906,7 +5906,7 @@
         <v>10</v>
       </c>
       <c r="E247" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6022,7 +6022,7 @@
         <v>10</v>
       </c>
       <c r="E254" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6158,7 +6158,7 @@
         <v>2103.5</v>
       </c>
       <c r="G262" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -6178,7 +6178,7 @@
         <v>1999.2</v>
       </c>
       <c r="G263" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -6198,7 +6198,7 @@
         <v>1967.3</v>
       </c>
       <c r="G264" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -6218,7 +6218,7 @@
         <v>2034.7</v>
       </c>
       <c r="G265" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -6238,7 +6238,7 @@
         <v>2158.3000000000002</v>
       </c>
       <c r="G266" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -6258,7 +6258,7 @@
         <v>1659.2</v>
       </c>
       <c r="G267" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -6792,7 +6792,7 @@
         <v>10</v>
       </c>
       <c r="E306" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
     </row>
     <row r="307" spans="1:6">
@@ -6908,7 +6908,7 @@
         <v>10</v>
       </c>
       <c r="E313" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
     </row>
     <row r="314" spans="1:6">
@@ -7024,7 +7024,7 @@
         <v>10</v>
       </c>
       <c r="E320" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
     </row>
     <row r="321" spans="1:6">
@@ -7372,7 +7372,7 @@
         <v>10</v>
       </c>
       <c r="E341" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
     </row>
     <row r="342" spans="1:7">
@@ -7488,7 +7488,7 @@
         <v>10</v>
       </c>
       <c r="E348" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
     </row>
     <row r="349" spans="1:7">
@@ -7508,7 +7508,7 @@
         <v>1921.4</v>
       </c>
       <c r="G349" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="350" spans="1:7">
@@ -7528,7 +7528,7 @@
         <v>1711.5</v>
       </c>
       <c r="G350" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="351" spans="1:7">
@@ -7548,7 +7548,7 @@
         <v>1699</v>
       </c>
       <c r="G351" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="352" spans="1:7">
@@ -7568,7 +7568,7 @@
         <v>2146.8000000000002</v>
       </c>
       <c r="G352" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="353" spans="1:7">
@@ -7588,7 +7588,7 @@
         <v>1661.6</v>
       </c>
       <c r="G353" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="354" spans="1:7">
@@ -7608,7 +7608,7 @@
         <v>1703.8</v>
       </c>
       <c r="G354" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="355" spans="1:7">
@@ -7622,7 +7622,7 @@
         <v>10</v>
       </c>
       <c r="E355" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
     </row>
     <row r="356" spans="1:7">
@@ -7986,7 +7986,7 @@
         <v>1962.9</v>
       </c>
       <c r="G377" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="378" spans="1:7">
@@ -8002,7 +8002,7 @@
         <v>2173.1</v>
       </c>
       <c r="G378" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="379" spans="1:7">
@@ -8018,7 +8018,7 @@
         <v>1441.9</v>
       </c>
       <c r="G379" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="380" spans="1:7">
@@ -8034,7 +8034,7 @@
         <v>1843.5</v>
       </c>
       <c r="G380" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="381" spans="1:7">
@@ -8050,7 +8050,7 @@
         <v>1853.6</v>
       </c>
       <c r="G381" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="382" spans="1:7">
@@ -8066,7 +8066,7 @@
         <v>2016.2</v>
       </c>
       <c r="G382" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="383" spans="1:7">
@@ -8082,7 +8082,7 @@
         <v>1908.3</v>
       </c>
       <c r="G383" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="384" spans="1:7">
@@ -8098,7 +8098,7 @@
         <v>1698.8</v>
       </c>
       <c r="G384" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="385" spans="1:7">
@@ -8140,7 +8140,7 @@
         <v>1648</v>
       </c>
       <c r="G387" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="388" spans="1:7">
@@ -8169,7 +8169,7 @@
         <v>1580.9</v>
       </c>
       <c r="G389" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="390" spans="1:7">
@@ -8185,7 +8185,7 @@
         <v>1974.9</v>
       </c>
       <c r="G390" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="391" spans="1:7">
@@ -8201,7 +8201,7 @@
         <v>2171.3000000000002</v>
       </c>
       <c r="G391" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="392" spans="1:7">
@@ -8217,7 +8217,7 @@
         <v>1421</v>
       </c>
       <c r="G392" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="393" spans="1:7">
@@ -8233,7 +8233,7 @@
         <v>2196.4</v>
       </c>
       <c r="G393" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="394" spans="1:7">
@@ -8249,7 +8249,7 @@
         <v>1678.7</v>
       </c>
       <c r="G394" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="395" spans="1:7">
@@ -8343,7 +8343,7 @@
         <v>1611.8</v>
       </c>
       <c r="G401" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="402" spans="1:7">
@@ -8359,7 +8359,7 @@
         <v>1903.3</v>
       </c>
       <c r="G402" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="403" spans="1:7">
@@ -8375,7 +8375,7 @@
         <v>1286.8</v>
       </c>
       <c r="G403" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="404" spans="1:7">
@@ -8391,7 +8391,7 @@
         <v>2041.3</v>
       </c>
       <c r="G404" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="405" spans="1:7">
@@ -8420,7 +8420,7 @@
         <v>2012.2</v>
       </c>
       <c r="G406" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="407" spans="1:7">
@@ -8434,7 +8434,7 @@
         <v>10</v>
       </c>
       <c r="E407" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
     </row>
     <row r="408" spans="1:7">
@@ -8471,7 +8471,7 @@
         <v>2180.4</v>
       </c>
       <c r="G409" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="410" spans="1:7">
@@ -8491,7 +8491,7 @@
         <v>1443.3</v>
       </c>
       <c r="G410" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="411" spans="1:7">
@@ -8556,7 +8556,7 @@
         <v>10</v>
       </c>
       <c r="E414" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
     </row>
     <row r="415" spans="1:7">
@@ -8672,7 +8672,7 @@
         <v>10</v>
       </c>
       <c r="E421" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
     </row>
     <row r="422" spans="1:7">
@@ -8692,7 +8692,7 @@
         <v>1973.3</v>
       </c>
       <c r="G422" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="423" spans="1:7">
@@ -8712,7 +8712,7 @@
         <v>2180.4</v>
       </c>
       <c r="G423" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="424" spans="1:7">
@@ -8732,7 +8732,7 @@
         <v>1443.3</v>
       </c>
       <c r="G424" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="425" spans="1:7">
@@ -8752,7 +8752,7 @@
         <v>1851</v>
       </c>
       <c r="G425" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="426" spans="1:7">
@@ -8772,7 +8772,7 @@
         <v>1862.9</v>
       </c>
       <c r="G426" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="427" spans="1:7">
@@ -8792,7 +8792,7 @@
         <v>2026.8</v>
       </c>
       <c r="G427" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="428" spans="1:7">
@@ -8806,7 +8806,7 @@
         <v>10</v>
       </c>
       <c r="E428" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
     </row>
     <row r="429" spans="1:7">
@@ -8826,7 +8826,7 @@
         <v>1585.9</v>
       </c>
       <c r="G429" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="430" spans="1:7">
@@ -8846,7 +8846,7 @@
         <v>1986.5</v>
       </c>
       <c r="G430" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="431" spans="1:7">
@@ -8866,7 +8866,7 @@
         <v>2209.4</v>
       </c>
       <c r="G431" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="432" spans="1:7">
@@ -8886,7 +8886,7 @@
         <v>1453.3</v>
       </c>
       <c r="G432" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="433" spans="1:7">
@@ -8906,7 +8906,7 @@
         <v>2216.5</v>
       </c>
       <c r="G433" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="434" spans="1:7">
@@ -8926,7 +8926,7 @@
         <v>1703.3</v>
       </c>
       <c r="G434" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="435" spans="1:7">
@@ -8994,7 +8994,7 @@
         <v>1292.5999999999999</v>
       </c>
       <c r="G438" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="439" spans="1:7">
@@ -9031,7 +9031,7 @@
         <v>1727</v>
       </c>
       <c r="G440" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="441" spans="1:7">
@@ -9051,7 +9051,7 @@
         <v>2042.8</v>
       </c>
       <c r="G441" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="442" spans="1:7">
@@ -9687,7 +9687,7 @@
         <v>10</v>
       </c>
       <c r="E486" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="F486" s="8"/>
     </row>
@@ -9804,7 +9804,7 @@
         <v>10</v>
       </c>
       <c r="E493" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="F493" s="8"/>
     </row>
@@ -9921,7 +9921,7 @@
         <v>10</v>
       </c>
       <c r="E500" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="F500" s="8"/>
     </row>
@@ -10560,11 +10560,11 @@
         <v>10</v>
       </c>
       <c r="E545" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="F545" s="8"/>
       <c r="G545" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="546" spans="1:7">
@@ -10680,7 +10680,7 @@
         <v>10</v>
       </c>
       <c r="E552" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="F552" s="8"/>
     </row>
@@ -10797,7 +10797,7 @@
         <v>10</v>
       </c>
       <c r="E559" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="F559" s="8"/>
     </row>
@@ -11265,7 +11265,7 @@
         <v>10</v>
       </c>
       <c r="E587" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
     </row>
     <row r="588" spans="1:6">
@@ -11381,7 +11381,7 @@
         <v>10</v>
       </c>
       <c r="E594" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="F594" s="8"/>
     </row>
@@ -11498,7 +11498,7 @@
         <v>10</v>
       </c>
       <c r="E601" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
     </row>
     <row r="602" spans="1:6">
@@ -12136,7 +12136,7 @@
         <v>10</v>
       </c>
       <c r="E646" s="11" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="F646" s="8"/>
     </row>
@@ -12253,7 +12253,7 @@
         <v>10</v>
       </c>
       <c r="E653" s="11" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="F653" s="8"/>
     </row>
@@ -12370,7 +12370,7 @@
         <v>10</v>
       </c>
       <c r="E660" s="11" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
     </row>
     <row r="661" spans="1:6">
@@ -13227,7 +13227,7 @@
         <v>10</v>
       </c>
       <c r="E718" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="F718" s="8"/>
     </row>
@@ -13344,7 +13344,7 @@
         <v>10</v>
       </c>
       <c r="E725" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="F725" s="8"/>
     </row>
@@ -13461,7 +13461,7 @@
         <v>10</v>
       </c>
       <c r="E732" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="F732" s="8"/>
     </row>
@@ -13480,7 +13480,7 @@
       </c>
       <c r="F733" s="8"/>
       <c r="G733" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="734" spans="1:7">
@@ -14073,7 +14073,7 @@
         <v>10</v>
       </c>
       <c r="E777" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="F777" s="8"/>
     </row>
@@ -14190,7 +14190,7 @@
         <v>10</v>
       </c>
       <c r="E784" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
     </row>
     <row r="785" spans="1:7">
@@ -14210,7 +14210,7 @@
         <v>1921.6</v>
       </c>
       <c r="G785" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="786" spans="1:7">
@@ -14230,7 +14230,7 @@
         <v>1703.7</v>
       </c>
       <c r="G786" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="787" spans="1:7">
@@ -14312,7 +14312,7 @@
         <v>10</v>
       </c>
       <c r="E791" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
     </row>
     <row r="792" spans="1:7">
@@ -14428,11 +14428,11 @@
         <v>10</v>
       </c>
       <c r="E798" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="F798" s="8"/>
       <c r="G798" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="799" spans="1:7">
@@ -14450,7 +14450,7 @@
       </c>
       <c r="F799" s="8"/>
       <c r="G799" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="800" spans="1:7">
@@ -15058,7 +15058,7 @@
         <v>10</v>
       </c>
       <c r="E844" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="F844" s="8"/>
     </row>
@@ -15175,7 +15175,7 @@
         <v>10</v>
       </c>
       <c r="E851" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="F851" s="8"/>
     </row>
@@ -15292,7 +15292,7 @@
         <v>10</v>
       </c>
       <c r="E858" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="F858" s="8"/>
     </row>
@@ -15409,7 +15409,7 @@
         <v>10</v>
       </c>
       <c r="E865" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="F865" s="8"/>
     </row>
@@ -15430,7 +15430,7 @@
         <v>2024.8</v>
       </c>
       <c r="G866" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="867" spans="1:7">
@@ -15450,7 +15450,7 @@
         <v>1911.54</v>
       </c>
       <c r="G867" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="868" spans="1:7">
@@ -15470,7 +15470,7 @@
         <v>1882</v>
       </c>
       <c r="G868" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="869" spans="1:7">
@@ -15490,7 +15490,7 @@
         <v>1958.9</v>
       </c>
       <c r="G869" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="870" spans="1:7">
@@ -15510,7 +15510,7 @@
         <v>2096.3000000000002</v>
       </c>
       <c r="G870" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="871" spans="1:7">
@@ -15530,7 +15530,7 @@
         <v>1558.8</v>
       </c>
       <c r="G871" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="872" spans="1:7">
@@ -15565,7 +15565,7 @@
         <v>1584.5</v>
       </c>
       <c r="G873" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="874" spans="1:7">
@@ -15585,7 +15585,7 @@
         <v>1895.2</v>
       </c>
       <c r="G874" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="875" spans="1:7">
@@ -15605,7 +15605,7 @@
         <v>1275.0999999999999</v>
       </c>
       <c r="G875" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="876" spans="1:7">
@@ -15625,7 +15625,7 @@
         <v>2027.1</v>
       </c>
       <c r="G876" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="877" spans="1:7">
@@ -15645,7 +15645,7 @@
         <v>1715.4</v>
       </c>
       <c r="G877" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="878" spans="1:7">
@@ -15665,7 +15665,7 @@
         <v>1992.4</v>
       </c>
       <c r="G878" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="879" spans="1:7">
@@ -16054,7 +16054,7 @@
         <v>10</v>
       </c>
       <c r="E910" s="11" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="F910" s="8"/>
     </row>
@@ -16171,7 +16171,7 @@
         <v>10</v>
       </c>
       <c r="E917" s="11" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
     </row>
     <row r="918" spans="1:7">
@@ -16287,7 +16287,7 @@
         <v>10</v>
       </c>
       <c r="E924" s="11" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
     </row>
     <row r="925" spans="1:7">
@@ -16307,7 +16307,7 @@
         <v>1543.9</v>
       </c>
       <c r="G925" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="926" spans="1:7">
@@ -16327,7 +16327,7 @@
         <v>1919.9</v>
       </c>
       <c r="G926" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="927" spans="1:7">
@@ -16347,7 +16347,7 @@
         <v>2143.1</v>
       </c>
       <c r="G927" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="928" spans="1:7">
@@ -16367,7 +16367,7 @@
         <v>1435.1</v>
       </c>
       <c r="G928" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="929" spans="1:7">
@@ -16387,7 +16387,7 @@
         <v>2173.5</v>
       </c>
       <c r="G929" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="930" spans="1:7">
@@ -16407,7 +16407,7 @@
         <v>1662.9</v>
       </c>
       <c r="G930" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="931" spans="1:7">
@@ -16663,7 +16663,7 @@
       </c>
       <c r="F945" s="8"/>
       <c r="G945" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="946" spans="1:7">
@@ -17204,7 +17204,7 @@
         <v>2025.2</v>
       </c>
       <c r="G984" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="985" spans="1:7">
@@ -17224,7 +17224,7 @@
         <v>1906.4</v>
       </c>
       <c r="G985" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="986" spans="1:7">
@@ -17244,7 +17244,7 @@
         <v>1867.7</v>
       </c>
       <c r="G986" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="987" spans="1:7">
@@ -17264,7 +17264,7 @@
         <v>1960.5</v>
       </c>
       <c r="G987" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="988" spans="1:7">
@@ -17284,7 +17284,7 @@
         <v>2083.6999999999998</v>
       </c>
       <c r="G988" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="989" spans="1:7">
@@ -17304,7 +17304,7 @@
         <v>1548.9</v>
       </c>
       <c r="G989" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="990" spans="1:7">
@@ -17338,7 +17338,7 @@
         <v>2025.2</v>
       </c>
       <c r="G991" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="992" spans="1:7">
@@ -17358,7 +17358,7 @@
         <v>1906.4</v>
       </c>
       <c r="G992" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="993" spans="1:7">
@@ -17378,7 +17378,7 @@
         <v>1867.7</v>
       </c>
       <c r="G993" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="994" spans="1:7">
@@ -17398,7 +17398,7 @@
         <v>1960.5</v>
       </c>
       <c r="G994" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="995" spans="1:7">
@@ -17418,7 +17418,7 @@
         <v>2083.6999999999998</v>
       </c>
       <c r="G995" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="996" spans="1:7">
@@ -17438,7 +17438,7 @@
         <v>1548.9</v>
       </c>
       <c r="G996" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="997" spans="1:7">
@@ -17452,7 +17452,7 @@
         <v>10</v>
       </c>
       <c r="E997" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="F997" s="16"/>
     </row>
@@ -17569,7 +17569,7 @@
         <v>10</v>
       </c>
       <c r="E1004" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
     </row>
     <row r="1005" spans="1:7">
@@ -17685,7 +17685,7 @@
         <v>10</v>
       </c>
       <c r="E1011" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
     </row>
     <row r="1012" spans="1:6">
@@ -18161,7 +18161,7 @@
         <v>10</v>
       </c>
       <c r="E1048" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="F1048" s="8"/>
     </row>
@@ -18278,7 +18278,7 @@
         <v>10</v>
       </c>
       <c r="E1055" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
     </row>
     <row r="1056" spans="1:6">
@@ -18394,7 +18394,7 @@
         <v>10</v>
       </c>
       <c r="E1062" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
     </row>
     <row r="1063" spans="1:7">
@@ -18530,7 +18530,7 @@
         <v>2023.8</v>
       </c>
       <c r="G1070" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1071" spans="1:7">
@@ -18550,7 +18550,7 @@
         <v>1905.5</v>
       </c>
       <c r="G1071" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1072" spans="1:7">
@@ -18570,7 +18570,7 @@
         <v>1864.1</v>
       </c>
       <c r="G1072" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1073" spans="1:7">
@@ -18590,7 +18590,7 @@
         <v>1957.2</v>
       </c>
       <c r="G1073" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1074" spans="1:7">
@@ -18610,7 +18610,7 @@
         <v>2079.6</v>
       </c>
       <c r="G1074" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1075" spans="1:7">
@@ -18630,7 +18630,7 @@
         <v>1550.3</v>
       </c>
       <c r="G1075" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1076" spans="1:7">
@@ -19135,7 +19135,7 @@
         <v>10</v>
       </c>
       <c r="E1114" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="F1114" s="8"/>
     </row>
@@ -19252,7 +19252,7 @@
         <v>10</v>
       </c>
       <c r="E1121" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="F1121" s="8"/>
     </row>
@@ -19369,7 +19369,7 @@
         <v>10</v>
       </c>
       <c r="E1128" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="F1128" s="8"/>
     </row>
@@ -19486,10 +19486,10 @@
         <v>10</v>
       </c>
       <c r="E1135" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="G1135" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="1136" spans="1:7">
@@ -19506,7 +19506,7 @@
         <v>45</v>
       </c>
       <c r="G1136" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1137" spans="1:7">
@@ -19526,7 +19526,7 @@
         <v>2012.7</v>
       </c>
       <c r="G1137" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1138" spans="1:7">
@@ -19546,7 +19546,7 @@
         <v>1896.4</v>
       </c>
       <c r="G1138" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1139" spans="1:7">
@@ -19566,7 +19566,7 @@
         <v>1856.2</v>
       </c>
       <c r="G1139" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1140" spans="1:7">
@@ -19586,7 +19586,7 @@
         <v>1948.5</v>
       </c>
       <c r="G1140" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1141" spans="1:7">
@@ -19606,7 +19606,7 @@
         <v>2069.1</v>
       </c>
       <c r="G1141" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1142" spans="1:7">
@@ -19626,7 +19626,7 @@
         <v>1529.5</v>
       </c>
       <c r="G1142" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1143" spans="1:7">
@@ -20117,7 +20117,7 @@
         <v>10</v>
       </c>
       <c r="E1180" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
     </row>
     <row r="1181" spans="1:6">
@@ -20233,7 +20233,7 @@
         <v>10</v>
       </c>
       <c r="E1187" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
     </row>
     <row r="1188" spans="1:6">
@@ -20349,7 +20349,7 @@
         <v>10</v>
       </c>
       <c r="E1194" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
     </row>
     <row r="1195" spans="1:6">
@@ -20485,7 +20485,7 @@
         <v>2021.8</v>
       </c>
       <c r="G1202" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="1203" spans="1:7">
@@ -20505,7 +20505,7 @@
         <v>1903.6</v>
       </c>
       <c r="G1203" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="1204" spans="1:7">
@@ -20525,7 +20525,7 @@
         <v>1856.8</v>
       </c>
       <c r="G1204" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="1205" spans="1:7">
@@ -20545,7 +20545,7 @@
         <v>1952.9</v>
       </c>
       <c r="G1205" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="1206" spans="1:7">
@@ -20565,7 +20565,7 @@
         <v>2066.8000000000002</v>
       </c>
       <c r="G1206" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="1207" spans="1:7">
@@ -20585,7 +20585,7 @@
         <v>1542.3</v>
       </c>
       <c r="G1207" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="1208" spans="1:7">

--- a/data/CoreData.xlsx
+++ b/data/CoreData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="24400" windowHeight="15360" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24680" windowHeight="15600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="treatments.csv" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="79">
   <si>
     <t>Treatment</t>
   </si>
@@ -254,6 +254,9 @@
   </si>
   <si>
     <t>Ambient20</t>
+  </si>
+  <si>
+    <t>Corrected from 2118.9 per Peyton's notes</t>
   </si>
 </sst>
 </file>
@@ -1610,8 +1613,8 @@
   <dimension ref="A1:G1215"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <pane ySplit="2" topLeftCell="A1193" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1196" sqref="C1196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -20188,7 +20191,7 @@
         <v>1843.8</v>
       </c>
     </row>
-    <row r="1185" spans="1:6">
+    <row r="1185" spans="1:7">
       <c r="A1185" s="1">
         <v>42347</v>
       </c>
@@ -20205,7 +20208,7 @@
         <v>1860.8</v>
       </c>
     </row>
-    <row r="1186" spans="1:6">
+    <row r="1186" spans="1:7">
       <c r="A1186" s="1">
         <v>42347</v>
       </c>
@@ -20222,7 +20225,7 @@
         <v>2016.5</v>
       </c>
     </row>
-    <row r="1187" spans="1:6">
+    <row r="1187" spans="1:7">
       <c r="A1187" s="1">
         <v>42347</v>
       </c>
@@ -20236,7 +20239,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="1188" spans="1:6">
+    <row r="1188" spans="1:7">
       <c r="A1188" s="1">
         <v>42347</v>
       </c>
@@ -20253,7 +20256,7 @@
         <v>1925.2</v>
       </c>
     </row>
-    <row r="1189" spans="1:6">
+    <row r="1189" spans="1:7">
       <c r="A1189" s="1">
         <v>42347</v>
       </c>
@@ -20270,7 +20273,7 @@
         <v>1706.1</v>
       </c>
     </row>
-    <row r="1190" spans="1:6">
+    <row r="1190" spans="1:7">
       <c r="A1190" s="1">
         <v>42347</v>
       </c>
@@ -20287,7 +20290,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="1191" spans="1:6">
+    <row r="1191" spans="1:7">
       <c r="A1191" s="1">
         <v>42347</v>
       </c>
@@ -20304,7 +20307,7 @@
         <v>2116.5</v>
       </c>
     </row>
-    <row r="1192" spans="1:6">
+    <row r="1192" spans="1:7">
       <c r="A1192" s="1">
         <v>42347</v>
       </c>
@@ -20321,7 +20324,7 @@
         <v>1642.2</v>
       </c>
     </row>
-    <row r="1193" spans="1:6">
+    <row r="1193" spans="1:7">
       <c r="A1193" s="1">
         <v>42347</v>
       </c>
@@ -20338,7 +20341,7 @@
         <v>1631.6</v>
       </c>
     </row>
-    <row r="1194" spans="1:6">
+    <row r="1194" spans="1:7">
       <c r="A1194" s="1">
         <v>42347</v>
       </c>
@@ -20352,7 +20355,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="1195" spans="1:6">
+    <row r="1195" spans="1:7">
       <c r="A1195" s="1">
         <v>42347</v>
       </c>
@@ -20369,7 +20372,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="1196" spans="1:6">
+    <row r="1196" spans="1:7">
       <c r="A1196" s="1">
         <v>42347</v>
       </c>
@@ -20386,7 +20389,7 @@
         <v>1914.2</v>
       </c>
     </row>
-    <row r="1197" spans="1:6">
+    <row r="1197" spans="1:7">
       <c r="A1197" s="1">
         <v>42347</v>
       </c>
@@ -20403,7 +20406,7 @@
         <v>2137.1</v>
       </c>
     </row>
-    <row r="1198" spans="1:6">
+    <row r="1198" spans="1:7">
       <c r="A1198" s="1">
         <v>42347</v>
       </c>
@@ -20420,7 +20423,7 @@
         <v>1426.4</v>
       </c>
     </row>
-    <row r="1199" spans="1:6">
+    <row r="1199" spans="1:7">
       <c r="A1199" s="1">
         <v>42347</v>
       </c>
@@ -20434,10 +20437,13 @@
         <v>22</v>
       </c>
       <c r="F1199" s="8">
-        <v>2118.9</v>
-      </c>
-    </row>
-    <row r="1200" spans="1:6">
+        <v>2168.9</v>
+      </c>
+      <c r="G1199" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:7">
       <c r="A1200" s="1">
         <v>42347</v>
       </c>

--- a/data/CoreData.xlsx
+++ b/data/CoreData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24680" windowHeight="15600" activeTab="1"/>
@@ -351,8 +351,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="271">
+  <cellStyleXfs count="273">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -647,7 +649,7 @@
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="271">
+  <cellStyles count="273">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -783,6 +785,7 @@
     <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -918,6 +921,7 @@
     <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1613,8 +1617,8 @@
   <dimension ref="A1:G1215"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A1193" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1196" sqref="C1196"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4395,7 +4399,9 @@
       <c r="A143" s="1">
         <v>42254</v>
       </c>
-      <c r="B143" s="5"/>
+      <c r="B143" s="6">
+        <v>0</v>
+      </c>
       <c r="D143" s="5"/>
       <c r="E143" t="s">
         <v>1</v>
@@ -4408,7 +4414,9 @@
       <c r="A144" s="1">
         <v>42254</v>
       </c>
-      <c r="B144" s="5"/>
+      <c r="B144" s="6">
+        <v>0</v>
+      </c>
       <c r="D144" s="5"/>
       <c r="E144" t="s">
         <v>2</v>
@@ -4421,7 +4429,9 @@
       <c r="A145" s="1">
         <v>42254</v>
       </c>
-      <c r="B145" s="5"/>
+      <c r="B145" s="6">
+        <v>0</v>
+      </c>
       <c r="D145" s="5"/>
       <c r="E145" t="s">
         <v>3</v>
@@ -4434,7 +4444,9 @@
       <c r="A146" s="1">
         <v>42254</v>
       </c>
-      <c r="B146" s="5"/>
+      <c r="B146" s="6">
+        <v>0</v>
+      </c>
       <c r="D146" s="5"/>
       <c r="E146" t="s">
         <v>4</v>
@@ -4447,7 +4459,9 @@
       <c r="A147" s="1">
         <v>42254</v>
       </c>
-      <c r="B147" s="5"/>
+      <c r="B147" s="6">
+        <v>0</v>
+      </c>
       <c r="D147" s="5"/>
       <c r="E147" t="s">
         <v>6</v>
@@ -4460,7 +4474,9 @@
       <c r="A148" s="1">
         <v>42254</v>
       </c>
-      <c r="B148" s="5"/>
+      <c r="B148" s="6">
+        <v>0</v>
+      </c>
       <c r="D148" s="5"/>
       <c r="E148" t="s">
         <v>7</v>
@@ -4473,7 +4489,9 @@
       <c r="A149" s="1">
         <v>42254</v>
       </c>
-      <c r="B149" s="5"/>
+      <c r="B149" s="6">
+        <v>0</v>
+      </c>
       <c r="D149" s="5"/>
       <c r="E149" t="s">
         <v>9</v>
@@ -4486,7 +4504,9 @@
       <c r="A150" s="1">
         <v>42254</v>
       </c>
-      <c r="B150" s="5"/>
+      <c r="B150" s="6">
+        <v>0</v>
+      </c>
       <c r="D150" s="5"/>
       <c r="E150" t="s">
         <v>11</v>
@@ -4499,7 +4519,9 @@
       <c r="A151" s="1">
         <v>42254</v>
       </c>
-      <c r="B151" s="5"/>
+      <c r="B151" s="6">
+        <v>0</v>
+      </c>
       <c r="D151" s="5"/>
       <c r="E151" t="s">
         <v>13</v>
@@ -4512,7 +4534,9 @@
       <c r="A152" s="1">
         <v>42254</v>
       </c>
-      <c r="B152" s="5"/>
+      <c r="B152" s="6">
+        <v>0</v>
+      </c>
       <c r="D152" s="5"/>
       <c r="E152" t="s">
         <v>15</v>
@@ -4525,7 +4549,9 @@
       <c r="A153" s="1">
         <v>42254</v>
       </c>
-      <c r="B153" s="5"/>
+      <c r="B153" s="6">
+        <v>0</v>
+      </c>
       <c r="D153" s="5"/>
       <c r="E153" t="s">
         <v>16</v>
@@ -4538,7 +4564,9 @@
       <c r="A154" s="1">
         <v>42254</v>
       </c>
-      <c r="B154" s="5"/>
+      <c r="B154" s="6">
+        <v>0</v>
+      </c>
       <c r="D154" s="5"/>
       <c r="E154" t="s">
         <v>17</v>
@@ -4551,7 +4579,9 @@
       <c r="A155" s="1">
         <v>42254</v>
       </c>
-      <c r="B155" s="5"/>
+      <c r="B155" s="6">
+        <v>0</v>
+      </c>
       <c r="D155" s="5"/>
       <c r="E155" t="s">
         <v>18</v>
@@ -4564,7 +4594,9 @@
       <c r="A156" s="1">
         <v>42254</v>
       </c>
-      <c r="B156" s="5"/>
+      <c r="B156" s="6">
+        <v>0</v>
+      </c>
       <c r="D156" s="5"/>
       <c r="E156" t="s">
         <v>19</v>
@@ -4577,7 +4609,9 @@
       <c r="A157" s="1">
         <v>42254</v>
       </c>
-      <c r="B157" s="5"/>
+      <c r="B157" s="6">
+        <v>0</v>
+      </c>
       <c r="D157" s="5"/>
       <c r="E157" t="s">
         <v>20</v>
@@ -4590,7 +4624,9 @@
       <c r="A158" s="1">
         <v>42254</v>
       </c>
-      <c r="B158" s="5"/>
+      <c r="B158" s="6">
+        <v>0</v>
+      </c>
       <c r="D158" s="5"/>
       <c r="E158" t="s">
         <v>21</v>
@@ -4603,7 +4639,9 @@
       <c r="A159" s="1">
         <v>42254</v>
       </c>
-      <c r="B159" s="5"/>
+      <c r="B159" s="6">
+        <v>0</v>
+      </c>
       <c r="D159" s="5"/>
       <c r="E159" t="s">
         <v>22</v>
@@ -4616,7 +4654,9 @@
       <c r="A160" s="1">
         <v>42254</v>
       </c>
-      <c r="B160" s="5"/>
+      <c r="B160" s="6">
+        <v>0</v>
+      </c>
       <c r="D160" s="5"/>
       <c r="E160" t="s">
         <v>23</v>
@@ -4629,7 +4669,9 @@
       <c r="A161" s="1">
         <v>42254</v>
       </c>
-      <c r="B161" s="5"/>
+      <c r="B161" s="6">
+        <v>0</v>
+      </c>
       <c r="D161" s="5"/>
       <c r="E161" t="s">
         <v>5</v>
@@ -4642,7 +4684,9 @@
       <c r="A162" s="1">
         <v>42254</v>
       </c>
-      <c r="B162" s="5"/>
+      <c r="B162" s="6">
+        <v>0</v>
+      </c>
       <c r="D162" s="5"/>
       <c r="E162" t="s">
         <v>24</v>
@@ -4655,7 +4699,9 @@
       <c r="A163" s="1">
         <v>42254</v>
       </c>
-      <c r="B163" s="5"/>
+      <c r="B163" s="6">
+        <v>0</v>
+      </c>
       <c r="D163" s="5"/>
       <c r="E163" t="s">
         <v>8</v>
@@ -4668,7 +4714,9 @@
       <c r="A164" s="1">
         <v>42254</v>
       </c>
-      <c r="B164" s="5"/>
+      <c r="B164" s="6">
+        <v>0</v>
+      </c>
       <c r="D164" s="5"/>
       <c r="E164" t="s">
         <v>10</v>
@@ -4681,7 +4729,9 @@
       <c r="A165" s="1">
         <v>42254</v>
       </c>
-      <c r="B165" s="5"/>
+      <c r="B165" s="6">
+        <v>0</v>
+      </c>
       <c r="D165" s="5"/>
       <c r="E165" t="s">
         <v>12</v>
@@ -4694,7 +4744,9 @@
       <c r="A166" s="1">
         <v>42254</v>
       </c>
-      <c r="B166" s="5"/>
+      <c r="B166" s="6">
+        <v>0</v>
+      </c>
       <c r="D166" s="5"/>
       <c r="E166" t="s">
         <v>14</v>
@@ -4707,7 +4759,9 @@
       <c r="A167" s="1">
         <v>42254</v>
       </c>
-      <c r="B167" s="5"/>
+      <c r="B167" s="6">
+        <v>0</v>
+      </c>
       <c r="D167" s="5"/>
       <c r="E167" t="s">
         <v>25</v>
@@ -4720,7 +4774,9 @@
       <c r="A168" s="1">
         <v>42254</v>
       </c>
-      <c r="B168" s="5"/>
+      <c r="B168" s="6">
+        <v>0</v>
+      </c>
       <c r="D168" s="5"/>
       <c r="E168" t="s">
         <v>26</v>
@@ -4733,7 +4789,9 @@
       <c r="A169" s="1">
         <v>42254</v>
       </c>
-      <c r="B169" s="5"/>
+      <c r="B169" s="6">
+        <v>0</v>
+      </c>
       <c r="D169" s="5"/>
       <c r="E169" t="s">
         <v>27</v>
@@ -4746,7 +4804,9 @@
       <c r="A170" s="1">
         <v>42254</v>
       </c>
-      <c r="B170" s="5"/>
+      <c r="B170" s="6">
+        <v>0</v>
+      </c>
       <c r="D170" s="5"/>
       <c r="E170" t="s">
         <v>28</v>
@@ -4759,7 +4819,9 @@
       <c r="A171" s="1">
         <v>42254</v>
       </c>
-      <c r="B171" s="5"/>
+      <c r="B171" s="6">
+        <v>0</v>
+      </c>
       <c r="D171" s="5"/>
       <c r="E171" t="s">
         <v>29</v>
@@ -4772,7 +4834,9 @@
       <c r="A172" s="1">
         <v>42254</v>
       </c>
-      <c r="B172" s="5"/>
+      <c r="B172" s="6">
+        <v>0</v>
+      </c>
       <c r="D172" s="5"/>
       <c r="E172" t="s">
         <v>30</v>
@@ -5396,7 +5460,9 @@
       <c r="A210" s="1">
         <v>42257</v>
       </c>
-      <c r="B210" s="5"/>
+      <c r="B210" s="6">
+        <v>0</v>
+      </c>
       <c r="D210" s="5"/>
       <c r="E210" t="s">
         <v>1</v>
@@ -5409,7 +5475,9 @@
       <c r="A211" s="1">
         <v>42257</v>
       </c>
-      <c r="B211" s="5"/>
+      <c r="B211" s="6">
+        <v>0</v>
+      </c>
       <c r="D211" s="5"/>
       <c r="E211" t="s">
         <v>2</v>
@@ -5422,7 +5490,9 @@
       <c r="A212" s="1">
         <v>42257</v>
       </c>
-      <c r="B212" s="5"/>
+      <c r="B212" s="6">
+        <v>0</v>
+      </c>
       <c r="D212" s="5"/>
       <c r="E212" t="s">
         <v>3</v>
@@ -5435,7 +5505,9 @@
       <c r="A213" s="1">
         <v>42257</v>
       </c>
-      <c r="B213" s="5"/>
+      <c r="B213" s="6">
+        <v>0</v>
+      </c>
       <c r="D213" s="5"/>
       <c r="E213" t="s">
         <v>4</v>
@@ -5448,7 +5520,9 @@
       <c r="A214" s="1">
         <v>42257</v>
       </c>
-      <c r="B214" s="5"/>
+      <c r="B214" s="6">
+        <v>0</v>
+      </c>
       <c r="D214" s="5"/>
       <c r="E214" t="s">
         <v>6</v>
@@ -5461,7 +5535,9 @@
       <c r="A215" s="1">
         <v>42257</v>
       </c>
-      <c r="B215" s="5"/>
+      <c r="B215" s="6">
+        <v>0</v>
+      </c>
       <c r="D215" s="5"/>
       <c r="E215" t="s">
         <v>7</v>
@@ -5474,7 +5550,9 @@
       <c r="A216" s="1">
         <v>42257</v>
       </c>
-      <c r="B216" s="5"/>
+      <c r="B216" s="6">
+        <v>0</v>
+      </c>
       <c r="D216" s="5"/>
       <c r="E216" t="s">
         <v>9</v>
@@ -5487,7 +5565,9 @@
       <c r="A217" s="1">
         <v>42257</v>
       </c>
-      <c r="B217" s="5"/>
+      <c r="B217" s="6">
+        <v>0</v>
+      </c>
       <c r="D217" s="5"/>
       <c r="E217" t="s">
         <v>11</v>
@@ -5500,7 +5580,9 @@
       <c r="A218" s="1">
         <v>42257</v>
       </c>
-      <c r="B218" s="5"/>
+      <c r="B218" s="6">
+        <v>0</v>
+      </c>
       <c r="D218" s="5"/>
       <c r="E218" t="s">
         <v>13</v>
@@ -5513,7 +5595,9 @@
       <c r="A219" s="1">
         <v>42257</v>
       </c>
-      <c r="B219" s="5"/>
+      <c r="B219" s="6">
+        <v>0</v>
+      </c>
       <c r="D219" s="5"/>
       <c r="E219" t="s">
         <v>15</v>
@@ -5526,7 +5610,9 @@
       <c r="A220" s="1">
         <v>42257</v>
       </c>
-      <c r="B220" s="5"/>
+      <c r="B220" s="6">
+        <v>0</v>
+      </c>
       <c r="D220" s="5"/>
       <c r="E220" t="s">
         <v>16</v>
@@ -5539,7 +5625,9 @@
       <c r="A221" s="1">
         <v>42257</v>
       </c>
-      <c r="B221" s="5"/>
+      <c r="B221" s="6">
+        <v>0</v>
+      </c>
       <c r="D221" s="5"/>
       <c r="E221" t="s">
         <v>17</v>
@@ -5552,7 +5640,9 @@
       <c r="A222" s="1">
         <v>42257</v>
       </c>
-      <c r="B222" s="5"/>
+      <c r="B222" s="6">
+        <v>0</v>
+      </c>
       <c r="D222" s="5"/>
       <c r="E222" t="s">
         <v>18</v>
@@ -5565,7 +5655,9 @@
       <c r="A223" s="1">
         <v>42257</v>
       </c>
-      <c r="B223" s="5"/>
+      <c r="B223" s="6">
+        <v>0</v>
+      </c>
       <c r="D223" s="5"/>
       <c r="E223" t="s">
         <v>19</v>
@@ -5578,7 +5670,9 @@
       <c r="A224" s="1">
         <v>42257</v>
       </c>
-      <c r="B224" s="5"/>
+      <c r="B224" s="6">
+        <v>0</v>
+      </c>
       <c r="D224" s="5"/>
       <c r="E224" t="s">
         <v>20</v>
@@ -5591,7 +5685,9 @@
       <c r="A225" s="1">
         <v>42257</v>
       </c>
-      <c r="B225" s="5"/>
+      <c r="B225" s="6">
+        <v>0</v>
+      </c>
       <c r="D225" s="5"/>
       <c r="E225" t="s">
         <v>21</v>
@@ -5604,7 +5700,9 @@
       <c r="A226" s="1">
         <v>42257</v>
       </c>
-      <c r="B226" s="5"/>
+      <c r="B226" s="6">
+        <v>0</v>
+      </c>
       <c r="D226" s="5"/>
       <c r="E226" t="s">
         <v>22</v>
@@ -5617,7 +5715,9 @@
       <c r="A227" s="1">
         <v>42257</v>
       </c>
-      <c r="B227" s="5"/>
+      <c r="B227" s="6">
+        <v>0</v>
+      </c>
       <c r="D227" s="5"/>
       <c r="E227" t="s">
         <v>23</v>
@@ -5630,7 +5730,9 @@
       <c r="A228" s="1">
         <v>42257</v>
       </c>
-      <c r="B228" s="5"/>
+      <c r="B228" s="6">
+        <v>0</v>
+      </c>
       <c r="D228" s="5"/>
       <c r="E228" t="s">
         <v>5</v>
@@ -5643,7 +5745,9 @@
       <c r="A229" s="1">
         <v>42257</v>
       </c>
-      <c r="B229" s="5"/>
+      <c r="B229" s="6">
+        <v>0</v>
+      </c>
       <c r="D229" s="5"/>
       <c r="E229" t="s">
         <v>24</v>
@@ -5656,7 +5760,9 @@
       <c r="A230" s="1">
         <v>42257</v>
       </c>
-      <c r="B230" s="5"/>
+      <c r="B230" s="6">
+        <v>0</v>
+      </c>
       <c r="D230" s="5"/>
       <c r="E230" t="s">
         <v>8</v>
@@ -5669,7 +5775,9 @@
       <c r="A231" s="1">
         <v>42257</v>
       </c>
-      <c r="B231" s="5"/>
+      <c r="B231" s="6">
+        <v>0</v>
+      </c>
       <c r="D231" s="5"/>
       <c r="E231" t="s">
         <v>10</v>
@@ -5682,7 +5790,9 @@
       <c r="A232" s="1">
         <v>42257</v>
       </c>
-      <c r="B232" s="5"/>
+      <c r="B232" s="6">
+        <v>0</v>
+      </c>
       <c r="D232" s="5"/>
       <c r="E232" t="s">
         <v>12</v>
@@ -5695,7 +5805,9 @@
       <c r="A233" s="1">
         <v>42257</v>
       </c>
-      <c r="B233" s="5"/>
+      <c r="B233" s="6">
+        <v>0</v>
+      </c>
       <c r="D233" s="5"/>
       <c r="E233" t="s">
         <v>14</v>
@@ -5708,7 +5820,9 @@
       <c r="A234" s="1">
         <v>42257</v>
       </c>
-      <c r="B234" s="5"/>
+      <c r="B234" s="6">
+        <v>0</v>
+      </c>
       <c r="D234" s="5"/>
       <c r="E234" t="s">
         <v>25</v>
@@ -5721,7 +5835,9 @@
       <c r="A235" s="1">
         <v>42257</v>
       </c>
-      <c r="B235" s="5"/>
+      <c r="B235" s="6">
+        <v>0</v>
+      </c>
       <c r="D235" s="5"/>
       <c r="E235" t="s">
         <v>26</v>
@@ -5734,7 +5850,9 @@
       <c r="A236" s="1">
         <v>42257</v>
       </c>
-      <c r="B236" s="5"/>
+      <c r="B236" s="6">
+        <v>0</v>
+      </c>
       <c r="D236" s="5"/>
       <c r="E236" t="s">
         <v>27</v>
@@ -5747,7 +5865,9 @@
       <c r="A237" s="1">
         <v>42257</v>
       </c>
-      <c r="B237" s="5"/>
+      <c r="B237" s="6">
+        <v>0</v>
+      </c>
       <c r="D237" s="5"/>
       <c r="E237" t="s">
         <v>28</v>
@@ -5760,7 +5880,9 @@
       <c r="A238" s="1">
         <v>42257</v>
       </c>
-      <c r="B238" s="5"/>
+      <c r="B238" s="6">
+        <v>0</v>
+      </c>
       <c r="D238" s="5"/>
       <c r="E238" t="s">
         <v>29</v>
@@ -5773,7 +5895,9 @@
       <c r="A239" s="1">
         <v>42257</v>
       </c>
-      <c r="B239" s="5"/>
+      <c r="B239" s="6">
+        <v>0</v>
+      </c>
       <c r="D239" s="5"/>
       <c r="E239" t="s">
         <v>30</v>
@@ -6398,7 +6522,9 @@
       <c r="A276" s="1">
         <v>42261</v>
       </c>
-      <c r="B276" s="5"/>
+      <c r="B276" s="6">
+        <v>0</v>
+      </c>
       <c r="D276" s="5"/>
       <c r="E276" t="s">
         <v>1</v>
@@ -6411,7 +6537,9 @@
       <c r="A277" s="1">
         <v>42261</v>
       </c>
-      <c r="B277" s="5"/>
+      <c r="B277" s="6">
+        <v>0</v>
+      </c>
       <c r="D277" s="5"/>
       <c r="E277" t="s">
         <v>2</v>
@@ -6424,7 +6552,9 @@
       <c r="A278" s="1">
         <v>42261</v>
       </c>
-      <c r="B278" s="5"/>
+      <c r="B278" s="6">
+        <v>0</v>
+      </c>
       <c r="D278" s="5"/>
       <c r="E278" t="s">
         <v>3</v>
@@ -6437,7 +6567,9 @@
       <c r="A279" s="1">
         <v>42261</v>
       </c>
-      <c r="B279" s="5"/>
+      <c r="B279" s="6">
+        <v>0</v>
+      </c>
       <c r="D279" s="5"/>
       <c r="E279" t="s">
         <v>4</v>
@@ -6450,7 +6582,9 @@
       <c r="A280" s="1">
         <v>42261</v>
       </c>
-      <c r="B280" s="5"/>
+      <c r="B280" s="6">
+        <v>0</v>
+      </c>
       <c r="D280" s="5"/>
       <c r="E280" t="s">
         <v>6</v>
@@ -6463,7 +6597,9 @@
       <c r="A281" s="1">
         <v>42261</v>
       </c>
-      <c r="B281" s="5"/>
+      <c r="B281" s="6">
+        <v>0</v>
+      </c>
       <c r="D281" s="5"/>
       <c r="E281" t="s">
         <v>7</v>
@@ -6476,7 +6612,9 @@
       <c r="A282" s="1">
         <v>42261</v>
       </c>
-      <c r="B282" s="5"/>
+      <c r="B282" s="6">
+        <v>0</v>
+      </c>
       <c r="D282" s="5"/>
       <c r="E282" t="s">
         <v>9</v>
@@ -6489,7 +6627,9 @@
       <c r="A283" s="1">
         <v>42261</v>
       </c>
-      <c r="B283" s="5"/>
+      <c r="B283" s="6">
+        <v>0</v>
+      </c>
       <c r="D283" s="5"/>
       <c r="E283" t="s">
         <v>11</v>
@@ -6502,7 +6642,9 @@
       <c r="A284" s="1">
         <v>42261</v>
       </c>
-      <c r="B284" s="5"/>
+      <c r="B284" s="6">
+        <v>0</v>
+      </c>
       <c r="D284" s="5"/>
       <c r="E284" t="s">
         <v>13</v>
@@ -6515,7 +6657,9 @@
       <c r="A285" s="1">
         <v>42261</v>
       </c>
-      <c r="B285" s="5"/>
+      <c r="B285" s="6">
+        <v>0</v>
+      </c>
       <c r="D285" s="5"/>
       <c r="E285" t="s">
         <v>15</v>
@@ -6528,7 +6672,9 @@
       <c r="A286" s="1">
         <v>42261</v>
       </c>
-      <c r="B286" s="5"/>
+      <c r="B286" s="6">
+        <v>0</v>
+      </c>
       <c r="D286" s="5"/>
       <c r="E286" t="s">
         <v>16</v>
@@ -6541,7 +6687,9 @@
       <c r="A287" s="1">
         <v>42261</v>
       </c>
-      <c r="B287" s="5"/>
+      <c r="B287" s="6">
+        <v>0</v>
+      </c>
       <c r="D287" s="5"/>
       <c r="E287" t="s">
         <v>17</v>
@@ -6554,7 +6702,9 @@
       <c r="A288" s="1">
         <v>42261</v>
       </c>
-      <c r="B288" s="5"/>
+      <c r="B288" s="6">
+        <v>0</v>
+      </c>
       <c r="D288" s="5"/>
       <c r="E288" t="s">
         <v>18</v>
@@ -6567,7 +6717,9 @@
       <c r="A289" s="1">
         <v>42261</v>
       </c>
-      <c r="B289" s="5"/>
+      <c r="B289" s="6">
+        <v>0</v>
+      </c>
       <c r="D289" s="5"/>
       <c r="E289" t="s">
         <v>19</v>
@@ -6580,7 +6732,9 @@
       <c r="A290" s="1">
         <v>42261</v>
       </c>
-      <c r="B290" s="5"/>
+      <c r="B290" s="6">
+        <v>0</v>
+      </c>
       <c r="D290" s="5"/>
       <c r="E290" t="s">
         <v>20</v>
@@ -6593,7 +6747,9 @@
       <c r="A291" s="1">
         <v>42261</v>
       </c>
-      <c r="B291" s="5"/>
+      <c r="B291" s="6">
+        <v>0</v>
+      </c>
       <c r="D291" s="5"/>
       <c r="E291" t="s">
         <v>21</v>
@@ -6606,7 +6762,9 @@
       <c r="A292" s="1">
         <v>42261</v>
       </c>
-      <c r="B292" s="5"/>
+      <c r="B292" s="6">
+        <v>0</v>
+      </c>
       <c r="D292" s="5"/>
       <c r="E292" t="s">
         <v>22</v>
@@ -6619,7 +6777,9 @@
       <c r="A293" s="1">
         <v>42261</v>
       </c>
-      <c r="B293" s="5"/>
+      <c r="B293" s="6">
+        <v>0</v>
+      </c>
       <c r="D293" s="5"/>
       <c r="E293" t="s">
         <v>23</v>
@@ -6632,7 +6792,9 @@
       <c r="A294" s="1">
         <v>42261</v>
       </c>
-      <c r="B294" s="5"/>
+      <c r="B294" s="6">
+        <v>0</v>
+      </c>
       <c r="D294" s="5"/>
       <c r="E294" t="s">
         <v>5</v>
@@ -6645,7 +6807,9 @@
       <c r="A295" s="1">
         <v>42261</v>
       </c>
-      <c r="B295" s="5"/>
+      <c r="B295" s="6">
+        <v>0</v>
+      </c>
       <c r="D295" s="5"/>
       <c r="E295" t="s">
         <v>24</v>
@@ -6658,7 +6822,9 @@
       <c r="A296" s="1">
         <v>42261</v>
       </c>
-      <c r="B296" s="5"/>
+      <c r="B296" s="6">
+        <v>0</v>
+      </c>
       <c r="D296" s="5"/>
       <c r="E296" t="s">
         <v>8</v>
@@ -6671,7 +6837,9 @@
       <c r="A297" s="1">
         <v>42261</v>
       </c>
-      <c r="B297" s="5"/>
+      <c r="B297" s="6">
+        <v>0</v>
+      </c>
       <c r="D297" s="5"/>
       <c r="E297" t="s">
         <v>10</v>
@@ -6684,7 +6852,9 @@
       <c r="A298" s="1">
         <v>42261</v>
       </c>
-      <c r="B298" s="5"/>
+      <c r="B298" s="6">
+        <v>0</v>
+      </c>
       <c r="D298" s="5"/>
       <c r="E298" t="s">
         <v>12</v>
@@ -6697,7 +6867,9 @@
       <c r="A299" s="1">
         <v>42261</v>
       </c>
-      <c r="B299" s="5"/>
+      <c r="B299" s="6">
+        <v>0</v>
+      </c>
       <c r="D299" s="5"/>
       <c r="E299" t="s">
         <v>14</v>
@@ -6710,7 +6882,9 @@
       <c r="A300" s="1">
         <v>42261</v>
       </c>
-      <c r="B300" s="5"/>
+      <c r="B300" s="6">
+        <v>0</v>
+      </c>
       <c r="D300" s="5"/>
       <c r="E300" t="s">
         <v>25</v>
@@ -6723,7 +6897,9 @@
       <c r="A301" s="1">
         <v>42261</v>
       </c>
-      <c r="B301" s="5"/>
+      <c r="B301" s="6">
+        <v>0</v>
+      </c>
       <c r="D301" s="5"/>
       <c r="E301" t="s">
         <v>26</v>
@@ -6736,7 +6912,9 @@
       <c r="A302" s="1">
         <v>42261</v>
       </c>
-      <c r="B302" s="5"/>
+      <c r="B302" s="6">
+        <v>0</v>
+      </c>
       <c r="D302" s="5"/>
       <c r="E302" t="s">
         <v>27</v>
@@ -6749,7 +6927,9 @@
       <c r="A303" s="1">
         <v>42261</v>
       </c>
-      <c r="B303" s="5"/>
+      <c r="B303" s="6">
+        <v>0</v>
+      </c>
       <c r="D303" s="5"/>
       <c r="E303" t="s">
         <v>28</v>
@@ -6762,7 +6942,9 @@
       <c r="A304" s="1">
         <v>42261</v>
       </c>
-      <c r="B304" s="5"/>
+      <c r="B304" s="6">
+        <v>0</v>
+      </c>
       <c r="D304" s="5"/>
       <c r="E304" t="s">
         <v>29</v>
@@ -6775,7 +6957,9 @@
       <c r="A305" s="1">
         <v>42261</v>
       </c>
-      <c r="B305" s="5"/>
+      <c r="B305" s="6">
+        <v>0</v>
+      </c>
       <c r="D305" s="5"/>
       <c r="E305" t="s">
         <v>30</v>
@@ -7980,7 +8164,9 @@
       <c r="A377" s="1">
         <v>42268</v>
       </c>
-      <c r="B377" s="5"/>
+      <c r="B377" s="6">
+        <v>0</v>
+      </c>
       <c r="C377" s="5"/>
       <c r="E377" t="s">
         <v>1</v>
@@ -7996,7 +8182,9 @@
       <c r="A378" s="1">
         <v>42268</v>
       </c>
-      <c r="B378" s="5"/>
+      <c r="B378" s="6">
+        <v>0</v>
+      </c>
       <c r="C378" s="5"/>
       <c r="E378" t="s">
         <v>2</v>
@@ -8012,7 +8200,9 @@
       <c r="A379" s="1">
         <v>42268</v>
       </c>
-      <c r="B379" s="5"/>
+      <c r="B379" s="6">
+        <v>0</v>
+      </c>
       <c r="C379" s="5"/>
       <c r="E379" t="s">
         <v>3</v>
@@ -8028,7 +8218,9 @@
       <c r="A380" s="1">
         <v>42268</v>
       </c>
-      <c r="B380" s="5"/>
+      <c r="B380" s="6">
+        <v>0</v>
+      </c>
       <c r="C380" s="5"/>
       <c r="E380" t="s">
         <v>4</v>
@@ -8044,7 +8236,9 @@
       <c r="A381" s="1">
         <v>42268</v>
       </c>
-      <c r="B381" s="5"/>
+      <c r="B381" s="6">
+        <v>0</v>
+      </c>
       <c r="C381" s="5"/>
       <c r="E381" t="s">
         <v>6</v>
@@ -8060,7 +8254,9 @@
       <c r="A382" s="1">
         <v>42268</v>
       </c>
-      <c r="B382" s="5"/>
+      <c r="B382" s="6">
+        <v>0</v>
+      </c>
       <c r="C382" s="5"/>
       <c r="E382" t="s">
         <v>7</v>
@@ -8076,7 +8272,9 @@
       <c r="A383" s="1">
         <v>42268</v>
       </c>
-      <c r="B383" s="5"/>
+      <c r="B383" s="6">
+        <v>0</v>
+      </c>
       <c r="C383" s="5"/>
       <c r="E383" t="s">
         <v>9</v>
@@ -8092,7 +8290,9 @@
       <c r="A384" s="1">
         <v>42268</v>
       </c>
-      <c r="B384" s="5"/>
+      <c r="B384" s="6">
+        <v>0</v>
+      </c>
       <c r="C384" s="5"/>
       <c r="E384" t="s">
         <v>11</v>
@@ -8108,7 +8308,9 @@
       <c r="A385" s="1">
         <v>42268</v>
       </c>
-      <c r="B385" s="5"/>
+      <c r="B385" s="6">
+        <v>0</v>
+      </c>
       <c r="C385" s="5"/>
       <c r="E385" t="s">
         <v>13</v>
@@ -8121,7 +8323,9 @@
       <c r="A386" s="1">
         <v>42268</v>
       </c>
-      <c r="B386" s="5"/>
+      <c r="B386" s="6">
+        <v>0</v>
+      </c>
       <c r="C386" s="5"/>
       <c r="E386" t="s">
         <v>15</v>
@@ -8134,7 +8338,9 @@
       <c r="A387" s="1">
         <v>42268</v>
       </c>
-      <c r="B387" s="5"/>
+      <c r="B387" s="6">
+        <v>0</v>
+      </c>
       <c r="C387" s="5"/>
       <c r="E387" t="s">
         <v>16</v>
@@ -8150,7 +8356,9 @@
       <c r="A388" s="1">
         <v>42268</v>
       </c>
-      <c r="B388" s="5"/>
+      <c r="B388" s="6">
+        <v>0</v>
+      </c>
       <c r="C388" s="5"/>
       <c r="E388" t="s">
         <v>17</v>
@@ -8163,7 +8371,9 @@
       <c r="A389" s="1">
         <v>42268</v>
       </c>
-      <c r="B389" s="5"/>
+      <c r="B389" s="6">
+        <v>0</v>
+      </c>
       <c r="C389" s="5"/>
       <c r="E389" t="s">
         <v>18</v>
@@ -8179,7 +8389,9 @@
       <c r="A390" s="1">
         <v>42268</v>
       </c>
-      <c r="B390" s="5"/>
+      <c r="B390" s="6">
+        <v>0</v>
+      </c>
       <c r="C390" s="5"/>
       <c r="E390" t="s">
         <v>19</v>
@@ -8195,7 +8407,9 @@
       <c r="A391" s="1">
         <v>42268</v>
       </c>
-      <c r="B391" s="5"/>
+      <c r="B391" s="6">
+        <v>0</v>
+      </c>
       <c r="C391" s="5"/>
       <c r="E391" t="s">
         <v>20</v>
@@ -8211,7 +8425,9 @@
       <c r="A392" s="1">
         <v>42268</v>
       </c>
-      <c r="B392" s="5"/>
+      <c r="B392" s="6">
+        <v>0</v>
+      </c>
       <c r="C392" s="5"/>
       <c r="E392" t="s">
         <v>21</v>
@@ -8227,7 +8443,9 @@
       <c r="A393" s="1">
         <v>42268</v>
       </c>
-      <c r="B393" s="5"/>
+      <c r="B393" s="6">
+        <v>0</v>
+      </c>
       <c r="C393" s="5"/>
       <c r="E393" t="s">
         <v>22</v>
@@ -8243,7 +8461,9 @@
       <c r="A394" s="1">
         <v>42268</v>
       </c>
-      <c r="B394" s="5"/>
+      <c r="B394" s="6">
+        <v>0</v>
+      </c>
       <c r="C394" s="5"/>
       <c r="E394" t="s">
         <v>23</v>
@@ -8259,7 +8479,9 @@
       <c r="A395" s="1">
         <v>42268</v>
       </c>
-      <c r="B395" s="5"/>
+      <c r="B395" s="6">
+        <v>0</v>
+      </c>
       <c r="C395" s="5"/>
       <c r="E395" t="s">
         <v>25</v>
@@ -8272,7 +8494,9 @@
       <c r="A396" s="1">
         <v>42268</v>
       </c>
-      <c r="B396" s="5"/>
+      <c r="B396" s="6">
+        <v>0</v>
+      </c>
       <c r="C396" s="5"/>
       <c r="E396" t="s">
         <v>26</v>
@@ -8285,7 +8509,9 @@
       <c r="A397" s="1">
         <v>42268</v>
       </c>
-      <c r="B397" s="5"/>
+      <c r="B397" s="6">
+        <v>0</v>
+      </c>
       <c r="C397" s="5"/>
       <c r="E397" t="s">
         <v>27</v>
@@ -8298,7 +8524,9 @@
       <c r="A398" s="1">
         <v>42268</v>
       </c>
-      <c r="B398" s="5"/>
+      <c r="B398" s="6">
+        <v>0</v>
+      </c>
       <c r="C398" s="5"/>
       <c r="E398" t="s">
         <v>28</v>
@@ -8311,7 +8539,9 @@
       <c r="A399" s="1">
         <v>42268</v>
       </c>
-      <c r="B399" s="5"/>
+      <c r="B399" s="6">
+        <v>0</v>
+      </c>
       <c r="C399" s="5"/>
       <c r="E399" t="s">
         <v>29</v>
@@ -8324,7 +8554,9 @@
       <c r="A400" s="1">
         <v>42268</v>
       </c>
-      <c r="B400" s="5"/>
+      <c r="B400" s="6">
+        <v>0</v>
+      </c>
       <c r="C400" s="5"/>
       <c r="E400" t="s">
         <v>30</v>
@@ -8337,7 +8569,9 @@
       <c r="A401" s="1">
         <v>42268</v>
       </c>
-      <c r="B401" s="5"/>
+      <c r="B401" s="6">
+        <v>0</v>
+      </c>
       <c r="C401" s="5"/>
       <c r="E401" t="s">
         <v>5</v>
@@ -8353,7 +8587,9 @@
       <c r="A402" s="1">
         <v>42268</v>
       </c>
-      <c r="B402" s="5"/>
+      <c r="B402" s="6">
+        <v>0</v>
+      </c>
       <c r="C402" s="5"/>
       <c r="E402" t="s">
         <v>24</v>
@@ -8369,7 +8605,9 @@
       <c r="A403" s="1">
         <v>42268</v>
       </c>
-      <c r="B403" s="5"/>
+      <c r="B403" s="6">
+        <v>0</v>
+      </c>
       <c r="C403" s="5"/>
       <c r="E403" t="s">
         <v>8</v>
@@ -8385,7 +8623,9 @@
       <c r="A404" s="1">
         <v>42268</v>
       </c>
-      <c r="B404" s="5"/>
+      <c r="B404" s="6">
+        <v>0</v>
+      </c>
       <c r="C404" s="5"/>
       <c r="E404" t="s">
         <v>10</v>
@@ -8401,7 +8641,9 @@
       <c r="A405" s="1">
         <v>42268</v>
       </c>
-      <c r="B405" s="5"/>
+      <c r="B405" s="6">
+        <v>0</v>
+      </c>
       <c r="C405" s="5"/>
       <c r="E405" t="s">
         <v>12</v>
@@ -8414,7 +8656,9 @@
       <c r="A406" s="1">
         <v>42268</v>
       </c>
-      <c r="B406" s="5"/>
+      <c r="B406" s="6">
+        <v>0</v>
+      </c>
       <c r="C406" s="5"/>
       <c r="E406" t="s">
         <v>14</v>
@@ -9191,7 +9435,9 @@
       <c r="A450" s="1">
         <v>42271</v>
       </c>
-      <c r="B450" s="5"/>
+      <c r="B450" s="6">
+        <v>0</v>
+      </c>
       <c r="D450" s="5"/>
       <c r="E450" t="s">
         <v>1</v>
@@ -9204,7 +9450,9 @@
       <c r="A451" s="1">
         <v>42271</v>
       </c>
-      <c r="B451" s="5"/>
+      <c r="B451" s="6">
+        <v>0</v>
+      </c>
       <c r="D451" s="5"/>
       <c r="E451" t="s">
         <v>2</v>
@@ -9217,7 +9465,9 @@
       <c r="A452" s="1">
         <v>42271</v>
       </c>
-      <c r="B452" s="5"/>
+      <c r="B452" s="6">
+        <v>0</v>
+      </c>
       <c r="D452" s="5"/>
       <c r="E452" t="s">
         <v>3</v>
@@ -9230,7 +9480,9 @@
       <c r="A453" s="1">
         <v>42271</v>
       </c>
-      <c r="B453" s="5"/>
+      <c r="B453" s="6">
+        <v>0</v>
+      </c>
       <c r="D453" s="5"/>
       <c r="E453" t="s">
         <v>4</v>
@@ -9243,7 +9495,9 @@
       <c r="A454" s="1">
         <v>42271</v>
       </c>
-      <c r="B454" s="5"/>
+      <c r="B454" s="6">
+        <v>0</v>
+      </c>
       <c r="D454" s="5"/>
       <c r="E454" t="s">
         <v>6</v>
@@ -9256,7 +9510,9 @@
       <c r="A455" s="1">
         <v>42271</v>
       </c>
-      <c r="B455" s="5"/>
+      <c r="B455" s="6">
+        <v>0</v>
+      </c>
       <c r="D455" s="5"/>
       <c r="E455" t="s">
         <v>7</v>
@@ -9269,7 +9525,9 @@
       <c r="A456" s="1">
         <v>42271</v>
       </c>
-      <c r="B456" s="5"/>
+      <c r="B456" s="6">
+        <v>0</v>
+      </c>
       <c r="D456" s="5"/>
       <c r="E456" t="s">
         <v>9</v>
@@ -9282,7 +9540,9 @@
       <c r="A457" s="1">
         <v>42271</v>
       </c>
-      <c r="B457" s="5"/>
+      <c r="B457" s="6">
+        <v>0</v>
+      </c>
       <c r="D457" s="5"/>
       <c r="E457" t="s">
         <v>11</v>
@@ -9295,7 +9555,9 @@
       <c r="A458" s="1">
         <v>42271</v>
       </c>
-      <c r="B458" s="5"/>
+      <c r="B458" s="6">
+        <v>0</v>
+      </c>
       <c r="D458" s="5"/>
       <c r="E458" t="s">
         <v>13</v>
@@ -9308,7 +9570,9 @@
       <c r="A459" s="1">
         <v>42271</v>
       </c>
-      <c r="B459" s="5"/>
+      <c r="B459" s="6">
+        <v>0</v>
+      </c>
       <c r="D459" s="5"/>
       <c r="E459" t="s">
         <v>15</v>
@@ -9321,7 +9585,9 @@
       <c r="A460" s="1">
         <v>42271</v>
       </c>
-      <c r="B460" s="5"/>
+      <c r="B460" s="6">
+        <v>0</v>
+      </c>
       <c r="D460" s="5"/>
       <c r="E460" t="s">
         <v>16</v>
@@ -9334,7 +9600,9 @@
       <c r="A461" s="1">
         <v>42271</v>
       </c>
-      <c r="B461" s="5"/>
+      <c r="B461" s="6">
+        <v>0</v>
+      </c>
       <c r="D461" s="5"/>
       <c r="E461" t="s">
         <v>17</v>
@@ -9347,7 +9615,9 @@
       <c r="A462" s="1">
         <v>42271</v>
       </c>
-      <c r="B462" s="5"/>
+      <c r="B462" s="6">
+        <v>0</v>
+      </c>
       <c r="D462" s="5"/>
       <c r="E462" t="s">
         <v>18</v>
@@ -9360,7 +9630,9 @@
       <c r="A463" s="1">
         <v>42271</v>
       </c>
-      <c r="B463" s="5"/>
+      <c r="B463" s="6">
+        <v>0</v>
+      </c>
       <c r="D463" s="5"/>
       <c r="E463" t="s">
         <v>19</v>
@@ -9373,7 +9645,9 @@
       <c r="A464" s="1">
         <v>42271</v>
       </c>
-      <c r="B464" s="5"/>
+      <c r="B464" s="6">
+        <v>0</v>
+      </c>
       <c r="D464" s="5"/>
       <c r="E464" t="s">
         <v>20</v>
@@ -9386,7 +9660,9 @@
       <c r="A465" s="1">
         <v>42271</v>
       </c>
-      <c r="B465" s="5"/>
+      <c r="B465" s="6">
+        <v>0</v>
+      </c>
       <c r="D465" s="5"/>
       <c r="E465" t="s">
         <v>21</v>
@@ -9399,7 +9675,9 @@
       <c r="A466" s="1">
         <v>42271</v>
       </c>
-      <c r="B466" s="5"/>
+      <c r="B466" s="6">
+        <v>0</v>
+      </c>
       <c r="D466" s="5"/>
       <c r="E466" t="s">
         <v>22</v>
@@ -9412,7 +9690,9 @@
       <c r="A467" s="1">
         <v>42271</v>
       </c>
-      <c r="B467" s="5"/>
+      <c r="B467" s="6">
+        <v>0</v>
+      </c>
       <c r="D467" s="5"/>
       <c r="E467" t="s">
         <v>23</v>
@@ -9425,7 +9705,9 @@
       <c r="A468" s="1">
         <v>42271</v>
       </c>
-      <c r="B468" s="5"/>
+      <c r="B468" s="6">
+        <v>0</v>
+      </c>
       <c r="D468" s="5"/>
       <c r="E468" t="s">
         <v>25</v>
@@ -9438,7 +9720,9 @@
       <c r="A469" s="1">
         <v>42271</v>
       </c>
-      <c r="B469" s="5"/>
+      <c r="B469" s="6">
+        <v>0</v>
+      </c>
       <c r="D469" s="5"/>
       <c r="E469" t="s">
         <v>26</v>
@@ -9451,7 +9735,9 @@
       <c r="A470" s="1">
         <v>42271</v>
       </c>
-      <c r="B470" s="5"/>
+      <c r="B470" s="6">
+        <v>0</v>
+      </c>
       <c r="D470" s="5"/>
       <c r="E470" t="s">
         <v>27</v>
@@ -9464,7 +9750,9 @@
       <c r="A471" s="1">
         <v>42271</v>
       </c>
-      <c r="B471" s="5"/>
+      <c r="B471" s="6">
+        <v>0</v>
+      </c>
       <c r="D471" s="5"/>
       <c r="E471" t="s">
         <v>28</v>
@@ -9477,7 +9765,9 @@
       <c r="A472" s="1">
         <v>42271</v>
       </c>
-      <c r="B472" s="5"/>
+      <c r="B472" s="6">
+        <v>0</v>
+      </c>
       <c r="D472" s="5"/>
       <c r="E472" t="s">
         <v>29</v>
@@ -9490,7 +9780,9 @@
       <c r="A473" s="1">
         <v>42271</v>
       </c>
-      <c r="B473" s="5"/>
+      <c r="B473" s="6">
+        <v>0</v>
+      </c>
       <c r="D473" s="5"/>
       <c r="E473" t="s">
         <v>30</v>
@@ -9503,7 +9795,9 @@
       <c r="A474" s="1">
         <v>42271</v>
       </c>
-      <c r="B474" s="5"/>
+      <c r="B474" s="6">
+        <v>0</v>
+      </c>
       <c r="D474" s="5"/>
       <c r="E474" t="s">
         <v>5</v>
@@ -9516,7 +9810,9 @@
       <c r="A475" s="1">
         <v>42271</v>
       </c>
-      <c r="B475" s="5"/>
+      <c r="B475" s="6">
+        <v>0</v>
+      </c>
       <c r="D475" s="5"/>
       <c r="E475" t="s">
         <v>24</v>
@@ -9529,7 +9825,9 @@
       <c r="A476" s="1">
         <v>42271</v>
       </c>
-      <c r="B476" s="5"/>
+      <c r="B476" s="6">
+        <v>0</v>
+      </c>
       <c r="D476" s="5"/>
       <c r="E476" t="s">
         <v>8</v>
@@ -9542,7 +9840,9 @@
       <c r="A477" s="1">
         <v>42271</v>
       </c>
-      <c r="B477" s="5"/>
+      <c r="B477" s="6">
+        <v>0</v>
+      </c>
       <c r="D477" s="5"/>
       <c r="E477" t="s">
         <v>10</v>
@@ -9555,7 +9855,9 @@
       <c r="A478" s="1">
         <v>42271</v>
       </c>
-      <c r="B478" s="5"/>
+      <c r="B478" s="6">
+        <v>0</v>
+      </c>
       <c r="D478" s="5"/>
       <c r="E478" t="s">
         <v>12</v>
@@ -9568,7 +9870,9 @@
       <c r="A479" s="1">
         <v>42271</v>
       </c>
-      <c r="B479" s="5"/>
+      <c r="B479" s="6">
+        <v>0</v>
+      </c>
       <c r="D479" s="5"/>
       <c r="E479" t="s">
         <v>14</v>
@@ -10166,7 +10470,9 @@
       <c r="A515" s="1">
         <v>42275</v>
       </c>
-      <c r="B515" s="5"/>
+      <c r="B515" s="6">
+        <v>0</v>
+      </c>
       <c r="D515" s="5"/>
       <c r="E515" t="s">
         <v>1</v>
@@ -10179,7 +10485,9 @@
       <c r="A516" s="1">
         <v>42275</v>
       </c>
-      <c r="B516" s="5"/>
+      <c r="B516" s="6">
+        <v>0</v>
+      </c>
       <c r="D516" s="5"/>
       <c r="E516" t="s">
         <v>2</v>
@@ -10192,7 +10500,9 @@
       <c r="A517" s="1">
         <v>42275</v>
       </c>
-      <c r="B517" s="5"/>
+      <c r="B517" s="6">
+        <v>0</v>
+      </c>
       <c r="D517" s="5"/>
       <c r="E517" t="s">
         <v>3</v>
@@ -10205,7 +10515,9 @@
       <c r="A518" s="1">
         <v>42275</v>
       </c>
-      <c r="B518" s="5"/>
+      <c r="B518" s="6">
+        <v>0</v>
+      </c>
       <c r="D518" s="5"/>
       <c r="E518" t="s">
         <v>4</v>
@@ -10218,7 +10530,9 @@
       <c r="A519" s="1">
         <v>42275</v>
       </c>
-      <c r="B519" s="5"/>
+      <c r="B519" s="6">
+        <v>0</v>
+      </c>
       <c r="D519" s="5"/>
       <c r="E519" t="s">
         <v>6</v>
@@ -10231,7 +10545,9 @@
       <c r="A520" s="1">
         <v>42275</v>
       </c>
-      <c r="B520" s="5"/>
+      <c r="B520" s="6">
+        <v>0</v>
+      </c>
       <c r="D520" s="5"/>
       <c r="E520" t="s">
         <v>7</v>
@@ -10244,7 +10560,9 @@
       <c r="A521" s="1">
         <v>42275</v>
       </c>
-      <c r="B521" s="5"/>
+      <c r="B521" s="6">
+        <v>0</v>
+      </c>
       <c r="D521" s="5"/>
       <c r="E521" t="s">
         <v>9</v>
@@ -10257,7 +10575,9 @@
       <c r="A522" s="1">
         <v>42275</v>
       </c>
-      <c r="B522" s="5"/>
+      <c r="B522" s="6">
+        <v>0</v>
+      </c>
       <c r="D522" s="5"/>
       <c r="E522" t="s">
         <v>11</v>
@@ -10270,7 +10590,9 @@
       <c r="A523" s="1">
         <v>42275</v>
       </c>
-      <c r="B523" s="5"/>
+      <c r="B523" s="6">
+        <v>0</v>
+      </c>
       <c r="D523" s="5"/>
       <c r="E523" t="s">
         <v>13</v>
@@ -10283,7 +10605,9 @@
       <c r="A524" s="1">
         <v>42275</v>
       </c>
-      <c r="B524" s="5"/>
+      <c r="B524" s="6">
+        <v>0</v>
+      </c>
       <c r="D524" s="5"/>
       <c r="E524" t="s">
         <v>15</v>
@@ -10296,7 +10620,9 @@
       <c r="A525" s="1">
         <v>42275</v>
       </c>
-      <c r="B525" s="5"/>
+      <c r="B525" s="6">
+        <v>0</v>
+      </c>
       <c r="D525" s="5"/>
       <c r="E525" t="s">
         <v>16</v>
@@ -10309,7 +10635,9 @@
       <c r="A526" s="1">
         <v>42275</v>
       </c>
-      <c r="B526" s="5"/>
+      <c r="B526" s="6">
+        <v>0</v>
+      </c>
       <c r="D526" s="5"/>
       <c r="E526" t="s">
         <v>17</v>
@@ -10322,7 +10650,9 @@
       <c r="A527" s="1">
         <v>42275</v>
       </c>
-      <c r="B527" s="5"/>
+      <c r="B527" s="6">
+        <v>0</v>
+      </c>
       <c r="D527" s="5"/>
       <c r="E527" t="s">
         <v>18</v>
@@ -10335,7 +10665,9 @@
       <c r="A528" s="1">
         <v>42275</v>
       </c>
-      <c r="B528" s="5"/>
+      <c r="B528" s="6">
+        <v>0</v>
+      </c>
       <c r="D528" s="5"/>
       <c r="E528" t="s">
         <v>19</v>
@@ -10348,7 +10680,9 @@
       <c r="A529" s="1">
         <v>42275</v>
       </c>
-      <c r="B529" s="5"/>
+      <c r="B529" s="6">
+        <v>0</v>
+      </c>
       <c r="D529" s="5"/>
       <c r="E529" t="s">
         <v>20</v>
@@ -10361,7 +10695,9 @@
       <c r="A530" s="1">
         <v>42275</v>
       </c>
-      <c r="B530" s="5"/>
+      <c r="B530" s="6">
+        <v>0</v>
+      </c>
       <c r="D530" s="5"/>
       <c r="E530" t="s">
         <v>21</v>
@@ -10374,7 +10710,9 @@
       <c r="A531" s="1">
         <v>42275</v>
       </c>
-      <c r="B531" s="5"/>
+      <c r="B531" s="6">
+        <v>0</v>
+      </c>
       <c r="D531" s="5"/>
       <c r="E531" t="s">
         <v>22</v>
@@ -10387,7 +10725,9 @@
       <c r="A532" s="1">
         <v>42275</v>
       </c>
-      <c r="B532" s="5"/>
+      <c r="B532" s="6">
+        <v>0</v>
+      </c>
       <c r="D532" s="5"/>
       <c r="E532" t="s">
         <v>23</v>
@@ -10400,7 +10740,9 @@
       <c r="A533" s="1">
         <v>42275</v>
       </c>
-      <c r="B533" s="5"/>
+      <c r="B533" s="6">
+        <v>0</v>
+      </c>
       <c r="D533" s="5"/>
       <c r="E533" t="s">
         <v>25</v>
@@ -10413,7 +10755,9 @@
       <c r="A534" s="1">
         <v>42275</v>
       </c>
-      <c r="B534" s="5"/>
+      <c r="B534" s="6">
+        <v>0</v>
+      </c>
       <c r="D534" s="5"/>
       <c r="E534" t="s">
         <v>26</v>
@@ -10426,7 +10770,9 @@
       <c r="A535" s="1">
         <v>42275</v>
       </c>
-      <c r="B535" s="5"/>
+      <c r="B535" s="6">
+        <v>0</v>
+      </c>
       <c r="D535" s="5"/>
       <c r="E535" t="s">
         <v>27</v>
@@ -10439,7 +10785,9 @@
       <c r="A536" s="1">
         <v>42275</v>
       </c>
-      <c r="B536" s="5"/>
+      <c r="B536" s="6">
+        <v>0</v>
+      </c>
       <c r="D536" s="5"/>
       <c r="E536" t="s">
         <v>28</v>
@@ -10452,7 +10800,9 @@
       <c r="A537" s="1">
         <v>42275</v>
       </c>
-      <c r="B537" s="5"/>
+      <c r="B537" s="6">
+        <v>0</v>
+      </c>
       <c r="D537" s="5"/>
       <c r="E537" t="s">
         <v>29</v>
@@ -10465,7 +10815,9 @@
       <c r="A538" s="1">
         <v>42275</v>
       </c>
-      <c r="B538" s="5"/>
+      <c r="B538" s="6">
+        <v>0</v>
+      </c>
       <c r="D538" s="5"/>
       <c r="E538" t="s">
         <v>30</v>
@@ -10478,7 +10830,9 @@
       <c r="A539" s="1">
         <v>42275</v>
       </c>
-      <c r="B539" s="5"/>
+      <c r="B539" s="6">
+        <v>0</v>
+      </c>
       <c r="D539" s="5"/>
       <c r="E539" t="s">
         <v>5</v>
@@ -10491,7 +10845,9 @@
       <c r="A540" s="1">
         <v>42275</v>
       </c>
-      <c r="B540" s="5"/>
+      <c r="B540" s="6">
+        <v>0</v>
+      </c>
       <c r="D540" s="5"/>
       <c r="E540" t="s">
         <v>24</v>
@@ -10504,7 +10860,9 @@
       <c r="A541" s="1">
         <v>42275</v>
       </c>
-      <c r="B541" s="5"/>
+      <c r="B541" s="6">
+        <v>0</v>
+      </c>
       <c r="D541" s="5"/>
       <c r="E541" t="s">
         <v>8</v>
@@ -10517,7 +10875,9 @@
       <c r="A542" s="1">
         <v>42275</v>
       </c>
-      <c r="B542" s="5"/>
+      <c r="B542" s="6">
+        <v>0</v>
+      </c>
       <c r="D542" s="5"/>
       <c r="E542" t="s">
         <v>10</v>
@@ -10530,7 +10890,9 @@
       <c r="A543" s="1">
         <v>42275</v>
       </c>
-      <c r="B543" s="5"/>
+      <c r="B543" s="6">
+        <v>0</v>
+      </c>
       <c r="D543" s="5"/>
       <c r="E543" t="s">
         <v>12</v>
@@ -10543,7 +10905,9 @@
       <c r="A544" s="1">
         <v>42275</v>
       </c>
-      <c r="B544" s="5"/>
+      <c r="B544" s="6">
+        <v>0</v>
+      </c>
       <c r="D544" s="5"/>
       <c r="E544" t="s">
         <v>14</v>
@@ -11742,7 +12106,9 @@
       <c r="A616" s="1">
         <v>42282</v>
       </c>
-      <c r="B616" s="5"/>
+      <c r="B616" s="6">
+        <v>0</v>
+      </c>
       <c r="D616" s="5"/>
       <c r="E616" t="s">
         <v>1</v>
@@ -11755,7 +12121,9 @@
       <c r="A617" s="1">
         <v>42282</v>
       </c>
-      <c r="B617" s="5"/>
+      <c r="B617" s="6">
+        <v>0</v>
+      </c>
       <c r="D617" s="5"/>
       <c r="E617" t="s">
         <v>2</v>
@@ -11768,7 +12136,9 @@
       <c r="A618" s="1">
         <v>42282</v>
       </c>
-      <c r="B618" s="5"/>
+      <c r="B618" s="6">
+        <v>0</v>
+      </c>
       <c r="D618" s="5"/>
       <c r="E618" t="s">
         <v>3</v>
@@ -11781,7 +12151,9 @@
       <c r="A619" s="1">
         <v>42282</v>
       </c>
-      <c r="B619" s="5"/>
+      <c r="B619" s="6">
+        <v>0</v>
+      </c>
       <c r="D619" s="5"/>
       <c r="E619" t="s">
         <v>4</v>
@@ -11794,7 +12166,9 @@
       <c r="A620" s="1">
         <v>42282</v>
       </c>
-      <c r="B620" s="5"/>
+      <c r="B620" s="6">
+        <v>0</v>
+      </c>
       <c r="D620" s="5"/>
       <c r="E620" t="s">
         <v>6</v>
@@ -11807,7 +12181,9 @@
       <c r="A621" s="1">
         <v>42282</v>
       </c>
-      <c r="B621" s="5"/>
+      <c r="B621" s="6">
+        <v>0</v>
+      </c>
       <c r="D621" s="5"/>
       <c r="E621" t="s">
         <v>7</v>
@@ -11820,7 +12196,9 @@
       <c r="A622" s="1">
         <v>42282</v>
       </c>
-      <c r="B622" s="5"/>
+      <c r="B622" s="6">
+        <v>0</v>
+      </c>
       <c r="D622" s="5"/>
       <c r="E622" t="s">
         <v>9</v>
@@ -11833,7 +12211,9 @@
       <c r="A623" s="1">
         <v>42282</v>
       </c>
-      <c r="B623" s="5"/>
+      <c r="B623" s="6">
+        <v>0</v>
+      </c>
       <c r="D623" s="5"/>
       <c r="E623" t="s">
         <v>11</v>
@@ -11846,7 +12226,9 @@
       <c r="A624" s="1">
         <v>42282</v>
       </c>
-      <c r="B624" s="5"/>
+      <c r="B624" s="6">
+        <v>0</v>
+      </c>
       <c r="D624" s="5"/>
       <c r="E624" t="s">
         <v>13</v>
@@ -11859,7 +12241,9 @@
       <c r="A625" s="1">
         <v>42282</v>
       </c>
-      <c r="B625" s="5"/>
+      <c r="B625" s="6">
+        <v>0</v>
+      </c>
       <c r="D625" s="5"/>
       <c r="E625" t="s">
         <v>15</v>
@@ -11872,7 +12256,9 @@
       <c r="A626" s="1">
         <v>42282</v>
       </c>
-      <c r="B626" s="5"/>
+      <c r="B626" s="6">
+        <v>0</v>
+      </c>
       <c r="D626" s="5"/>
       <c r="E626" t="s">
         <v>16</v>
@@ -11885,7 +12271,9 @@
       <c r="A627" s="1">
         <v>42282</v>
       </c>
-      <c r="B627" s="5"/>
+      <c r="B627" s="6">
+        <v>0</v>
+      </c>
       <c r="D627" s="5"/>
       <c r="E627" t="s">
         <v>17</v>
@@ -11898,7 +12286,9 @@
       <c r="A628" s="1">
         <v>42282</v>
       </c>
-      <c r="B628" s="5"/>
+      <c r="B628" s="6">
+        <v>0</v>
+      </c>
       <c r="D628" s="5"/>
       <c r="E628" t="s">
         <v>18</v>
@@ -11911,7 +12301,9 @@
       <c r="A629" s="1">
         <v>42282</v>
       </c>
-      <c r="B629" s="5"/>
+      <c r="B629" s="6">
+        <v>0</v>
+      </c>
       <c r="D629" s="5"/>
       <c r="E629" t="s">
         <v>19</v>
@@ -11924,7 +12316,9 @@
       <c r="A630" s="1">
         <v>42282</v>
       </c>
-      <c r="B630" s="5"/>
+      <c r="B630" s="6">
+        <v>0</v>
+      </c>
       <c r="D630" s="5"/>
       <c r="E630" t="s">
         <v>20</v>
@@ -11937,7 +12331,9 @@
       <c r="A631" s="1">
         <v>42282</v>
       </c>
-      <c r="B631" s="5"/>
+      <c r="B631" s="6">
+        <v>0</v>
+      </c>
       <c r="D631" s="5"/>
       <c r="E631" t="s">
         <v>21</v>
@@ -11950,7 +12346,9 @@
       <c r="A632" s="1">
         <v>42282</v>
       </c>
-      <c r="B632" s="5"/>
+      <c r="B632" s="6">
+        <v>0</v>
+      </c>
       <c r="D632" s="5"/>
       <c r="E632" t="s">
         <v>22</v>
@@ -11963,7 +12361,9 @@
       <c r="A633" s="1">
         <v>42282</v>
       </c>
-      <c r="B633" s="5"/>
+      <c r="B633" s="6">
+        <v>0</v>
+      </c>
       <c r="D633" s="5"/>
       <c r="E633" t="s">
         <v>23</v>
@@ -11976,7 +12376,9 @@
       <c r="A634" s="1">
         <v>42282</v>
       </c>
-      <c r="B634" s="5"/>
+      <c r="B634" s="6">
+        <v>0</v>
+      </c>
       <c r="D634" s="5"/>
       <c r="E634" t="s">
         <v>25</v>
@@ -11989,7 +12391,9 @@
       <c r="A635" s="1">
         <v>42282</v>
       </c>
-      <c r="B635" s="5"/>
+      <c r="B635" s="6">
+        <v>0</v>
+      </c>
       <c r="D635" s="5"/>
       <c r="E635" t="s">
         <v>26</v>
@@ -12002,7 +12406,9 @@
       <c r="A636" s="1">
         <v>42282</v>
       </c>
-      <c r="B636" s="5"/>
+      <c r="B636" s="6">
+        <v>0</v>
+      </c>
       <c r="D636" s="5"/>
       <c r="E636" t="s">
         <v>27</v>
@@ -12015,7 +12421,9 @@
       <c r="A637" s="1">
         <v>42282</v>
       </c>
-      <c r="B637" s="5"/>
+      <c r="B637" s="6">
+        <v>0</v>
+      </c>
       <c r="D637" s="5"/>
       <c r="E637" t="s">
         <v>28</v>
@@ -12028,7 +12436,9 @@
       <c r="A638" s="1">
         <v>42282</v>
       </c>
-      <c r="B638" s="5"/>
+      <c r="B638" s="6">
+        <v>0</v>
+      </c>
       <c r="D638" s="5"/>
       <c r="E638" t="s">
         <v>29</v>
@@ -12041,7 +12451,9 @@
       <c r="A639" s="1">
         <v>42282</v>
       </c>
-      <c r="B639" s="5"/>
+      <c r="B639" s="6">
+        <v>0</v>
+      </c>
       <c r="D639" s="5"/>
       <c r="E639" t="s">
         <v>30</v>
@@ -12054,7 +12466,9 @@
       <c r="A640" s="1">
         <v>42282</v>
       </c>
-      <c r="B640" s="5"/>
+      <c r="B640" s="6">
+        <v>0</v>
+      </c>
       <c r="D640" s="5"/>
       <c r="E640" t="s">
         <v>5</v>
@@ -12067,7 +12481,9 @@
       <c r="A641" s="1">
         <v>42282</v>
       </c>
-      <c r="B641" s="5"/>
+      <c r="B641" s="6">
+        <v>0</v>
+      </c>
       <c r="D641" s="5"/>
       <c r="E641" t="s">
         <v>24</v>
@@ -12080,7 +12496,9 @@
       <c r="A642" s="1">
         <v>42282</v>
       </c>
-      <c r="B642" s="5"/>
+      <c r="B642" s="6">
+        <v>0</v>
+      </c>
       <c r="D642" s="5"/>
       <c r="E642" t="s">
         <v>8</v>
@@ -12093,7 +12511,9 @@
       <c r="A643" s="1">
         <v>42282</v>
       </c>
-      <c r="B643" s="5"/>
+      <c r="B643" s="6">
+        <v>0</v>
+      </c>
       <c r="D643" s="5"/>
       <c r="E643" t="s">
         <v>10</v>
@@ -12106,7 +12526,9 @@
       <c r="A644" s="1">
         <v>42282</v>
       </c>
-      <c r="B644" s="5"/>
+      <c r="B644" s="6">
+        <v>0</v>
+      </c>
       <c r="D644" s="5"/>
       <c r="E644" t="s">
         <v>12</v>
@@ -12119,7 +12541,9 @@
       <c r="A645" s="1">
         <v>42282</v>
       </c>
-      <c r="B645" s="5"/>
+      <c r="B645" s="6">
+        <v>0</v>
+      </c>
       <c r="D645" s="5"/>
       <c r="E645" t="s">
         <v>14</v>
@@ -12731,7 +13155,9 @@
       <c r="A682" s="1">
         <v>42289</v>
       </c>
-      <c r="B682" s="5"/>
+      <c r="B682" s="6">
+        <v>0</v>
+      </c>
       <c r="D682" s="5"/>
       <c r="E682" t="s">
         <v>1</v>
@@ -12744,7 +13170,9 @@
       <c r="A683" s="1">
         <v>42289</v>
       </c>
-      <c r="B683" s="5"/>
+      <c r="B683" s="6">
+        <v>0</v>
+      </c>
       <c r="D683" s="5"/>
       <c r="E683" t="s">
         <v>2</v>
@@ -12757,7 +13185,9 @@
       <c r="A684" s="1">
         <v>42289</v>
       </c>
-      <c r="B684" s="5"/>
+      <c r="B684" s="6">
+        <v>0</v>
+      </c>
       <c r="D684" s="5"/>
       <c r="E684" t="s">
         <v>3</v>
@@ -12770,7 +13200,9 @@
       <c r="A685" s="1">
         <v>42289</v>
       </c>
-      <c r="B685" s="5"/>
+      <c r="B685" s="6">
+        <v>0</v>
+      </c>
       <c r="D685" s="5"/>
       <c r="E685" t="s">
         <v>4</v>
@@ -12783,7 +13215,9 @@
       <c r="A686" s="1">
         <v>42289</v>
       </c>
-      <c r="B686" s="5"/>
+      <c r="B686" s="6">
+        <v>0</v>
+      </c>
       <c r="D686" s="5"/>
       <c r="E686" t="s">
         <v>6</v>
@@ -12796,7 +13230,9 @@
       <c r="A687" s="1">
         <v>42289</v>
       </c>
-      <c r="B687" s="5"/>
+      <c r="B687" s="6">
+        <v>0</v>
+      </c>
       <c r="D687" s="5"/>
       <c r="E687" t="s">
         <v>7</v>
@@ -12809,7 +13245,9 @@
       <c r="A688" s="1">
         <v>42289</v>
       </c>
-      <c r="B688" s="5"/>
+      <c r="B688" s="6">
+        <v>0</v>
+      </c>
       <c r="D688" s="5"/>
       <c r="E688" t="s">
         <v>9</v>
@@ -12822,7 +13260,9 @@
       <c r="A689" s="1">
         <v>42289</v>
       </c>
-      <c r="B689" s="5"/>
+      <c r="B689" s="6">
+        <v>0</v>
+      </c>
       <c r="D689" s="5"/>
       <c r="E689" t="s">
         <v>11</v>
@@ -12835,7 +13275,9 @@
       <c r="A690" s="1">
         <v>42289</v>
       </c>
-      <c r="B690" s="5"/>
+      <c r="B690" s="6">
+        <v>0</v>
+      </c>
       <c r="D690" s="5"/>
       <c r="E690" t="s">
         <v>13</v>
@@ -12848,7 +13290,9 @@
       <c r="A691" s="1">
         <v>42289</v>
       </c>
-      <c r="B691" s="5"/>
+      <c r="B691" s="6">
+        <v>0</v>
+      </c>
       <c r="D691" s="5"/>
       <c r="E691" t="s">
         <v>15</v>
@@ -12861,7 +13305,9 @@
       <c r="A692" s="1">
         <v>42289</v>
       </c>
-      <c r="B692" s="5"/>
+      <c r="B692" s="6">
+        <v>0</v>
+      </c>
       <c r="D692" s="5"/>
       <c r="E692" t="s">
         <v>16</v>
@@ -12874,7 +13320,9 @@
       <c r="A693" s="1">
         <v>42289</v>
       </c>
-      <c r="B693" s="5"/>
+      <c r="B693" s="6">
+        <v>0</v>
+      </c>
       <c r="D693" s="5"/>
       <c r="E693" t="s">
         <v>17</v>
@@ -12887,7 +13335,9 @@
       <c r="A694" s="1">
         <v>42289</v>
       </c>
-      <c r="B694" s="5"/>
+      <c r="B694" s="6">
+        <v>0</v>
+      </c>
       <c r="D694" s="5"/>
       <c r="E694" t="s">
         <v>18</v>
@@ -12900,7 +13350,9 @@
       <c r="A695" s="1">
         <v>42289</v>
       </c>
-      <c r="B695" s="5"/>
+      <c r="B695" s="6">
+        <v>0</v>
+      </c>
       <c r="D695" s="5"/>
       <c r="E695" t="s">
         <v>19</v>
@@ -12913,7 +13365,9 @@
       <c r="A696" s="1">
         <v>42289</v>
       </c>
-      <c r="B696" s="5"/>
+      <c r="B696" s="6">
+        <v>0</v>
+      </c>
       <c r="D696" s="5"/>
       <c r="E696" t="s">
         <v>20</v>
@@ -12926,7 +13380,9 @@
       <c r="A697" s="1">
         <v>42289</v>
       </c>
-      <c r="B697" s="5"/>
+      <c r="B697" s="6">
+        <v>0</v>
+      </c>
       <c r="D697" s="5"/>
       <c r="E697" t="s">
         <v>21</v>
@@ -12939,7 +13395,9 @@
       <c r="A698" s="1">
         <v>42289</v>
       </c>
-      <c r="B698" s="5"/>
+      <c r="B698" s="6">
+        <v>0</v>
+      </c>
       <c r="D698" s="5"/>
       <c r="E698" t="s">
         <v>22</v>
@@ -12952,7 +13410,9 @@
       <c r="A699" s="1">
         <v>42289</v>
       </c>
-      <c r="B699" s="5"/>
+      <c r="B699" s="6">
+        <v>0</v>
+      </c>
       <c r="D699" s="5"/>
       <c r="E699" t="s">
         <v>23</v>
@@ -12965,7 +13425,9 @@
       <c r="A700" s="1">
         <v>42289</v>
       </c>
-      <c r="B700" s="5"/>
+      <c r="B700" s="6">
+        <v>0</v>
+      </c>
       <c r="D700" s="5"/>
       <c r="E700" t="s">
         <v>25</v>
@@ -12978,7 +13440,9 @@
       <c r="A701" s="1">
         <v>42289</v>
       </c>
-      <c r="B701" s="5"/>
+      <c r="B701" s="6">
+        <v>0</v>
+      </c>
       <c r="D701" s="5"/>
       <c r="E701" t="s">
         <v>26</v>
@@ -12991,7 +13455,9 @@
       <c r="A702" s="1">
         <v>42289</v>
       </c>
-      <c r="B702" s="5"/>
+      <c r="B702" s="6">
+        <v>0</v>
+      </c>
       <c r="D702" s="5"/>
       <c r="E702" t="s">
         <v>27</v>
@@ -13004,7 +13470,9 @@
       <c r="A703" s="1">
         <v>42289</v>
       </c>
-      <c r="B703" s="5"/>
+      <c r="B703" s="6">
+        <v>0</v>
+      </c>
       <c r="D703" s="5"/>
       <c r="E703" t="s">
         <v>28</v>
@@ -13017,7 +13485,9 @@
       <c r="A704" s="1">
         <v>42289</v>
       </c>
-      <c r="B704" s="5"/>
+      <c r="B704" s="6">
+        <v>0</v>
+      </c>
       <c r="D704" s="5"/>
       <c r="E704" t="s">
         <v>29</v>
@@ -13030,7 +13500,9 @@
       <c r="A705" s="1">
         <v>42289</v>
       </c>
-      <c r="B705" s="5"/>
+      <c r="B705" s="6">
+        <v>0</v>
+      </c>
       <c r="D705" s="5"/>
       <c r="E705" t="s">
         <v>30</v>
@@ -13043,7 +13515,9 @@
       <c r="A706" s="1">
         <v>42289</v>
       </c>
-      <c r="B706" s="5"/>
+      <c r="B706" s="6">
+        <v>0</v>
+      </c>
       <c r="D706" s="5"/>
       <c r="E706" t="s">
         <v>5</v>
@@ -13056,7 +13530,9 @@
       <c r="A707" s="1">
         <v>42289</v>
       </c>
-      <c r="B707" s="5"/>
+      <c r="B707" s="6">
+        <v>0</v>
+      </c>
       <c r="D707" s="5"/>
       <c r="E707" t="s">
         <v>24</v>
@@ -13069,7 +13545,9 @@
       <c r="A708" s="1">
         <v>42289</v>
       </c>
-      <c r="B708" s="5"/>
+      <c r="B708" s="6">
+        <v>0</v>
+      </c>
       <c r="D708" s="5"/>
       <c r="E708" t="s">
         <v>8</v>
@@ -13082,7 +13560,9 @@
       <c r="A709" s="1">
         <v>42289</v>
       </c>
-      <c r="B709" s="5"/>
+      <c r="B709" s="6">
+        <v>0</v>
+      </c>
       <c r="D709" s="5"/>
       <c r="E709" t="s">
         <v>10</v>
@@ -13095,7 +13575,9 @@
       <c r="A710" s="1">
         <v>42289</v>
       </c>
-      <c r="B710" s="5"/>
+      <c r="B710" s="6">
+        <v>0</v>
+      </c>
       <c r="D710" s="5"/>
       <c r="E710" t="s">
         <v>12</v>
@@ -13108,7 +13590,9 @@
       <c r="A711" s="1">
         <v>42289</v>
       </c>
-      <c r="B711" s="5"/>
+      <c r="B711" s="6">
+        <v>0</v>
+      </c>
       <c r="D711" s="5"/>
       <c r="E711" t="s">
         <v>14</v>
@@ -13709,7 +14193,9 @@
       <c r="A747" s="1">
         <v>42296</v>
       </c>
-      <c r="B747" s="5"/>
+      <c r="B747" s="6">
+        <v>0</v>
+      </c>
       <c r="E747" t="s">
         <v>1</v>
       </c>
@@ -13721,7 +14207,9 @@
       <c r="A748" s="1">
         <v>42296</v>
       </c>
-      <c r="B748" s="5"/>
+      <c r="B748" s="6">
+        <v>0</v>
+      </c>
       <c r="E748" t="s">
         <v>2</v>
       </c>
@@ -13733,7 +14221,9 @@
       <c r="A749" s="1">
         <v>42296</v>
       </c>
-      <c r="B749" s="5"/>
+      <c r="B749" s="6">
+        <v>0</v>
+      </c>
       <c r="E749" t="s">
         <v>3</v>
       </c>
@@ -13745,7 +14235,9 @@
       <c r="A750" s="1">
         <v>42296</v>
       </c>
-      <c r="B750" s="5"/>
+      <c r="B750" s="6">
+        <v>0</v>
+      </c>
       <c r="E750" t="s">
         <v>4</v>
       </c>
@@ -13757,7 +14249,9 @@
       <c r="A751" s="1">
         <v>42296</v>
       </c>
-      <c r="B751" s="5"/>
+      <c r="B751" s="6">
+        <v>0</v>
+      </c>
       <c r="E751" t="s">
         <v>6</v>
       </c>
@@ -13769,7 +14263,9 @@
       <c r="A752" s="1">
         <v>42296</v>
       </c>
-      <c r="B752" s="5"/>
+      <c r="B752" s="6">
+        <v>0</v>
+      </c>
       <c r="E752" t="s">
         <v>7</v>
       </c>
@@ -13781,7 +14277,9 @@
       <c r="A753" s="1">
         <v>42296</v>
       </c>
-      <c r="B753" s="5"/>
+      <c r="B753" s="6">
+        <v>0</v>
+      </c>
       <c r="E753" t="s">
         <v>9</v>
       </c>
@@ -13793,7 +14291,9 @@
       <c r="A754" s="1">
         <v>42296</v>
       </c>
-      <c r="B754" s="5"/>
+      <c r="B754" s="6">
+        <v>0</v>
+      </c>
       <c r="E754" t="s">
         <v>11</v>
       </c>
@@ -13805,7 +14305,9 @@
       <c r="A755" s="1">
         <v>42296</v>
       </c>
-      <c r="B755" s="5"/>
+      <c r="B755" s="6">
+        <v>0</v>
+      </c>
       <c r="E755" t="s">
         <v>13</v>
       </c>
@@ -13817,7 +14319,9 @@
       <c r="A756" s="1">
         <v>42296</v>
       </c>
-      <c r="B756" s="5"/>
+      <c r="B756" s="6">
+        <v>0</v>
+      </c>
       <c r="E756" t="s">
         <v>15</v>
       </c>
@@ -13829,7 +14333,9 @@
       <c r="A757" s="1">
         <v>42296</v>
       </c>
-      <c r="B757" s="5"/>
+      <c r="B757" s="6">
+        <v>0</v>
+      </c>
       <c r="E757" t="s">
         <v>16</v>
       </c>
@@ -13841,7 +14347,9 @@
       <c r="A758" s="1">
         <v>42296</v>
       </c>
-      <c r="B758" s="5"/>
+      <c r="B758" s="6">
+        <v>0</v>
+      </c>
       <c r="E758" t="s">
         <v>17</v>
       </c>
@@ -13853,7 +14361,9 @@
       <c r="A759" s="1">
         <v>42296</v>
       </c>
-      <c r="B759" s="5"/>
+      <c r="B759" s="6">
+        <v>0</v>
+      </c>
       <c r="E759" t="s">
         <v>18</v>
       </c>
@@ -13865,7 +14375,9 @@
       <c r="A760" s="1">
         <v>42296</v>
       </c>
-      <c r="B760" s="5"/>
+      <c r="B760" s="6">
+        <v>0</v>
+      </c>
       <c r="E760" t="s">
         <v>19</v>
       </c>
@@ -13877,7 +14389,9 @@
       <c r="A761" s="1">
         <v>42296</v>
       </c>
-      <c r="B761" s="5"/>
+      <c r="B761" s="6">
+        <v>0</v>
+      </c>
       <c r="E761" t="s">
         <v>20</v>
       </c>
@@ -13889,7 +14403,9 @@
       <c r="A762" s="1">
         <v>42296</v>
       </c>
-      <c r="B762" s="5"/>
+      <c r="B762" s="6">
+        <v>0</v>
+      </c>
       <c r="E762" t="s">
         <v>21</v>
       </c>
@@ -13901,7 +14417,9 @@
       <c r="A763" s="1">
         <v>42296</v>
       </c>
-      <c r="B763" s="5"/>
+      <c r="B763" s="6">
+        <v>0</v>
+      </c>
       <c r="E763" t="s">
         <v>22</v>
       </c>
@@ -13913,7 +14431,9 @@
       <c r="A764" s="1">
         <v>42296</v>
       </c>
-      <c r="B764" s="5"/>
+      <c r="B764" s="6">
+        <v>0</v>
+      </c>
       <c r="E764" t="s">
         <v>23</v>
       </c>
@@ -13925,7 +14445,9 @@
       <c r="A765" s="1">
         <v>42296</v>
       </c>
-      <c r="B765" s="5"/>
+      <c r="B765" s="6">
+        <v>0</v>
+      </c>
       <c r="E765" t="s">
         <v>25</v>
       </c>
@@ -13937,7 +14459,9 @@
       <c r="A766" s="1">
         <v>42296</v>
       </c>
-      <c r="B766" s="5"/>
+      <c r="B766" s="6">
+        <v>0</v>
+      </c>
       <c r="E766" t="s">
         <v>26</v>
       </c>
@@ -13949,7 +14473,9 @@
       <c r="A767" s="1">
         <v>42296</v>
       </c>
-      <c r="B767" s="5"/>
+      <c r="B767" s="6">
+        <v>0</v>
+      </c>
       <c r="E767" t="s">
         <v>27</v>
       </c>
@@ -13961,7 +14487,9 @@
       <c r="A768" s="1">
         <v>42296</v>
       </c>
-      <c r="B768" s="5"/>
+      <c r="B768" s="6">
+        <v>0</v>
+      </c>
       <c r="E768" t="s">
         <v>28</v>
       </c>
@@ -13973,7 +14501,9 @@
       <c r="A769" s="1">
         <v>42296</v>
       </c>
-      <c r="B769" s="5"/>
+      <c r="B769" s="6">
+        <v>0</v>
+      </c>
       <c r="E769" t="s">
         <v>29</v>
       </c>
@@ -13985,7 +14515,9 @@
       <c r="A770" s="1">
         <v>42296</v>
       </c>
-      <c r="B770" s="5"/>
+      <c r="B770" s="6">
+        <v>0</v>
+      </c>
       <c r="E770" t="s">
         <v>30</v>
       </c>
@@ -13997,7 +14529,9 @@
       <c r="A771" s="1">
         <v>42296</v>
       </c>
-      <c r="B771" s="5"/>
+      <c r="B771" s="6">
+        <v>0</v>
+      </c>
       <c r="E771" t="s">
         <v>5</v>
       </c>
@@ -14009,7 +14543,9 @@
       <c r="A772" s="1">
         <v>42296</v>
       </c>
-      <c r="B772" s="5"/>
+      <c r="B772" s="6">
+        <v>0</v>
+      </c>
       <c r="E772" t="s">
         <v>24</v>
       </c>
@@ -14021,7 +14557,9 @@
       <c r="A773" s="1">
         <v>42296</v>
       </c>
-      <c r="B773" s="5"/>
+      <c r="B773" s="6">
+        <v>0</v>
+      </c>
       <c r="E773" t="s">
         <v>8</v>
       </c>
@@ -14033,7 +14571,9 @@
       <c r="A774" s="1">
         <v>42296</v>
       </c>
-      <c r="B774" s="5"/>
+      <c r="B774" s="6">
+        <v>0</v>
+      </c>
       <c r="E774" t="s">
         <v>10</v>
       </c>
@@ -14045,7 +14585,9 @@
       <c r="A775" s="1">
         <v>42296</v>
       </c>
-      <c r="B775" s="5"/>
+      <c r="B775" s="6">
+        <v>0</v>
+      </c>
       <c r="E775" t="s">
         <v>12</v>
       </c>
@@ -14057,7 +14599,9 @@
       <c r="A776" s="1">
         <v>42296</v>
       </c>
-      <c r="B776" s="5"/>
+      <c r="B776" s="6">
+        <v>0</v>
+      </c>
       <c r="E776" t="s">
         <v>14</v>
       </c>
@@ -14694,7 +15238,9 @@
       <c r="A814" s="1">
         <v>42303</v>
       </c>
-      <c r="B814" s="5"/>
+      <c r="B814" s="6">
+        <v>0</v>
+      </c>
       <c r="E814" t="s">
         <v>1</v>
       </c>
@@ -14706,7 +15252,9 @@
       <c r="A815" s="1">
         <v>42303</v>
       </c>
-      <c r="B815" s="5"/>
+      <c r="B815" s="6">
+        <v>0</v>
+      </c>
       <c r="E815" t="s">
         <v>2</v>
       </c>
@@ -14718,7 +15266,9 @@
       <c r="A816" s="1">
         <v>42303</v>
       </c>
-      <c r="B816" s="5"/>
+      <c r="B816" s="6">
+        <v>0</v>
+      </c>
       <c r="E816" t="s">
         <v>3</v>
       </c>
@@ -14730,7 +15280,9 @@
       <c r="A817" s="1">
         <v>42303</v>
       </c>
-      <c r="B817" s="5"/>
+      <c r="B817" s="6">
+        <v>0</v>
+      </c>
       <c r="E817" t="s">
         <v>4</v>
       </c>
@@ -14742,7 +15294,9 @@
       <c r="A818" s="1">
         <v>42303</v>
       </c>
-      <c r="B818" s="5"/>
+      <c r="B818" s="6">
+        <v>0</v>
+      </c>
       <c r="E818" t="s">
         <v>6</v>
       </c>
@@ -14754,7 +15308,9 @@
       <c r="A819" s="1">
         <v>42303</v>
       </c>
-      <c r="B819" s="5"/>
+      <c r="B819" s="6">
+        <v>0</v>
+      </c>
       <c r="E819" t="s">
         <v>7</v>
       </c>
@@ -14766,7 +15322,9 @@
       <c r="A820" s="1">
         <v>42303</v>
       </c>
-      <c r="B820" s="5"/>
+      <c r="B820" s="6">
+        <v>0</v>
+      </c>
       <c r="E820" t="s">
         <v>9</v>
       </c>
@@ -14778,7 +15336,9 @@
       <c r="A821" s="1">
         <v>42303</v>
       </c>
-      <c r="B821" s="5"/>
+      <c r="B821" s="6">
+        <v>0</v>
+      </c>
       <c r="E821" t="s">
         <v>11</v>
       </c>
@@ -14790,7 +15350,9 @@
       <c r="A822" s="1">
         <v>42303</v>
       </c>
-      <c r="B822" s="5"/>
+      <c r="B822" s="6">
+        <v>0</v>
+      </c>
       <c r="E822" t="s">
         <v>13</v>
       </c>
@@ -14802,7 +15364,9 @@
       <c r="A823" s="1">
         <v>42303</v>
       </c>
-      <c r="B823" s="5"/>
+      <c r="B823" s="6">
+        <v>0</v>
+      </c>
       <c r="E823" t="s">
         <v>15</v>
       </c>
@@ -14814,7 +15378,9 @@
       <c r="A824" s="1">
         <v>42303</v>
       </c>
-      <c r="B824" s="5"/>
+      <c r="B824" s="6">
+        <v>0</v>
+      </c>
       <c r="E824" t="s">
         <v>16</v>
       </c>
@@ -14826,7 +15392,9 @@
       <c r="A825" s="1">
         <v>42303</v>
       </c>
-      <c r="B825" s="5"/>
+      <c r="B825" s="6">
+        <v>0</v>
+      </c>
       <c r="E825" t="s">
         <v>17</v>
       </c>
@@ -14838,7 +15406,9 @@
       <c r="A826" s="1">
         <v>42303</v>
       </c>
-      <c r="B826" s="5"/>
+      <c r="B826" s="6">
+        <v>0</v>
+      </c>
       <c r="E826" t="s">
         <v>18</v>
       </c>
@@ -14850,7 +15420,9 @@
       <c r="A827" s="1">
         <v>42303</v>
       </c>
-      <c r="B827" s="5"/>
+      <c r="B827" s="6">
+        <v>0</v>
+      </c>
       <c r="E827" t="s">
         <v>19</v>
       </c>
@@ -14862,7 +15434,9 @@
       <c r="A828" s="1">
         <v>42303</v>
       </c>
-      <c r="B828" s="5"/>
+      <c r="B828" s="6">
+        <v>0</v>
+      </c>
       <c r="E828" t="s">
         <v>20</v>
       </c>
@@ -14874,7 +15448,9 @@
       <c r="A829" s="1">
         <v>42303</v>
       </c>
-      <c r="B829" s="5"/>
+      <c r="B829" s="6">
+        <v>0</v>
+      </c>
       <c r="E829" t="s">
         <v>21</v>
       </c>
@@ -14886,7 +15462,9 @@
       <c r="A830" s="1">
         <v>42303</v>
       </c>
-      <c r="B830" s="5"/>
+      <c r="B830" s="6">
+        <v>0</v>
+      </c>
       <c r="E830" t="s">
         <v>22</v>
       </c>
@@ -14898,7 +15476,9 @@
       <c r="A831" s="1">
         <v>42303</v>
       </c>
-      <c r="B831" s="5"/>
+      <c r="B831" s="6">
+        <v>0</v>
+      </c>
       <c r="E831" t="s">
         <v>23</v>
       </c>
@@ -14910,7 +15490,9 @@
       <c r="A832" s="1">
         <v>42303</v>
       </c>
-      <c r="B832" s="5"/>
+      <c r="B832" s="6">
+        <v>0</v>
+      </c>
       <c r="E832" t="s">
         <v>25</v>
       </c>
@@ -14922,7 +15504,9 @@
       <c r="A833" s="1">
         <v>42303</v>
       </c>
-      <c r="B833" s="5"/>
+      <c r="B833" s="6">
+        <v>0</v>
+      </c>
       <c r="E833" t="s">
         <v>26</v>
       </c>
@@ -14934,7 +15518,9 @@
       <c r="A834" s="1">
         <v>42303</v>
       </c>
-      <c r="B834" s="5"/>
+      <c r="B834" s="6">
+        <v>0</v>
+      </c>
       <c r="E834" t="s">
         <v>27</v>
       </c>
@@ -14946,7 +15532,9 @@
       <c r="A835" s="1">
         <v>42303</v>
       </c>
-      <c r="B835" s="5"/>
+      <c r="B835" s="6">
+        <v>0</v>
+      </c>
       <c r="E835" t="s">
         <v>28</v>
       </c>
@@ -14958,7 +15546,9 @@
       <c r="A836" s="1">
         <v>42303</v>
       </c>
-      <c r="B836" s="5"/>
+      <c r="B836" s="6">
+        <v>0</v>
+      </c>
       <c r="E836" t="s">
         <v>29</v>
       </c>
@@ -14970,7 +15560,9 @@
       <c r="A837" s="1">
         <v>42303</v>
       </c>
-      <c r="B837" s="5"/>
+      <c r="B837" s="6">
+        <v>0</v>
+      </c>
       <c r="E837" t="s">
         <v>30</v>
       </c>
@@ -14982,7 +15574,9 @@
       <c r="A838" s="1">
         <v>42303</v>
       </c>
-      <c r="B838" s="5"/>
+      <c r="B838" s="6">
+        <v>0</v>
+      </c>
       <c r="E838" t="s">
         <v>5</v>
       </c>
@@ -14994,7 +15588,9 @@
       <c r="A839" s="1">
         <v>42303</v>
       </c>
-      <c r="B839" s="5"/>
+      <c r="B839" s="6">
+        <v>0</v>
+      </c>
       <c r="E839" t="s">
         <v>24</v>
       </c>
@@ -15006,7 +15602,9 @@
       <c r="A840" s="1">
         <v>42303</v>
       </c>
-      <c r="B840" s="5"/>
+      <c r="B840" s="6">
+        <v>0</v>
+      </c>
       <c r="E840" t="s">
         <v>8</v>
       </c>
@@ -15018,7 +15616,9 @@
       <c r="A841" s="1">
         <v>42303</v>
       </c>
-      <c r="B841" s="5"/>
+      <c r="B841" s="6">
+        <v>0</v>
+      </c>
       <c r="E841" t="s">
         <v>10</v>
       </c>
@@ -15030,7 +15630,9 @@
       <c r="A842" s="1">
         <v>42303</v>
       </c>
-      <c r="B842" s="5"/>
+      <c r="B842" s="6">
+        <v>0</v>
+      </c>
       <c r="E842" t="s">
         <v>12</v>
       </c>
@@ -15042,7 +15644,9 @@
       <c r="A843" s="1">
         <v>42303</v>
       </c>
-      <c r="B843" s="5"/>
+      <c r="B843" s="6">
+        <v>0</v>
+      </c>
       <c r="E843" t="s">
         <v>14</v>
       </c>
@@ -15690,7 +16294,9 @@
       <c r="A880" s="1">
         <v>42310</v>
       </c>
-      <c r="B880" s="5"/>
+      <c r="B880" s="6">
+        <v>0</v>
+      </c>
       <c r="E880" t="s">
         <v>1</v>
       </c>
@@ -15702,7 +16308,9 @@
       <c r="A881" s="1">
         <v>42310</v>
       </c>
-      <c r="B881" s="5"/>
+      <c r="B881" s="6">
+        <v>0</v>
+      </c>
       <c r="E881" t="s">
         <v>2</v>
       </c>
@@ -15714,7 +16322,9 @@
       <c r="A882" s="1">
         <v>42310</v>
       </c>
-      <c r="B882" s="5"/>
+      <c r="B882" s="6">
+        <v>0</v>
+      </c>
       <c r="E882" t="s">
         <v>3</v>
       </c>
@@ -15726,7 +16336,9 @@
       <c r="A883" s="1">
         <v>42310</v>
       </c>
-      <c r="B883" s="5"/>
+      <c r="B883" s="6">
+        <v>0</v>
+      </c>
       <c r="E883" t="s">
         <v>4</v>
       </c>
@@ -15738,7 +16350,9 @@
       <c r="A884" s="1">
         <v>42310</v>
       </c>
-      <c r="B884" s="5"/>
+      <c r="B884" s="6">
+        <v>0</v>
+      </c>
       <c r="E884" t="s">
         <v>6</v>
       </c>
@@ -15750,7 +16364,9 @@
       <c r="A885" s="1">
         <v>42310</v>
       </c>
-      <c r="B885" s="5"/>
+      <c r="B885" s="6">
+        <v>0</v>
+      </c>
       <c r="E885" t="s">
         <v>7</v>
       </c>
@@ -15762,7 +16378,9 @@
       <c r="A886" s="1">
         <v>42310</v>
       </c>
-      <c r="B886" s="5"/>
+      <c r="B886" s="6">
+        <v>0</v>
+      </c>
       <c r="E886" t="s">
         <v>9</v>
       </c>
@@ -15774,7 +16392,9 @@
       <c r="A887" s="1">
         <v>42310</v>
       </c>
-      <c r="B887" s="5"/>
+      <c r="B887" s="6">
+        <v>0</v>
+      </c>
       <c r="E887" t="s">
         <v>11</v>
       </c>
@@ -15786,7 +16406,9 @@
       <c r="A888" s="1">
         <v>42310</v>
       </c>
-      <c r="B888" s="5"/>
+      <c r="B888" s="6">
+        <v>0</v>
+      </c>
       <c r="E888" t="s">
         <v>13</v>
       </c>
@@ -15798,7 +16420,9 @@
       <c r="A889" s="1">
         <v>42310</v>
       </c>
-      <c r="B889" s="5"/>
+      <c r="B889" s="6">
+        <v>0</v>
+      </c>
       <c r="E889" t="s">
         <v>15</v>
       </c>
@@ -15810,7 +16434,9 @@
       <c r="A890" s="1">
         <v>42310</v>
       </c>
-      <c r="B890" s="5"/>
+      <c r="B890" s="6">
+        <v>0</v>
+      </c>
       <c r="E890" t="s">
         <v>16</v>
       </c>
@@ -15822,7 +16448,9 @@
       <c r="A891" s="1">
         <v>42310</v>
       </c>
-      <c r="B891" s="5"/>
+      <c r="B891" s="6">
+        <v>0</v>
+      </c>
       <c r="E891" t="s">
         <v>17</v>
       </c>
@@ -15834,7 +16462,9 @@
       <c r="A892" s="1">
         <v>42310</v>
       </c>
-      <c r="B892" s="5"/>
+      <c r="B892" s="6">
+        <v>0</v>
+      </c>
       <c r="E892" t="s">
         <v>18</v>
       </c>
@@ -15846,7 +16476,9 @@
       <c r="A893" s="1">
         <v>42310</v>
       </c>
-      <c r="B893" s="5"/>
+      <c r="B893" s="6">
+        <v>0</v>
+      </c>
       <c r="E893" t="s">
         <v>19</v>
       </c>
@@ -15858,7 +16490,9 @@
       <c r="A894" s="1">
         <v>42310</v>
       </c>
-      <c r="B894" s="5"/>
+      <c r="B894" s="6">
+        <v>0</v>
+      </c>
       <c r="E894" t="s">
         <v>20</v>
       </c>
@@ -15870,7 +16504,9 @@
       <c r="A895" s="1">
         <v>42310</v>
       </c>
-      <c r="B895" s="5"/>
+      <c r="B895" s="6">
+        <v>0</v>
+      </c>
       <c r="E895" t="s">
         <v>21</v>
       </c>
@@ -15882,7 +16518,9 @@
       <c r="A896" s="1">
         <v>42310</v>
       </c>
-      <c r="B896" s="5"/>
+      <c r="B896" s="6">
+        <v>0</v>
+      </c>
       <c r="E896" t="s">
         <v>22</v>
       </c>
@@ -15894,7 +16532,9 @@
       <c r="A897" s="1">
         <v>42310</v>
       </c>
-      <c r="B897" s="5"/>
+      <c r="B897" s="6">
+        <v>0</v>
+      </c>
       <c r="E897" t="s">
         <v>23</v>
       </c>
@@ -15906,7 +16546,9 @@
       <c r="A898" s="1">
         <v>42310</v>
       </c>
-      <c r="B898" s="5"/>
+      <c r="B898" s="6">
+        <v>0</v>
+      </c>
       <c r="E898" t="s">
         <v>25</v>
       </c>
@@ -15918,7 +16560,9 @@
       <c r="A899" s="1">
         <v>42310</v>
       </c>
-      <c r="B899" s="5"/>
+      <c r="B899" s="6">
+        <v>0</v>
+      </c>
       <c r="E899" t="s">
         <v>26</v>
       </c>
@@ -15930,7 +16574,9 @@
       <c r="A900" s="1">
         <v>42310</v>
       </c>
-      <c r="B900" s="5"/>
+      <c r="B900" s="6">
+        <v>0</v>
+      </c>
       <c r="E900" t="s">
         <v>27</v>
       </c>
@@ -15942,7 +16588,9 @@
       <c r="A901" s="1">
         <v>42310</v>
       </c>
-      <c r="B901" s="5"/>
+      <c r="B901" s="6">
+        <v>0</v>
+      </c>
       <c r="E901" t="s">
         <v>28</v>
       </c>
@@ -15954,7 +16602,9 @@
       <c r="A902" s="1">
         <v>42310</v>
       </c>
-      <c r="B902" s="5"/>
+      <c r="B902" s="6">
+        <v>0</v>
+      </c>
       <c r="E902" t="s">
         <v>29</v>
       </c>
@@ -15966,7 +16616,9 @@
       <c r="A903" s="1">
         <v>42310</v>
       </c>
-      <c r="B903" s="5"/>
+      <c r="B903" s="6">
+        <v>0</v>
+      </c>
       <c r="E903" t="s">
         <v>30</v>
       </c>
@@ -15978,7 +16630,9 @@
       <c r="A904" s="1">
         <v>42310</v>
       </c>
-      <c r="B904" s="5"/>
+      <c r="B904" s="6">
+        <v>0</v>
+      </c>
       <c r="E904" t="s">
         <v>5</v>
       </c>
@@ -15990,7 +16644,9 @@
       <c r="A905" s="1">
         <v>42310</v>
       </c>
-      <c r="B905" s="5"/>
+      <c r="B905" s="6">
+        <v>0</v>
+      </c>
       <c r="E905" t="s">
         <v>24</v>
       </c>
@@ -16002,7 +16658,9 @@
       <c r="A906" s="1">
         <v>42310</v>
       </c>
-      <c r="B906" s="5"/>
+      <c r="B906" s="6">
+        <v>0</v>
+      </c>
       <c r="E906" t="s">
         <v>8</v>
       </c>
@@ -16014,7 +16672,9 @@
       <c r="A907" s="1">
         <v>42310</v>
       </c>
-      <c r="B907" s="5"/>
+      <c r="B907" s="6">
+        <v>0</v>
+      </c>
       <c r="E907" t="s">
         <v>10</v>
       </c>
@@ -16026,7 +16686,9 @@
       <c r="A908" s="1">
         <v>42310</v>
       </c>
-      <c r="B908" s="5"/>
+      <c r="B908" s="6">
+        <v>0</v>
+      </c>
       <c r="E908" t="s">
         <v>12</v>
       </c>
@@ -16038,7 +16700,9 @@
       <c r="A909" s="1">
         <v>42310</v>
       </c>
-      <c r="B909" s="5"/>
+      <c r="B909" s="6">
+        <v>0</v>
+      </c>
       <c r="E909" t="s">
         <v>14</v>
       </c>
@@ -16673,7 +17337,9 @@
       <c r="A946" s="1">
         <v>42317</v>
       </c>
-      <c r="B946" s="5"/>
+      <c r="B946" s="6">
+        <v>0</v>
+      </c>
       <c r="D946" s="5"/>
       <c r="E946" t="s">
         <v>1</v>
@@ -16686,7 +17352,9 @@
       <c r="A947" s="1">
         <v>42317</v>
       </c>
-      <c r="B947" s="5"/>
+      <c r="B947" s="6">
+        <v>0</v>
+      </c>
       <c r="D947" s="5"/>
       <c r="E947" t="s">
         <v>2</v>
@@ -16699,7 +17367,9 @@
       <c r="A948" s="1">
         <v>42317</v>
       </c>
-      <c r="B948" s="5"/>
+      <c r="B948" s="6">
+        <v>0</v>
+      </c>
       <c r="D948" s="5"/>
       <c r="E948" t="s">
         <v>3</v>
@@ -16712,7 +17382,9 @@
       <c r="A949" s="1">
         <v>42317</v>
       </c>
-      <c r="B949" s="5"/>
+      <c r="B949" s="6">
+        <v>0</v>
+      </c>
       <c r="D949" s="5"/>
       <c r="E949" t="s">
         <v>4</v>
@@ -16725,7 +17397,9 @@
       <c r="A950" s="1">
         <v>42317</v>
       </c>
-      <c r="B950" s="5"/>
+      <c r="B950" s="6">
+        <v>0</v>
+      </c>
       <c r="D950" s="5"/>
       <c r="E950" t="s">
         <v>6</v>
@@ -16738,7 +17412,9 @@
       <c r="A951" s="1">
         <v>42317</v>
       </c>
-      <c r="B951" s="5"/>
+      <c r="B951" s="6">
+        <v>0</v>
+      </c>
       <c r="D951" s="5"/>
       <c r="E951" t="s">
         <v>7</v>
@@ -16751,7 +17427,9 @@
       <c r="A952" s="1">
         <v>42317</v>
       </c>
-      <c r="B952" s="5"/>
+      <c r="B952" s="6">
+        <v>0</v>
+      </c>
       <c r="D952" s="5"/>
       <c r="E952" t="s">
         <v>9</v>
@@ -16764,7 +17442,9 @@
       <c r="A953" s="1">
         <v>42317</v>
       </c>
-      <c r="B953" s="5"/>
+      <c r="B953" s="6">
+        <v>0</v>
+      </c>
       <c r="D953" s="5"/>
       <c r="E953" t="s">
         <v>11</v>
@@ -16777,7 +17457,9 @@
       <c r="A954" s="1">
         <v>42317</v>
       </c>
-      <c r="B954" s="5"/>
+      <c r="B954" s="6">
+        <v>0</v>
+      </c>
       <c r="D954" s="5"/>
       <c r="E954" t="s">
         <v>13</v>
@@ -16790,7 +17472,9 @@
       <c r="A955" s="1">
         <v>42317</v>
       </c>
-      <c r="B955" s="5"/>
+      <c r="B955" s="6">
+        <v>0</v>
+      </c>
       <c r="D955" s="5"/>
       <c r="E955" t="s">
         <v>15</v>
@@ -16803,7 +17487,9 @@
       <c r="A956" s="1">
         <v>42317</v>
       </c>
-      <c r="B956" s="5"/>
+      <c r="B956" s="6">
+        <v>0</v>
+      </c>
       <c r="D956" s="5"/>
       <c r="E956" t="s">
         <v>16</v>
@@ -16816,7 +17502,9 @@
       <c r="A957" s="1">
         <v>42317</v>
       </c>
-      <c r="B957" s="5"/>
+      <c r="B957" s="6">
+        <v>0</v>
+      </c>
       <c r="D957" s="5"/>
       <c r="E957" t="s">
         <v>17</v>
@@ -16829,7 +17517,9 @@
       <c r="A958" s="1">
         <v>42317</v>
       </c>
-      <c r="B958" s="5"/>
+      <c r="B958" s="6">
+        <v>0</v>
+      </c>
       <c r="D958" s="5"/>
       <c r="E958" t="s">
         <v>18</v>
@@ -16842,7 +17532,9 @@
       <c r="A959" s="1">
         <v>42317</v>
       </c>
-      <c r="B959" s="5"/>
+      <c r="B959" s="6">
+        <v>0</v>
+      </c>
       <c r="D959" s="5"/>
       <c r="E959" t="s">
         <v>19</v>
@@ -16855,7 +17547,9 @@
       <c r="A960" s="1">
         <v>42317</v>
       </c>
-      <c r="B960" s="5"/>
+      <c r="B960" s="6">
+        <v>0</v>
+      </c>
       <c r="D960" s="5"/>
       <c r="E960" t="s">
         <v>20</v>
@@ -16868,7 +17562,9 @@
       <c r="A961" s="1">
         <v>42317</v>
       </c>
-      <c r="B961" s="5"/>
+      <c r="B961" s="6">
+        <v>0</v>
+      </c>
       <c r="D961" s="5"/>
       <c r="E961" t="s">
         <v>21</v>
@@ -16881,7 +17577,9 @@
       <c r="A962" s="1">
         <v>42317</v>
       </c>
-      <c r="B962" s="5"/>
+      <c r="B962" s="6">
+        <v>0</v>
+      </c>
       <c r="D962" s="5"/>
       <c r="E962" t="s">
         <v>22</v>
@@ -16894,7 +17592,9 @@
       <c r="A963" s="1">
         <v>42317</v>
       </c>
-      <c r="B963" s="5"/>
+      <c r="B963" s="6">
+        <v>0</v>
+      </c>
       <c r="D963" s="5"/>
       <c r="E963" t="s">
         <v>23</v>
@@ -16907,7 +17607,9 @@
       <c r="A964" s="1">
         <v>42317</v>
       </c>
-      <c r="B964" s="5"/>
+      <c r="B964" s="6">
+        <v>0</v>
+      </c>
       <c r="D964" s="5"/>
       <c r="E964" t="s">
         <v>25</v>
@@ -16920,7 +17622,9 @@
       <c r="A965" s="1">
         <v>42317</v>
       </c>
-      <c r="B965" s="5"/>
+      <c r="B965" s="6">
+        <v>0</v>
+      </c>
       <c r="D965" s="5"/>
       <c r="E965" t="s">
         <v>26</v>
@@ -16933,7 +17637,9 @@
       <c r="A966" s="1">
         <v>42317</v>
       </c>
-      <c r="B966" s="5"/>
+      <c r="B966" s="6">
+        <v>0</v>
+      </c>
       <c r="D966" s="5"/>
       <c r="E966" t="s">
         <v>27</v>
@@ -16946,7 +17652,9 @@
       <c r="A967" s="1">
         <v>42317</v>
       </c>
-      <c r="B967" s="5"/>
+      <c r="B967" s="6">
+        <v>0</v>
+      </c>
       <c r="D967" s="5"/>
       <c r="E967" t="s">
         <v>28</v>
@@ -16959,7 +17667,9 @@
       <c r="A968" s="1">
         <v>42317</v>
       </c>
-      <c r="B968" s="5"/>
+      <c r="B968" s="6">
+        <v>0</v>
+      </c>
       <c r="D968" s="5"/>
       <c r="E968" t="s">
         <v>29</v>
@@ -16972,7 +17682,9 @@
       <c r="A969" s="1">
         <v>42317</v>
       </c>
-      <c r="B969" s="5"/>
+      <c r="B969" s="6">
+        <v>0</v>
+      </c>
       <c r="D969" s="5"/>
       <c r="E969" t="s">
         <v>30</v>
@@ -16985,7 +17697,9 @@
       <c r="A970" s="1">
         <v>42317</v>
       </c>
-      <c r="B970" s="5"/>
+      <c r="B970" s="6">
+        <v>0</v>
+      </c>
       <c r="D970" s="5"/>
       <c r="E970" t="s">
         <v>5</v>
@@ -16998,7 +17712,9 @@
       <c r="A971" s="1">
         <v>42317</v>
       </c>
-      <c r="B971" s="5"/>
+      <c r="B971" s="6">
+        <v>0</v>
+      </c>
       <c r="D971" s="5"/>
       <c r="E971" t="s">
         <v>24</v>
@@ -17011,7 +17727,9 @@
       <c r="A972" s="1">
         <v>42317</v>
       </c>
-      <c r="B972" s="5"/>
+      <c r="B972" s="6">
+        <v>0</v>
+      </c>
       <c r="D972" s="5"/>
       <c r="E972" t="s">
         <v>8</v>
@@ -17024,7 +17742,9 @@
       <c r="A973" s="1">
         <v>42317</v>
       </c>
-      <c r="B973" s="5"/>
+      <c r="B973" s="6">
+        <v>0</v>
+      </c>
       <c r="D973" s="5"/>
       <c r="E973" t="s">
         <v>10</v>
@@ -17037,7 +17757,9 @@
       <c r="A974" s="1">
         <v>42317</v>
       </c>
-      <c r="B974" s="5"/>
+      <c r="B974" s="6">
+        <v>0</v>
+      </c>
       <c r="D974" s="5"/>
       <c r="E974" t="s">
         <v>12</v>
@@ -17050,7 +17772,9 @@
       <c r="A975" s="1">
         <v>42317</v>
       </c>
-      <c r="B975" s="5"/>
+      <c r="B975" s="6">
+        <v>0</v>
+      </c>
       <c r="D975" s="5"/>
       <c r="E975" t="s">
         <v>14</v>
@@ -17797,7 +18521,9 @@
       <c r="A1018" s="1">
         <v>42327</v>
       </c>
-      <c r="B1018" s="5"/>
+      <c r="B1018" s="6">
+        <v>0</v>
+      </c>
       <c r="E1018" t="s">
         <v>1</v>
       </c>
@@ -17809,7 +18535,9 @@
       <c r="A1019" s="1">
         <v>42327</v>
       </c>
-      <c r="B1019" s="5"/>
+      <c r="B1019" s="6">
+        <v>0</v>
+      </c>
       <c r="E1019" t="s">
         <v>2</v>
       </c>
@@ -17821,7 +18549,9 @@
       <c r="A1020" s="1">
         <v>42327</v>
       </c>
-      <c r="B1020" s="5"/>
+      <c r="B1020" s="6">
+        <v>0</v>
+      </c>
       <c r="E1020" t="s">
         <v>3</v>
       </c>
@@ -17833,7 +18563,9 @@
       <c r="A1021" s="1">
         <v>42327</v>
       </c>
-      <c r="B1021" s="5"/>
+      <c r="B1021" s="6">
+        <v>0</v>
+      </c>
       <c r="E1021" t="s">
         <v>4</v>
       </c>
@@ -17845,7 +18577,9 @@
       <c r="A1022" s="1">
         <v>42327</v>
       </c>
-      <c r="B1022" s="5"/>
+      <c r="B1022" s="6">
+        <v>0</v>
+      </c>
       <c r="E1022" t="s">
         <v>6</v>
       </c>
@@ -17857,7 +18591,9 @@
       <c r="A1023" s="1">
         <v>42327</v>
       </c>
-      <c r="B1023" s="5"/>
+      <c r="B1023" s="6">
+        <v>0</v>
+      </c>
       <c r="E1023" t="s">
         <v>7</v>
       </c>
@@ -17869,7 +18605,9 @@
       <c r="A1024" s="1">
         <v>42327</v>
       </c>
-      <c r="B1024" s="5"/>
+      <c r="B1024" s="6">
+        <v>0</v>
+      </c>
       <c r="E1024" t="s">
         <v>9</v>
       </c>
@@ -17881,7 +18619,9 @@
       <c r="A1025" s="1">
         <v>42327</v>
       </c>
-      <c r="B1025" s="5"/>
+      <c r="B1025" s="6">
+        <v>0</v>
+      </c>
       <c r="E1025" t="s">
         <v>11</v>
       </c>
@@ -17893,7 +18633,9 @@
       <c r="A1026" s="1">
         <v>42327</v>
       </c>
-      <c r="B1026" s="5"/>
+      <c r="B1026" s="6">
+        <v>0</v>
+      </c>
       <c r="E1026" t="s">
         <v>13</v>
       </c>
@@ -17905,7 +18647,9 @@
       <c r="A1027" s="1">
         <v>42327</v>
       </c>
-      <c r="B1027" s="5"/>
+      <c r="B1027" s="6">
+        <v>0</v>
+      </c>
       <c r="E1027" t="s">
         <v>15</v>
       </c>
@@ -17917,7 +18661,9 @@
       <c r="A1028" s="1">
         <v>42327</v>
       </c>
-      <c r="B1028" s="5"/>
+      <c r="B1028" s="6">
+        <v>0</v>
+      </c>
       <c r="E1028" t="s">
         <v>16</v>
       </c>
@@ -17929,7 +18675,9 @@
       <c r="A1029" s="1">
         <v>42327</v>
       </c>
-      <c r="B1029" s="5"/>
+      <c r="B1029" s="6">
+        <v>0</v>
+      </c>
       <c r="E1029" t="s">
         <v>17</v>
       </c>
@@ -17941,7 +18689,9 @@
       <c r="A1030" s="1">
         <v>42327</v>
       </c>
-      <c r="B1030" s="5"/>
+      <c r="B1030" s="6">
+        <v>0</v>
+      </c>
       <c r="E1030" t="s">
         <v>18</v>
       </c>
@@ -17953,7 +18703,9 @@
       <c r="A1031" s="1">
         <v>42327</v>
       </c>
-      <c r="B1031" s="5"/>
+      <c r="B1031" s="6">
+        <v>0</v>
+      </c>
       <c r="E1031" t="s">
         <v>19</v>
       </c>
@@ -17965,7 +18717,9 @@
       <c r="A1032" s="1">
         <v>42327</v>
       </c>
-      <c r="B1032" s="5"/>
+      <c r="B1032" s="6">
+        <v>0</v>
+      </c>
       <c r="E1032" t="s">
         <v>20</v>
       </c>
@@ -17977,7 +18731,9 @@
       <c r="A1033" s="1">
         <v>42327</v>
       </c>
-      <c r="B1033" s="5"/>
+      <c r="B1033" s="6">
+        <v>0</v>
+      </c>
       <c r="E1033" t="s">
         <v>21</v>
       </c>
@@ -17989,7 +18745,9 @@
       <c r="A1034" s="1">
         <v>42327</v>
       </c>
-      <c r="B1034" s="5"/>
+      <c r="B1034" s="6">
+        <v>0</v>
+      </c>
       <c r="E1034" t="s">
         <v>22</v>
       </c>
@@ -18001,7 +18759,9 @@
       <c r="A1035" s="1">
         <v>42327</v>
       </c>
-      <c r="B1035" s="5"/>
+      <c r="B1035" s="6">
+        <v>0</v>
+      </c>
       <c r="E1035" t="s">
         <v>23</v>
       </c>
@@ -18013,7 +18773,9 @@
       <c r="A1036" s="1">
         <v>42327</v>
       </c>
-      <c r="B1036" s="5"/>
+      <c r="B1036" s="6">
+        <v>0</v>
+      </c>
       <c r="E1036" t="s">
         <v>25</v>
       </c>
@@ -18025,7 +18787,9 @@
       <c r="A1037" s="1">
         <v>42327</v>
       </c>
-      <c r="B1037" s="5"/>
+      <c r="B1037" s="6">
+        <v>0</v>
+      </c>
       <c r="E1037" t="s">
         <v>26</v>
       </c>
@@ -18037,7 +18801,9 @@
       <c r="A1038" s="1">
         <v>42327</v>
       </c>
-      <c r="B1038" s="5"/>
+      <c r="B1038" s="6">
+        <v>0</v>
+      </c>
       <c r="E1038" t="s">
         <v>27</v>
       </c>
@@ -18049,7 +18815,9 @@
       <c r="A1039" s="1">
         <v>42327</v>
       </c>
-      <c r="B1039" s="5"/>
+      <c r="B1039" s="6">
+        <v>0</v>
+      </c>
       <c r="E1039" t="s">
         <v>28</v>
       </c>
@@ -18061,7 +18829,9 @@
       <c r="A1040" s="1">
         <v>42327</v>
       </c>
-      <c r="B1040" s="5"/>
+      <c r="B1040" s="6">
+        <v>0</v>
+      </c>
       <c r="E1040" t="s">
         <v>29</v>
       </c>
@@ -18073,7 +18843,9 @@
       <c r="A1041" s="1">
         <v>42327</v>
       </c>
-      <c r="B1041" s="5"/>
+      <c r="B1041" s="6">
+        <v>0</v>
+      </c>
       <c r="E1041" t="s">
         <v>30</v>
       </c>
@@ -18085,7 +18857,9 @@
       <c r="A1042" s="1">
         <v>42327</v>
       </c>
-      <c r="B1042" s="5"/>
+      <c r="B1042" s="6">
+        <v>0</v>
+      </c>
       <c r="E1042" t="s">
         <v>5</v>
       </c>
@@ -18097,7 +18871,9 @@
       <c r="A1043" s="1">
         <v>42327</v>
       </c>
-      <c r="B1043" s="5"/>
+      <c r="B1043" s="6">
+        <v>0</v>
+      </c>
       <c r="E1043" t="s">
         <v>24</v>
       </c>
@@ -18109,7 +18885,9 @@
       <c r="A1044" s="1">
         <v>42327</v>
       </c>
-      <c r="B1044" s="5"/>
+      <c r="B1044" s="6">
+        <v>0</v>
+      </c>
       <c r="E1044" t="s">
         <v>8</v>
       </c>
@@ -18121,7 +18899,9 @@
       <c r="A1045" s="1">
         <v>42327</v>
       </c>
-      <c r="B1045" s="5"/>
+      <c r="B1045" s="6">
+        <v>0</v>
+      </c>
       <c r="E1045" t="s">
         <v>10</v>
       </c>
@@ -18133,7 +18913,9 @@
       <c r="A1046" s="1">
         <v>42327</v>
       </c>
-      <c r="B1046" s="5"/>
+      <c r="B1046" s="6">
+        <v>0</v>
+      </c>
       <c r="E1046" t="s">
         <v>12</v>
       </c>
@@ -18145,7 +18927,9 @@
       <c r="A1047" s="1">
         <v>42327</v>
       </c>
-      <c r="B1047" s="5"/>
+      <c r="B1047" s="6">
+        <v>0</v>
+      </c>
       <c r="E1047" t="s">
         <v>14</v>
       </c>
@@ -18771,7 +19555,9 @@
       <c r="A1084" s="1">
         <v>42332</v>
       </c>
-      <c r="B1084" s="5"/>
+      <c r="B1084" s="6">
+        <v>0</v>
+      </c>
       <c r="E1084" t="s">
         <v>1</v>
       </c>
@@ -18783,7 +19569,9 @@
       <c r="A1085" s="1">
         <v>42332</v>
       </c>
-      <c r="B1085" s="5"/>
+      <c r="B1085" s="6">
+        <v>0</v>
+      </c>
       <c r="E1085" t="s">
         <v>2</v>
       </c>
@@ -18795,7 +19583,9 @@
       <c r="A1086" s="1">
         <v>42332</v>
       </c>
-      <c r="B1086" s="5"/>
+      <c r="B1086" s="6">
+        <v>0</v>
+      </c>
       <c r="E1086" t="s">
         <v>3</v>
       </c>
@@ -18807,7 +19597,9 @@
       <c r="A1087" s="1">
         <v>42332</v>
       </c>
-      <c r="B1087" s="5"/>
+      <c r="B1087" s="6">
+        <v>0</v>
+      </c>
       <c r="E1087" t="s">
         <v>4</v>
       </c>
@@ -18819,7 +19611,9 @@
       <c r="A1088" s="1">
         <v>42332</v>
       </c>
-      <c r="B1088" s="5"/>
+      <c r="B1088" s="6">
+        <v>0</v>
+      </c>
       <c r="E1088" t="s">
         <v>6</v>
       </c>
@@ -18831,7 +19625,9 @@
       <c r="A1089" s="1">
         <v>42332</v>
       </c>
-      <c r="B1089" s="5"/>
+      <c r="B1089" s="6">
+        <v>0</v>
+      </c>
       <c r="E1089" t="s">
         <v>7</v>
       </c>
@@ -18843,7 +19639,9 @@
       <c r="A1090" s="1">
         <v>42332</v>
       </c>
-      <c r="B1090" s="5"/>
+      <c r="B1090" s="6">
+        <v>0</v>
+      </c>
       <c r="E1090" t="s">
         <v>9</v>
       </c>
@@ -18855,7 +19653,9 @@
       <c r="A1091" s="1">
         <v>42332</v>
       </c>
-      <c r="B1091" s="5"/>
+      <c r="B1091" s="6">
+        <v>0</v>
+      </c>
       <c r="E1091" t="s">
         <v>11</v>
       </c>
@@ -18867,7 +19667,9 @@
       <c r="A1092" s="1">
         <v>42332</v>
       </c>
-      <c r="B1092" s="5"/>
+      <c r="B1092" s="6">
+        <v>0</v>
+      </c>
       <c r="E1092" t="s">
         <v>13</v>
       </c>
@@ -18879,7 +19681,9 @@
       <c r="A1093" s="1">
         <v>42332</v>
       </c>
-      <c r="B1093" s="5"/>
+      <c r="B1093" s="6">
+        <v>0</v>
+      </c>
       <c r="E1093" t="s">
         <v>15</v>
       </c>
@@ -18891,7 +19695,9 @@
       <c r="A1094" s="1">
         <v>42332</v>
       </c>
-      <c r="B1094" s="5"/>
+      <c r="B1094" s="6">
+        <v>0</v>
+      </c>
       <c r="E1094" t="s">
         <v>16</v>
       </c>
@@ -18903,7 +19709,9 @@
       <c r="A1095" s="1">
         <v>42332</v>
       </c>
-      <c r="B1095" s="5"/>
+      <c r="B1095" s="6">
+        <v>0</v>
+      </c>
       <c r="E1095" t="s">
         <v>17</v>
       </c>
@@ -18915,7 +19723,9 @@
       <c r="A1096" s="1">
         <v>42332</v>
       </c>
-      <c r="B1096" s="5"/>
+      <c r="B1096" s="6">
+        <v>0</v>
+      </c>
       <c r="E1096" t="s">
         <v>18</v>
       </c>
@@ -18927,7 +19737,9 @@
       <c r="A1097" s="1">
         <v>42332</v>
       </c>
-      <c r="B1097" s="5"/>
+      <c r="B1097" s="6">
+        <v>0</v>
+      </c>
       <c r="E1097" t="s">
         <v>19</v>
       </c>
@@ -18939,7 +19751,9 @@
       <c r="A1098" s="1">
         <v>42332</v>
       </c>
-      <c r="B1098" s="5"/>
+      <c r="B1098" s="6">
+        <v>0</v>
+      </c>
       <c r="E1098" t="s">
         <v>20</v>
       </c>
@@ -18951,7 +19765,9 @@
       <c r="A1099" s="1">
         <v>42332</v>
       </c>
-      <c r="B1099" s="5"/>
+      <c r="B1099" s="6">
+        <v>0</v>
+      </c>
       <c r="E1099" t="s">
         <v>21</v>
       </c>
@@ -18963,7 +19779,9 @@
       <c r="A1100" s="1">
         <v>42332</v>
       </c>
-      <c r="B1100" s="5"/>
+      <c r="B1100" s="6">
+        <v>0</v>
+      </c>
       <c r="E1100" t="s">
         <v>22</v>
       </c>
@@ -18975,7 +19793,9 @@
       <c r="A1101" s="1">
         <v>42332</v>
       </c>
-      <c r="B1101" s="5"/>
+      <c r="B1101" s="6">
+        <v>0</v>
+      </c>
       <c r="E1101" t="s">
         <v>23</v>
       </c>
@@ -18987,7 +19807,9 @@
       <c r="A1102" s="1">
         <v>42332</v>
       </c>
-      <c r="B1102" s="5"/>
+      <c r="B1102" s="6">
+        <v>0</v>
+      </c>
       <c r="E1102" t="s">
         <v>25</v>
       </c>
@@ -18999,7 +19821,9 @@
       <c r="A1103" s="1">
         <v>42332</v>
       </c>
-      <c r="B1103" s="5"/>
+      <c r="B1103" s="6">
+        <v>0</v>
+      </c>
       <c r="E1103" t="s">
         <v>26</v>
       </c>
@@ -19011,7 +19835,9 @@
       <c r="A1104" s="1">
         <v>42332</v>
       </c>
-      <c r="B1104" s="5"/>
+      <c r="B1104" s="6">
+        <v>0</v>
+      </c>
       <c r="E1104" t="s">
         <v>27</v>
       </c>
@@ -19023,7 +19849,9 @@
       <c r="A1105" s="1">
         <v>42332</v>
       </c>
-      <c r="B1105" s="5"/>
+      <c r="B1105" s="6">
+        <v>0</v>
+      </c>
       <c r="E1105" t="s">
         <v>28</v>
       </c>
@@ -19035,7 +19863,9 @@
       <c r="A1106" s="1">
         <v>42332</v>
       </c>
-      <c r="B1106" s="5"/>
+      <c r="B1106" s="6">
+        <v>0</v>
+      </c>
       <c r="E1106" t="s">
         <v>29</v>
       </c>
@@ -19047,7 +19877,9 @@
       <c r="A1107" s="1">
         <v>42332</v>
       </c>
-      <c r="B1107" s="5"/>
+      <c r="B1107" s="6">
+        <v>0</v>
+      </c>
       <c r="E1107" t="s">
         <v>30</v>
       </c>
@@ -19059,7 +19891,9 @@
       <c r="A1108" s="1">
         <v>42332</v>
       </c>
-      <c r="B1108" s="5"/>
+      <c r="B1108" s="6">
+        <v>0</v>
+      </c>
       <c r="E1108" t="s">
         <v>5</v>
       </c>
@@ -19071,7 +19905,9 @@
       <c r="A1109" s="1">
         <v>42332</v>
       </c>
-      <c r="B1109" s="5"/>
+      <c r="B1109" s="6">
+        <v>0</v>
+      </c>
       <c r="E1109" t="s">
         <v>24</v>
       </c>
@@ -19083,7 +19919,9 @@
       <c r="A1110" s="1">
         <v>42332</v>
       </c>
-      <c r="B1110" s="5"/>
+      <c r="B1110" s="6">
+        <v>0</v>
+      </c>
       <c r="E1110" t="s">
         <v>8</v>
       </c>
@@ -19095,7 +19933,9 @@
       <c r="A1111" s="1">
         <v>42332</v>
       </c>
-      <c r="B1111" s="5"/>
+      <c r="B1111" s="6">
+        <v>0</v>
+      </c>
       <c r="E1111" t="s">
         <v>10</v>
       </c>
@@ -19107,7 +19947,9 @@
       <c r="A1112" s="1">
         <v>42332</v>
       </c>
-      <c r="B1112" s="5"/>
+      <c r="B1112" s="6">
+        <v>0</v>
+      </c>
       <c r="E1112" t="s">
         <v>12</v>
       </c>
@@ -19119,7 +19961,9 @@
       <c r="A1113" s="1">
         <v>42332</v>
       </c>
-      <c r="B1113" s="5"/>
+      <c r="B1113" s="6">
+        <v>0</v>
+      </c>
       <c r="E1113" t="s">
         <v>14</v>
       </c>
@@ -19753,6 +20597,9 @@
       <c r="A1150" s="1">
         <v>42346</v>
       </c>
+      <c r="B1150" s="6">
+        <v>0</v>
+      </c>
       <c r="C1150"/>
       <c r="E1150" s="8" t="s">
         <v>1</v>
@@ -19765,6 +20612,9 @@
       <c r="A1151" s="1">
         <v>42346</v>
       </c>
+      <c r="B1151" s="6">
+        <v>0</v>
+      </c>
       <c r="C1151"/>
       <c r="E1151" s="8" t="s">
         <v>2</v>
@@ -19777,6 +20627,9 @@
       <c r="A1152" s="1">
         <v>42346</v>
       </c>
+      <c r="B1152" s="6">
+        <v>0</v>
+      </c>
       <c r="C1152"/>
       <c r="E1152" s="8" t="s">
         <v>3</v>
@@ -19789,6 +20642,9 @@
       <c r="A1153" s="1">
         <v>42346</v>
       </c>
+      <c r="B1153" s="6">
+        <v>0</v>
+      </c>
       <c r="C1153"/>
       <c r="E1153" s="8" t="s">
         <v>4</v>
@@ -19801,6 +20657,9 @@
       <c r="A1154" s="1">
         <v>42346</v>
       </c>
+      <c r="B1154" s="6">
+        <v>0</v>
+      </c>
       <c r="C1154"/>
       <c r="E1154" s="8" t="s">
         <v>6</v>
@@ -19813,6 +20672,9 @@
       <c r="A1155" s="1">
         <v>42346</v>
       </c>
+      <c r="B1155" s="6">
+        <v>0</v>
+      </c>
       <c r="C1155"/>
       <c r="E1155" s="8" t="s">
         <v>7</v>
@@ -19825,6 +20687,9 @@
       <c r="A1156" s="1">
         <v>42346</v>
       </c>
+      <c r="B1156" s="6">
+        <v>0</v>
+      </c>
       <c r="C1156"/>
       <c r="E1156" s="8" t="s">
         <v>9</v>
@@ -19837,6 +20702,9 @@
       <c r="A1157" s="1">
         <v>42346</v>
       </c>
+      <c r="B1157" s="6">
+        <v>0</v>
+      </c>
       <c r="C1157"/>
       <c r="E1157" s="8" t="s">
         <v>11</v>
@@ -19849,6 +20717,9 @@
       <c r="A1158" s="1">
         <v>42346</v>
       </c>
+      <c r="B1158" s="6">
+        <v>0</v>
+      </c>
       <c r="C1158"/>
       <c r="E1158" t="s">
         <v>13</v>
@@ -19861,6 +20732,9 @@
       <c r="A1159" s="1">
         <v>42346</v>
       </c>
+      <c r="B1159" s="6">
+        <v>0</v>
+      </c>
       <c r="C1159"/>
       <c r="E1159" t="s">
         <v>15</v>
@@ -19873,6 +20747,9 @@
       <c r="A1160" s="1">
         <v>42346</v>
       </c>
+      <c r="B1160" s="6">
+        <v>0</v>
+      </c>
       <c r="C1160"/>
       <c r="E1160" t="s">
         <v>16</v>
@@ -19885,6 +20762,9 @@
       <c r="A1161" s="1">
         <v>42346</v>
       </c>
+      <c r="B1161" s="6">
+        <v>0</v>
+      </c>
       <c r="C1161"/>
       <c r="E1161" t="s">
         <v>17</v>
@@ -19897,6 +20777,9 @@
       <c r="A1162" s="1">
         <v>42346</v>
       </c>
+      <c r="B1162" s="6">
+        <v>0</v>
+      </c>
       <c r="C1162"/>
       <c r="E1162" t="s">
         <v>18</v>
@@ -19909,6 +20792,9 @@
       <c r="A1163" s="1">
         <v>42346</v>
       </c>
+      <c r="B1163" s="6">
+        <v>0</v>
+      </c>
       <c r="C1163"/>
       <c r="E1163" t="s">
         <v>19</v>
@@ -19921,6 +20807,9 @@
       <c r="A1164" s="1">
         <v>42346</v>
       </c>
+      <c r="B1164" s="6">
+        <v>0</v>
+      </c>
       <c r="C1164"/>
       <c r="E1164" t="s">
         <v>20</v>
@@ -19933,6 +20822,9 @@
       <c r="A1165" s="1">
         <v>42346</v>
       </c>
+      <c r="B1165" s="6">
+        <v>0</v>
+      </c>
       <c r="C1165"/>
       <c r="E1165" t="s">
         <v>21</v>
@@ -19945,6 +20837,9 @@
       <c r="A1166" s="1">
         <v>42346</v>
       </c>
+      <c r="B1166" s="6">
+        <v>0</v>
+      </c>
       <c r="C1166"/>
       <c r="E1166" t="s">
         <v>22</v>
@@ -19957,6 +20852,9 @@
       <c r="A1167" s="1">
         <v>42346</v>
       </c>
+      <c r="B1167" s="6">
+        <v>0</v>
+      </c>
       <c r="C1167"/>
       <c r="E1167" t="s">
         <v>23</v>
@@ -19969,6 +20867,9 @@
       <c r="A1168" s="1">
         <v>42346</v>
       </c>
+      <c r="B1168" s="6">
+        <v>0</v>
+      </c>
       <c r="C1168"/>
       <c r="E1168" t="s">
         <v>25</v>
@@ -19981,6 +20882,9 @@
       <c r="A1169" s="1">
         <v>42346</v>
       </c>
+      <c r="B1169" s="6">
+        <v>0</v>
+      </c>
       <c r="C1169"/>
       <c r="E1169" t="s">
         <v>26</v>
@@ -19993,6 +20897,9 @@
       <c r="A1170" s="1">
         <v>42346</v>
       </c>
+      <c r="B1170" s="6">
+        <v>0</v>
+      </c>
       <c r="C1170"/>
       <c r="E1170" t="s">
         <v>27</v>
@@ -20005,6 +20912,9 @@
       <c r="A1171" s="1">
         <v>42346</v>
       </c>
+      <c r="B1171" s="6">
+        <v>0</v>
+      </c>
       <c r="C1171"/>
       <c r="E1171" t="s">
         <v>28</v>
@@ -20017,6 +20927,9 @@
       <c r="A1172" s="1">
         <v>42346</v>
       </c>
+      <c r="B1172" s="6">
+        <v>0</v>
+      </c>
       <c r="C1172"/>
       <c r="E1172" t="s">
         <v>29</v>
@@ -20029,6 +20942,9 @@
       <c r="A1173" s="1">
         <v>42346</v>
       </c>
+      <c r="B1173" s="6">
+        <v>0</v>
+      </c>
       <c r="C1173"/>
       <c r="E1173" t="s">
         <v>30</v>
@@ -20041,6 +20957,9 @@
       <c r="A1174" s="1">
         <v>42346</v>
       </c>
+      <c r="B1174" s="6">
+        <v>0</v>
+      </c>
       <c r="C1174"/>
       <c r="E1174" t="s">
         <v>5</v>
@@ -20053,6 +20972,9 @@
       <c r="A1175" s="1">
         <v>42346</v>
       </c>
+      <c r="B1175" s="6">
+        <v>0</v>
+      </c>
       <c r="C1175"/>
       <c r="E1175" t="s">
         <v>24</v>
@@ -20065,6 +20987,9 @@
       <c r="A1176" s="1">
         <v>42346</v>
       </c>
+      <c r="B1176" s="6">
+        <v>0</v>
+      </c>
       <c r="C1176"/>
       <c r="E1176" t="s">
         <v>8</v>
@@ -20077,6 +21002,9 @@
       <c r="A1177" s="1">
         <v>42346</v>
       </c>
+      <c r="B1177" s="6">
+        <v>0</v>
+      </c>
       <c r="C1177"/>
       <c r="E1177" t="s">
         <v>10</v>
@@ -20089,6 +21017,9 @@
       <c r="A1178" s="1">
         <v>42346</v>
       </c>
+      <c r="B1178" s="6">
+        <v>0</v>
+      </c>
       <c r="C1178"/>
       <c r="E1178" t="s">
         <v>12</v>
@@ -20100,6 +21031,9 @@
     <row r="1179" spans="1:6">
       <c r="A1179" s="1">
         <v>42346</v>
+      </c>
+      <c r="B1179" s="6">
+        <v>0</v>
       </c>
       <c r="C1179"/>
       <c r="E1179" t="s">

--- a/data/CoreData.xlsx
+++ b/data/CoreData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24680" windowHeight="15600" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24680" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="treatments.csv" sheetId="2" r:id="rId1"/>
@@ -351,8 +351,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="273">
+  <cellStyleXfs count="275">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -649,7 +651,7 @@
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="273">
+  <cellStyles count="275">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -786,6 +788,7 @@
     <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -922,6 +925,7 @@
     <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1223,9 +1227,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1265,7 +1269,7 @@
         <v>32</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1309,7 +1313,7 @@
         <v>33</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1331,7 +1335,7 @@
         <v>33</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1342,7 +1346,7 @@
         <v>35</v>
       </c>
       <c r="C11">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1353,7 +1357,7 @@
         <v>35</v>
       </c>
       <c r="C12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1375,7 +1379,7 @@
         <v>33</v>
       </c>
       <c r="C14">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1386,7 +1390,7 @@
         <v>32</v>
       </c>
       <c r="C15">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1397,7 +1401,7 @@
         <v>33</v>
       </c>
       <c r="C16">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1408,7 +1412,7 @@
         <v>35</v>
       </c>
       <c r="C17">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1441,7 +1445,7 @@
         <v>35</v>
       </c>
       <c r="C20">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1452,7 +1456,7 @@
         <v>35</v>
       </c>
       <c r="C21">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1474,7 +1478,7 @@
         <v>32</v>
       </c>
       <c r="C23">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1496,7 +1500,7 @@
         <v>33</v>
       </c>
       <c r="C25">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1507,7 +1511,7 @@
         <v>32</v>
       </c>
       <c r="C26">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1518,7 +1522,7 @@
         <v>32</v>
       </c>
       <c r="C27">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1529,7 +1533,7 @@
         <v>32</v>
       </c>
       <c r="C28">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1540,7 +1544,7 @@
         <v>35</v>
       </c>
       <c r="C29">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1573,7 +1577,7 @@
         <v>33</v>
       </c>
       <c r="C32">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1584,7 +1588,7 @@
         <v>40</v>
       </c>
       <c r="C33">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1616,9 +1620,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1215"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A405" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E427" sqref="E427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
